--- a/experiment_results/7845P10.xlsx
+++ b/experiment_results/7845P10.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1582"/>
+  <dimension ref="A1:I1407"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1146,7 +1146,7 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>Category: ['', 'City Tours', 'Scenic Tours']</t>
+          <t>Category: ['', 'Scenic Tours', 'City Tours']</t>
         </is>
       </c>
       <c r="B44" t="inlineStr"/>
@@ -1671,7 +1671,7 @@
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Entertainment', 'Historical Tours']</t>
+          <t>Category: ['Entertainment', 'City Tours', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B79" t="inlineStr"/>
@@ -3096,7 +3096,7 @@
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>Category: ['Modern Attractions', 'Cultural Cruises']</t>
+          <t>Category: ['Cultural Cruises', 'Modern Attractions']</t>
         </is>
       </c>
       <c r="B174" t="inlineStr"/>
@@ -3921,7 +3921,7 @@
     <row r="229">
       <c r="A229" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Aerial Tours', 'Modern Attractions']</t>
+          <t>Category: ['Aerial Tours', 'City Tours', 'Modern Attractions']</t>
         </is>
       </c>
       <c r="B229" t="inlineStr"/>
@@ -4596,7 +4596,7 @@
     <row r="274">
       <c r="A274" t="inlineStr">
         <is>
-          <t>Category: ['Modern Attractions', 'Cultural Cruises']</t>
+          <t>Category: ['Cultural Cruises', 'Modern Attractions']</t>
         </is>
       </c>
       <c r="B274" t="inlineStr"/>
@@ -4821,7 +4821,7 @@
     <row r="289">
       <c r="A289" t="inlineStr">
         <is>
-          <t>Category: ['Modern Attractions', 'Cultural Cruises']</t>
+          <t>Category: ['Cultural Cruises', 'Modern Attractions']</t>
         </is>
       </c>
       <c r="B289" t="inlineStr"/>
@@ -5946,7 +5946,7 @@
     <row r="364">
       <c r="A364" t="inlineStr">
         <is>
-          <t>Category: ['Modern Attractions', 'Cultural Cruises']</t>
+          <t>Category: ['Cultural Cruises', 'Modern Attractions']</t>
         </is>
       </c>
       <c r="B364" t="inlineStr"/>
@@ -6321,7 +6321,7 @@
     <row r="389">
       <c r="A389" t="inlineStr">
         <is>
-          <t>Category: ['Modern Attractions', 'Cultural Cruises']</t>
+          <t>Category: ['Cultural Cruises', 'Modern Attractions']</t>
         </is>
       </c>
       <c r="B389" t="inlineStr"/>
@@ -6696,7 +6696,7 @@
     <row r="414">
       <c r="A414" t="inlineStr">
         <is>
-          <t>Category: ['Modern Attractions', 'Cultural Cruises']</t>
+          <t>Category: ['Cultural Cruises', 'Modern Attractions']</t>
         </is>
       </c>
       <c r="B414" t="inlineStr"/>
@@ -7371,7 +7371,7 @@
     <row r="459">
       <c r="A459" t="inlineStr">
         <is>
-          <t>Category: ['Historical Tours', 'Cultural Cruises']</t>
+          <t>Category: ['Cultural Cruises', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B459" t="inlineStr"/>
@@ -7971,7 +7971,7 @@
     <row r="499">
       <c r="A499" t="inlineStr">
         <is>
-          <t>Category: ['Dining Experiences', 'Cultural Cruises']</t>
+          <t>Category: ['Cultural Cruises', 'Dining Experiences']</t>
         </is>
       </c>
       <c r="B499" t="inlineStr"/>
@@ -9021,7 +9021,7 @@
     <row r="569">
       <c r="A569" t="inlineStr">
         <is>
-          <t>Category: ['Modern Attractions', 'Culinary Tours']</t>
+          <t>Category: ['Culinary Tours', 'Modern Attractions']</t>
         </is>
       </c>
       <c r="B569" t="inlineStr"/>
@@ -9096,7 +9096,7 @@
     <row r="574">
       <c r="A574" t="inlineStr">
         <is>
-          <t>Category: ['Modern Attractions', 'Culinary Tours']</t>
+          <t>Category: ['Culinary Tours', 'Modern Attractions']</t>
         </is>
       </c>
       <c r="B574" t="inlineStr"/>
@@ -9546,7 +9546,7 @@
     <row r="604">
       <c r="A604" t="inlineStr">
         <is>
-          <t>Category: ['Dining Experiences', 'Modern Attractions', 'Cultural Cruises']</t>
+          <t>Category: ['Cultural Cruises', 'Dining Experiences', 'Modern Attractions']</t>
         </is>
       </c>
       <c r="B604" t="inlineStr"/>
@@ -10221,7 +10221,7 @@
     <row r="649">
       <c r="A649" t="inlineStr">
         <is>
-          <t>Category: ['Modern Attractions', 'Cultural Cruises']</t>
+          <t>Category: ['Cultural Cruises', 'Modern Attractions']</t>
         </is>
       </c>
       <c r="B649" t="inlineStr"/>
@@ -11271,7 +11271,7 @@
     <row r="719">
       <c r="A719" t="inlineStr">
         <is>
-          <t>Category: ['Dining Experiences', 'Modern Attractions', 'Cultural Cruises']</t>
+          <t>Category: ['Cultural Cruises', 'Dining Experiences', 'Modern Attractions']</t>
         </is>
       </c>
       <c r="B719" t="inlineStr"/>
@@ -13821,7 +13821,7 @@
     <row r="889">
       <c r="A889" t="inlineStr">
         <is>
-          <t>Category: ['Modern Attractions', 'Cultural Cruises']</t>
+          <t>Category: ['Cultural Cruises', 'Modern Attractions']</t>
         </is>
       </c>
       <c r="B889" t="inlineStr"/>
@@ -14271,7 +14271,7 @@
     <row r="919">
       <c r="A919" t="inlineStr">
         <is>
-          <t>Category: ['Dining Experiences', 'Modern Attractions', 'Cultural Cruises']</t>
+          <t>Category: ['Cultural Cruises', 'Dining Experiences', 'Modern Attractions']</t>
         </is>
       </c>
       <c r="B919" t="inlineStr"/>
@@ -14692,7 +14692,7 @@
     <row r="947">
       <c r="A947" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 3731EIFFELTOWER</t>
+          <t>PRODUCTCODE: 382015P1</t>
         </is>
       </c>
       <c r="B947" t="inlineStr"/>
@@ -14707,7 +14707,7 @@
     <row r="948">
       <c r="A948" t="inlineStr">
         <is>
-          <t>Summarized description: Meet your guide near the base of the Eiffel Tower, listening to the fascinating history of the original “Dame de Fer” (Iron Lady) You’ll have a chance to enjoy her every curve from every angle and to understand the beautiful science that keeps her standing.</t>
+          <t>Summarized description: Direct access ticket to the Eiffel Tower. Professional guides will accompany you all the way to the iconic “Iron Lady'' Panoramic and unobstructed view of the most romantic city in the world.</t>
         </is>
       </c>
       <c r="B948" t="inlineStr"/>
@@ -14722,7 +14722,7 @@
     <row r="949">
       <c r="A949" t="inlineStr">
         <is>
-          <t>Title: Eiffel Tower Guided Tour with Optional Access to the Summit</t>
+          <t>Title: Eiffel Tower Reserved Access Summit or 2nd Floor Guided by Lift</t>
         </is>
       </c>
       <c r="B949" t="inlineStr"/>
@@ -14737,7 +14737,7 @@
     <row r="950">
       <c r="A950" t="inlineStr">
         <is>
-          <t>TotalReviews: 973</t>
+          <t>TotalReviews: 939</t>
         </is>
       </c>
       <c r="B950" t="inlineStr"/>
@@ -14752,7 +14752,7 @@
     <row r="951">
       <c r="A951" t="inlineStr">
         <is>
-          <t>Category: ['', 'City Tours', 'Scenic Tours']</t>
+          <t>Category: ['Scenic Tours', 'Modern Attractions']</t>
         </is>
       </c>
       <c r="B951" t="inlineStr"/>
@@ -14767,7 +14767,7 @@
     <row r="952">
       <c r="A952" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 382015P1</t>
+          <t>PRODUCTCODE: 352648P19</t>
         </is>
       </c>
       <c r="B952" t="inlineStr"/>
@@ -14782,7 +14782,7 @@
     <row r="953">
       <c r="A953" t="inlineStr">
         <is>
-          <t>Summarized description: Direct access ticket to the Eiffel Tower. Professional guides will accompany you all the way to the iconic “Iron Lady'' Panoramic and unobstructed view of the most romantic city in the world.</t>
+          <t>Summarized description: Ascend the Eiffel Tower in Style by the slanting elevator. Take awesome pictures from any of the floors of the Tower. Be ready to see Paris from a different perspective.</t>
         </is>
       </c>
       <c r="B953" t="inlineStr"/>
@@ -14797,7 +14797,7 @@
     <row r="954">
       <c r="A954" t="inlineStr">
         <is>
-          <t>Title: Eiffel Tower Reserved Access Summit or 2nd Floor Guided by Lift</t>
+          <t>Title: Eiffel Tower by Elevator, Spectacular City Views</t>
         </is>
       </c>
       <c r="B954" t="inlineStr"/>
@@ -14812,7 +14812,7 @@
     <row r="955">
       <c r="A955" t="inlineStr">
         <is>
-          <t>TotalReviews: 939</t>
+          <t>TotalReviews: 651</t>
         </is>
       </c>
       <c r="B955" t="inlineStr"/>
@@ -14827,7 +14827,7 @@
     <row r="956">
       <c r="A956" t="inlineStr">
         <is>
-          <t>Category: ['Scenic Tours', 'Modern Attractions']</t>
+          <t>Category: ['City Tours', 'Cultural Tours', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B956" t="inlineStr"/>
@@ -14842,7 +14842,7 @@
     <row r="957">
       <c r="A957" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 423364P2</t>
+          <t>PRODUCTCODE: 3588EIFFELTOWER_S</t>
         </is>
       </c>
       <c r="B957" t="inlineStr"/>
@@ -14857,7 +14857,7 @@
     <row r="958">
       <c r="A958" t="inlineStr">
         <is>
-          <t>Summarized description: Climbing the Eiffel Tower is undeniably an unforgettable and dream-come-true experience for anyone. Scaling 669 steps to reach the second floor provides a sense of accomplishment and offers breathtaking views of Paris along the way.</t>
+          <t>Summarized description: Enjoy a spectacular sunset from one of the world’s most iconic landmarks, the Eiffel Tower. With your reserved entry ticket in hand your expert guide will explain the fascinating history of this Paris icon.</t>
         </is>
       </c>
       <c r="B958" t="inlineStr"/>
@@ -14872,7 +14872,7 @@
     <row r="959">
       <c r="A959" t="inlineStr">
         <is>
-          <t>Title: Guided Eiffel Tower Climbing Tour with Summit Access</t>
+          <t>Title: Eiffel Tower Sunset Views Tour: Reserved Entry and Summit Access</t>
         </is>
       </c>
       <c r="B959" t="inlineStr"/>
@@ -14887,7 +14887,7 @@
     <row r="960">
       <c r="A960" t="inlineStr">
         <is>
-          <t>TotalReviews: 696</t>
+          <t>TotalReviews: 437</t>
         </is>
       </c>
       <c r="B960" t="inlineStr"/>
@@ -14902,7 +14902,7 @@
     <row r="961">
       <c r="A961" t="inlineStr">
         <is>
-          <t>Category: ['Scenic Tours', 'Historical Tours']</t>
+          <t>Category: ['Scenic Tours', 'Modern Attractions']</t>
         </is>
       </c>
       <c r="B961" t="inlineStr"/>
@@ -14917,7 +14917,7 @@
     <row r="962">
       <c r="A962" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 352648P19</t>
+          <t>PRODUCTCODE: 420369P3</t>
         </is>
       </c>
       <c r="B962" t="inlineStr"/>
@@ -14932,7 +14932,7 @@
     <row r="963">
       <c r="A963" t="inlineStr">
         <is>
-          <t>Summarized description: Ascend the Eiffel Tower in Style by the slanting elevator. Take awesome pictures from any of the floors of the Tower. Be ready to see Paris from a different perspective.</t>
+          <t>Summarized description: Built for the Paris World Exhibition in 1889, it has gone on to become one of the most widely recognized landmarks in the world. Save time with a pre-booked, ticket to the second level or the Summit (Top) of the Eiffel Tower via lift.</t>
         </is>
       </c>
       <c r="B963" t="inlineStr"/>
@@ -14947,7 +14947,7 @@
     <row r="964">
       <c r="A964" t="inlineStr">
         <is>
-          <t>Title: Eiffel Tower by Elevator, Spectacular City Views</t>
+          <t>Title: Paris Eiffel Tower Entry Ticket to 2nd floor or Summit via Lift</t>
         </is>
       </c>
       <c r="B964" t="inlineStr"/>
@@ -14962,7 +14962,7 @@
     <row r="965">
       <c r="A965" t="inlineStr">
         <is>
-          <t>TotalReviews: 651</t>
+          <t>TotalReviews: 411</t>
         </is>
       </c>
       <c r="B965" t="inlineStr"/>
@@ -14977,7 +14977,7 @@
     <row r="966">
       <c r="A966" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Cultural Tours', 'Historical Tours']</t>
+          <t>Category: ['Modern Attractions']</t>
         </is>
       </c>
       <c r="B966" t="inlineStr"/>
@@ -14992,7 +14992,7 @@
     <row r="967">
       <c r="A967" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 420369P3</t>
+          <t>PRODUCTCODE: 352648P3</t>
         </is>
       </c>
       <c r="B967" t="inlineStr"/>
@@ -15007,7 +15007,7 @@
     <row r="968">
       <c r="A968" t="inlineStr">
         <is>
-          <t>Summarized description: Built for the Paris World Exhibition in 1889, it has gone on to become one of the most widely recognized landmarks in the world. Save time with a pre-booked, ticket to the second level or the Summit (Top) of the Eiffel Tower via lift.</t>
+          <t>Summarized description: Take awesome pictures from any of the floors of the Tower and get ready to see Paris from a different and spectacular perspective. Engage in our exciting quiz session to broaden your knowledge of the tower in a fun and engaging way. The quiz master will be rewarded with a special gift, making this experience truly unforgettable.</t>
         </is>
       </c>
       <c r="B968" t="inlineStr"/>
@@ -15022,7 +15022,7 @@
     <row r="969">
       <c r="A969" t="inlineStr">
         <is>
-          <t>Title: Paris Eiffel Tower Entry Ticket to 2nd floor or Summit via Lift</t>
+          <t>Title: Eiffel Tower by Elevator, Lovely Views, Optional Summit &amp; Cruise</t>
         </is>
       </c>
       <c r="B969" t="inlineStr"/>
@@ -15037,7 +15037,7 @@
     <row r="970">
       <c r="A970" t="inlineStr">
         <is>
-          <t>TotalReviews: 411</t>
+          <t>TotalReviews: 402</t>
         </is>
       </c>
       <c r="B970" t="inlineStr"/>
@@ -15052,7 +15052,7 @@
     <row r="971">
       <c r="A971" t="inlineStr">
         <is>
-          <t>Category: ['Modern Attractions']</t>
+          <t>Category: ['Entertainment', 'City Tours', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B971" t="inlineStr"/>
@@ -15067,7 +15067,7 @@
     <row r="972">
       <c r="A972" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 352648P3</t>
+          <t>PRODUCTCODE: 7832P46</t>
         </is>
       </c>
       <c r="B972" t="inlineStr"/>
@@ -15082,7 +15082,7 @@
     <row r="973">
       <c r="A973" t="inlineStr">
         <is>
-          <t>Summarized description: Take awesome pictures from any of the floors of the Tower and get ready to see Paris from a different and spectacular perspective. Engage in our exciting quiz session to broaden your knowledge of the tower in a fun and engaging way. The quiz master will be rewarded with a special gift, making this experience truly unforgettable.</t>
+          <t>Summarized description: Ascend to the peak of Paris via the elevators. Experience the panoramic vistas from the tower's highest level. Don't miss the chance to witness the stunning scenery of this iconic landmark.</t>
         </is>
       </c>
       <c r="B973" t="inlineStr"/>
@@ -15097,7 +15097,7 @@
     <row r="974">
       <c r="A974" t="inlineStr">
         <is>
-          <t>Title: Eiffel Tower by Elevator, Lovely Views, Optional Summit &amp; Cruise</t>
+          <t>Title: Eiffel Tower Summit Entry &amp; City of Lights Views of Iconic Paris</t>
         </is>
       </c>
       <c r="B974" t="inlineStr"/>
@@ -15112,7 +15112,7 @@
     <row r="975">
       <c r="A975" t="inlineStr">
         <is>
-          <t>TotalReviews: 402</t>
+          <t>TotalReviews: 382</t>
         </is>
       </c>
       <c r="B975" t="inlineStr"/>
@@ -15127,7 +15127,7 @@
     <row r="976">
       <c r="A976" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Entertainment', 'Historical Tours']</t>
+          <t>Category: ['Modern Attractions']</t>
         </is>
       </c>
       <c r="B976" t="inlineStr"/>
@@ -15142,7 +15142,7 @@
     <row r="977">
       <c r="A977" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 7832P46</t>
+          <t>PRODUCTCODE: 6839P8</t>
         </is>
       </c>
       <c r="B977" t="inlineStr"/>
@@ -15157,7 +15157,7 @@
     <row r="978">
       <c r="A978" t="inlineStr">
         <is>
-          <t>Summarized description: Ascend to the peak of Paris via the elevators. Experience the panoramic vistas from the tower's highest level. Don't miss the chance to witness the stunning scenery of this iconic landmark.</t>
+          <t>Summarized description: Choose a morning start time when it is less crowded to start your journey at the Eiffel Tower. You will hear tales as you walk, and learn about its creation for the International Exposition of 1889. Hop aboard your sightseeing boat at the water’s edge, and relax out on deck or in the lower saloon as you cruise along the famous river.</t>
         </is>
       </c>
       <c r="B978" t="inlineStr"/>
@@ -15172,7 +15172,7 @@
     <row r="979">
       <c r="A979" t="inlineStr">
         <is>
-          <t>Title: Eiffel Tower Summit Entry &amp; City of Lights Views of Iconic Paris</t>
+          <t>Title: Eiffel Tower Summit Morning Tour by Elevator &amp; Seine River Cruise</t>
         </is>
       </c>
       <c r="B979" t="inlineStr"/>
@@ -15187,7 +15187,7 @@
     <row r="980">
       <c r="A980" t="inlineStr">
         <is>
-          <t>TotalReviews: 382</t>
+          <t>TotalReviews: 328</t>
         </is>
       </c>
       <c r="B980" t="inlineStr"/>
@@ -15202,7 +15202,7 @@
     <row r="981">
       <c r="A981" t="inlineStr">
         <is>
-          <t>Category: ['Modern Attractions']</t>
+          <t>Category: ['Scenic Tours', 'Modern Attractions']</t>
         </is>
       </c>
       <c r="B981" t="inlineStr"/>
@@ -15217,7 +15217,7 @@
     <row r="982">
       <c r="A982" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 6839P8</t>
+          <t>PRODUCTCODE: 220637P8</t>
         </is>
       </c>
       <c r="B982" t="inlineStr"/>
@@ -15232,7 +15232,7 @@
     <row r="983">
       <c r="A983" t="inlineStr">
         <is>
-          <t>Summarized description: Choose a morning start time when it is less crowded to start your journey at the Eiffel Tower. You will hear tales as you walk, and learn about its creation for the International Exposition of 1889. Hop aboard your sightseeing boat at the water’s edge, and relax out on deck or in the lower saloon as you cruise along the famous river.</t>
+          <t>Summarized description: Meet your English-speaking guide a few steps from the Eiffel Tower. Enjoy breathtaking 360-degree panoramic views of the capital of France.</t>
         </is>
       </c>
       <c r="B983" t="inlineStr"/>
@@ -15247,7 +15247,7 @@
     <row r="984">
       <c r="A984" t="inlineStr">
         <is>
-          <t>Title: Eiffel Tower Summit Morning Tour by Elevator &amp; Seine River Cruise</t>
+          <t>Title: Eiffel Tower with reserved access to the Summit</t>
         </is>
       </c>
       <c r="B984" t="inlineStr"/>
@@ -15262,7 +15262,7 @@
     <row r="985">
       <c r="A985" t="inlineStr">
         <is>
-          <t>TotalReviews: 328</t>
+          <t>TotalReviews: 316</t>
         </is>
       </c>
       <c r="B985" t="inlineStr"/>
@@ -15277,7 +15277,7 @@
     <row r="986">
       <c r="A986" t="inlineStr">
         <is>
-          <t>Category: ['Scenic Tours', 'Modern Attractions']</t>
+          <t>Category: ['City Tours', 'Modern Attractions']</t>
         </is>
       </c>
       <c r="B986" t="inlineStr"/>
@@ -15292,7 +15292,7 @@
     <row r="987">
       <c r="A987" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 220637P8</t>
+          <t>PRODUCTCODE: 220637P13</t>
         </is>
       </c>
       <c r="B987" t="inlineStr"/>
@@ -15307,7 +15307,7 @@
     <row r="988">
       <c r="A988" t="inlineStr">
         <is>
-          <t>Summarized description: Meet your English-speaking guide a few steps from the Eiffel Tower. Enjoy breathtaking 360-degree panoramic views of the capital of France.</t>
+          <t>Summarized description: If you purchased the option, you will also have access to the top of the Eiffel Tower. Rising to a height of approximately 276 meters, this third floor offers its visitors the best view over the City of Light.</t>
         </is>
       </c>
       <c r="B988" t="inlineStr"/>
@@ -15322,7 +15322,7 @@
     <row r="989">
       <c r="A989" t="inlineStr">
         <is>
-          <t>Title: Eiffel Tower with reserved access to the Summit</t>
+          <t>Title: Eiffel Tower Guided Tour of 2nd Floor with Summit Access Option</t>
         </is>
       </c>
       <c r="B989" t="inlineStr"/>
@@ -15337,7 +15337,7 @@
     <row r="990">
       <c r="A990" t="inlineStr">
         <is>
-          <t>TotalReviews: 316</t>
+          <t>TotalReviews: 293</t>
         </is>
       </c>
       <c r="B990" t="inlineStr"/>
@@ -15367,7 +15367,7 @@
     <row r="992">
       <c r="A992" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 9205P2</t>
+          <t>PRODUCTCODE: 7832P151</t>
         </is>
       </c>
       <c r="B992" t="inlineStr"/>
@@ -15382,7 +15382,7 @@
     <row r="993">
       <c r="A993" t="inlineStr">
         <is>
-          <t>Summarized description: Head to the elevator and up to the second floor to begin exploring with a guide. Admire panoramic city views from your vantage point up the tower.</t>
+          <t>Summarized description: The Eiffel Tower is the highest place in Paris and the view from there is breath taking. Meet with one of our friendly hosts at our meeting point and let us lead you to the entrance to the tower via elevator.</t>
         </is>
       </c>
       <c r="B993" t="inlineStr"/>
@@ -15397,7 +15397,7 @@
     <row r="994">
       <c r="A994" t="inlineStr">
         <is>
-          <t xml:space="preserve">Title: Eiffel Tower Second Level Reserved tour by Elevator </t>
+          <t>Title: Eiffel Tower Entry Ticket with Summit Access by Elevator</t>
         </is>
       </c>
       <c r="B994" t="inlineStr"/>
@@ -15412,7 +15412,7 @@
     <row r="995">
       <c r="A995" t="inlineStr">
         <is>
-          <t>TotalReviews: 310</t>
+          <t>TotalReviews: 283</t>
         </is>
       </c>
       <c r="B995" t="inlineStr"/>
@@ -15427,7 +15427,7 @@
     <row r="996">
       <c r="A996" t="inlineStr">
         <is>
-          <t>Category: ['Historical Tours']</t>
+          <t>Category: ['Modern Attractions']</t>
         </is>
       </c>
       <c r="B996" t="inlineStr"/>
@@ -15442,7 +15442,7 @@
     <row r="997">
       <c r="A997" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 220637P13</t>
+          <t>PRODUCTCODE: 47475P15</t>
         </is>
       </c>
       <c r="B997" t="inlineStr"/>
@@ -15457,7 +15457,7 @@
     <row r="998">
       <c r="A998" t="inlineStr">
         <is>
-          <t>Summarized description: If you purchased the option, you will also have access to the top of the Eiffel Tower. Rising to a height of approximately 276 meters, this third floor offers its visitors the best view over the City of Light.</t>
+          <t>Summarized description: This guided tour of the Eiffel Tower teaches you about the tower’s history, architecture, and even its brief notoriety. On the second level, enjoy one of the best views of Paris. There are plenty of places to eat here, including a macaron bar.</t>
         </is>
       </c>
       <c r="B998" t="inlineStr"/>
@@ -15472,7 +15472,7 @@
     <row r="999">
       <c r="A999" t="inlineStr">
         <is>
-          <t>Title: Eiffel Tower Guided Tour of 2nd Floor with Summit Access Option</t>
+          <t>Title: Eiffel Tower Private Guided Tour by Elevator with Summit</t>
         </is>
       </c>
       <c r="B999" t="inlineStr"/>
@@ -15487,7 +15487,7 @@
     <row r="1000">
       <c r="A1000" t="inlineStr">
         <is>
-          <t>TotalReviews: 293</t>
+          <t>TotalReviews: 267</t>
         </is>
       </c>
       <c r="B1000" t="inlineStr"/>
@@ -15502,7 +15502,7 @@
     <row r="1001">
       <c r="A1001" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Modern Attractions']</t>
+          <t>Category: ['Dining Experiences', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B1001" t="inlineStr"/>
@@ -15517,7 +15517,7 @@
     <row r="1002">
       <c r="A1002" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 7832P151</t>
+          <t>PRODUCTCODE: 456325P1</t>
         </is>
       </c>
       <c r="B1002" t="inlineStr"/>
@@ -15532,7 +15532,7 @@
     <row r="1003">
       <c r="A1003" t="inlineStr">
         <is>
-          <t>Summarized description: The Eiffel Tower is the highest place in Paris and the view from there is breath taking. Meet with one of our friendly hosts at our meeting point and let us lead you to the entrance to the tower via elevator.</t>
+          <t>Summarized description: Discover the enchanting beauty and rich history of Paris through our exclusive tour of the Eiffel Tower. With special access to the summit, you get to admire breathtaking panoramas from the second level. Indulge in a glass of Champagne from the bar (additional cost)</t>
         </is>
       </c>
       <c r="B1003" t="inlineStr"/>
@@ -15547,7 +15547,7 @@
     <row r="1004">
       <c r="A1004" t="inlineStr">
         <is>
-          <t>Title: Eiffel Tower Entry Ticket with Summit Access by Elevator</t>
+          <t xml:space="preserve">Title: Eiffel Tower Guided Tour by Elevator with Summit access Reserved </t>
         </is>
       </c>
       <c r="B1004" t="inlineStr"/>
@@ -15562,7 +15562,7 @@
     <row r="1005">
       <c r="A1005" t="inlineStr">
         <is>
-          <t>TotalReviews: 283</t>
+          <t>TotalReviews: 250</t>
         </is>
       </c>
       <c r="B1005" t="inlineStr"/>
@@ -15577,7 +15577,7 @@
     <row r="1006">
       <c r="A1006" t="inlineStr">
         <is>
-          <t>Category: ['Modern Attractions']</t>
+          <t>Category: ['Dining Experiences', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B1006" t="inlineStr"/>
@@ -15592,7 +15592,7 @@
     <row r="1007">
       <c r="A1007" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 374952P3</t>
+          <t>PRODUCTCODE: 46334P29</t>
         </is>
       </c>
       <c r="B1007" t="inlineStr"/>
@@ -15607,7 +15607,7 @@
     <row r="1008">
       <c r="A1008" t="inlineStr">
         <is>
-          <t>Summarized description: Discover the world's most popular attraction, the Eiffel Tower, also known as the Iron Lady of Paris. Ascend to the second level for a breath taking panoramic view of the city.</t>
+          <t>Summarized description: Climb to the top of the Eiffel Tower with our timed entry tour. Discover the fascinating stories behind the construction of the ‘Iron Lady’</t>
         </is>
       </c>
       <c r="B1008" t="inlineStr"/>
@@ -15622,7 +15622,7 @@
     <row r="1009">
       <c r="A1009" t="inlineStr">
         <is>
-          <t>Title: Priority Eiffel Tower Ticket with access to 2nd floor via stairs</t>
+          <t>Title: Eiffel Tower Guided Tour with Summit Access</t>
         </is>
       </c>
       <c r="B1009" t="inlineStr"/>
@@ -15637,7 +15637,7 @@
     <row r="1010">
       <c r="A1010" t="inlineStr">
         <is>
-          <t>TotalReviews: 270</t>
+          <t>TotalReviews: 238</t>
         </is>
       </c>
       <c r="B1010" t="inlineStr"/>
@@ -15652,7 +15652,7 @@
     <row r="1011">
       <c r="A1011" t="inlineStr">
         <is>
-          <t>Category: ['Historical Tours']</t>
+          <t>Category: ['Modern Attractions', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B1011" t="inlineStr"/>
@@ -15667,7 +15667,7 @@
     <row r="1012">
       <c r="A1012" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 456325P1</t>
+          <t>PRODUCTCODE: 384451P1</t>
         </is>
       </c>
       <c r="B1012" t="inlineStr"/>
@@ -15682,7 +15682,7 @@
     <row r="1013">
       <c r="A1013" t="inlineStr">
         <is>
-          <t>Summarized description: Discover the enchanting beauty and rich history of Paris through our exclusive tour of the Eiffel Tower. With special access to the summit, you get to admire breathtaking panoramas from the second level. Indulge in a glass of Champagne from the bar (additional cost)</t>
+          <t>Summarized description: Expert guides will entertain you with facts about the Eiffel tower, its history, and much more while you ascend to the summit in a glass-walled elevator.</t>
         </is>
       </c>
       <c r="B1013" t="inlineStr"/>
@@ -15697,7 +15697,7 @@
     <row r="1014">
       <c r="A1014" t="inlineStr">
         <is>
-          <t xml:space="preserve">Title: Eiffel Tower Guided Tour by Elevator with Summit access Reserved </t>
+          <t>Title: Eiffel Tower Summit Priority Access Guided Experience</t>
         </is>
       </c>
       <c r="B1014" t="inlineStr"/>
@@ -15712,7 +15712,7 @@
     <row r="1015">
       <c r="A1015" t="inlineStr">
         <is>
-          <t>TotalReviews: 250</t>
+          <t>TotalReviews: 157</t>
         </is>
       </c>
       <c r="B1015" t="inlineStr"/>
@@ -15727,7 +15727,7 @@
     <row r="1016">
       <c r="A1016" t="inlineStr">
         <is>
-          <t>Category: ['Dining Experiences', 'Historical Tours']</t>
+          <t>Category: ['Scenic Tours', 'City Tours']</t>
         </is>
       </c>
       <c r="B1016" t="inlineStr"/>
@@ -15742,7 +15742,7 @@
     <row r="1017">
       <c r="A1017" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 46334P29</t>
+          <t>PRODUCTCODE: 193509P1</t>
         </is>
       </c>
       <c r="B1017" t="inlineStr"/>
@@ -15757,7 +15757,7 @@
     <row r="1018">
       <c r="A1018" t="inlineStr">
         <is>
-          <t>Summarized description: Climb to the top of the Eiffel Tower with our timed entry tour. Discover the fascinating stories behind the construction of the ‘Iron Lady’</t>
+          <t>Summarized description: Fast track, skip-the-line access to the Eiffel Tower includes summit access. Sip Champagne from the onsite bar (own expense) at the summit.</t>
         </is>
       </c>
       <c r="B1018" t="inlineStr"/>
@@ -15772,7 +15772,7 @@
     <row r="1019">
       <c r="A1019" t="inlineStr">
         <is>
-          <t>Title: Eiffel Tower Guided Tour with Summit Access</t>
+          <t>Title: Skip the Line: Eiffel Tower Summit Priority Access Ticket with Host</t>
         </is>
       </c>
       <c r="B1019" t="inlineStr"/>
@@ -15787,7 +15787,7 @@
     <row r="1020">
       <c r="A1020" t="inlineStr">
         <is>
-          <t>TotalReviews: 238</t>
+          <t>TotalReviews: 119</t>
         </is>
       </c>
       <c r="B1020" t="inlineStr"/>
@@ -15802,7 +15802,7 @@
     <row r="1021">
       <c r="A1021" t="inlineStr">
         <is>
-          <t>Category: ['Modern Attractions', 'Historical Tours']</t>
+          <t>Category: ['Modern Attractions']</t>
         </is>
       </c>
       <c r="B1021" t="inlineStr"/>
@@ -15817,7 +15817,7 @@
     <row r="1022">
       <c r="A1022" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 67584P13</t>
+          <t>PRODUCTCODE: 7249P6</t>
         </is>
       </c>
       <c r="B1022" t="inlineStr"/>
@@ -15832,7 +15832,7 @@
     <row r="1023">
       <c r="A1023" t="inlineStr">
         <is>
-          <t>Summarized description: This guided ascent of France's renowned symbol allows you to fulfill that aspiration. As you ascend the 674 steps to the tower's second level, you'll be captivated by the tale of its extraordinary construction and tumultuous beginnings.</t>
+          <t>Summarized description: This tour provides access to all three floors of the Eiffel Tower. Included the Top floor Access. Skip the line and visit this iconic monument with a local guide who loves it.</t>
         </is>
       </c>
       <c r="B1023" t="inlineStr"/>
@@ -15847,7 +15847,7 @@
     <row r="1024">
       <c r="A1024" t="inlineStr">
         <is>
-          <t>Title: Eiffel Tower Climbing Tour with Summit Access</t>
+          <t>Title: Eiffel Tower Full access : Skip-the-Line Tour with Summit Access included</t>
         </is>
       </c>
       <c r="B1024" t="inlineStr"/>
@@ -15862,7 +15862,7 @@
     <row r="1025">
       <c r="A1025" t="inlineStr">
         <is>
-          <t>TotalReviews: 199</t>
+          <t>TotalReviews: 119</t>
         </is>
       </c>
       <c r="B1025" t="inlineStr"/>
@@ -15877,7 +15877,7 @@
     <row r="1026">
       <c r="A1026" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Historical Tours']</t>
+          <t>Category: ['Museums', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B1026" t="inlineStr"/>
@@ -15892,7 +15892,7 @@
     <row r="1027">
       <c r="A1027" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 67584P5</t>
+          <t>PRODUCTCODE: 193509P2</t>
         </is>
       </c>
       <c r="B1027" t="inlineStr"/>
@@ -15907,7 +15907,7 @@
     <row r="1028">
       <c r="A1028" t="inlineStr">
         <is>
-          <t>Summarized description: Paris at night is enchanting! Make the most of your stay by booking this fantastic combo. A Seine River Cruise and a comprehensive guided tour with elevator access to the Eiffel Tower.</t>
+          <t>Summarized description: Eiffel Tower skip-the-line pass and 1.5-hour tour. Get priority access to the tower's second level. Toast your travels with a glass of bubbly from the Champagne bar.</t>
         </is>
       </c>
       <c r="B1028" t="inlineStr"/>
@@ -15922,7 +15922,7 @@
     <row r="1029">
       <c r="A1029" t="inlineStr">
         <is>
-          <t>Title: Eiffel Tower Tour &amp; River Cruise with Summit Option</t>
+          <t>Title: Skip the Line: Eiffel Tower Tour and Summit Access by elevator</t>
         </is>
       </c>
       <c r="B1029" t="inlineStr"/>
@@ -15937,7 +15937,7 @@
     <row r="1030">
       <c r="A1030" t="inlineStr">
         <is>
-          <t>TotalReviews: 169</t>
+          <t>TotalReviews: 116</t>
         </is>
       </c>
       <c r="B1030" t="inlineStr"/>
@@ -15952,7 +15952,7 @@
     <row r="1031">
       <c r="A1031" t="inlineStr">
         <is>
-          <t>Category: ['Scenic Tours', 'City Tours']</t>
+          <t>Category: ['Modern Attractions']</t>
         </is>
       </c>
       <c r="B1031" t="inlineStr"/>
@@ -15967,7 +15967,7 @@
     <row r="1032">
       <c r="A1032" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 6839P88</t>
+          <t>PRODUCTCODE: 275837P5</t>
         </is>
       </c>
       <c r="B1032" t="inlineStr"/>
@@ -15982,7 +15982,7 @@
     <row r="1033">
       <c r="A1033" t="inlineStr">
         <is>
-          <t>Summarized description: From the tower’s second floor, the city of Paris spreads out like a virtual map. Revel in sweeping panoramic views over Paris from the top of the Eiffel Tower.</t>
+          <t>Summarized description: Take the elevator straight to the 2nd floor of the Eiffel Tower from where you will see a breathtaking view of the amazing city of Paris. Our fluent guides, with their novel storytelling approach, makes this tour extremely unique.</t>
         </is>
       </c>
       <c r="B1033" t="inlineStr"/>
@@ -15997,7 +15997,7 @@
     <row r="1034">
       <c r="A1034" t="inlineStr">
         <is>
-          <t xml:space="preserve">Title: Eiffel Tower Tour: Morning Access with host by Elevator </t>
+          <t>Title: Visit the Eiffel Tower with Experienced Guide | Elevator to the 2nd Floor</t>
         </is>
       </c>
       <c r="B1034" t="inlineStr"/>
@@ -16012,7 +16012,7 @@
     <row r="1035">
       <c r="A1035" t="inlineStr">
         <is>
-          <t>TotalReviews: 165</t>
+          <t>TotalReviews: 73</t>
         </is>
       </c>
       <c r="B1035" t="inlineStr"/>
@@ -16042,7 +16042,7 @@
     <row r="1037">
       <c r="A1037" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 384451P1</t>
+          <t>PRODUCTCODE: 7832P148</t>
         </is>
       </c>
       <c r="B1037" t="inlineStr"/>
@@ -16057,7 +16057,7 @@
     <row r="1038">
       <c r="A1038" t="inlineStr">
         <is>
-          <t>Summarized description: Expert guides will entertain you with facts about the Eiffel tower, its history, and much more while you ascend to the summit in a glass-walled elevator.</t>
+          <t>Summarized description: Get sensational views from the 2nd floor of the Iron Lady. Enjoy access to the 1st and 2nd floors of the most iconic monument in Paris.</t>
         </is>
       </c>
       <c r="B1038" t="inlineStr"/>
@@ -16072,7 +16072,7 @@
     <row r="1039">
       <c r="A1039" t="inlineStr">
         <is>
-          <t>Title: Eiffel Tower Summit Priority Access Guided Experience</t>
+          <t>Title: Eiffel Tower Entry Ticket to Second Floor by Elevator with Views</t>
         </is>
       </c>
       <c r="B1039" t="inlineStr"/>
@@ -16087,7 +16087,7 @@
     <row r="1040">
       <c r="A1040" t="inlineStr">
         <is>
-          <t>TotalReviews: 157</t>
+          <t>TotalReviews: 53</t>
         </is>
       </c>
       <c r="B1040" t="inlineStr"/>
@@ -16102,7 +16102,7 @@
     <row r="1041">
       <c r="A1041" t="inlineStr">
         <is>
-          <t>Category: ['Scenic Tours', 'City Tours']</t>
+          <t>Category: ['Modern Attractions']</t>
         </is>
       </c>
       <c r="B1041" t="inlineStr"/>
@@ -16117,7 +16117,7 @@
     <row r="1042">
       <c r="A1042" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 220637P6</t>
+          <t>PRODUCTCODE: 247780P6</t>
         </is>
       </c>
       <c r="B1042" t="inlineStr"/>
@@ -16132,7 +16132,7 @@
     <row r="1043">
       <c r="A1043" t="inlineStr">
         <is>
-          <t>Summarized description: Meet your English-speaking guide a few steps from the Eiffel Tower. As you walk, your guide will tell you the history and anecdotes about the construction of this iconic structure.</t>
+          <t>Summarized description: 360° views and telescopes at the summit uncover further sights, like Montmartre Hill. Try to spot Gustave Eiffel’s secret apartment. Walk on the extraordinary glass floor on the 1st level.</t>
         </is>
       </c>
       <c r="B1043" t="inlineStr"/>
@@ -16147,7 +16147,7 @@
     <row r="1044">
       <c r="A1044" t="inlineStr">
         <is>
-          <t>Title: Eiffel Tower with reserved access to the 2nd floor</t>
+          <t>Title:  Tickets Eiffel Tower For Second Floor With elevator</t>
         </is>
       </c>
       <c r="B1044" t="inlineStr"/>
@@ -16162,7 +16162,7 @@
     <row r="1045">
       <c r="A1045" t="inlineStr">
         <is>
-          <t>TotalReviews: 135</t>
+          <t>TotalReviews: 39</t>
         </is>
       </c>
       <c r="B1045" t="inlineStr"/>
@@ -16177,7 +16177,7 @@
     <row r="1046">
       <c r="A1046" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Modern Attractions']</t>
+          <t>Category: ['Modern Attractions']</t>
         </is>
       </c>
       <c r="B1046" t="inlineStr"/>
@@ -16192,7 +16192,7 @@
     <row r="1047">
       <c r="A1047" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 193509P1</t>
+          <t>PRODUCTCODE: 5045P40</t>
         </is>
       </c>
       <c r="B1047" t="inlineStr"/>
@@ -16207,7 +16207,7 @@
     <row r="1048">
       <c r="A1048" t="inlineStr">
         <is>
-          <t>Summarized description: Fast track, skip-the-line access to the Eiffel Tower includes summit access. Sip Champagne from the onsite bar (own expense) at the summit.</t>
+          <t>Summarized description: Head directly up to the 2nd level of the Eiffel Tower with your ticket. Get access to the Summit so you can admire the city from every angle. Later on, you and your small group will have the opportunity to embark on a Seine River cruise.</t>
         </is>
       </c>
       <c r="B1048" t="inlineStr"/>
@@ -16222,7 +16222,7 @@
     <row r="1049">
       <c r="A1049" t="inlineStr">
         <is>
-          <t>Title: Skip the Line: Eiffel Tower Summit Priority Access Ticket with Host</t>
+          <t xml:space="preserve">Title: Eiffel Tower Tour with Summit by Elevator and Seine Cruise </t>
         </is>
       </c>
       <c r="B1049" t="inlineStr"/>
@@ -16237,7 +16237,7 @@
     <row r="1050">
       <c r="A1050" t="inlineStr">
         <is>
-          <t>TotalReviews: 119</t>
+          <t>TotalReviews: 34</t>
         </is>
       </c>
       <c r="B1050" t="inlineStr"/>
@@ -16252,7 +16252,7 @@
     <row r="1051">
       <c r="A1051" t="inlineStr">
         <is>
-          <t>Category: ['Modern Attractions']</t>
+          <t>Category: ['City Tours', 'Modern Attractions']</t>
         </is>
       </c>
       <c r="B1051" t="inlineStr"/>
@@ -16267,7 +16267,7 @@
     <row r="1052">
       <c r="A1052" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 7249P6</t>
+          <t>PRODUCTCODE: 239576P45</t>
         </is>
       </c>
       <c r="B1052" t="inlineStr"/>
@@ -16282,7 +16282,7 @@
     <row r="1053">
       <c r="A1053" t="inlineStr">
         <is>
-          <t>Summarized description: This tour provides access to all three floors of the Eiffel Tower. Included the Top floor Access. Skip the line and visit this iconic monument with a local guide who loves it.</t>
+          <t>Summarized description: Discover inside information about this world-famous landmark. Access to the 2nd level or the Summit of the tower or both. Guided tour meeting point: Avenue Suffren.</t>
         </is>
       </c>
       <c r="B1053" t="inlineStr"/>
@@ -16297,7 +16297,7 @@
     <row r="1054">
       <c r="A1054" t="inlineStr">
         <is>
-          <t>Title: Eiffel Tower Full access : Skip-the-Line Tour with Summit Access included</t>
+          <t>Title: Eiffel Tower Skip the Line Guided Tour: 2nd Floor or SUMMIT with Lift</t>
         </is>
       </c>
       <c r="B1054" t="inlineStr"/>
@@ -16312,7 +16312,7 @@
     <row r="1055">
       <c r="A1055" t="inlineStr">
         <is>
-          <t>TotalReviews: 119</t>
+          <t>TotalReviews: 33</t>
         </is>
       </c>
       <c r="B1055" t="inlineStr"/>
@@ -16327,7 +16327,7 @@
     <row r="1056">
       <c r="A1056" t="inlineStr">
         <is>
-          <t>Category: ['Museums', 'Historical Tours']</t>
+          <t>Category: ['Aerial Tours']</t>
         </is>
       </c>
       <c r="B1056" t="inlineStr"/>
@@ -16342,7 +16342,7 @@
     <row r="1057">
       <c r="A1057" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 193509P2</t>
+          <t>PRODUCTCODE: 413318P103</t>
         </is>
       </c>
       <c r="B1057" t="inlineStr"/>
@@ -16357,7 +16357,7 @@
     <row r="1058">
       <c r="A1058" t="inlineStr">
         <is>
-          <t>Summarized description: Eiffel Tower skip-the-line pass and 1.5-hour tour. Get priority access to the tower's second level. Toast your travels with a glass of bubbly from the Champagne bar.</t>
+          <t>Summarized description: The summit of the Eiffel Tower offers a bird's-eye view of Paris. The vistas from the summit are simply awe-inspiring. You'll see Paris's most renowned landmarks, its winding river, and the bustling streets.</t>
         </is>
       </c>
       <c r="B1058" t="inlineStr"/>
@@ -16372,7 +16372,7 @@
     <row r="1059">
       <c r="A1059" t="inlineStr">
         <is>
-          <t>Title: Skip the Line: Eiffel Tower Tour and Summit Access by elevator</t>
+          <t>Title: Eiffel Tower Summit Skip the Line Ticket with Audio Guide Tour</t>
         </is>
       </c>
       <c r="B1059" t="inlineStr"/>
@@ -16387,7 +16387,7 @@
     <row r="1060">
       <c r="A1060" t="inlineStr">
         <is>
-          <t>TotalReviews: 116</t>
+          <t>TotalReviews: 32</t>
         </is>
       </c>
       <c r="B1060" t="inlineStr"/>
@@ -16402,7 +16402,7 @@
     <row r="1061">
       <c r="A1061" t="inlineStr">
         <is>
-          <t>Category: ['Modern Attractions']</t>
+          <t>Category: ['Aerial Tours', 'City Tours', 'Modern Attractions']</t>
         </is>
       </c>
       <c r="B1061" t="inlineStr"/>
@@ -16417,7 +16417,7 @@
     <row r="1062">
       <c r="A1062" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 7832P9</t>
+          <t>PRODUCTCODE: 457596P2</t>
         </is>
       </c>
       <c r="B1062" t="inlineStr"/>
@@ -16432,7 +16432,7 @@
     <row r="1063">
       <c r="A1063" t="inlineStr">
         <is>
-          <t>Summarized description: 1-hour illuminations cruise along the Seine River. See Paris city from the Eiffel Tower's nearly highest point. See all the famous landmarks of Paris city in just under one hour.</t>
+          <t>Summarized description: The Eiffel Tower tour is an unforgettable exploration of the iconic Parisian landmark. Visitors have the opportunity to ascend the tower and enjoy breathtaking views of the city's skyline, including the Louvre, Notre-Dame, and the Seine River.</t>
         </is>
       </c>
       <c r="B1063" t="inlineStr"/>
@@ -16447,7 +16447,7 @@
     <row r="1064">
       <c r="A1064" t="inlineStr">
         <is>
-          <t>Title: Eiffel Tower 2nd Floor Entry and Optional Seine River Cruise</t>
+          <t>Title: Eiffel Tower Guided Tour Summit Access</t>
         </is>
       </c>
       <c r="B1064" t="inlineStr"/>
@@ -16462,7 +16462,7 @@
     <row r="1065">
       <c r="A1065" t="inlineStr">
         <is>
-          <t>TotalReviews: 80</t>
+          <t>TotalReviews: 23</t>
         </is>
       </c>
       <c r="B1065" t="inlineStr"/>
@@ -16477,7 +16477,7 @@
     <row r="1066">
       <c r="A1066" t="inlineStr">
         <is>
-          <t>Category: ['Modern Attractions', 'Cultural Cruises']</t>
+          <t>Category: ['City Tours', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B1066" t="inlineStr"/>
@@ -16492,7 +16492,7 @@
     <row r="1067">
       <c r="A1067" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 275837P5</t>
+          <t>PRODUCTCODE: 5045P70</t>
         </is>
       </c>
       <c r="B1067" t="inlineStr"/>
@@ -16507,7 +16507,7 @@
     <row r="1068">
       <c r="A1068" t="inlineStr">
         <is>
-          <t>Summarized description: Take the elevator straight to the 2nd floor of the Eiffel Tower from where you will see a breathtaking view of the amazing city of Paris. Our fluent guides, with their novel storytelling approach, makes this tour extremely unique.</t>
+          <t>Summarized description: Head up to the 2nd level of the Eiffel Tower with your ticket by elevator. Get access to the Summit so you can admire the city from every angle.</t>
         </is>
       </c>
       <c r="B1068" t="inlineStr"/>
@@ -16522,7 +16522,7 @@
     <row r="1069">
       <c r="A1069" t="inlineStr">
         <is>
-          <t>Title: Visit the Eiffel Tower with Experienced Guide | Elevator to the 2nd Floor</t>
+          <t>Title: Eiffel Tower Timed Entrance Ticket SUMMIT Access by Elevator</t>
         </is>
       </c>
       <c r="B1069" t="inlineStr"/>
@@ -16537,7 +16537,7 @@
     <row r="1070">
       <c r="A1070" t="inlineStr">
         <is>
-          <t>TotalReviews: 73</t>
+          <t>TotalReviews: 23</t>
         </is>
       </c>
       <c r="B1070" t="inlineStr"/>
@@ -16552,7 +16552,7 @@
     <row r="1071">
       <c r="A1071" t="inlineStr">
         <is>
-          <t>Category: ['Modern Attractions']</t>
+          <t>Category: ['City Tours', 'Modern Attractions']</t>
         </is>
       </c>
       <c r="B1071" t="inlineStr"/>
@@ -16567,7 +16567,7 @@
     <row r="1072">
       <c r="A1072" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 5045P44</t>
+          <t>PRODUCTCODE: 268768P58</t>
         </is>
       </c>
       <c r="B1072" t="inlineStr"/>
@@ -16582,7 +16582,7 @@
     <row r="1073">
       <c r="A1073" t="inlineStr">
         <is>
-          <t>Summarized description: Head up to the 2nd level of the Eiffel Tower with your ticket and admire many of the top attractions of Paris from up above. Hear commentary from an English-speaking guide on a 1-hour Seine River cruise.</t>
+          <t>Summarized description: The Eiffel Tower is one of the world's most iconic observation points. From the summit, enjoy a panoramic bird's-eye view of Paris that's truly unmatched.</t>
         </is>
       </c>
       <c r="B1073" t="inlineStr"/>
@@ -16597,7 +16597,7 @@
     <row r="1074">
       <c r="A1074" t="inlineStr">
         <is>
-          <t>Title: Eiffel Tower Entry to 2nd Floor By Elevator and Seine Cruise</t>
+          <t>Title: Summit Eiffel Tower Skip the Queue Ticket and Audio Guide Tour</t>
         </is>
       </c>
       <c r="B1074" t="inlineStr"/>
@@ -16612,7 +16612,7 @@
     <row r="1075">
       <c r="A1075" t="inlineStr">
         <is>
-          <t>TotalReviews: 70</t>
+          <t>TotalReviews: 22</t>
         </is>
       </c>
       <c r="B1075" t="inlineStr"/>
@@ -16627,7 +16627,7 @@
     <row r="1076">
       <c r="A1076" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Modern Attractions']</t>
+          <t>Category: ['Modern Attractions']</t>
         </is>
       </c>
       <c r="B1076" t="inlineStr"/>
@@ -16642,7 +16642,7 @@
     <row r="1077">
       <c r="A1077" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 7832P148</t>
+          <t>PRODUCTCODE: 3588P46</t>
         </is>
       </c>
       <c r="B1077" t="inlineStr"/>
@@ -16657,7 +16657,7 @@
     <row r="1078">
       <c r="A1078" t="inlineStr">
         <is>
-          <t>Summarized description: Get sensational views from the 2nd floor of the Iron Lady. Enjoy access to the 1st and 2nd floors of the most iconic monument in Paris.</t>
+          <t>Summarized description: Enjoy reserved entry at the base of the Tower. As you make your way up to the summit, your guide will give you background on the history of the Eiffel Tower. Your guide will point out various amenities, such as restaurants, current exhibitions, and places where you can sit.</t>
         </is>
       </c>
       <c r="B1078" t="inlineStr"/>
@@ -16672,7 +16672,7 @@
     <row r="1079">
       <c r="A1079" t="inlineStr">
         <is>
-          <t>Title: Eiffel Tower Entry Ticket to Second Floor by Elevator with Views</t>
+          <t>Title: Small-Group Eiffel Tower Tour with Reserved Entry &amp; Summit Access</t>
         </is>
       </c>
       <c r="B1079" t="inlineStr"/>
@@ -16687,7 +16687,7 @@
     <row r="1080">
       <c r="A1080" t="inlineStr">
         <is>
-          <t>TotalReviews: 53</t>
+          <t>TotalReviews: 21</t>
         </is>
       </c>
       <c r="B1080" t="inlineStr"/>
@@ -16702,7 +16702,7 @@
     <row r="1081">
       <c r="A1081" t="inlineStr">
         <is>
-          <t>Category: ['Modern Attractions']</t>
+          <t>Category: ['City Tours', 'Modern Attractions']</t>
         </is>
       </c>
       <c r="B1081" t="inlineStr"/>
@@ -16717,7 +16717,7 @@
     <row r="1082">
       <c r="A1082" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 275837P4</t>
+          <t>PRODUCTCODE: 275837P8</t>
         </is>
       </c>
       <c r="B1082" t="inlineStr"/>
@@ -16732,7 +16732,7 @@
     <row r="1083">
       <c r="A1083" t="inlineStr">
         <is>
-          <t>Summarized description: Your guide will be busy entertaining you as you progress through the security checks and waiting lines at the tower. You’ll have all the time you need to explore the 2nd floor of the Eiffel Tower.</t>
+          <t>Summarized description: Guests book this experience because they are assured of access to the summit. Get within hand reach of the details of the tower - the rivets holding together the iron pieces, the bulbs that light up at night.</t>
         </is>
       </c>
       <c r="B1083" t="inlineStr"/>
@@ -16747,7 +16747,7 @@
     <row r="1084">
       <c r="A1084" t="inlineStr">
         <is>
-          <t>Title: Climb to the Eiffel Tower's Second Floor with Experienced Guide</t>
+          <t>Title: Guaranteed Summit Access - Eiffel Tower Elevator Tour</t>
         </is>
       </c>
       <c r="B1084" t="inlineStr"/>
@@ -16762,7 +16762,7 @@
     <row r="1085">
       <c r="A1085" t="inlineStr">
         <is>
-          <t>TotalReviews: 47</t>
+          <t>TotalReviews: 21</t>
         </is>
       </c>
       <c r="B1085" t="inlineStr"/>
@@ -16792,7 +16792,7 @@
     <row r="1087">
       <c r="A1087" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 352648P23</t>
+          <t>PRODUCTCODE: 112782P30</t>
         </is>
       </c>
       <c r="B1087" t="inlineStr"/>
@@ -16807,7 +16807,7 @@
     <row r="1088">
       <c r="A1088" t="inlineStr">
         <is>
-          <t>Summarized description: Feel the pulse of Paris with every step as you ascend the iconic iron lattice. Engage your senses with the scent of croissants and the distant hum of Parisian life.</t>
+          <t>Summarized description: Learn about the building itself and about the civil engineer who created it, Gustave Eiffel. Take advantage of the optional opportunity to ascend by elevator past the second floor to the summit of the tower.</t>
         </is>
       </c>
       <c r="B1088" t="inlineStr"/>
@@ -16822,7 +16822,7 @@
     <row r="1089">
       <c r="A1089" t="inlineStr">
         <is>
-          <t>Title: Climb the Eiffel Tower, Unique Views of Paris and Optional Summit</t>
+          <t>Title: Eiffel Tower Guided Tour - 2nd floor + optional Summit access</t>
         </is>
       </c>
       <c r="B1089" t="inlineStr"/>
@@ -16837,7 +16837,7 @@
     <row r="1090">
       <c r="A1090" t="inlineStr">
         <is>
-          <t>TotalReviews: 44</t>
+          <t>TotalReviews: 19</t>
         </is>
       </c>
       <c r="B1090" t="inlineStr"/>
@@ -16852,7 +16852,7 @@
     <row r="1091">
       <c r="A1091" t="inlineStr">
         <is>
-          <t>Category: ['Scenic Tours', 'City Tours']</t>
+          <t>Category: ['Modern Attractions']</t>
         </is>
       </c>
       <c r="B1091" t="inlineStr"/>
@@ -16867,7 +16867,7 @@
     <row r="1092">
       <c r="A1092" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 247780P6</t>
+          <t>PRODUCTCODE: 7824P7</t>
         </is>
       </c>
       <c r="B1092" t="inlineStr"/>
@@ -16882,7 +16882,7 @@
     <row r="1093">
       <c r="A1093" t="inlineStr">
         <is>
-          <t>Summarized description: 360° views and telescopes at the summit uncover further sights, like Montmartre Hill. Try to spot Gustave Eiffel’s secret apartment. Walk on the extraordinary glass floor on the 1st level.</t>
+          <t>Summarized description:  skip-the-line admission ticket for priority access to the Eiffel Tower. Discover the most emblematic Parisian monument from the second and third floors.</t>
         </is>
       </c>
       <c r="B1093" t="inlineStr"/>
@@ -16897,7 +16897,7 @@
     <row r="1094">
       <c r="A1094" t="inlineStr">
         <is>
-          <t>Title:  Tickets Eiffel Tower For Second Floor With elevator</t>
+          <t>Title: Skip the Line: Eiffel Tower Small-Group Tour with Summit Access</t>
         </is>
       </c>
       <c r="B1094" t="inlineStr"/>
@@ -16912,7 +16912,7 @@
     <row r="1095">
       <c r="A1095" t="inlineStr">
         <is>
-          <t>TotalReviews: 39</t>
+          <t>TotalReviews: 16</t>
         </is>
       </c>
       <c r="B1095" t="inlineStr"/>
@@ -16942,7 +16942,7 @@
     <row r="1097">
       <c r="A1097" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 5045P40</t>
+          <t>PRODUCTCODE: 320547P457</t>
         </is>
       </c>
       <c r="B1097" t="inlineStr"/>
@@ -16957,7 +16957,7 @@
     <row r="1098">
       <c r="A1098" t="inlineStr">
         <is>
-          <t>Summarized description: Head directly up to the 2nd level of the Eiffel Tower with your ticket. Get access to the Summit so you can admire the city from every angle. Later on, you and your small group will have the opportunity to embark on a Seine River cruise.</t>
+          <t>Summarized description: Our host will give you a brief history of the Eiffel Tower. As you pass through security, you join our host in line. You must wait in line with our host, who will pick up the summit (top floor) with elevator tickets.</t>
         </is>
       </c>
       <c r="B1098" t="inlineStr"/>
@@ -16972,7 +16972,7 @@
     <row r="1099">
       <c r="A1099" t="inlineStr">
         <is>
-          <t xml:space="preserve">Title: Eiffel Tower Tour with Summit by Elevator and Seine Cruise </t>
+          <t>Title: Eiffel Tower Summit 3rd Floor Summit Tour with Private Host</t>
         </is>
       </c>
       <c r="B1099" t="inlineStr"/>
@@ -16987,7 +16987,7 @@
     <row r="1100">
       <c r="A1100" t="inlineStr">
         <is>
-          <t>TotalReviews: 34</t>
+          <t>TotalReviews: 13</t>
         </is>
       </c>
       <c r="B1100" t="inlineStr"/>
@@ -17002,7 +17002,7 @@
     <row r="1101">
       <c r="A1101" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Modern Attractions']</t>
+          <t>Category: ['Modern Attractions']</t>
         </is>
       </c>
       <c r="B1101" t="inlineStr"/>
@@ -17017,7 +17017,7 @@
     <row r="1102">
       <c r="A1102" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 239576P45</t>
+          <t>PRODUCTCODE: 7832P36</t>
         </is>
       </c>
       <c r="B1102" t="inlineStr"/>
@@ -17032,7 +17032,7 @@
     <row r="1103">
       <c r="A1103" t="inlineStr">
         <is>
-          <t>Summarized description: Discover inside information about this world-famous landmark. Access to the 2nd level or the Summit of the tower or both. Guided tour meeting point: Avenue Suffren.</t>
+          <t>Summarized description: Your guide will take you to the second floor on which s/he will tell you about the history of the Eiffel Tower and get a detailed description of the view. Enjoy visiting  all the way up the world's famous  monument with your guide.</t>
         </is>
       </c>
       <c r="B1103" t="inlineStr"/>
@@ -17047,7 +17047,7 @@
     <row r="1104">
       <c r="A1104" t="inlineStr">
         <is>
-          <t>Title: Eiffel Tower Skip the Line Guided Tour: 2nd Floor or SUMMIT with Lift</t>
+          <t>Title: Eiffel Tower Summit Access Guided Visit and Optional Cruise</t>
         </is>
       </c>
       <c r="B1104" t="inlineStr"/>
@@ -17062,7 +17062,7 @@
     <row r="1105">
       <c r="A1105" t="inlineStr">
         <is>
-          <t>TotalReviews: 33</t>
+          <t>TotalReviews: 9</t>
         </is>
       </c>
       <c r="B1105" t="inlineStr"/>
@@ -17077,7 +17077,7 @@
     <row r="1106">
       <c r="A1106" t="inlineStr">
         <is>
-          <t>Category: ['Aerial Tours']</t>
+          <t>Category: ['Modern Attractions']</t>
         </is>
       </c>
       <c r="B1106" t="inlineStr"/>
@@ -17092,7 +17092,7 @@
     <row r="1107">
       <c r="A1107" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 413318P103</t>
+          <t>PRODUCTCODE: 2050P306</t>
         </is>
       </c>
       <c r="B1107" t="inlineStr"/>
@@ -17107,7 +17107,7 @@
     <row r="1108">
       <c r="A1108" t="inlineStr">
         <is>
-          <t>Summarized description: The summit of the Eiffel Tower offers a bird's-eye view of Paris. The vistas from the summit are simply awe-inspiring. You'll see Paris's most renowned landmarks, its winding river, and the bustling streets.</t>
+          <t>Summarized description: Visit the first, second and third level of the iconic monument at your leisure. Take your time to marvel at the spectacular views of the city and learn about the fascinating history of the Tower.</t>
         </is>
       </c>
       <c r="B1108" t="inlineStr"/>
@@ -17122,7 +17122,7 @@
     <row r="1109">
       <c r="A1109" t="inlineStr">
         <is>
-          <t>Title: Eiffel Tower Summit Skip the Line Ticket with Audio Guide Tour</t>
+          <t>Title: Eiffel Tower Access &amp; Lunch &amp; Optional Summit Ticket</t>
         </is>
       </c>
       <c r="B1109" t="inlineStr"/>
@@ -17137,7 +17137,7 @@
     <row r="1110">
       <c r="A1110" t="inlineStr">
         <is>
-          <t>TotalReviews: 32</t>
+          <t>TotalReviews: 8</t>
         </is>
       </c>
       <c r="B1110" t="inlineStr"/>
@@ -17152,7 +17152,7 @@
     <row r="1111">
       <c r="A1111" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Aerial Tours', 'Modern Attractions']</t>
+          <t>Category: ['Modern Attractions']</t>
         </is>
       </c>
       <c r="B1111" t="inlineStr"/>
@@ -17167,7 +17167,7 @@
     <row r="1112">
       <c r="A1112" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 457596P2</t>
+          <t>PRODUCTCODE: 7832P177</t>
         </is>
       </c>
       <c r="B1112" t="inlineStr"/>
@@ -17182,7 +17182,7 @@
     <row r="1113">
       <c r="A1113" t="inlineStr">
         <is>
-          <t>Summarized description: The Eiffel Tower tour is an unforgettable exploration of the iconic Parisian landmark. Visitors have the opportunity to ascend the tower and enjoy breathtaking views of the city's skyline, including the Louvre, Notre-Dame, and the Seine River.</t>
+          <t>Summarized description: Your ticket includes a 1-hour cruise on the Seine river, that you can take at any time. Admire the UNESCO-listed buildings lining the riverbanks, including the Eiffel Tower.</t>
         </is>
       </c>
       <c r="B1113" t="inlineStr"/>
@@ -17197,7 +17197,7 @@
     <row r="1114">
       <c r="A1114" t="inlineStr">
         <is>
-          <t>Title: Eiffel Tower Guided Tour Summit Access</t>
+          <t>Title: Eiffel Tower Summit Floor Ticket and Seine River Cruise</t>
         </is>
       </c>
       <c r="B1114" t="inlineStr"/>
@@ -17212,7 +17212,7 @@
     <row r="1115">
       <c r="A1115" t="inlineStr">
         <is>
-          <t>TotalReviews: 23</t>
+          <t>TotalReviews: 8</t>
         </is>
       </c>
       <c r="B1115" t="inlineStr"/>
@@ -17227,7 +17227,7 @@
     <row r="1116">
       <c r="A1116" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Historical Tours']</t>
+          <t>Category: ['Cultural Cruises']</t>
         </is>
       </c>
       <c r="B1116" t="inlineStr"/>
@@ -17242,7 +17242,7 @@
     <row r="1117">
       <c r="A1117" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 5045P70</t>
+          <t>PRODUCTCODE: 220418P22</t>
         </is>
       </c>
       <c r="B1117" t="inlineStr"/>
@@ -17257,7 +17257,7 @@
     <row r="1118">
       <c r="A1118" t="inlineStr">
         <is>
-          <t>Summarized description: Head up to the 2nd level of the Eiffel Tower with your ticket by elevator. Get access to the Summit so you can admire the city from every angle.</t>
+          <t>Summarized description: Visit Paris' most iconic attraction with skip-the-line access and a tour guide. Take in the most impressive views of the city and learn about its construction and significance. Take the optional opportunity to ascend by elevator past the second floor to the summit.</t>
         </is>
       </c>
       <c r="B1118" t="inlineStr"/>
@@ -17272,7 +17272,7 @@
     <row r="1119">
       <c r="A1119" t="inlineStr">
         <is>
-          <t>Title: Eiffel Tower Timed Entrance Ticket SUMMIT Access by Elevator</t>
+          <t>Title: Paris: Eiffel Tower Guided Tour with Summit Access</t>
         </is>
       </c>
       <c r="B1119" t="inlineStr"/>
@@ -17287,7 +17287,7 @@
     <row r="1120">
       <c r="A1120" t="inlineStr">
         <is>
-          <t>TotalReviews: 23</t>
+          <t>TotalReviews: 7</t>
         </is>
       </c>
       <c r="B1120" t="inlineStr"/>
@@ -17317,7 +17317,7 @@
     <row r="1122">
       <c r="A1122" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 268768P58</t>
+          <t>PRODUCTCODE: 198319P6</t>
         </is>
       </c>
       <c r="B1122" t="inlineStr"/>
@@ -17332,7 +17332,7 @@
     <row r="1123">
       <c r="A1123" t="inlineStr">
         <is>
-          <t>Summarized description: The Eiffel Tower is one of the world's most iconic observation points. From the summit, enjoy a panoramic bird's-eye view of Paris that's truly unmatched.</t>
+          <t>Summarized description: Find out more about the building itself and the civil engineer who designed it, Gustave Eiffel. Take advantage of the optional opportunity to ascend by elevator past the second floor to the summit of the tower.</t>
         </is>
       </c>
       <c r="B1123" t="inlineStr"/>
@@ -17347,7 +17347,7 @@
     <row r="1124">
       <c r="A1124" t="inlineStr">
         <is>
-          <t>Title: Summit Eiffel Tower Skip the Queue Ticket and Audio Guide Tour</t>
+          <t>Title: Paris: Eiffel Tower Guided Tour with Optional Summit Access</t>
         </is>
       </c>
       <c r="B1124" t="inlineStr"/>
@@ -17362,7 +17362,7 @@
     <row r="1125">
       <c r="A1125" t="inlineStr">
         <is>
-          <t>TotalReviews: 22</t>
+          <t>TotalReviews: 7</t>
         </is>
       </c>
       <c r="B1125" t="inlineStr"/>
@@ -17377,7 +17377,7 @@
     <row r="1126">
       <c r="A1126" t="inlineStr">
         <is>
-          <t>Category: ['Modern Attractions']</t>
+          <t>Category: ['City Tours', 'Modern Attractions']</t>
         </is>
       </c>
       <c r="B1126" t="inlineStr"/>
@@ -17392,7 +17392,7 @@
     <row r="1127">
       <c r="A1127" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 3588P46</t>
+          <t>PRODUCTCODE: 419625P1</t>
         </is>
       </c>
       <c r="B1127" t="inlineStr"/>
@@ -17407,7 +17407,7 @@
     <row r="1128">
       <c r="A1128" t="inlineStr">
         <is>
-          <t>Summarized description: Enjoy reserved entry at the base of the Tower. As you make your way up to the summit, your guide will give you background on the history of the Eiffel Tower. Your guide will point out various amenities, such as restaurants, current exhibitions, and places where you can sit.</t>
+          <t>Summarized description: Our guide will provide a captivating historical overview of the Eiffel Tower. As you pass through security, our knowledgeable host will accompany you, addressing any questions you may have along the way.</t>
         </is>
       </c>
       <c r="B1128" t="inlineStr"/>
@@ -17422,7 +17422,7 @@
     <row r="1129">
       <c r="A1129" t="inlineStr">
         <is>
-          <t>Title: Small-Group Eiffel Tower Tour with Reserved Entry &amp; Summit Access</t>
+          <t>Title: Eiffel Tower Summit (All Floors) Guided Tour by Elevator Tickets.</t>
         </is>
       </c>
       <c r="B1129" t="inlineStr"/>
@@ -17437,7 +17437,7 @@
     <row r="1130">
       <c r="A1130" t="inlineStr">
         <is>
-          <t>TotalReviews: 21</t>
+          <t>TotalReviews: 7</t>
         </is>
       </c>
       <c r="B1130" t="inlineStr"/>
@@ -17452,7 +17452,7 @@
     <row r="1131">
       <c r="A1131" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Modern Attractions']</t>
+          <t>Category: ['Historical Tours']</t>
         </is>
       </c>
       <c r="B1131" t="inlineStr"/>
@@ -17467,7 +17467,7 @@
     <row r="1132">
       <c r="A1132" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 275837P8</t>
+          <t>PRODUCTCODE: 210555P13</t>
         </is>
       </c>
       <c r="B1132" t="inlineStr"/>
@@ -17482,7 +17482,7 @@
     <row r="1133">
       <c r="A1133" t="inlineStr">
         <is>
-          <t>Summarized description: Guests book this experience because they are assured of access to the summit. Get within hand reach of the details of the tower - the rivets holding together the iron pieces, the bulbs that light up at night.</t>
+          <t>Summarized description: Get your tickets in your mobile and get into the Eiffel Tower at top floor like a VIP. Just sit back and relax and let us buy you the tickets in just few clicks.</t>
         </is>
       </c>
       <c r="B1133" t="inlineStr"/>
@@ -17497,7 +17497,7 @@
     <row r="1134">
       <c r="A1134" t="inlineStr">
         <is>
-          <t>Title: Guaranteed Summit Access - Eiffel Tower Elevator Tour</t>
+          <t>Title: Eiffel Tower Top Floor Ticket: Skip The Line VIP access to Summit (3rd floor)</t>
         </is>
       </c>
       <c r="B1134" t="inlineStr"/>
@@ -17512,7 +17512,7 @@
     <row r="1135">
       <c r="A1135" t="inlineStr">
         <is>
-          <t>TotalReviews: 21</t>
+          <t>TotalReviews: 6</t>
         </is>
       </c>
       <c r="B1135" t="inlineStr"/>
@@ -17527,7 +17527,7 @@
     <row r="1136">
       <c r="A1136" t="inlineStr">
         <is>
-          <t>Category: ['Modern Attractions']</t>
+          <t>Category: ['Transportation &amp; Travel Services', 'Modern Attractions']</t>
         </is>
       </c>
       <c r="B1136" t="inlineStr"/>
@@ -17542,7 +17542,7 @@
     <row r="1137">
       <c r="A1137" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 112782P30</t>
+          <t>PRODUCTCODE: 64296P2</t>
         </is>
       </c>
       <c r="B1137" t="inlineStr"/>
@@ -17557,7 +17557,7 @@
     <row r="1138">
       <c r="A1138" t="inlineStr">
         <is>
-          <t>Summarized description: Learn about the building itself and about the civil engineer who created it, Gustave Eiffel. Take advantage of the optional opportunity to ascend by elevator past the second floor to the summit of the tower.</t>
+          <t>Summarized description: The Eiffel Tower needs no introduction and you are just one of millions of travellers who will visit this year. Don’t waste time and stand in line but instead join us to Skip the Line with a local, fun, licensed, English speaking guide.</t>
         </is>
       </c>
       <c r="B1138" t="inlineStr"/>
@@ -17572,7 +17572,7 @@
     <row r="1139">
       <c r="A1139" t="inlineStr">
         <is>
-          <t>Title: Eiffel Tower Guided Tour - 2nd floor + optional Summit access</t>
+          <t>Title: VIP Eiffel Tower Tour &amp; Summit Access</t>
         </is>
       </c>
       <c r="B1139" t="inlineStr"/>
@@ -17587,7 +17587,7 @@
     <row r="1140">
       <c r="A1140" t="inlineStr">
         <is>
-          <t>TotalReviews: 19</t>
+          <t>TotalReviews: 6</t>
         </is>
       </c>
       <c r="B1140" t="inlineStr"/>
@@ -17602,7 +17602,7 @@
     <row r="1141">
       <c r="A1141" t="inlineStr">
         <is>
-          <t>Category: ['Modern Attractions']</t>
+          <t>Category: ['City Tours', 'Modern Attractions']</t>
         </is>
       </c>
       <c r="B1141" t="inlineStr"/>
@@ -17617,7 +17617,7 @@
     <row r="1142">
       <c r="A1142" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 7824P7</t>
+          <t>PRODUCTCODE: 2050P352</t>
         </is>
       </c>
       <c r="B1142" t="inlineStr"/>
@@ -17632,7 +17632,7 @@
     <row r="1143">
       <c r="A1143" t="inlineStr">
         <is>
-          <t>Summarized description:  skip-the-line admission ticket for priority access to the Eiffel Tower. Discover the most emblematic Parisian monument from the second and third floors.</t>
+          <t>Summarized description: Paris is a wonderful city, indeed the city of light will leave you speechless. Get on a coach with your friends and family to discover all the emblematic places of the city. Discover world-famous places such as the Louvre, the Champs Elysées, the Arc de Triomphe, Notre Dame and the Opéra Garnier.</t>
         </is>
       </c>
       <c r="B1143" t="inlineStr"/>
@@ -17647,7 +17647,7 @@
     <row r="1144">
       <c r="A1144" t="inlineStr">
         <is>
-          <t>Title: Skip the Line: Eiffel Tower Small-Group Tour with Summit Access</t>
+          <t xml:space="preserve">Title: Eiffel Tower Visit of the 2nd floor &amp; Summit Option &amp; City Tour </t>
         </is>
       </c>
       <c r="B1144" t="inlineStr"/>
@@ -17662,7 +17662,7 @@
     <row r="1145">
       <c r="A1145" t="inlineStr">
         <is>
-          <t>TotalReviews: 16</t>
+          <t>TotalReviews: 4</t>
         </is>
       </c>
       <c r="B1145" t="inlineStr"/>
@@ -17677,7 +17677,7 @@
     <row r="1146">
       <c r="A1146" t="inlineStr">
         <is>
-          <t>Category: ['Modern Attractions']</t>
+          <t>Category: ['City Tours']</t>
         </is>
       </c>
       <c r="B1146" t="inlineStr"/>
@@ -17692,7 +17692,7 @@
     <row r="1147">
       <c r="A1147" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 435669P6</t>
+          <t>PRODUCTCODE: 73434P64</t>
         </is>
       </c>
       <c r="B1147" t="inlineStr"/>
@@ -17707,7 +17707,7 @@
     <row r="1148">
       <c r="A1148" t="inlineStr">
         <is>
-          <t>Summarized description: Then, it's OPTIONAL if you want to proceed to the summit to see Gustave Eiffel's private apartments and sip Champagne from the onsite bar (own expense)</t>
+          <t>Summarized description: Enjoy priority access to one of the world's most iconic landmarks, the Eiffel Tower. Learn about its history and experience breathtaking views over Paris.</t>
         </is>
       </c>
       <c r="B1148" t="inlineStr"/>
@@ -17722,7 +17722,7 @@
     <row r="1149">
       <c r="A1149" t="inlineStr">
         <is>
-          <t>Title: Eiffel Tower 2 Floor Access With Guide</t>
+          <t>Title: Eiffel Tower Tickets including the Summit in Paris</t>
         </is>
       </c>
       <c r="B1149" t="inlineStr"/>
@@ -17737,7 +17737,7 @@
     <row r="1150">
       <c r="A1150" t="inlineStr">
         <is>
-          <t>TotalReviews: 15</t>
+          <t>TotalReviews: 3</t>
         </is>
       </c>
       <c r="B1150" t="inlineStr"/>
@@ -17752,7 +17752,7 @@
     <row r="1151">
       <c r="A1151" t="inlineStr">
         <is>
-          <t>Category: ['Modern Attractions', 'Cultural Cruises']</t>
+          <t>Category: ['City Tours', 'Modern Attractions']</t>
         </is>
       </c>
       <c r="B1151" t="inlineStr"/>
@@ -17767,7 +17767,7 @@
     <row r="1152">
       <c r="A1152" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 379045P2</t>
+          <t>PRODUCTCODE: 239922P36</t>
         </is>
       </c>
       <c r="B1152" t="inlineStr"/>
@@ -17782,7 +17782,7 @@
     <row r="1153">
       <c r="A1153" t="inlineStr">
         <is>
-          <t>Summarized description: Step into the historic elevators of the Eiffel Tower and be whisked away to dizzying heights. Panoramic views of Paris await you at every turn. Learn the Tower's Secrets with insightful commentary from our knowledgeable guides. Skip the lines and enjoy VIP treatment with our exclusive tour package.</t>
+          <t>Summarized description: The design of the Eiffel Tower is attributed to Maurice Koechlin and Émile Nouguier. It was envisioned after a discussion about a suitable centerpiece for the proposed 1889 Exposition Universelle, a world's fair to celebrate the centennial of the French Revolution.</t>
         </is>
       </c>
       <c r="B1153" t="inlineStr"/>
@@ -17797,7 +17797,7 @@
     <row r="1154">
       <c r="A1154" t="inlineStr">
         <is>
-          <t xml:space="preserve">Title: Eiffel Tower Elevator Tour </t>
+          <t>Title: Eiffel Tower Summit or 2nd Floor Access With Optional 1-hour Seine River Cruise</t>
         </is>
       </c>
       <c r="B1154" t="inlineStr"/>
@@ -17812,7 +17812,7 @@
     <row r="1155">
       <c r="A1155" t="inlineStr">
         <is>
-          <t>TotalReviews: 15</t>
+          <t>TotalReviews: 3</t>
         </is>
       </c>
       <c r="B1155" t="inlineStr"/>
@@ -17827,7 +17827,7 @@
     <row r="1156">
       <c r="A1156" t="inlineStr">
         <is>
-          <t>Category: ['Cultural Tours', 'Historical Tours']</t>
+          <t>Category: ['City Tours', 'Modern Attractions', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B1156" t="inlineStr"/>
@@ -17842,7 +17842,7 @@
     <row r="1157">
       <c r="A1157" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 2050NDF</t>
+          <t>PRODUCTCODE: 239576P24</t>
         </is>
       </c>
       <c r="B1157" t="inlineStr"/>
@@ -17857,7 +17857,7 @@
     <row r="1158">
       <c r="A1158" t="inlineStr">
         <is>
-          <t>Summarized description: 4-hour tour includes a visit to Notre Dame Cathedral and skip-the-line entry to the Eiffel Tower. Enjoy personal attention from your guide on this small-group tour, limited to eight people.</t>
+          <t>Summarized description: Learn the tower's background and all of its little-known mysteries from your knowledgeable guide. With optional summit access, enjoy unrivaled city views.</t>
         </is>
       </c>
       <c r="B1158" t="inlineStr"/>
@@ -17872,7 +17872,7 @@
     <row r="1159">
       <c r="A1159" t="inlineStr">
         <is>
-          <t>Title: Skip-the-Line: Eiffel Tower Summit Access and Paris City Tour</t>
+          <t>Title: Eiffel Tower Summit or Second Floor Access with Lift</t>
         </is>
       </c>
       <c r="B1159" t="inlineStr"/>
@@ -17887,7 +17887,7 @@
     <row r="1160">
       <c r="A1160" t="inlineStr">
         <is>
-          <t>TotalReviews: 13</t>
+          <t>TotalReviews: 3</t>
         </is>
       </c>
       <c r="B1160" t="inlineStr"/>
@@ -17902,7 +17902,7 @@
     <row r="1161">
       <c r="A1161" t="inlineStr">
         <is>
-          <t>Category: ['Historical Tours']</t>
+          <t>Category: ['Aerial Tours']</t>
         </is>
       </c>
       <c r="B1161" t="inlineStr"/>
@@ -17917,7 +17917,7 @@
     <row r="1162">
       <c r="A1162" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 320547P457</t>
+          <t>PRODUCTCODE: 60672P97</t>
         </is>
       </c>
       <c r="B1162" t="inlineStr"/>
@@ -17932,7 +17932,7 @@
     <row r="1163">
       <c r="A1163" t="inlineStr">
         <is>
-          <t>Summarized description: Our host will give you a brief history of the Eiffel Tower. As you pass through security, you join our host in line. You must wait in line with our host, who will pick up the summit (top floor) with elevator tickets.</t>
+          <t>Summarized description: The Eiffel Tower is one of the most famous landmarks in the world. It is located at the top of the Champs-Elysees in Paris, France.</t>
         </is>
       </c>
       <c r="B1163" t="inlineStr"/>
@@ -17947,7 +17947,7 @@
     <row r="1164">
       <c r="A1164" t="inlineStr">
         <is>
-          <t>Title: Eiffel Tower Summit 3rd Floor Summit Tour with Private Host</t>
+          <t>Title: Paris: Climb up the Eiffel Tower - Summit Included By Lift</t>
         </is>
       </c>
       <c r="B1164" t="inlineStr"/>
@@ -17962,7 +17962,7 @@
     <row r="1165">
       <c r="A1165" t="inlineStr">
         <is>
-          <t>TotalReviews: 13</t>
+          <t>TotalReviews: 3</t>
         </is>
       </c>
       <c r="B1165" t="inlineStr"/>
@@ -17992,7 +17992,7 @@
     <row r="1167">
       <c r="A1167" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 237089P24</t>
+          <t>PRODUCTCODE: 60672P98</t>
         </is>
       </c>
       <c r="B1167" t="inlineStr"/>
@@ -18007,7 +18007,7 @@
     <row r="1168">
       <c r="A1168" t="inlineStr">
         <is>
-          <t>Summarized description: Enjoy a breathtaking 360-degree panorama from the Tower’s 2nd floor. Take the fuss out of your visit to the Eiffel Tour with this pre-booked access ticket.</t>
+          <t>Summarized description: Enjoy bird's eye views of Paris from the 2nd floor observation deck. Then access the summit for a peek at Gustave Eiffel's original office. Please make sure to arrive 15 min before the hour of your tour.</t>
         </is>
       </c>
       <c r="B1168" t="inlineStr"/>
@@ -18022,7 +18022,7 @@
     <row r="1169">
       <c r="A1169" t="inlineStr">
         <is>
-          <t>Title: Eiffel Tower 2nd Floor Priority Access Via Stair Climb</t>
+          <t>Title: Paris: Eiffel Tower Fast Access, Entertaining Guide + Summit access</t>
         </is>
       </c>
       <c r="B1169" t="inlineStr"/>
@@ -18037,7 +18037,7 @@
     <row r="1170">
       <c r="A1170" t="inlineStr">
         <is>
-          <t>TotalReviews: 10</t>
+          <t>TotalReviews: 3</t>
         </is>
       </c>
       <c r="B1170" t="inlineStr"/>
@@ -18067,7 +18067,7 @@
     <row r="1172">
       <c r="A1172" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 7832P36</t>
+          <t>PRODUCTCODE: 247780P9</t>
         </is>
       </c>
       <c r="B1172" t="inlineStr"/>
@@ -18082,7 +18082,7 @@
     <row r="1173">
       <c r="A1173" t="inlineStr">
         <is>
-          <t>Summarized description: Your guide will take you to the second floor on which s/he will tell you about the history of the Eiffel Tower and get a detailed description of the view. Enjoy visiting  all the way up the world's famous  monument with your guide.</t>
+          <t>Summarized description: Get access to the tower's second level. Delve into the history of one of the world's most famous monuments. Head to the summit for stellar views of the City of Lights.</t>
         </is>
       </c>
       <c r="B1173" t="inlineStr"/>
@@ -18097,7 +18097,7 @@
     <row r="1174">
       <c r="A1174" t="inlineStr">
         <is>
-          <t>Title: Eiffel Tower Summit Access Guided Visit and Optional Cruise</t>
+          <t>Title: Access the 2nd floor and Summit Level of Eiffel tower with Guide</t>
         </is>
       </c>
       <c r="B1174" t="inlineStr"/>
@@ -18112,7 +18112,7 @@
     <row r="1175">
       <c r="A1175" t="inlineStr">
         <is>
-          <t>TotalReviews: 9</t>
+          <t>TotalReviews: 2</t>
         </is>
       </c>
       <c r="B1175" t="inlineStr"/>
@@ -18142,7 +18142,7 @@
     <row r="1177">
       <c r="A1177" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 220418P22</t>
+          <t>PRODUCTCODE: 275837P12</t>
         </is>
       </c>
       <c r="B1177" t="inlineStr"/>
@@ -18157,7 +18157,7 @@
     <row r="1178">
       <c r="A1178" t="inlineStr">
         <is>
-          <t>Summarized description: Visit Paris' most iconic attraction with skip-the-line access and a tour guide. Take in the most impressive views of the city and learn about its construction and significance. Take the optional opportunity to ascend by elevator past the second floor to the summit.</t>
+          <t>Summarized description: Guests book this experience because their guide handles everything. Your tickets are acquired on site by your guide and it takes you up to the 2nd level. For an extra experience, you can take the stairs as you descend.</t>
         </is>
       </c>
       <c r="B1178" t="inlineStr"/>
@@ -18172,7 +18172,7 @@
     <row r="1179">
       <c r="A1179" t="inlineStr">
         <is>
-          <t>Title: Paris: Eiffel Tower Guided Tour with Summit Access</t>
+          <t>Title: Eiffel Tower visit with Experienced Guide | Take the Elevator to the 2nd Floor</t>
         </is>
       </c>
       <c r="B1179" t="inlineStr"/>
@@ -18187,7 +18187,7 @@
     <row r="1180">
       <c r="A1180" t="inlineStr">
         <is>
-          <t>TotalReviews: 7</t>
+          <t>TotalReviews: 2</t>
         </is>
       </c>
       <c r="B1180" t="inlineStr"/>
@@ -18202,7 +18202,7 @@
     <row r="1181">
       <c r="A1181" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Modern Attractions']</t>
+          <t>Category: ['Modern Attractions']</t>
         </is>
       </c>
       <c r="B1181" t="inlineStr"/>
@@ -18217,7 +18217,7 @@
     <row r="1182">
       <c r="A1182" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 198319P6</t>
+          <t>PRODUCTCODE: 7832P152</t>
         </is>
       </c>
       <c r="B1182" t="inlineStr"/>
@@ -18232,7 +18232,7 @@
     <row r="1183">
       <c r="A1183" t="inlineStr">
         <is>
-          <t>Summarized description: Find out more about the building itself and the civil engineer who designed it, Gustave Eiffel. Take advantage of the optional opportunity to ascend by elevator past the second floor to the summit of the tower.</t>
+          <t>Summarized description: Get panoramic views of iconic monuments such as the Notre-Dame de Paris. Enjoy bird's eye views of the Egyptian obelisk on Place de la Concorde. See the Louvre Museum and Sacré Coeur basilica from a different perspective.</t>
         </is>
       </c>
       <c r="B1183" t="inlineStr"/>
@@ -18247,7 +18247,7 @@
     <row r="1184">
       <c r="A1184" t="inlineStr">
         <is>
-          <t>Title: Paris: Eiffel Tower Guided Tour with Optional Summit Access</t>
+          <t>Title: Eiffel Tower Second Floor Access With Host</t>
         </is>
       </c>
       <c r="B1184" t="inlineStr"/>
@@ -18262,7 +18262,7 @@
     <row r="1185">
       <c r="A1185" t="inlineStr">
         <is>
-          <t>TotalReviews: 7</t>
+          <t>TotalReviews: 2</t>
         </is>
       </c>
       <c r="B1185" t="inlineStr"/>
@@ -18292,7 +18292,7 @@
     <row r="1187">
       <c r="A1187" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 64296P2</t>
+          <t>PRODUCTCODE: 421480P6</t>
         </is>
       </c>
       <c r="B1187" t="inlineStr"/>
@@ -18307,7 +18307,7 @@
     <row r="1188">
       <c r="A1188" t="inlineStr">
         <is>
-          <t>Summarized description: The Eiffel Tower needs no introduction and you are just one of millions of travellers who will visit this year. Don’t waste time and stand in line but instead join us to Skip the Line with a local, fun, licensed, English speaking guide.</t>
+          <t>Summarized description: Pre-purchased tickets offer direct access inside the tower after a swift security check at your selected time slot. This not only ensures a seamless entry process but also saves you valuable time.</t>
         </is>
       </c>
       <c r="B1188" t="inlineStr"/>
@@ -18322,7 +18322,7 @@
     <row r="1189">
       <c r="A1189" t="inlineStr">
         <is>
-          <t>Title: VIP Eiffel Tower Tour &amp; Summit Access</t>
+          <t>Title: Eiffel Tower Skip The Line Ticket To Second Floor</t>
         </is>
       </c>
       <c r="B1189" t="inlineStr"/>
@@ -18337,7 +18337,7 @@
     <row r="1190">
       <c r="A1190" t="inlineStr">
         <is>
-          <t>TotalReviews: 6</t>
+          <t>TotalReviews: 1</t>
         </is>
       </c>
       <c r="B1190" t="inlineStr"/>
@@ -18352,7 +18352,7 @@
     <row r="1191">
       <c r="A1191" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Modern Attractions']</t>
+          <t>Category: ['']</t>
         </is>
       </c>
       <c r="B1191" t="inlineStr"/>
@@ -18367,7 +18367,7 @@
     <row r="1192">
       <c r="A1192" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 2050P265</t>
+          <t>PRODUCTCODE: 3731P120</t>
         </is>
       </c>
       <c r="B1192" t="inlineStr"/>
@@ -18382,7 +18382,7 @@
     <row r="1193">
       <c r="A1193" t="inlineStr">
         <is>
-          <t>Summarized description: The meeting time will be at least 15 minutes prior to the departure nearby the Emblematic Monument. You will then jump the lines to access the tower! Get ready to get some breathtaking panoramic view of the whole Paris. Add a cruise and you will enjoy some Stunning Monuments in the City of Light &amp; Love!</t>
+          <t>Summarized description: Get acquainted with Paris’s most famous lady 'Dame de Fer', the Iron Lady. During your visit you’ll enjoy the valuable insight of your English-speaking guide.</t>
         </is>
       </c>
       <c r="B1193" t="inlineStr"/>
@@ -18397,7 +18397,7 @@
     <row r="1194">
       <c r="A1194" t="inlineStr">
         <is>
-          <t>Title: Eiffel Tower with reserved Access and Mobile App &amp; Cruise Option</t>
+          <t>Title: Special Access: Express Eiffel Tower Guided Tour with 2nd floor Observation Deck Access</t>
         </is>
       </c>
       <c r="B1194" t="inlineStr"/>
@@ -18412,7 +18412,7 @@
     <row r="1195">
       <c r="A1195" t="inlineStr">
         <is>
-          <t>TotalReviews: 5</t>
+          <t>TotalReviews: 1</t>
         </is>
       </c>
       <c r="B1195" t="inlineStr"/>
@@ -18427,7 +18427,7 @@
     <row r="1196">
       <c r="A1196" t="inlineStr">
         <is>
-          <t>Category: ['Modern Attractions', 'Cultural Cruises']</t>
+          <t>Category: ['City Tours']</t>
         </is>
       </c>
       <c r="B1196" t="inlineStr"/>
@@ -18442,7 +18442,7 @@
     <row r="1197">
       <c r="A1197" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 275837P2</t>
+          <t>PRODUCTCODE: 248877P36</t>
         </is>
       </c>
       <c r="B1197" t="inlineStr"/>
@@ -18457,7 +18457,7 @@
     <row r="1198">
       <c r="A1198" t="inlineStr">
         <is>
-          <t>Summarized description: Your guide will handle everything. From the meeting point, they will navigate you past the complications you might experience if you were by yourself. Guests book this experience because they are assured of access to the summit.</t>
+          <t>Summarized description: Take advantage of priority access to the 2nd floor of the Eiffel Tower with a expert English speaking guide. Enjoy the view of Paris from above and add access to go all the way to the summit.</t>
         </is>
       </c>
       <c r="B1198" t="inlineStr"/>
@@ -18472,7 +18472,7 @@
     <row r="1199">
       <c r="A1199" t="inlineStr">
         <is>
-          <t>Title: Guaranteed Summit Access - Eiffel Tower Climb</t>
+          <t>Title: Eiffel Tower Guided Tour with Summit or Second Floor Priority Access</t>
         </is>
       </c>
       <c r="B1199" t="inlineStr"/>
@@ -18487,7 +18487,7 @@
     <row r="1200">
       <c r="A1200" t="inlineStr">
         <is>
-          <t>TotalReviews: 5</t>
+          <t>TotalReviews: 1</t>
         </is>
       </c>
       <c r="B1200" t="inlineStr"/>
@@ -18502,7 +18502,7 @@
     <row r="1201">
       <c r="A1201" t="inlineStr">
         <is>
-          <t>Category: ['Modern Attractions']</t>
+          <t>Category: ['Scenic Tours', 'Modern Attractions']</t>
         </is>
       </c>
       <c r="B1201" t="inlineStr"/>
@@ -18517,7 +18517,7 @@
     <row r="1202">
       <c r="A1202" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 46334P52</t>
+          <t>PRODUCTCODE: 247780P10</t>
         </is>
       </c>
       <c r="B1202" t="inlineStr"/>
@@ -18532,7 +18532,7 @@
     <row r="1203">
       <c r="A1203" t="inlineStr">
         <is>
-          <t>Summarized description: Join an expert local guide to climb the Eiffel Tower. Hear about the events, techniques and controversies leading to the Tower’s construction. Enjoy some of the best views over the City of Lights.</t>
+          <t>Summarized description: Enjoy hassle-free entry to one of the world’s busiest monuments. Cut out the long admission lines with a timed, priority-entry ticket. Admire sweeping aerial views of Les Invalides, Notre Dame Cathedral, and more.</t>
         </is>
       </c>
       <c r="B1203" t="inlineStr"/>
@@ -18547,7 +18547,7 @@
     <row r="1204">
       <c r="A1204" t="inlineStr">
         <is>
-          <t>Title: Eiffel Tower Tour with Second floor access and timed entry</t>
+          <t>Title: Eiffel Tower Skip the Line 2nd Level Access with Host in Paris</t>
         </is>
       </c>
       <c r="B1204" t="inlineStr"/>
@@ -18562,7 +18562,7 @@
     <row r="1205">
       <c r="A1205" t="inlineStr">
         <is>
-          <t>TotalReviews: 4</t>
+          <t>TotalReviews: 1</t>
         </is>
       </c>
       <c r="B1205" t="inlineStr"/>
@@ -18577,7 +18577,7 @@
     <row r="1206">
       <c r="A1206" t="inlineStr">
         <is>
-          <t>Category: ['Modern Attractions', 'Historical Tours']</t>
+          <t>Category: ['Modern Attractions']</t>
         </is>
       </c>
       <c r="B1206" t="inlineStr"/>
@@ -18592,7 +18592,7 @@
     <row r="1207">
       <c r="A1207" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 2050P352</t>
+          <t>PRODUCTCODE: 116848P36</t>
         </is>
       </c>
       <c r="B1207" t="inlineStr"/>
@@ -18607,7 +18607,7 @@
     <row r="1208">
       <c r="A1208" t="inlineStr">
         <is>
-          <t>Summarized description: Paris is a wonderful city, indeed the city of light will leave you speechless. Get on a coach with your friends and family to discover all the emblematic places of the city. Discover world-famous places such as the Louvre, the Champs Elysées, the Arc de Triomphe, Notre Dame and the Opéra Garnier.</t>
+          <t>Summarized description: The Eiffel Tower is one of the most popular tourist attractions in the world. Choose a priority-access ticket to the second floor to avoid long lines.</t>
         </is>
       </c>
       <c r="B1208" t="inlineStr"/>
@@ -18622,7 +18622,7 @@
     <row r="1209">
       <c r="A1209" t="inlineStr">
         <is>
-          <t xml:space="preserve">Title: Eiffel Tower Visit of the 2nd floor &amp; Summit Option &amp; City Tour </t>
+          <t>Title: Eiffel Tower Paris Second Floor Priority Access</t>
         </is>
       </c>
       <c r="B1209" t="inlineStr"/>
@@ -18637,7 +18637,7 @@
     <row r="1210">
       <c r="A1210" t="inlineStr">
         <is>
-          <t>TotalReviews: 4</t>
+          <t>TotalReviews: 1</t>
         </is>
       </c>
       <c r="B1210" t="inlineStr"/>
@@ -18652,7 +18652,7 @@
     <row r="1211">
       <c r="A1211" t="inlineStr">
         <is>
-          <t>Category: ['City Tours']</t>
+          <t>Category: ['Modern Attractions']</t>
         </is>
       </c>
       <c r="B1211" t="inlineStr"/>
@@ -18667,7 +18667,7 @@
     <row r="1212">
       <c r="A1212" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 7832P109</t>
+          <t>PRODUCTCODE: 248877P27</t>
         </is>
       </c>
       <c r="B1212" t="inlineStr"/>
@@ -18682,7 +18682,7 @@
     <row r="1213">
       <c r="A1213" t="inlineStr">
         <is>
-          <t>Summarized description: Skip the long lines to one of the most popular monument in Europe and enjoy fast track access to the Eiffel Tower. Be amazed by the illuminated views of Paris at night on a 1 hour River Cruise.</t>
+          <t>Summarized description: Visit the Eiffel Tower with a priority-access ticket. Enjoy access to the 1st and 2nd floors and the Summit by elevator. Marvel at spectacular views of Paris.</t>
         </is>
       </c>
       <c r="B1213" t="inlineStr"/>
@@ -18697,7 +18697,7 @@
     <row r="1214">
       <c r="A1214" t="inlineStr">
         <is>
-          <t xml:space="preserve">Title:  Eiffel Tower Summit &amp; River Cruise Tickets by Night </t>
+          <t>Title: Paris Essentials : Eiffel Tower Skip the Line with Summit Access</t>
         </is>
       </c>
       <c r="B1214" t="inlineStr"/>
@@ -18712,7 +18712,7 @@
     <row r="1215">
       <c r="A1215" t="inlineStr">
         <is>
-          <t>TotalReviews: 4</t>
+          <t>TotalReviews: 1</t>
         </is>
       </c>
       <c r="B1215" t="inlineStr"/>
@@ -18727,7 +18727,7 @@
     <row r="1216">
       <c r="A1216" t="inlineStr">
         <is>
-          <t>Category: ['Modern Attractions', 'Cultural Cruises']</t>
+          <t>Category: ['Scenic Tours', 'Modern Attractions']</t>
         </is>
       </c>
       <c r="B1216" t="inlineStr"/>
@@ -18742,7 +18742,7 @@
     <row r="1217">
       <c r="A1217" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 419625P4</t>
+          <t>PRODUCTCODE: 381347P3</t>
         </is>
       </c>
       <c r="B1217" t="inlineStr"/>
@@ -18757,7 +18757,7 @@
     <row r="1218">
       <c r="A1218" t="inlineStr">
         <is>
-          <t>Summarized description: Our guide will provide a captivating historical overview of the Eiffel Tower. As you pass through security, our knowledgeable host will accompany you. The guide will have your summit (top floor) Skip-The-Line elevator tickets.</t>
+          <t>Summarized description: Direct Summit Access to one of the most famous monuments in the world. knowledgeable guides will entertain you with facts about the Eiffel tower. Breathtaking panoramic views from the top floor.</t>
         </is>
       </c>
       <c r="B1218" t="inlineStr"/>
@@ -18772,7 +18772,7 @@
     <row r="1219">
       <c r="A1219" t="inlineStr">
         <is>
-          <t>Title: Eiffel Tower Summit/All Floors Skip-The-Line Guided Tour By Lift</t>
+          <t>Title: Eiffel Tower Summit Direct Access</t>
         </is>
       </c>
       <c r="B1219" t="inlineStr"/>
@@ -18787,7 +18787,7 @@
     <row r="1220">
       <c r="A1220" t="inlineStr">
         <is>
-          <t>TotalReviews: 3</t>
+          <t>TotalReviews: 1</t>
         </is>
       </c>
       <c r="B1220" t="inlineStr"/>
@@ -18802,7 +18802,7 @@
     <row r="1221">
       <c r="A1221" t="inlineStr">
         <is>
-          <t>Category: ['Modern Attractions']</t>
+          <t>Category: ['Scenic Tours', 'Modern Attractions']</t>
         </is>
       </c>
       <c r="B1221" t="inlineStr"/>
@@ -18817,7 +18817,7 @@
     <row r="1222">
       <c r="A1222" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 443044P1</t>
+          <t>PRODUCTCODE: 158620P26</t>
         </is>
       </c>
       <c r="B1222" t="inlineStr"/>
@@ -18832,7 +18832,7 @@
     <row r="1223">
       <c r="A1223" t="inlineStr">
         <is>
-          <t>Summarized description: Find out more about the building itself and the civil engineer that designed it, Gustave Eiffel. Take advantage of the optional opportunity to ascend by elevator past the second floor to the summit of the tower.</t>
+          <t>Summarized description: Enjoy priority access to one of the world's most iconic landmarks, the Eiffel Tower. Learn about its history and experience breathtaking views over Paris.</t>
         </is>
       </c>
       <c r="B1223" t="inlineStr"/>
@@ -18847,7 +18847,7 @@
     <row r="1224">
       <c r="A1224" t="inlineStr">
         <is>
-          <t>Title: Paris: Eiffel Tower Guided Tour with Optional Summit Access</t>
+          <t>Title: Eiffel Tower Tickets including the Summit</t>
         </is>
       </c>
       <c r="B1224" t="inlineStr"/>
@@ -18862,7 +18862,7 @@
     <row r="1225">
       <c r="A1225" t="inlineStr">
         <is>
-          <t>TotalReviews: 3</t>
+          <t>TotalReviews: 1</t>
         </is>
       </c>
       <c r="B1225" t="inlineStr"/>
@@ -18877,7 +18877,7 @@
     <row r="1226">
       <c r="A1226" t="inlineStr">
         <is>
-          <t>Category: ['Modern Attractions']</t>
+          <t>Category: ['City Tours', 'Modern Attractions']</t>
         </is>
       </c>
       <c r="B1226" t="inlineStr"/>
@@ -18892,7 +18892,7 @@
     <row r="1227">
       <c r="A1227" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 451830P1</t>
+          <t>PRODUCTCODE: 210555P12</t>
         </is>
       </c>
       <c r="B1227" t="inlineStr"/>
@@ -18907,7 +18907,7 @@
     <row r="1228">
       <c r="A1228" t="inlineStr">
         <is>
-          <t>Summarized description: The climb up to the second floor of the Eiffel Tower is around 674 steps. From there, you can choose to keep going to the summit on your own via elevator.</t>
+          <t>Summarized description: Get your E-tickets by sitting at your home and skip the line like a VIP once you reach at Eiffel Tower. Take direct entry to second floor via lift.</t>
         </is>
       </c>
       <c r="B1228" t="inlineStr"/>
@@ -18922,7 +18922,7 @@
     <row r="1229">
       <c r="A1229" t="inlineStr">
         <is>
-          <t>Title: Rise Above Paris Eiffel Tower Climbing Tour with Summit Access</t>
+          <t>Title: Eiffel Tower Tickets----Skip The Line VIP access to Second Floor</t>
         </is>
       </c>
       <c r="B1229" t="inlineStr"/>
@@ -18937,7 +18937,7 @@
     <row r="1230">
       <c r="A1230" t="inlineStr">
         <is>
-          <t>TotalReviews: 3</t>
+          <t>TotalReviews: 1</t>
         </is>
       </c>
       <c r="B1230" t="inlineStr"/>
@@ -18952,7 +18952,7 @@
     <row r="1231">
       <c r="A1231" t="inlineStr">
         <is>
-          <t>Category: ['Modern Attractions']</t>
+          <t>Category: ['Transportation &amp; Travel Services', 'Modern Attractions']</t>
         </is>
       </c>
       <c r="B1231" t="inlineStr"/>
@@ -18967,7 +18967,7 @@
     <row r="1232">
       <c r="A1232" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 73434P64</t>
+          <t>PRODUCTCODE: 384451P2</t>
         </is>
       </c>
       <c r="B1232" t="inlineStr"/>
@@ -18982,7 +18982,7 @@
     <row r="1233">
       <c r="A1233" t="inlineStr">
         <is>
-          <t>Summarized description: Enjoy priority access to one of the world's most iconic landmarks, the Eiffel Tower. Learn about its history and experience breathtaking views over Paris.</t>
+          <t>Summarized description: Soar at 115 m high for a 360 stunning view of the City of Light and all of its gorgeous landscapes. Expert team will provide you with every bit of information and facts about the famous Iron Lady.</t>
         </is>
       </c>
       <c r="B1233" t="inlineStr"/>
@@ -18997,7 +18997,7 @@
     <row r="1234">
       <c r="A1234" t="inlineStr">
         <is>
-          <t>Title: Eiffel Tower Tickets including the Summit in Paris</t>
+          <t>Title: Eiffel Tower Second Floor Priority Access</t>
         </is>
       </c>
       <c r="B1234" t="inlineStr"/>
@@ -19012,7 +19012,7 @@
     <row r="1235">
       <c r="A1235" t="inlineStr">
         <is>
-          <t>TotalReviews: 3</t>
+          <t>TotalReviews: 1</t>
         </is>
       </c>
       <c r="B1235" t="inlineStr"/>
@@ -19027,7 +19027,7 @@
     <row r="1236">
       <c r="A1236" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Modern Attractions']</t>
+          <t>Category: ['Scenic Tours', 'City Tours']</t>
         </is>
       </c>
       <c r="B1236" t="inlineStr"/>
@@ -19042,7 +19042,7 @@
     <row r="1237">
       <c r="A1237" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 7832P116</t>
+          <t>PRODUCTCODE: 6839P104</t>
         </is>
       </c>
       <c r="B1237" t="inlineStr"/>
@@ -19057,7 +19057,7 @@
     <row r="1238">
       <c r="A1238" t="inlineStr">
         <is>
-          <t>Summarized description: Skip the long lines to one of the most popular monument in Europe and enjoy fast track access to the Eiffel Tower. Be amazed by the illuminated views of Paris at night on a 1 hour River Cruise.</t>
+          <t>Summarized description: Take the elevators to the 2nd floor or the summit and enjoy the panoramic views of the city. Experience the Eiffel Tower with priority access.</t>
         </is>
       </c>
       <c r="B1238" t="inlineStr"/>
@@ -19072,7 +19072,7 @@
     <row r="1239">
       <c r="A1239" t="inlineStr">
         <is>
-          <t xml:space="preserve">Title:  Eiffel Tower Ticket with Summit Access &amp; Seine River Cruise by Night </t>
+          <t>Title: Paris: Eiffel Tower Experience</t>
         </is>
       </c>
       <c r="B1239" t="inlineStr"/>
@@ -19087,7 +19087,7 @@
     <row r="1240">
       <c r="A1240" t="inlineStr">
         <is>
-          <t>TotalReviews: 3</t>
+          <t>TotalReviews: 1</t>
         </is>
       </c>
       <c r="B1240" t="inlineStr"/>
@@ -19102,7 +19102,7 @@
     <row r="1241">
       <c r="A1241" t="inlineStr">
         <is>
-          <t>Category: ['Modern Attractions', 'Cultural Cruises']</t>
+          <t>Category: ['Modern Attractions']</t>
         </is>
       </c>
       <c r="B1241" t="inlineStr"/>
@@ -19117,7 +19117,7 @@
     <row r="1242">
       <c r="A1242" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 239922P36</t>
+          <t>PRODUCTCODE: 157275P54</t>
         </is>
       </c>
       <c r="B1242" t="inlineStr"/>
@@ -19132,7 +19132,7 @@
     <row r="1243">
       <c r="A1243" t="inlineStr">
         <is>
-          <t>Summarized description: The design of the Eiffel Tower is attributed to Maurice Koechlin and Émile Nouguier. It was envisioned after a discussion about a suitable centerpiece for the proposed 1889 Exposition Universelle, a world's fair to celebrate the centennial of the French Revolution.</t>
+          <t>Summarized description: Paris Eiffel Tower Ticket Direct Entry with Summit Floor 5-hour tour. With Audio Guide, you’ll gain priority access to tower’s second level. Toast your travels with a glass of bubbly from the Champagne bar.</t>
         </is>
       </c>
       <c r="B1243" t="inlineStr"/>
@@ -19147,7 +19147,7 @@
     <row r="1244">
       <c r="A1244" t="inlineStr">
         <is>
-          <t>Title: Eiffel Tower Summit or 2nd Floor Access With Optional 1-hour Seine River Cruise</t>
+          <t>Title: Paris Eiffel Tower Ticket Direct Entry with Summit Floor</t>
         </is>
       </c>
       <c r="B1244" t="inlineStr"/>
@@ -19162,7 +19162,7 @@
     <row r="1245">
       <c r="A1245" t="inlineStr">
         <is>
-          <t>TotalReviews: 3</t>
+          <t>TotalReviews: 1</t>
         </is>
       </c>
       <c r="B1245" t="inlineStr"/>
@@ -19177,7 +19177,7 @@
     <row r="1246">
       <c r="A1246" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Modern Attractions', 'Historical Tours']</t>
+          <t>Category: ['Culinary Tours', 'Modern Attractions']</t>
         </is>
       </c>
       <c r="B1246" t="inlineStr"/>
@@ -19192,7 +19192,7 @@
     <row r="1247">
       <c r="A1247" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 239576P24</t>
+          <t>PRODUCTCODE: 157275P27</t>
         </is>
       </c>
       <c r="B1247" t="inlineStr"/>
@@ -19207,7 +19207,7 @@
     <row r="1248">
       <c r="A1248" t="inlineStr">
         <is>
-          <t>Summarized description: Learn the tower's background and all of its little-known mysteries from your knowledgeable guide. With optional summit access, enjoy unrivaled city views.</t>
+          <t>Summarized description: Paris Eiffel Tower Ticket Direct Entry with Summit Floor 5-hour tour. With Audio Guide, you’ll gain priority access to tower’s second level. Toast your travels with a glass of bubbly from the Champagne bar.</t>
         </is>
       </c>
       <c r="B1248" t="inlineStr"/>
@@ -19222,7 +19222,7 @@
     <row r="1249">
       <c r="A1249" t="inlineStr">
         <is>
-          <t>Title: Eiffel Tower Summit or Second Floor Access with Lift</t>
+          <t xml:space="preserve">Title:  Paris Eiffel Tower Ticket Direct Entry with Summit Floor </t>
         </is>
       </c>
       <c r="B1249" t="inlineStr"/>
@@ -19237,7 +19237,7 @@
     <row r="1250">
       <c r="A1250" t="inlineStr">
         <is>
-          <t>TotalReviews: 3</t>
+          <t>TotalReviews: 1</t>
         </is>
       </c>
       <c r="B1250" t="inlineStr"/>
@@ -19252,7 +19252,7 @@
     <row r="1251">
       <c r="A1251" t="inlineStr">
         <is>
-          <t>Category: ['Aerial Tours']</t>
+          <t>Category: ['Culinary Tours', 'Modern Attractions']</t>
         </is>
       </c>
       <c r="B1251" t="inlineStr"/>
@@ -19267,7 +19267,7 @@
     <row r="1252">
       <c r="A1252" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 320547P164</t>
+          <t>PRODUCTCODE: 158620P3</t>
         </is>
       </c>
       <c r="B1252" t="inlineStr"/>
@@ -19282,7 +19282,7 @@
     <row r="1253">
       <c r="A1253" t="inlineStr">
         <is>
-          <t>Summarized description: Our private Host is here to make things easier for you. You meet your host at a designated place where our host gives you a short explaination about this famous Monument. You climb up alone once you get the tickets from the host. It's Eiffel Tower second floor with elevator ticket included.</t>
+          <t>Summarized description: Get sensational views from the 2nd floor of the Iron Lady and walk on the glass floor. Embark on a 2-hour tour with a Timed Entrance Ticket &amp; a professional experienced guide.</t>
         </is>
       </c>
       <c r="B1253" t="inlineStr"/>
@@ -19297,7 +19297,7 @@
     <row r="1254">
       <c r="A1254" t="inlineStr">
         <is>
-          <t>Title: Eiffel Tower 2nd Floor Elevator Tour Eiffel with Private Host</t>
+          <t>Title:  Paris: Eiffel Tower 2nd Level Tour with Summit Access</t>
         </is>
       </c>
       <c r="B1254" t="inlineStr"/>
@@ -19312,7 +19312,7 @@
     <row r="1255">
       <c r="A1255" t="inlineStr">
         <is>
-          <t>TotalReviews: 3</t>
+          <t>TotalReviews: 1</t>
         </is>
       </c>
       <c r="B1255" t="inlineStr"/>
@@ -19327,7 +19327,7 @@
     <row r="1256">
       <c r="A1256" t="inlineStr">
         <is>
-          <t>Category: ['Modern Attractions']</t>
+          <t>Category: ['City Tours', 'Modern Attractions']</t>
         </is>
       </c>
       <c r="B1256" t="inlineStr"/>
@@ -19342,7 +19342,7 @@
     <row r="1257">
       <c r="A1257" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 60672P97</t>
+          <t>PRODUCTCODE: 243313P23</t>
         </is>
       </c>
       <c r="B1257" t="inlineStr"/>
@@ -19357,7 +19357,7 @@
     <row r="1258">
       <c r="A1258" t="inlineStr">
         <is>
-          <t>Summarized description: The Eiffel Tower is one of the most famous landmarks in the world. It is located at the top of the Champs-Elysees in Paris, France.</t>
+          <t>Summarized description:  skip-the-line tickets give you access to the 2nd level of the Eiffel Tower. Check out stunning Parisian landmarks such as the Champs Elysees, Notre Dame, Montmartre, Seine River, and so on.</t>
         </is>
       </c>
       <c r="B1258" t="inlineStr"/>
@@ -19372,7 +19372,7 @@
     <row r="1259">
       <c r="A1259" t="inlineStr">
         <is>
-          <t>Title: Paris: Climb up the Eiffel Tower - Summit Included By Lift</t>
+          <t xml:space="preserve">Title: Eiffel Tower Skip the Line Experience : 2nd Floor or SUMMIT with Lift Access </t>
         </is>
       </c>
       <c r="B1259" t="inlineStr"/>
@@ -19387,7 +19387,7 @@
     <row r="1260">
       <c r="A1260" t="inlineStr">
         <is>
-          <t>TotalReviews: 3</t>
+          <t>TotalReviews: 1</t>
         </is>
       </c>
       <c r="B1260" t="inlineStr"/>
@@ -19402,7 +19402,7 @@
     <row r="1261">
       <c r="A1261" t="inlineStr">
         <is>
-          <t>Category: ['Modern Attractions']</t>
+          <t>Category: ['Scenic Tours', 'City Tours']</t>
         </is>
       </c>
       <c r="B1261" t="inlineStr"/>
@@ -19417,7 +19417,7 @@
     <row r="1262">
       <c r="A1262" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 239343P19</t>
+          <t>PRODUCTCODE: 175789P38</t>
         </is>
       </c>
       <c r="B1262" t="inlineStr"/>
@@ -19432,7 +19432,7 @@
     <row r="1263">
       <c r="A1263" t="inlineStr">
         <is>
-          <t>Summarized description: Enjoy direct access to the Second floor of the Eiffel Tower by Elevator or Stairs. Choose a time to embark on a Seine sightseeing river cruise.</t>
+          <t>Summarized description: Watch the bustling crowds on the busy Champ de Mars in the Tower's shadow. Save precious time at the Eiffel Tower with a priority-access ticket to the second level.</t>
         </is>
       </c>
       <c r="B1263" t="inlineStr"/>
@@ -19447,7 +19447,7 @@
     <row r="1264">
       <c r="A1264" t="inlineStr">
         <is>
-          <t>Title: Eiffel Tower Second Floor Access and Seine River Cruise Tour</t>
+          <t>Title: Paris Essentials : Eiffel Tower Tour (Skip the line &amp; Second Floor Access)</t>
         </is>
       </c>
       <c r="B1264" t="inlineStr"/>
@@ -19462,7 +19462,7 @@
     <row r="1265">
       <c r="A1265" t="inlineStr">
         <is>
-          <t>TotalReviews: 3</t>
+          <t>TotalReviews: 0</t>
         </is>
       </c>
       <c r="B1265" t="inlineStr"/>
@@ -19477,7 +19477,7 @@
     <row r="1266">
       <c r="A1266" t="inlineStr">
         <is>
-          <t>Category: ['City Tours']</t>
+          <t>Category: ['Scenic Tours', 'Modern Attractions']</t>
         </is>
       </c>
       <c r="B1266" t="inlineStr"/>
@@ -19492,7 +19492,7 @@
     <row r="1267">
       <c r="A1267" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 60672P98</t>
+          <t>PRODUCTCODE: 429951P1</t>
         </is>
       </c>
       <c r="B1267" t="inlineStr"/>
@@ -19507,7 +19507,7 @@
     <row r="1268">
       <c r="A1268" t="inlineStr">
         <is>
-          <t>Summarized description: Enjoy bird's eye views of Paris from the 2nd floor observation deck. Then access the summit for a peek at Gustave Eiffel's original office. Please make sure to arrive 15 min before the hour of your tour.</t>
+          <t>Summarized description: Eiffel Tower, Invalides, Cathedrale Notre-Dame de Paris, Arc de Triomphe, Grande Arche de La Defense, Louvre Museum, Grande Palais, Tour Montparnasse, etc.</t>
         </is>
       </c>
       <c r="B1268" t="inlineStr"/>
@@ -19522,7 +19522,7 @@
     <row r="1269">
       <c r="A1269" t="inlineStr">
         <is>
-          <t>Title: Paris: Eiffel Tower Fast Access, Entertaining Guide + Summit access</t>
+          <t>Title: Skip The Line Eiffel Tower 2nd Floor by Elevator</t>
         </is>
       </c>
       <c r="B1269" t="inlineStr"/>
@@ -19537,7 +19537,7 @@
     <row r="1270">
       <c r="A1270" t="inlineStr">
         <is>
-          <t>TotalReviews: 3</t>
+          <t>TotalReviews: 0</t>
         </is>
       </c>
       <c r="B1270" t="inlineStr"/>
@@ -19552,7 +19552,7 @@
     <row r="1271">
       <c r="A1271" t="inlineStr">
         <is>
-          <t>Category: ['Modern Attractions']</t>
+          <t>Category: ['City Tours', 'Museums', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B1271" t="inlineStr"/>
@@ -19567,7 +19567,7 @@
     <row r="1272">
       <c r="A1272" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 247780P9</t>
+          <t>PRODUCTCODE: 163680P31</t>
         </is>
       </c>
       <c r="B1272" t="inlineStr"/>
@@ -19582,7 +19582,7 @@
     <row r="1273">
       <c r="A1273" t="inlineStr">
         <is>
-          <t>Summarized description: Get access to the tower's second level. Delve into the history of one of the world's most famous monuments. Head to the summit for stellar views of the City of Lights.</t>
+          <t>Summarized description: The Eiffel Tower was the main exhibit of the Paris Exposition — or World's Fair — of 1889. It was constructed to commemorate the centennial of the French Revolution and to demonstrate France's industrial prowess.</t>
         </is>
       </c>
       <c r="B1273" t="inlineStr"/>
@@ -19597,7 +19597,7 @@
     <row r="1274">
       <c r="A1274" t="inlineStr">
         <is>
-          <t>Title: Access the 2nd floor and Summit Level of Eiffel tower with Guide</t>
+          <t>Title: The Eiffel Tower Skip- the -Line- Ticket with access to Summit via lifts</t>
         </is>
       </c>
       <c r="B1274" t="inlineStr"/>
@@ -19612,7 +19612,7 @@
     <row r="1275">
       <c r="A1275" t="inlineStr">
         <is>
-          <t>TotalReviews: 2</t>
+          <t>TotalReviews: 0</t>
         </is>
       </c>
       <c r="B1275" t="inlineStr"/>
@@ -19627,7 +19627,7 @@
     <row r="1276">
       <c r="A1276" t="inlineStr">
         <is>
-          <t>Category: ['Modern Attractions']</t>
+          <t>Category: ['Cultural Tours', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B1276" t="inlineStr"/>
@@ -19642,7 +19642,7 @@
     <row r="1277">
       <c r="A1277" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 435669P2</t>
+          <t>PRODUCTCODE: 248877P42</t>
         </is>
       </c>
       <c r="B1277" t="inlineStr"/>
@@ -19657,7 +19657,7 @@
     <row r="1278">
       <c r="A1278" t="inlineStr">
         <is>
-          <t>Summarized description: Visit the Eiffel Tower with this tour that includes 2rd Floor access. Learn about Paris culture, traditions, and history. Sip Champagne from the onsite bar (own expense)</t>
+          <t>Summarized description: The Eiffel Tower is a wrought iron lattice tower on the Champ de Mars in Paris, France. Enjoy direct access before admiring exceptional views of Paris. Take a thrilling trip to the summit or second level with a professional guide.</t>
         </is>
       </c>
       <c r="B1278" t="inlineStr"/>
@@ -19672,7 +19672,7 @@
     <row r="1279">
       <c r="A1279" t="inlineStr">
         <is>
-          <t>Title: Eiffel Tower 2nd Floor Access</t>
+          <t>Title: Eiffel Tower Summit or 2nd Floor Direct Access Guided Tour (Small Group)</t>
         </is>
       </c>
       <c r="B1279" t="inlineStr"/>
@@ -19687,7 +19687,7 @@
     <row r="1280">
       <c r="A1280" t="inlineStr">
         <is>
-          <t>TotalReviews: 2</t>
+          <t>TotalReviews: 0</t>
         </is>
       </c>
       <c r="B1280" t="inlineStr"/>
@@ -19702,7 +19702,7 @@
     <row r="1281">
       <c r="A1281" t="inlineStr">
         <is>
-          <t>Category: ['Historical Tours', 'Cultural Cruises']</t>
+          <t>Category: ['Scenic Tours', 'Modern Attractions']</t>
         </is>
       </c>
       <c r="B1281" t="inlineStr"/>
@@ -19717,7 +19717,7 @@
     <row r="1282">
       <c r="A1282" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 275837P12</t>
+          <t>PRODUCTCODE: 248877P48</t>
         </is>
       </c>
       <c r="B1282" t="inlineStr"/>
@@ -19732,7 +19732,7 @@
     <row r="1283">
       <c r="A1283" t="inlineStr">
         <is>
-          <t>Summarized description: Guests book this experience because their guide handles everything. Your tickets are acquired on site by your guide and it takes you up to the 2nd level. For an extra experience, you can take the stairs as you descend.</t>
+          <t>Summarized description:  skip-the-line tickets give you access to the 2nd level of the Eiffel Tower. Check out stunning Parisian neighborhoods such as the Champs Elysees, Notre Dame, Montmartre, Seine River.</t>
         </is>
       </c>
       <c r="B1283" t="inlineStr"/>
@@ -19747,7 +19747,7 @@
     <row r="1284">
       <c r="A1284" t="inlineStr">
         <is>
-          <t>Title: Eiffel Tower visit with Experienced Guide | Take the Elevator to the 2nd Floor</t>
+          <t xml:space="preserve">Title: Eiffel Tower Skip the Line: 2nd Floor or SUMMIT Access with Quick Lift </t>
         </is>
       </c>
       <c r="B1284" t="inlineStr"/>
@@ -19762,7 +19762,7 @@
     <row r="1285">
       <c r="A1285" t="inlineStr">
         <is>
-          <t>TotalReviews: 2</t>
+          <t>TotalReviews: 0</t>
         </is>
       </c>
       <c r="B1285" t="inlineStr"/>
@@ -19777,7 +19777,7 @@
     <row r="1286">
       <c r="A1286" t="inlineStr">
         <is>
-          <t>Category: ['Modern Attractions']</t>
+          <t>Category: ['Scenic Tours', 'Modern Attractions']</t>
         </is>
       </c>
       <c r="B1286" t="inlineStr"/>
@@ -19792,7 +19792,7 @@
     <row r="1287">
       <c r="A1287" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 7832P152</t>
+          <t>PRODUCTCODE: 226727P85</t>
         </is>
       </c>
       <c r="B1287" t="inlineStr"/>
@@ -19807,7 +19807,7 @@
     <row r="1288">
       <c r="A1288" t="inlineStr">
         <is>
-          <t>Summarized description: Get panoramic views of iconic monuments such as the Notre-Dame de Paris. Enjoy bird's eye views of the Egyptian obelisk on Place de la Concorde. See the Louvre Museum and Sacré Coeur basilica from a different perspective.</t>
+          <t>Summarized description: The Eiffel Tower is one of the most famous landmarks in the world. It was built in 1889 by French engineer Gustave Eiffler. The tower is now a tourist attraction.</t>
         </is>
       </c>
       <c r="B1288" t="inlineStr"/>
@@ -19822,7 +19822,7 @@
     <row r="1289">
       <c r="A1289" t="inlineStr">
         <is>
-          <t>Title: Eiffel Tower Second Floor Access With Host</t>
+          <t xml:space="preserve">Title: Tickets for Eiffel Tower - 2nd Floor: Priority Entrance + Audio Tour </t>
         </is>
       </c>
       <c r="B1289" t="inlineStr"/>
@@ -19837,7 +19837,7 @@
     <row r="1290">
       <c r="A1290" t="inlineStr">
         <is>
-          <t>TotalReviews: 2</t>
+          <t>TotalReviews: 0</t>
         </is>
       </c>
       <c r="B1290" t="inlineStr"/>
@@ -19852,7 +19852,7 @@
     <row r="1291">
       <c r="A1291" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Modern Attractions']</t>
+          <t>Category: ['City Tours', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B1291" t="inlineStr"/>
@@ -19867,7 +19867,7 @@
     <row r="1292">
       <c r="A1292" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 421480P6</t>
+          <t>PRODUCTCODE: 73434P120</t>
         </is>
       </c>
       <c r="B1292" t="inlineStr"/>
@@ -19882,7 +19882,7 @@
     <row r="1293">
       <c r="A1293" t="inlineStr">
         <is>
-          <t>Summarized description: Pre-purchased tickets offer direct access inside the tower after a swift security check at your selected time slot. This not only ensures a seamless entry process but also saves you valuable time.</t>
+          <t>Summarized description: Get sensational views from the 2nd floor of the Iron Lady and walk on the glass floor. Embark on a 2-hour private guided tour with a Timed Entrance Ticket.</t>
         </is>
       </c>
       <c r="B1293" t="inlineStr"/>
@@ -19897,7 +19897,7 @@
     <row r="1294">
       <c r="A1294" t="inlineStr">
         <is>
-          <t>Title: Eiffel Tower Skip The Line Ticket To Second Floor</t>
+          <t>Title: Private Eiffel Tower 2nd level Tour with Summit Access in Paris</t>
         </is>
       </c>
       <c r="B1294" t="inlineStr"/>
@@ -19912,7 +19912,7 @@
     <row r="1295">
       <c r="A1295" t="inlineStr">
         <is>
-          <t>TotalReviews: 1</t>
+          <t>TotalReviews: 0</t>
         </is>
       </c>
       <c r="B1295" t="inlineStr"/>
@@ -19927,7 +19927,7 @@
     <row r="1296">
       <c r="A1296" t="inlineStr">
         <is>
-          <t>Category: ['']</t>
+          <t>Category: ['City Tours', 'Modern Attractions']</t>
         </is>
       </c>
       <c r="B1296" t="inlineStr"/>
@@ -19942,7 +19942,7 @@
     <row r="1297">
       <c r="A1297" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 320547P788</t>
+          <t>PRODUCTCODE: 9205P14</t>
         </is>
       </c>
       <c r="B1297" t="inlineStr"/>
@@ -19957,7 +19957,7 @@
     <row r="1298">
       <c r="A1298" t="inlineStr">
         <is>
-          <t>Summarized description: Eiffel Tower summit can be closed sometimes and visitors maybe allowed only up to second floor. In such cases, no refund is possible. Private transport from your hotel to Eiffel tower and back.</t>
+          <t>Summarized description: Discover Paris' most famous landmark with a local and passionate guide. Ticket includes skip-the-line access to the second level of the Eiffel Tower.</t>
         </is>
       </c>
       <c r="B1298" t="inlineStr"/>
@@ -19972,7 +19972,7 @@
     <row r="1299">
       <c r="A1299" t="inlineStr">
         <is>
-          <t>Title: Eiffel Tower Summit 3rd Floor Tour with Guide and Pick-up Drop</t>
+          <t>Title: Skip the Line: Eiffel Tower Tour and Summit Access by elevator-Group Option</t>
         </is>
       </c>
       <c r="B1299" t="inlineStr"/>
@@ -19987,7 +19987,7 @@
     <row r="1300">
       <c r="A1300" t="inlineStr">
         <is>
-          <t>TotalReviews: 1</t>
+          <t>TotalReviews: 0</t>
         </is>
       </c>
       <c r="B1300" t="inlineStr"/>
@@ -20002,7 +20002,7 @@
     <row r="1301">
       <c r="A1301" t="inlineStr">
         <is>
-          <t>Category: ['Modern Attractions']</t>
+          <t>Category: ['Modern Attractions', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B1301" t="inlineStr"/>
@@ -20017,7 +20017,7 @@
     <row r="1302">
       <c r="A1302" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 248877P36</t>
+          <t>PRODUCTCODE: 170990P27</t>
         </is>
       </c>
       <c r="B1302" t="inlineStr"/>
@@ -20032,7 +20032,7 @@
     <row r="1303">
       <c r="A1303" t="inlineStr">
         <is>
-          <t>Summarized description: Take advantage of priority access to the 2nd floor of the Eiffel Tower with a expert English speaking guide. Enjoy the view of Paris from above and add access to go all the way to the summit.</t>
+          <t>Summarized description: Enjoy hassle-free entry to one of the world’s busiest monuments. Cut out the long admission lines with a timed, priority-entry ticket. Explore the Eiffel Tower's first and second levels at your own pace.</t>
         </is>
       </c>
       <c r="B1303" t="inlineStr"/>
@@ -20047,7 +20047,7 @@
     <row r="1304">
       <c r="A1304" t="inlineStr">
         <is>
-          <t>Title: Eiffel Tower Guided Tour with Summit or Second Floor Priority Access</t>
+          <t>Title: Eiffel Tower Tour and Summit Priority Access</t>
         </is>
       </c>
       <c r="B1304" t="inlineStr"/>
@@ -20062,7 +20062,7 @@
     <row r="1305">
       <c r="A1305" t="inlineStr">
         <is>
-          <t>TotalReviews: 1</t>
+          <t>TotalReviews: 0</t>
         </is>
       </c>
       <c r="B1305" t="inlineStr"/>
@@ -20077,7 +20077,7 @@
     <row r="1306">
       <c r="A1306" t="inlineStr">
         <is>
-          <t>Category: ['Scenic Tours', 'Modern Attractions']</t>
+          <t>Category: ['City Tours', 'Modern Attractions']</t>
         </is>
       </c>
       <c r="B1306" t="inlineStr"/>
@@ -20092,7 +20092,7 @@
     <row r="1307">
       <c r="A1307" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 247780P10</t>
+          <t>PRODUCTCODE: 248877P47</t>
         </is>
       </c>
       <c r="B1307" t="inlineStr"/>
@@ -20107,7 +20107,7 @@
     <row r="1308">
       <c r="A1308" t="inlineStr">
         <is>
-          <t>Summarized description: Enjoy hassle-free entry to one of the world’s busiest monuments. Cut out the long admission lines with a timed, priority-entry ticket. Admire sweeping aerial views of Les Invalides, Notre Dame Cathedral, and more.</t>
+          <t>Summarized description: The Eiffel Tower is one of the most visited tourist attractions in the world. It is located on the banks of the River Seine in Paris, France.</t>
         </is>
       </c>
       <c r="B1308" t="inlineStr"/>
@@ -20122,7 +20122,7 @@
     <row r="1309">
       <c r="A1309" t="inlineStr">
         <is>
-          <t>Title: Eiffel Tower Skip the Line 2nd Level Access with Host in Paris</t>
+          <t>Title: Paris Eiffel Tower Experience (Access to 2nd Floor)</t>
         </is>
       </c>
       <c r="B1309" t="inlineStr"/>
@@ -20137,7 +20137,7 @@
     <row r="1310">
       <c r="A1310" t="inlineStr">
         <is>
-          <t>TotalReviews: 1</t>
+          <t>TotalReviews: 0</t>
         </is>
       </c>
       <c r="B1310" t="inlineStr"/>
@@ -20152,7 +20152,7 @@
     <row r="1311">
       <c r="A1311" t="inlineStr">
         <is>
-          <t>Category: ['Modern Attractions']</t>
+          <t>Category: ['Scenic Tours', 'Modern Attractions']</t>
         </is>
       </c>
       <c r="B1311" t="inlineStr"/>
@@ -20167,7 +20167,7 @@
     <row r="1312">
       <c r="A1312" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 116848P36</t>
+          <t>PRODUCTCODE: 427087P2</t>
         </is>
       </c>
       <c r="B1312" t="inlineStr"/>
@@ -20182,7 +20182,7 @@
     <row r="1313">
       <c r="A1313" t="inlineStr">
         <is>
-          <t>Summarized description: The Eiffel Tower is one of the most popular tourist attractions in the world. Choose a priority-access ticket to the second floor to avoid long lines.</t>
+          <t>Summarized description: Discover the Eiffel Tower at your own pace. You will get a more personalized and relaxed experience focused on your wishes. It will be a great and unique opportunity to share this memorable visit with your family or closest friends and nobody else.</t>
         </is>
       </c>
       <c r="B1313" t="inlineStr"/>
@@ -20197,7 +20197,7 @@
     <row r="1314">
       <c r="A1314" t="inlineStr">
         <is>
-          <t>Title: Eiffel Tower Paris Second Floor Priority Access</t>
+          <t>Title: Private Tour at the Eiffel Tower with Second Floor Access</t>
         </is>
       </c>
       <c r="B1314" t="inlineStr"/>
@@ -20212,7 +20212,7 @@
     <row r="1315">
       <c r="A1315" t="inlineStr">
         <is>
-          <t>TotalReviews: 1</t>
+          <t>TotalReviews: 0</t>
         </is>
       </c>
       <c r="B1315" t="inlineStr"/>
@@ -20227,7 +20227,7 @@
     <row r="1316">
       <c r="A1316" t="inlineStr">
         <is>
-          <t>Category: ['Modern Attractions']</t>
+          <t>Category: ['City Tours', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B1316" t="inlineStr"/>
@@ -20242,7 +20242,7 @@
     <row r="1317">
       <c r="A1317" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 248877P27</t>
+          <t>PRODUCTCODE: 183842P3</t>
         </is>
       </c>
       <c r="B1317" t="inlineStr"/>
@@ -20257,7 +20257,7 @@
     <row r="1318">
       <c r="A1318" t="inlineStr">
         <is>
-          <t>Summarized description: Visit the Eiffel Tower with a priority-access ticket. Enjoy access to the 1st and 2nd floors and the Summit by elevator. Marvel at spectacular views of Paris.</t>
+          <t>Summarized description: A unique experience, taking the elevator to the second floor and then the summit. Guided admission ticket to the Eiffel Tower. Enjoying panoramic view from both the summit and the first floor.</t>
         </is>
       </c>
       <c r="B1318" t="inlineStr"/>
@@ -20272,7 +20272,7 @@
     <row r="1319">
       <c r="A1319" t="inlineStr">
         <is>
-          <t>Title: Paris Essentials : Eiffel Tower Skip the Line with Summit Access</t>
+          <t xml:space="preserve">Title: Guided Tour Eiffel Tower elevator with Host </t>
         </is>
       </c>
       <c r="B1319" t="inlineStr"/>
@@ -20287,7 +20287,7 @@
     <row r="1320">
       <c r="A1320" t="inlineStr">
         <is>
-          <t>TotalReviews: 1</t>
+          <t>TotalReviews: 0</t>
         </is>
       </c>
       <c r="B1320" t="inlineStr"/>
@@ -20317,7 +20317,7 @@
     <row r="1322">
       <c r="A1322" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 381347P3</t>
+          <t>PRODUCTCODE: 320547P861</t>
         </is>
       </c>
       <c r="B1322" t="inlineStr"/>
@@ -20332,7 +20332,7 @@
     <row r="1323">
       <c r="A1323" t="inlineStr">
         <is>
-          <t>Summarized description: Direct Summit Access to one of the most famous monuments in the world. knowledgeable guides will entertain you with facts about the Eiffel tower. Breathtaking panoramic views from the top floor.</t>
+          <t>Summarized description: The Eiffel Tower has one of the best panoramic views in Paris. View the Louvre, Les Invalides, Sacré Coeur, and the Champ de Mars.</t>
         </is>
       </c>
       <c r="B1323" t="inlineStr"/>
@@ -20347,7 +20347,7 @@
     <row r="1324">
       <c r="A1324" t="inlineStr">
         <is>
-          <t>Title: Eiffel Tower Summit Direct Access</t>
+          <t>Title: Eiffel Tower Summit Eiffel tower Skip The Line with Host</t>
         </is>
       </c>
       <c r="B1324" t="inlineStr"/>
@@ -20362,7 +20362,7 @@
     <row r="1325">
       <c r="A1325" t="inlineStr">
         <is>
-          <t>TotalReviews: 1</t>
+          <t>TotalReviews: 0</t>
         </is>
       </c>
       <c r="B1325" t="inlineStr"/>
@@ -20377,7 +20377,7 @@
     <row r="1326">
       <c r="A1326" t="inlineStr">
         <is>
-          <t>Category: ['Scenic Tours', 'Modern Attractions']</t>
+          <t>Category: ['Modern Attractions']</t>
         </is>
       </c>
       <c r="B1326" t="inlineStr"/>
@@ -20392,7 +20392,7 @@
     <row r="1327">
       <c r="A1327" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 158620P26</t>
+          <t>PRODUCTCODE: 42097P32</t>
         </is>
       </c>
       <c r="B1327" t="inlineStr"/>
@@ -20407,7 +20407,7 @@
     <row r="1328">
       <c r="A1328" t="inlineStr">
         <is>
-          <t>Summarized description: Enjoy priority access to one of the world's most iconic landmarks, the Eiffel Tower. Learn about its history and experience breathtaking views over Paris.</t>
+          <t>Summarized description: Choose a priority access ticket to second level of the Eiffel Tower. Take in breathtaking, panoramic views of Paris from the top of the tower.</t>
         </is>
       </c>
       <c r="B1328" t="inlineStr"/>
@@ -20422,7 +20422,7 @@
     <row r="1329">
       <c r="A1329" t="inlineStr">
         <is>
-          <t>Title: Eiffel Tower Tickets including the Summit</t>
+          <t>Title: Paris Eiffel Tower - Second Floor Priority Access</t>
         </is>
       </c>
       <c r="B1329" t="inlineStr"/>
@@ -20437,7 +20437,7 @@
     <row r="1330">
       <c r="A1330" t="inlineStr">
         <is>
-          <t>TotalReviews: 1</t>
+          <t>TotalReviews: 0</t>
         </is>
       </c>
       <c r="B1330" t="inlineStr"/>
@@ -20452,7 +20452,7 @@
     <row r="1331">
       <c r="A1331" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Modern Attractions']</t>
+          <t>Category: ['Modern Attractions']</t>
         </is>
       </c>
       <c r="B1331" t="inlineStr"/>
@@ -20467,7 +20467,7 @@
     <row r="1332">
       <c r="A1332" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 7832P142</t>
+          <t>PRODUCTCODE: 199710P1</t>
         </is>
       </c>
       <c r="B1332" t="inlineStr"/>
@@ -20482,7 +20482,7 @@
     <row r="1333">
       <c r="A1333" t="inlineStr">
         <is>
-          <t>Summarized description: Avoid waiting for long lines and benefit of a priority access with your skip the ticket line tickets to the top of the Eiffel Tower. Enjoy a captivating musical selection played by resident DJs at Buddha-Bar.</t>
+          <t>Summarized description: Visit the Eiffel Tower with a priority access ticket. Enjoy access to the 1st and 2nd floors and the Top. Marvel at spectacular views of Paris.</t>
         </is>
       </c>
       <c r="B1333" t="inlineStr"/>
@@ -20497,7 +20497,7 @@
     <row r="1334">
       <c r="A1334" t="inlineStr">
         <is>
-          <t>Title: Eiffel Tower Summit Priority Access &amp; Champagne at Buddha-Bar</t>
+          <t>Title: Eiffel Tower Skip the Ticket Line with Summit Access</t>
         </is>
       </c>
       <c r="B1334" t="inlineStr"/>
@@ -20512,7 +20512,7 @@
     <row r="1335">
       <c r="A1335" t="inlineStr">
         <is>
-          <t>TotalReviews: 1</t>
+          <t>TotalReviews: 0</t>
         </is>
       </c>
       <c r="B1335" t="inlineStr"/>
@@ -20527,7 +20527,7 @@
     <row r="1336">
       <c r="A1336" t="inlineStr">
         <is>
-          <t>Category: ['Entertainment', 'Modern Attractions']</t>
+          <t>Category: ['City Tours', 'Modern Attractions']</t>
         </is>
       </c>
       <c r="B1336" t="inlineStr"/>
@@ -20542,7 +20542,7 @@
     <row r="1337">
       <c r="A1337" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 210555P12</t>
+          <t>PRODUCTCODE: 423194P1</t>
         </is>
       </c>
       <c r="B1337" t="inlineStr"/>
@@ -20557,7 +20557,7 @@
     <row r="1338">
       <c r="A1338" t="inlineStr">
         <is>
-          <t>Summarized description: Get your E-tickets by sitting at your home and skip the line like a VIP once you reach at Eiffel Tower. Take direct entry to second floor via lift.</t>
+          <t>Summarized description: Visit the Eiffel Tower with this entry ticket and marvel at spectacular views of Paris. Enjoy access to the 1st and 2nd floors by elevator. Hear the history and legends behind the Paris icon.</t>
         </is>
       </c>
       <c r="B1338" t="inlineStr"/>
@@ -20572,7 +20572,7 @@
     <row r="1339">
       <c r="A1339" t="inlineStr">
         <is>
-          <t>Title: Eiffel Tower Tickets----Skip The Line VIP access to Second Floor</t>
+          <t>Title: Eiffel Tower Elevator Guided Tour with Summit Access</t>
         </is>
       </c>
       <c r="B1339" t="inlineStr"/>
@@ -20587,7 +20587,7 @@
     <row r="1340">
       <c r="A1340" t="inlineStr">
         <is>
-          <t>TotalReviews: 1</t>
+          <t>TotalReviews: 0</t>
         </is>
       </c>
       <c r="B1340" t="inlineStr"/>
@@ -20602,7 +20602,7 @@
     <row r="1341">
       <c r="A1341" t="inlineStr">
         <is>
-          <t>Category: ['Transportation &amp; Travel Services', 'Modern Attractions']</t>
+          <t>Category: ['Modern Attractions']</t>
         </is>
       </c>
       <c r="B1341" t="inlineStr"/>
@@ -20617,7 +20617,7 @@
     <row r="1342">
       <c r="A1342" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 384451P2</t>
+          <t>PRODUCTCODE: 112782P31</t>
         </is>
       </c>
       <c r="B1342" t="inlineStr"/>
@@ -20632,7 +20632,7 @@
     <row r="1343">
       <c r="A1343" t="inlineStr">
         <is>
-          <t>Summarized description: Soar at 115 m high for a 360 stunning view of the City of Light and all of its gorgeous landscapes. Expert team will provide you with every bit of information and facts about the famous Iron Lady.</t>
+          <t>Summarized description: The Eiffel Tower is known to be the symbol of the city of Paris. You will get to know all about the building itself and about the civil engineer who created it. The view over the city will take your breath away.</t>
         </is>
       </c>
       <c r="B1343" t="inlineStr"/>
@@ -20647,7 +20647,7 @@
     <row r="1344">
       <c r="A1344" t="inlineStr">
         <is>
-          <t>Title: Eiffel Tower Second Floor Priority Access</t>
+          <t>Title: Paris: Eiffel Tower Guided Tour with Summit Access</t>
         </is>
       </c>
       <c r="B1344" t="inlineStr"/>
@@ -20662,7 +20662,7 @@
     <row r="1345">
       <c r="A1345" t="inlineStr">
         <is>
-          <t>TotalReviews: 1</t>
+          <t>TotalReviews: 0</t>
         </is>
       </c>
       <c r="B1345" t="inlineStr"/>
@@ -20677,7 +20677,7 @@
     <row r="1346">
       <c r="A1346" t="inlineStr">
         <is>
-          <t>Category: ['Scenic Tours', 'City Tours']</t>
+          <t>Category: ['Scenic Tours', 'Modern Attractions']</t>
         </is>
       </c>
       <c r="B1346" t="inlineStr"/>
@@ -20692,7 +20692,7 @@
     <row r="1347">
       <c r="A1347" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 6839P104</t>
+          <t>PRODUCTCODE: 248877P54</t>
         </is>
       </c>
       <c r="B1347" t="inlineStr"/>
@@ -20707,7 +20707,7 @@
     <row r="1348">
       <c r="A1348" t="inlineStr">
         <is>
-          <t>Summarized description: Take the elevators to the 2nd floor or the summit and enjoy the panoramic views of the city. Experience the Eiffel Tower with priority access.</t>
+          <t>Summarized description: The Eiffel Tower is one of the most famous landmarks in the world. It is located in the centre of the French capital, Paris. The tower was built in the early 1900s and is now a tourist attraction.</t>
         </is>
       </c>
       <c r="B1348" t="inlineStr"/>
@@ -20722,7 +20722,7 @@
     <row r="1349">
       <c r="A1349" t="inlineStr">
         <is>
-          <t>Title: Paris: Eiffel Tower Experience</t>
+          <t>Title: Eiffel Tower - Paris Icon Tour : Direct Access to the Second Floor Guided Tour</t>
         </is>
       </c>
       <c r="B1349" t="inlineStr"/>
@@ -20737,7 +20737,7 @@
     <row r="1350">
       <c r="A1350" t="inlineStr">
         <is>
-          <t>TotalReviews: 1</t>
+          <t>TotalReviews: 0</t>
         </is>
       </c>
       <c r="B1350" t="inlineStr"/>
@@ -20752,7 +20752,7 @@
     <row r="1351">
       <c r="A1351" t="inlineStr">
         <is>
-          <t>Category: ['Modern Attractions']</t>
+          <t>Category: ['Scenic Tours', 'Modern Attractions']</t>
         </is>
       </c>
       <c r="B1351" t="inlineStr"/>
@@ -20767,7 +20767,7 @@
     <row r="1352">
       <c r="A1352" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 157275P54</t>
+          <t>PRODUCTCODE: 396871P30</t>
         </is>
       </c>
       <c r="B1352" t="inlineStr"/>
@@ -20782,7 +20782,7 @@
     <row r="1353">
       <c r="A1353" t="inlineStr">
         <is>
-          <t>Summarized description: Paris Eiffel Tower Ticket Direct Entry with Summit Floor 5-hour tour. With Audio Guide, you’ll gain priority access to tower’s second level. Toast your travels with a glass of bubbly from the Champagne bar.</t>
+          <t>Summarized description: Gain immediate access to the Eiffel Tower's Top Summit. Ascend to the highest viewing platform for breathtaking, panoramic views of Paris. Enjoy a comprehensive audio guide available in English.</t>
         </is>
       </c>
       <c r="B1353" t="inlineStr"/>
@@ -20797,7 +20797,7 @@
     <row r="1354">
       <c r="A1354" t="inlineStr">
         <is>
-          <t>Title: Paris Eiffel Tower Ticket Direct Entry with Summit Floor</t>
+          <t>Title: Summit Eiffel Tower Top Floor Skip the line with Audio Guide Tour</t>
         </is>
       </c>
       <c r="B1354" t="inlineStr"/>
@@ -20812,7 +20812,7 @@
     <row r="1355">
       <c r="A1355" t="inlineStr">
         <is>
-          <t>TotalReviews: 1</t>
+          <t>TotalReviews: 0</t>
         </is>
       </c>
       <c r="B1355" t="inlineStr"/>
@@ -20827,7 +20827,7 @@
     <row r="1356">
       <c r="A1356" t="inlineStr">
         <is>
-          <t>Category: ['Modern Attractions', 'Culinary Tours']</t>
+          <t>Category: ['City Tours', 'Modern Attractions']</t>
         </is>
       </c>
       <c r="B1356" t="inlineStr"/>
@@ -20842,7 +20842,7 @@
     <row r="1357">
       <c r="A1357" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 157275P27</t>
+          <t>PRODUCTCODE: 182119P6</t>
         </is>
       </c>
       <c r="B1357" t="inlineStr"/>
@@ -20857,7 +20857,7 @@
     <row r="1358">
       <c r="A1358" t="inlineStr">
         <is>
-          <t>Summarized description: Paris Eiffel Tower Ticket Direct Entry with Summit Floor 5-hour tour. With Audio Guide, you’ll gain priority access to tower’s second level. Toast your travels with a glass of bubbly from the Champagne bar.</t>
+          <t>Summarized description:  Skip the lines at the Eiffel Tower and enter without the wait. Admire the city of Paris from its highest point. Spend as much time as you like exploring the tower.</t>
         </is>
       </c>
       <c r="B1358" t="inlineStr"/>
@@ -20872,7 +20872,7 @@
     <row r="1359">
       <c r="A1359" t="inlineStr">
         <is>
-          <t xml:space="preserve">Title:  Paris Eiffel Tower Ticket Direct Entry with Summit Floor </t>
+          <t xml:space="preserve">Title: Eiffel Tower: Skip-the-Line Ticket with Summit Access </t>
         </is>
       </c>
       <c r="B1359" t="inlineStr"/>
@@ -20887,7 +20887,7 @@
     <row r="1360">
       <c r="A1360" t="inlineStr">
         <is>
-          <t>TotalReviews: 1</t>
+          <t>TotalReviews: 0</t>
         </is>
       </c>
       <c r="B1360" t="inlineStr"/>
@@ -20902,7 +20902,7 @@
     <row r="1361">
       <c r="A1361" t="inlineStr">
         <is>
-          <t>Category: ['Modern Attractions', 'Culinary Tours']</t>
+          <t>Category: ['Modern Attractions']</t>
         </is>
       </c>
       <c r="B1361" t="inlineStr"/>
@@ -20917,7 +20917,7 @@
     <row r="1362">
       <c r="A1362" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 158620P3</t>
+          <t>PRODUCTCODE: 451031P1</t>
         </is>
       </c>
       <c r="B1362" t="inlineStr"/>
@@ -20932,7 +20932,7 @@
     <row r="1363">
       <c r="A1363" t="inlineStr">
         <is>
-          <t>Summarized description: Get sensational views from the 2nd floor of the Iron Lady and walk on the glass floor. Embark on a 2-hour tour with a Timed Entrance Ticket &amp; a professional experienced guide.</t>
+          <t>Summarized description:  Conquer the top of Eiffel Tower by elevator and enjoy the view like you've never seen it before. From the Sacré-Coeur to the Grand Palais showcases the beauty of Paris.</t>
         </is>
       </c>
       <c r="B1363" t="inlineStr"/>
@@ -20947,7 +20947,7 @@
     <row r="1364">
       <c r="A1364" t="inlineStr">
         <is>
-          <t>Title:  Paris: Eiffel Tower 2nd Level Tour with Summit Access</t>
+          <t>Title: Paris Eiffel Tower Entry Ticket Summit Access</t>
         </is>
       </c>
       <c r="B1364" t="inlineStr"/>
@@ -20962,7 +20962,7 @@
     <row r="1365">
       <c r="A1365" t="inlineStr">
         <is>
-          <t>TotalReviews: 1</t>
+          <t>TotalReviews: 0</t>
         </is>
       </c>
       <c r="B1365" t="inlineStr"/>
@@ -20977,7 +20977,7 @@
     <row r="1366">
       <c r="A1366" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Modern Attractions']</t>
+          <t>Category: ['Museums', 'Modern Attractions']</t>
         </is>
       </c>
       <c r="B1366" t="inlineStr"/>
@@ -20992,7 +20992,7 @@
     <row r="1367">
       <c r="A1367" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 384373P4</t>
+          <t>PRODUCTCODE: 125051P3</t>
         </is>
       </c>
       <c r="B1367" t="inlineStr"/>
@@ -21007,7 +21007,7 @@
     <row r="1368">
       <c r="A1368" t="inlineStr">
         <is>
-          <t>Summarized description: Get an exclusive peek behind the scenes and beneath the tower's iconic beams. Enjoy panoramic views of the Louvre, the Arc de Triomphe, the Seine River, and the Champs-Élysées.</t>
+          <t>Summarized description: Take an insider's tour of the summit with a guide. Get unparalleled views of Parisian landmarks like Montmartre, the Louvre Museum and more. Get the lowdown on how and why the tower was built.</t>
         </is>
       </c>
       <c r="B1368" t="inlineStr"/>
@@ -21022,7 +21022,7 @@
     <row r="1369">
       <c r="A1369" t="inlineStr">
         <is>
-          <t>Title: Sunrise Eiffel Tower Climbing Tour with Summit Access</t>
+          <t>Title: Tickets for Eiffel Tower - Summit: Guided Visit</t>
         </is>
       </c>
       <c r="B1369" t="inlineStr"/>
@@ -21037,7 +21037,7 @@
     <row r="1370">
       <c r="A1370" t="inlineStr">
         <is>
-          <t>TotalReviews: 1</t>
+          <t>TotalReviews: 0</t>
         </is>
       </c>
       <c r="B1370" t="inlineStr"/>
@@ -21052,7 +21052,7 @@
     <row r="1371">
       <c r="A1371" t="inlineStr">
         <is>
-          <t>Category: ['Scenic Tours', 'City Tours', 'Historical Tours']</t>
+          <t>Category: ['Scenic Tours', 'Cultural Tours', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B1371" t="inlineStr"/>
@@ -21067,7 +21067,7 @@
     <row r="1372">
       <c r="A1372" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 419625P3</t>
+          <t>PRODUCTCODE: 248877P31</t>
         </is>
       </c>
       <c r="B1372" t="inlineStr"/>
@@ -21082,7 +21082,7 @@
     <row r="1373">
       <c r="A1373" t="inlineStr">
         <is>
-          <t>Summarized description: Our guide will provide a captivating historical overview of the Eiffel Tower. As you pass through security, our knowledgeable host will accompany you. The guide will have your elevator tickets and hand them to you.</t>
+          <t>Summarized description: Visit the Eiffel Tower with a priority-access ticket. Enjoy access to the 1st and 2nd floors and the Summit by elevator. Marvel at spectacular views of Paris.</t>
         </is>
       </c>
       <c r="B1373" t="inlineStr"/>
@@ -21097,7 +21097,7 @@
     <row r="1374">
       <c r="A1374" t="inlineStr">
         <is>
-          <t>Title: Eiffel Tower Skip-the-Line 2nd Floor Guided Tour by Elevator</t>
+          <t>Title: Paris Essentials : Eiffel Tower Skip the Line with Summit Access</t>
         </is>
       </c>
       <c r="B1374" t="inlineStr"/>
@@ -21112,7 +21112,7 @@
     <row r="1375">
       <c r="A1375" t="inlineStr">
         <is>
-          <t>TotalReviews: 1</t>
+          <t>TotalReviews: 0</t>
         </is>
       </c>
       <c r="B1375" t="inlineStr"/>
@@ -21127,7 +21127,7 @@
     <row r="1376">
       <c r="A1376" t="inlineStr">
         <is>
-          <t>Category: ['Historical Tours']</t>
+          <t>Category: ['Scenic Tours', 'Modern Attractions']</t>
         </is>
       </c>
       <c r="B1376" t="inlineStr"/>
@@ -21142,7 +21142,7 @@
     <row r="1377">
       <c r="A1377" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 243313P23</t>
+          <t>PRODUCTCODE: 197814P1</t>
         </is>
       </c>
       <c r="B1377" t="inlineStr"/>
@@ -21157,7 +21157,7 @@
     <row r="1378">
       <c r="A1378" t="inlineStr">
         <is>
-          <t>Summarized description:  skip-the-line tickets give you access to the 2nd level of the Eiffel Tower. Check out stunning Parisian landmarks such as the Champs Elysees, Notre Dame, Montmartre, Seine River, and so on.</t>
+          <t>Summarized description: Learn history of Gustave Eiffel and the tower's construction. See Paris from 300 meters high for a tour from the sky. Toast your arrival at the top at the famous champagne bar.</t>
         </is>
       </c>
       <c r="B1378" t="inlineStr"/>
@@ -21172,7 +21172,7 @@
     <row r="1379">
       <c r="A1379" t="inlineStr">
         <is>
-          <t xml:space="preserve">Title: Eiffel Tower Skip the Line Experience : 2nd Floor or SUMMIT with Lift Access </t>
+          <t>Title: Eiffel Tower Tour with Summit Option</t>
         </is>
       </c>
       <c r="B1379" t="inlineStr"/>
@@ -21187,7 +21187,7 @@
     <row r="1380">
       <c r="A1380" t="inlineStr">
         <is>
-          <t>TotalReviews: 1</t>
+          <t>TotalReviews: 0</t>
         </is>
       </c>
       <c r="B1380" t="inlineStr"/>
@@ -21202,7 +21202,7 @@
     <row r="1381">
       <c r="A1381" t="inlineStr">
         <is>
-          <t>Category: ['Scenic Tours', 'City Tours']</t>
+          <t>Category: ['Cultural Tours', 'Modern Attractions']</t>
         </is>
       </c>
       <c r="B1381" t="inlineStr"/>
@@ -21217,7 +21217,7 @@
     <row r="1382">
       <c r="A1382" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 183842P1</t>
+          <t>PRODUCTCODE: 7832P167</t>
         </is>
       </c>
       <c r="B1382" t="inlineStr"/>
@@ -21232,7 +21232,7 @@
     <row r="1383">
       <c r="A1383" t="inlineStr">
         <is>
-          <t>Summarized description: A unique experience, weather it is climbing the 704 steps of the Eiffel Tower or taking the elevator to the second floor and then the summit. Enjoying panoramic view from both the summit and the first floor.</t>
+          <t>Summarized description: The Eiffel Tower is the highest place in Paris and the view from there is breathtaking. Avoid any hassle to purchase the summit acces pass with this prepaid ticket. Get the entrance for the Elevators without waiting in ticket line to buy.</t>
         </is>
       </c>
       <c r="B1383" t="inlineStr"/>
@@ -21247,7 +21247,7 @@
     <row r="1384">
       <c r="A1384" t="inlineStr">
         <is>
-          <t xml:space="preserve">Title: Eiffel Tower Climb and Elevator ! Guided Tour with professional guide. </t>
+          <t>Title: Eiffel Tower Skip-the-Ticket-line Summit Entrance - Group option</t>
         </is>
       </c>
       <c r="B1384" t="inlineStr"/>
@@ -21277,7 +21277,7 @@
     <row r="1386">
       <c r="A1386" t="inlineStr">
         <is>
-          <t>Category: ['Scenic Tours', 'Modern Attractions']</t>
+          <t>Category: ['Modern Attractions']</t>
         </is>
       </c>
       <c r="B1386" t="inlineStr"/>
@@ -21292,7 +21292,7 @@
     <row r="1387">
       <c r="A1387" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 175789P38</t>
+          <t>PRODUCTCODE: 330121P5</t>
         </is>
       </c>
       <c r="B1387" t="inlineStr"/>
@@ -21307,7 +21307,7 @@
     <row r="1388">
       <c r="A1388" t="inlineStr">
         <is>
-          <t>Summarized description: Watch the bustling crowds on the busy Champ de Mars in the Tower's shadow. Save precious time at the Eiffel Tower with a priority-access ticket to the second level.</t>
+          <t>Summarized description: Eiffel is a symbol of love for many couples from all over the world. Thousands of marriage proposal made under the beautiful tower every year. Take advantage of direct access to the Champs de Mars.</t>
         </is>
       </c>
       <c r="B1388" t="inlineStr"/>
@@ -21322,7 +21322,7 @@
     <row r="1389">
       <c r="A1389" t="inlineStr">
         <is>
-          <t>Title: Paris Essentials : Eiffel Tower Tour (Skip the line &amp; Second Floor Access)</t>
+          <t xml:space="preserve">Title: Eiffel Tower Complete Guided Tour:Exclusive Direct Access 2nd Level and Summit </t>
         </is>
       </c>
       <c r="B1389" t="inlineStr"/>
@@ -21352,7 +21352,7 @@
     <row r="1391">
       <c r="A1391" t="inlineStr">
         <is>
-          <t>Category: ['Scenic Tours', 'Modern Attractions']</t>
+          <t>Category: ['City Tours']</t>
         </is>
       </c>
       <c r="B1391" t="inlineStr"/>
@@ -21367,7 +21367,7 @@
     <row r="1392">
       <c r="A1392" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 429951P1</t>
+          <t>PRODUCTCODE: 445693P14</t>
         </is>
       </c>
       <c r="B1392" t="inlineStr"/>
@@ -21382,7 +21382,7 @@
     <row r="1393">
       <c r="A1393" t="inlineStr">
         <is>
-          <t>Summarized description: Eiffel Tower, Invalides, Cathedrale Notre-Dame de Paris, Arc de Triomphe, Grande Arche de La Defense, Louvre Museum, Grande Palais, Tour Montparnasse, etc.</t>
+          <t>Summarized description: Take a tour of the famous Eiffel Tower and admire the city from above. Enjoy a 2-hour guided tour in English of the tower to learn all about the origins and secrets of the construction.</t>
         </is>
       </c>
       <c r="B1393" t="inlineStr"/>
@@ -21397,7 +21397,7 @@
     <row r="1394">
       <c r="A1394" t="inlineStr">
         <is>
-          <t>Title: Skip The Line Eiffel Tower 2nd Floor by Elevator</t>
+          <t>Title: 2 hours Guided Tour of the Eiffel Tower with Summit Access</t>
         </is>
       </c>
       <c r="B1394" t="inlineStr"/>
@@ -21427,7 +21427,7 @@
     <row r="1396">
       <c r="A1396" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Museums', 'Historical Tours']</t>
+          <t>Category: ['Modern Attractions']</t>
         </is>
       </c>
       <c r="B1396" t="inlineStr"/>
@@ -21442,7 +21442,7 @@
     <row r="1397">
       <c r="A1397" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 163680P31</t>
+          <t>PRODUCTCODE: 5717P11</t>
         </is>
       </c>
       <c r="B1397" t="inlineStr"/>
@@ -21457,7 +21457,7 @@
     <row r="1398">
       <c r="A1398" t="inlineStr">
         <is>
-          <t>Summarized description: The Eiffel Tower was the main exhibit of the Paris Exposition — or World's Fair — of 1889. It was constructed to commemorate the centennial of the French Revolution and to demonstrate France's industrial prowess.</t>
+          <t>Summarized description: Discover a new side of the Eiffel Tower and her secrets. Enjoy a 90-minute guided tour to discover a newside of the tower and its secrets.</t>
         </is>
       </c>
       <c r="B1398" t="inlineStr"/>
@@ -21472,7 +21472,7 @@
     <row r="1399">
       <c r="A1399" t="inlineStr">
         <is>
-          <t>Title: The Eiffel Tower Skip- the -Line- Ticket with access to Summit via lifts</t>
+          <t>Title: Eiffel Tower Skip the Line Guided Tour to the 2nd floor</t>
         </is>
       </c>
       <c r="B1399" t="inlineStr"/>
@@ -21502,7 +21502,7 @@
     <row r="1401">
       <c r="A1401" t="inlineStr">
         <is>
-          <t>Category: ['Cultural Tours', 'Historical Tours']</t>
+          <t>Category: ['Historical Tours', 'Modern Attractions']</t>
         </is>
       </c>
       <c r="B1401" t="inlineStr"/>
@@ -21517,7 +21517,7 @@
     <row r="1402">
       <c r="A1402" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 248877P42</t>
+          <t>PRODUCTCODE: 226089P1</t>
         </is>
       </c>
       <c r="B1402" t="inlineStr"/>
@@ -21532,7 +21532,7 @@
     <row r="1403">
       <c r="A1403" t="inlineStr">
         <is>
-          <t>Summarized description: The Eiffel Tower is a wrought iron lattice tower on the Champ de Mars in Paris, France. Enjoy direct access before admiring exceptional views of Paris. Take a thrilling trip to the summit or second level with a professional guide.</t>
+          <t>Summarized description: Explore the stunning views of Gustave Eiffel's most famous creation from top to bottom. Our skip the lines access will send you to the 2nd-floor observation deck right away.</t>
         </is>
       </c>
       <c r="B1403" t="inlineStr"/>
@@ -21547,7 +21547,7 @@
     <row r="1404">
       <c r="A1404" t="inlineStr">
         <is>
-          <t>Title: Eiffel Tower Summit or 2nd Floor Direct Access Guided Tour (Small Group)</t>
+          <t>Title: Skip-the-line access: Guided Eiffel Tower Tour with Optional Summit Access</t>
         </is>
       </c>
       <c r="B1404" t="inlineStr"/>
@@ -21592,7 +21592,7 @@
     <row r="1407">
       <c r="A1407" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 320547P623</t>
+          <t>*****</t>
         </is>
       </c>
       <c r="B1407" t="inlineStr"/>
@@ -21604,2631 +21604,6 @@
       <c r="H1407" t="inlineStr"/>
       <c r="I1407" t="inlineStr"/>
     </row>
-    <row r="1408">
-      <c r="A1408" t="inlineStr">
-        <is>
-          <t>Summarized description: Paris is beautiful but it's challenging to visit Paris in a short period. Many people don't get time to visit Eiffel Tower in Paris which is a pity. We take you up to the 3rd floor of Eiffle Tower.</t>
-        </is>
-      </c>
-      <c r="B1408" t="inlineStr"/>
-      <c r="C1408" t="inlineStr"/>
-      <c r="D1408" t="inlineStr"/>
-      <c r="E1408" t="inlineStr"/>
-      <c r="F1408" t="inlineStr"/>
-      <c r="G1408" t="inlineStr"/>
-      <c r="H1408" t="inlineStr"/>
-      <c r="I1408" t="inlineStr"/>
-    </row>
-    <row r="1409">
-      <c r="A1409" t="inlineStr">
-        <is>
-          <t>Title: Private Eiffel Summit and Cruise Tour</t>
-        </is>
-      </c>
-      <c r="B1409" t="inlineStr"/>
-      <c r="C1409" t="inlineStr"/>
-      <c r="D1409" t="inlineStr"/>
-      <c r="E1409" t="inlineStr"/>
-      <c r="F1409" t="inlineStr"/>
-      <c r="G1409" t="inlineStr"/>
-      <c r="H1409" t="inlineStr"/>
-      <c r="I1409" t="inlineStr"/>
-    </row>
-    <row r="1410">
-      <c r="A1410" t="inlineStr">
-        <is>
-          <t>TotalReviews: 0</t>
-        </is>
-      </c>
-      <c r="B1410" t="inlineStr"/>
-      <c r="C1410" t="inlineStr"/>
-      <c r="D1410" t="inlineStr"/>
-      <c r="E1410" t="inlineStr"/>
-      <c r="F1410" t="inlineStr"/>
-      <c r="G1410" t="inlineStr"/>
-      <c r="H1410" t="inlineStr"/>
-      <c r="I1410" t="inlineStr"/>
-    </row>
-    <row r="1411">
-      <c r="A1411" t="inlineStr">
-        <is>
-          <t>Category: ['Modern Attractions']</t>
-        </is>
-      </c>
-      <c r="B1411" t="inlineStr"/>
-      <c r="C1411" t="inlineStr"/>
-      <c r="D1411" t="inlineStr"/>
-      <c r="E1411" t="inlineStr"/>
-      <c r="F1411" t="inlineStr"/>
-      <c r="G1411" t="inlineStr"/>
-      <c r="H1411" t="inlineStr"/>
-      <c r="I1411" t="inlineStr"/>
-    </row>
-    <row r="1412">
-      <c r="A1412" t="inlineStr">
-        <is>
-          <t>PRODUCTCODE: 248877P48</t>
-        </is>
-      </c>
-      <c r="B1412" t="inlineStr"/>
-      <c r="C1412" t="inlineStr"/>
-      <c r="D1412" t="inlineStr"/>
-      <c r="E1412" t="inlineStr"/>
-      <c r="F1412" t="inlineStr"/>
-      <c r="G1412" t="inlineStr"/>
-      <c r="H1412" t="inlineStr"/>
-      <c r="I1412" t="inlineStr"/>
-    </row>
-    <row r="1413">
-      <c r="A1413" t="inlineStr">
-        <is>
-          <t>Summarized description:  skip-the-line tickets give you access to the 2nd level of the Eiffel Tower. Check out stunning Parisian neighborhoods such as the Champs Elysees, Notre Dame, Montmartre, Seine River.</t>
-        </is>
-      </c>
-      <c r="B1413" t="inlineStr"/>
-      <c r="C1413" t="inlineStr"/>
-      <c r="D1413" t="inlineStr"/>
-      <c r="E1413" t="inlineStr"/>
-      <c r="F1413" t="inlineStr"/>
-      <c r="G1413" t="inlineStr"/>
-      <c r="H1413" t="inlineStr"/>
-      <c r="I1413" t="inlineStr"/>
-    </row>
-    <row r="1414">
-      <c r="A1414" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Title: Eiffel Tower Skip the Line: 2nd Floor or SUMMIT Access with Quick Lift </t>
-        </is>
-      </c>
-      <c r="B1414" t="inlineStr"/>
-      <c r="C1414" t="inlineStr"/>
-      <c r="D1414" t="inlineStr"/>
-      <c r="E1414" t="inlineStr"/>
-      <c r="F1414" t="inlineStr"/>
-      <c r="G1414" t="inlineStr"/>
-      <c r="H1414" t="inlineStr"/>
-      <c r="I1414" t="inlineStr"/>
-    </row>
-    <row r="1415">
-      <c r="A1415" t="inlineStr">
-        <is>
-          <t>TotalReviews: 0</t>
-        </is>
-      </c>
-      <c r="B1415" t="inlineStr"/>
-      <c r="C1415" t="inlineStr"/>
-      <c r="D1415" t="inlineStr"/>
-      <c r="E1415" t="inlineStr"/>
-      <c r="F1415" t="inlineStr"/>
-      <c r="G1415" t="inlineStr"/>
-      <c r="H1415" t="inlineStr"/>
-      <c r="I1415" t="inlineStr"/>
-    </row>
-    <row r="1416">
-      <c r="A1416" t="inlineStr">
-        <is>
-          <t>Category: ['Scenic Tours', 'Modern Attractions']</t>
-        </is>
-      </c>
-      <c r="B1416" t="inlineStr"/>
-      <c r="C1416" t="inlineStr"/>
-      <c r="D1416" t="inlineStr"/>
-      <c r="E1416" t="inlineStr"/>
-      <c r="F1416" t="inlineStr"/>
-      <c r="G1416" t="inlineStr"/>
-      <c r="H1416" t="inlineStr"/>
-      <c r="I1416" t="inlineStr"/>
-    </row>
-    <row r="1417">
-      <c r="A1417" t="inlineStr">
-        <is>
-          <t>PRODUCTCODE: 419625P6</t>
-        </is>
-      </c>
-      <c r="B1417" t="inlineStr"/>
-      <c r="C1417" t="inlineStr"/>
-      <c r="D1417" t="inlineStr"/>
-      <c r="E1417" t="inlineStr"/>
-      <c r="F1417" t="inlineStr"/>
-      <c r="G1417" t="inlineStr"/>
-      <c r="H1417" t="inlineStr"/>
-      <c r="I1417" t="inlineStr"/>
-    </row>
-    <row r="1418">
-      <c r="A1418" t="inlineStr">
-        <is>
-          <t>Summarized description: Our guide will pick you up from your hotel before guiding you to the entrance. As you pass through security, our knowledgeable host will accompany you, addressing any questions.</t>
-        </is>
-      </c>
-      <c r="B1418" t="inlineStr"/>
-      <c r="C1418" t="inlineStr"/>
-      <c r="D1418" t="inlineStr"/>
-      <c r="E1418" t="inlineStr"/>
-      <c r="F1418" t="inlineStr"/>
-      <c r="G1418" t="inlineStr"/>
-      <c r="H1418" t="inlineStr"/>
-      <c r="I1418" t="inlineStr"/>
-    </row>
-    <row r="1419">
-      <c r="A1419" t="inlineStr">
-        <is>
-          <t>Title: Eiffel Tower Summit (ALL FLOORS) By LIFT With Private Pick-Up</t>
-        </is>
-      </c>
-      <c r="B1419" t="inlineStr"/>
-      <c r="C1419" t="inlineStr"/>
-      <c r="D1419" t="inlineStr"/>
-      <c r="E1419" t="inlineStr"/>
-      <c r="F1419" t="inlineStr"/>
-      <c r="G1419" t="inlineStr"/>
-      <c r="H1419" t="inlineStr"/>
-      <c r="I1419" t="inlineStr"/>
-    </row>
-    <row r="1420">
-      <c r="A1420" t="inlineStr">
-        <is>
-          <t>TotalReviews: 0</t>
-        </is>
-      </c>
-      <c r="B1420" t="inlineStr"/>
-      <c r="C1420" t="inlineStr"/>
-      <c r="D1420" t="inlineStr"/>
-      <c r="E1420" t="inlineStr"/>
-      <c r="F1420" t="inlineStr"/>
-      <c r="G1420" t="inlineStr"/>
-      <c r="H1420" t="inlineStr"/>
-      <c r="I1420" t="inlineStr"/>
-    </row>
-    <row r="1421">
-      <c r="A1421" t="inlineStr">
-        <is>
-          <t>Category: ['Historical Tours']</t>
-        </is>
-      </c>
-      <c r="B1421" t="inlineStr"/>
-      <c r="C1421" t="inlineStr"/>
-      <c r="D1421" t="inlineStr"/>
-      <c r="E1421" t="inlineStr"/>
-      <c r="F1421" t="inlineStr"/>
-      <c r="G1421" t="inlineStr"/>
-      <c r="H1421" t="inlineStr"/>
-      <c r="I1421" t="inlineStr"/>
-    </row>
-    <row r="1422">
-      <c r="A1422" t="inlineStr">
-        <is>
-          <t>PRODUCTCODE: 73434P120</t>
-        </is>
-      </c>
-      <c r="B1422" t="inlineStr"/>
-      <c r="C1422" t="inlineStr"/>
-      <c r="D1422" t="inlineStr"/>
-      <c r="E1422" t="inlineStr"/>
-      <c r="F1422" t="inlineStr"/>
-      <c r="G1422" t="inlineStr"/>
-      <c r="H1422" t="inlineStr"/>
-      <c r="I1422" t="inlineStr"/>
-    </row>
-    <row r="1423">
-      <c r="A1423" t="inlineStr">
-        <is>
-          <t>Summarized description: Get sensational views from the 2nd floor of the Iron Lady and walk on the glass floor. Embark on a 2-hour private guided tour with a Timed Entrance Ticket.</t>
-        </is>
-      </c>
-      <c r="B1423" t="inlineStr"/>
-      <c r="C1423" t="inlineStr"/>
-      <c r="D1423" t="inlineStr"/>
-      <c r="E1423" t="inlineStr"/>
-      <c r="F1423" t="inlineStr"/>
-      <c r="G1423" t="inlineStr"/>
-      <c r="H1423" t="inlineStr"/>
-      <c r="I1423" t="inlineStr"/>
-    </row>
-    <row r="1424">
-      <c r="A1424" t="inlineStr">
-        <is>
-          <t>Title: Private Eiffel Tower 2nd level Tour with Summit Access in Paris</t>
-        </is>
-      </c>
-      <c r="B1424" t="inlineStr"/>
-      <c r="C1424" t="inlineStr"/>
-      <c r="D1424" t="inlineStr"/>
-      <c r="E1424" t="inlineStr"/>
-      <c r="F1424" t="inlineStr"/>
-      <c r="G1424" t="inlineStr"/>
-      <c r="H1424" t="inlineStr"/>
-      <c r="I1424" t="inlineStr"/>
-    </row>
-    <row r="1425">
-      <c r="A1425" t="inlineStr">
-        <is>
-          <t>TotalReviews: 0</t>
-        </is>
-      </c>
-      <c r="B1425" t="inlineStr"/>
-      <c r="C1425" t="inlineStr"/>
-      <c r="D1425" t="inlineStr"/>
-      <c r="E1425" t="inlineStr"/>
-      <c r="F1425" t="inlineStr"/>
-      <c r="G1425" t="inlineStr"/>
-      <c r="H1425" t="inlineStr"/>
-      <c r="I1425" t="inlineStr"/>
-    </row>
-    <row r="1426">
-      <c r="A1426" t="inlineStr">
-        <is>
-          <t>Category: ['City Tours', 'Modern Attractions']</t>
-        </is>
-      </c>
-      <c r="B1426" t="inlineStr"/>
-      <c r="C1426" t="inlineStr"/>
-      <c r="D1426" t="inlineStr"/>
-      <c r="E1426" t="inlineStr"/>
-      <c r="F1426" t="inlineStr"/>
-      <c r="G1426" t="inlineStr"/>
-      <c r="H1426" t="inlineStr"/>
-      <c r="I1426" t="inlineStr"/>
-    </row>
-    <row r="1427">
-      <c r="A1427" t="inlineStr">
-        <is>
-          <t>PRODUCTCODE: 7832P123</t>
-        </is>
-      </c>
-      <c r="B1427" t="inlineStr"/>
-      <c r="C1427" t="inlineStr"/>
-      <c r="D1427" t="inlineStr"/>
-      <c r="E1427" t="inlineStr"/>
-      <c r="F1427" t="inlineStr"/>
-      <c r="G1427" t="inlineStr"/>
-      <c r="H1427" t="inlineStr"/>
-      <c r="I1427" t="inlineStr"/>
-    </row>
-    <row r="1428">
-      <c r="A1428" t="inlineStr">
-        <is>
-          <t>Summarized description: Get closer to the sky at 320 meters altitude and contemplate the most beautiful monuments of Paris. Enjoy your lunch at Bistro Parisien a glass-covered boat on the quay just in front of the Eiffel Tower before a relaxing Seine River Cruise.</t>
-        </is>
-      </c>
-      <c r="B1428" t="inlineStr"/>
-      <c r="C1428" t="inlineStr"/>
-      <c r="D1428" t="inlineStr"/>
-      <c r="E1428" t="inlineStr"/>
-      <c r="F1428" t="inlineStr"/>
-      <c r="G1428" t="inlineStr"/>
-      <c r="H1428" t="inlineStr"/>
-      <c r="I1428" t="inlineStr"/>
-    </row>
-    <row r="1429">
-      <c r="A1429" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Title: Eiffel Tower Ticket with Summit Access, Seine River Cruise, City Tour &amp; Lunch </t>
-        </is>
-      </c>
-      <c r="B1429" t="inlineStr"/>
-      <c r="C1429" t="inlineStr"/>
-      <c r="D1429" t="inlineStr"/>
-      <c r="E1429" t="inlineStr"/>
-      <c r="F1429" t="inlineStr"/>
-      <c r="G1429" t="inlineStr"/>
-      <c r="H1429" t="inlineStr"/>
-      <c r="I1429" t="inlineStr"/>
-    </row>
-    <row r="1430">
-      <c r="A1430" t="inlineStr">
-        <is>
-          <t>TotalReviews: 0</t>
-        </is>
-      </c>
-      <c r="B1430" t="inlineStr"/>
-      <c r="C1430" t="inlineStr"/>
-      <c r="D1430" t="inlineStr"/>
-      <c r="E1430" t="inlineStr"/>
-      <c r="F1430" t="inlineStr"/>
-      <c r="G1430" t="inlineStr"/>
-      <c r="H1430" t="inlineStr"/>
-      <c r="I1430" t="inlineStr"/>
-    </row>
-    <row r="1431">
-      <c r="A1431" t="inlineStr">
-        <is>
-          <t>Category: ['Dining Experiences', 'Modern Attractions', 'Cultural Cruises']</t>
-        </is>
-      </c>
-      <c r="B1431" t="inlineStr"/>
-      <c r="C1431" t="inlineStr"/>
-      <c r="D1431" t="inlineStr"/>
-      <c r="E1431" t="inlineStr"/>
-      <c r="F1431" t="inlineStr"/>
-      <c r="G1431" t="inlineStr"/>
-      <c r="H1431" t="inlineStr"/>
-      <c r="I1431" t="inlineStr"/>
-    </row>
-    <row r="1432">
-      <c r="A1432" t="inlineStr">
-        <is>
-          <t>PRODUCTCODE: 320547P697</t>
-        </is>
-      </c>
-      <c r="B1432" t="inlineStr"/>
-      <c r="C1432" t="inlineStr"/>
-      <c r="D1432" t="inlineStr"/>
-      <c r="E1432" t="inlineStr"/>
-      <c r="F1432" t="inlineStr"/>
-      <c r="G1432" t="inlineStr"/>
-      <c r="H1432" t="inlineStr"/>
-      <c r="I1432" t="inlineStr"/>
-    </row>
-    <row r="1433">
-      <c r="A1433" t="inlineStr">
-        <is>
-          <t>Summarized description: We will pick you up from your hotel in Paris with a private vehicle and do a visit of Eiffel tower Third floor. We will also provide you a bottle of champagne. After visit drop you back to your hotel.</t>
-        </is>
-      </c>
-      <c r="B1433" t="inlineStr"/>
-      <c r="C1433" t="inlineStr"/>
-      <c r="D1433" t="inlineStr"/>
-      <c r="E1433" t="inlineStr"/>
-      <c r="F1433" t="inlineStr"/>
-      <c r="G1433" t="inlineStr"/>
-      <c r="H1433" t="inlineStr"/>
-      <c r="I1433" t="inlineStr"/>
-    </row>
-    <row r="1434">
-      <c r="A1434" t="inlineStr">
-        <is>
-          <t>Title: Eiffel Tower Summit with a Bottle of Champagne</t>
-        </is>
-      </c>
-      <c r="B1434" t="inlineStr"/>
-      <c r="C1434" t="inlineStr"/>
-      <c r="D1434" t="inlineStr"/>
-      <c r="E1434" t="inlineStr"/>
-      <c r="F1434" t="inlineStr"/>
-      <c r="G1434" t="inlineStr"/>
-      <c r="H1434" t="inlineStr"/>
-      <c r="I1434" t="inlineStr"/>
-    </row>
-    <row r="1435">
-      <c r="A1435" t="inlineStr">
-        <is>
-          <t>TotalReviews: 0</t>
-        </is>
-      </c>
-      <c r="B1435" t="inlineStr"/>
-      <c r="C1435" t="inlineStr"/>
-      <c r="D1435" t="inlineStr"/>
-      <c r="E1435" t="inlineStr"/>
-      <c r="F1435" t="inlineStr"/>
-      <c r="G1435" t="inlineStr"/>
-      <c r="H1435" t="inlineStr"/>
-      <c r="I1435" t="inlineStr"/>
-    </row>
-    <row r="1436">
-      <c r="A1436" t="inlineStr">
-        <is>
-          <t>Category: ['Modern Attractions']</t>
-        </is>
-      </c>
-      <c r="B1436" t="inlineStr"/>
-      <c r="C1436" t="inlineStr"/>
-      <c r="D1436" t="inlineStr"/>
-      <c r="E1436" t="inlineStr"/>
-      <c r="F1436" t="inlineStr"/>
-      <c r="G1436" t="inlineStr"/>
-      <c r="H1436" t="inlineStr"/>
-      <c r="I1436" t="inlineStr"/>
-    </row>
-    <row r="1437">
-      <c r="A1437" t="inlineStr">
-        <is>
-          <t>PRODUCTCODE: 3731P119</t>
-        </is>
-      </c>
-      <c r="B1437" t="inlineStr"/>
-      <c r="C1437" t="inlineStr"/>
-      <c r="D1437" t="inlineStr"/>
-      <c r="E1437" t="inlineStr"/>
-      <c r="F1437" t="inlineStr"/>
-      <c r="G1437" t="inlineStr"/>
-      <c r="H1437" t="inlineStr"/>
-      <c r="I1437" t="inlineStr"/>
-    </row>
-    <row r="1438">
-      <c r="A1438" t="inlineStr">
-        <is>
-          <t>Summarized description: The Eiffel Tower and the Seine River are two of Paris' most iconic sites. This exclusive tour includes a 2nd floor Observation Deck ticket and a Seine river cruise.</t>
-        </is>
-      </c>
-      <c r="B1438" t="inlineStr"/>
-      <c r="C1438" t="inlineStr"/>
-      <c r="D1438" t="inlineStr"/>
-      <c r="E1438" t="inlineStr"/>
-      <c r="F1438" t="inlineStr"/>
-      <c r="G1438" t="inlineStr"/>
-      <c r="H1438" t="inlineStr"/>
-      <c r="I1438" t="inlineStr"/>
-    </row>
-    <row r="1439">
-      <c r="A1439" t="inlineStr">
-        <is>
-          <t>Title: Special Access: Express Eiffel Tower Tour with 2nd floor Observation Deck and Seine River Cruise</t>
-        </is>
-      </c>
-      <c r="B1439" t="inlineStr"/>
-      <c r="C1439" t="inlineStr"/>
-      <c r="D1439" t="inlineStr"/>
-      <c r="E1439" t="inlineStr"/>
-      <c r="F1439" t="inlineStr"/>
-      <c r="G1439" t="inlineStr"/>
-      <c r="H1439" t="inlineStr"/>
-      <c r="I1439" t="inlineStr"/>
-    </row>
-    <row r="1440">
-      <c r="A1440" t="inlineStr">
-        <is>
-          <t>TotalReviews: 0</t>
-        </is>
-      </c>
-      <c r="B1440" t="inlineStr"/>
-      <c r="C1440" t="inlineStr"/>
-      <c r="D1440" t="inlineStr"/>
-      <c r="E1440" t="inlineStr"/>
-      <c r="F1440" t="inlineStr"/>
-      <c r="G1440" t="inlineStr"/>
-      <c r="H1440" t="inlineStr"/>
-      <c r="I1440" t="inlineStr"/>
-    </row>
-    <row r="1441">
-      <c r="A1441" t="inlineStr">
-        <is>
-          <t>Category: ['Scenic Tours', 'City Tours', 'Cultural Cruises']</t>
-        </is>
-      </c>
-      <c r="B1441" t="inlineStr"/>
-      <c r="C1441" t="inlineStr"/>
-      <c r="D1441" t="inlineStr"/>
-      <c r="E1441" t="inlineStr"/>
-      <c r="F1441" t="inlineStr"/>
-      <c r="G1441" t="inlineStr"/>
-      <c r="H1441" t="inlineStr"/>
-      <c r="I1441" t="inlineStr"/>
-    </row>
-    <row r="1442">
-      <c r="A1442" t="inlineStr">
-        <is>
-          <t>PRODUCTCODE: 9205P14</t>
-        </is>
-      </c>
-      <c r="B1442" t="inlineStr"/>
-      <c r="C1442" t="inlineStr"/>
-      <c r="D1442" t="inlineStr"/>
-      <c r="E1442" t="inlineStr"/>
-      <c r="F1442" t="inlineStr"/>
-      <c r="G1442" t="inlineStr"/>
-      <c r="H1442" t="inlineStr"/>
-      <c r="I1442" t="inlineStr"/>
-    </row>
-    <row r="1443">
-      <c r="A1443" t="inlineStr">
-        <is>
-          <t>Summarized description: Discover Paris' most famous landmark with a local and passionate guide. Ticket includes skip-the-line access to the second level of the Eiffel Tower.</t>
-        </is>
-      </c>
-      <c r="B1443" t="inlineStr"/>
-      <c r="C1443" t="inlineStr"/>
-      <c r="D1443" t="inlineStr"/>
-      <c r="E1443" t="inlineStr"/>
-      <c r="F1443" t="inlineStr"/>
-      <c r="G1443" t="inlineStr"/>
-      <c r="H1443" t="inlineStr"/>
-      <c r="I1443" t="inlineStr"/>
-    </row>
-    <row r="1444">
-      <c r="A1444" t="inlineStr">
-        <is>
-          <t>Title: Skip the Line: Eiffel Tower Tour and Summit Access by elevator-Group Option</t>
-        </is>
-      </c>
-      <c r="B1444" t="inlineStr"/>
-      <c r="C1444" t="inlineStr"/>
-      <c r="D1444" t="inlineStr"/>
-      <c r="E1444" t="inlineStr"/>
-      <c r="F1444" t="inlineStr"/>
-      <c r="G1444" t="inlineStr"/>
-      <c r="H1444" t="inlineStr"/>
-      <c r="I1444" t="inlineStr"/>
-    </row>
-    <row r="1445">
-      <c r="A1445" t="inlineStr">
-        <is>
-          <t>TotalReviews: 0</t>
-        </is>
-      </c>
-      <c r="B1445" t="inlineStr"/>
-      <c r="C1445" t="inlineStr"/>
-      <c r="D1445" t="inlineStr"/>
-      <c r="E1445" t="inlineStr"/>
-      <c r="F1445" t="inlineStr"/>
-      <c r="G1445" t="inlineStr"/>
-      <c r="H1445" t="inlineStr"/>
-      <c r="I1445" t="inlineStr"/>
-    </row>
-    <row r="1446">
-      <c r="A1446" t="inlineStr">
-        <is>
-          <t>Category: ['Modern Attractions', 'Historical Tours']</t>
-        </is>
-      </c>
-      <c r="B1446" t="inlineStr"/>
-      <c r="C1446" t="inlineStr"/>
-      <c r="D1446" t="inlineStr"/>
-      <c r="E1446" t="inlineStr"/>
-      <c r="F1446" t="inlineStr"/>
-      <c r="G1446" t="inlineStr"/>
-      <c r="H1446" t="inlineStr"/>
-      <c r="I1446" t="inlineStr"/>
-    </row>
-    <row r="1447">
-      <c r="A1447" t="inlineStr">
-        <is>
-          <t>PRODUCTCODE: 170990P27</t>
-        </is>
-      </c>
-      <c r="B1447" t="inlineStr"/>
-      <c r="C1447" t="inlineStr"/>
-      <c r="D1447" t="inlineStr"/>
-      <c r="E1447" t="inlineStr"/>
-      <c r="F1447" t="inlineStr"/>
-      <c r="G1447" t="inlineStr"/>
-      <c r="H1447" t="inlineStr"/>
-      <c r="I1447" t="inlineStr"/>
-    </row>
-    <row r="1448">
-      <c r="A1448" t="inlineStr">
-        <is>
-          <t>Summarized description: Enjoy hassle-free entry to one of the world’s busiest monuments. Cut out the long admission lines with a timed, priority-entry ticket. Explore the Eiffel Tower's first and second levels at your own pace.</t>
-        </is>
-      </c>
-      <c r="B1448" t="inlineStr"/>
-      <c r="C1448" t="inlineStr"/>
-      <c r="D1448" t="inlineStr"/>
-      <c r="E1448" t="inlineStr"/>
-      <c r="F1448" t="inlineStr"/>
-      <c r="G1448" t="inlineStr"/>
-      <c r="H1448" t="inlineStr"/>
-      <c r="I1448" t="inlineStr"/>
-    </row>
-    <row r="1449">
-      <c r="A1449" t="inlineStr">
-        <is>
-          <t>Title: Eiffel Tower Tour and Summit Priority Access</t>
-        </is>
-      </c>
-      <c r="B1449" t="inlineStr"/>
-      <c r="C1449" t="inlineStr"/>
-      <c r="D1449" t="inlineStr"/>
-      <c r="E1449" t="inlineStr"/>
-      <c r="F1449" t="inlineStr"/>
-      <c r="G1449" t="inlineStr"/>
-      <c r="H1449" t="inlineStr"/>
-      <c r="I1449" t="inlineStr"/>
-    </row>
-    <row r="1450">
-      <c r="A1450" t="inlineStr">
-        <is>
-          <t>TotalReviews: 0</t>
-        </is>
-      </c>
-      <c r="B1450" t="inlineStr"/>
-      <c r="C1450" t="inlineStr"/>
-      <c r="D1450" t="inlineStr"/>
-      <c r="E1450" t="inlineStr"/>
-      <c r="F1450" t="inlineStr"/>
-      <c r="G1450" t="inlineStr"/>
-      <c r="H1450" t="inlineStr"/>
-      <c r="I1450" t="inlineStr"/>
-    </row>
-    <row r="1451">
-      <c r="A1451" t="inlineStr">
-        <is>
-          <t>Category: ['City Tours', 'Modern Attractions']</t>
-        </is>
-      </c>
-      <c r="B1451" t="inlineStr"/>
-      <c r="C1451" t="inlineStr"/>
-      <c r="D1451" t="inlineStr"/>
-      <c r="E1451" t="inlineStr"/>
-      <c r="F1451" t="inlineStr"/>
-      <c r="G1451" t="inlineStr"/>
-      <c r="H1451" t="inlineStr"/>
-      <c r="I1451" t="inlineStr"/>
-    </row>
-    <row r="1452">
-      <c r="A1452" t="inlineStr">
-        <is>
-          <t>PRODUCTCODE: 248877P47</t>
-        </is>
-      </c>
-      <c r="B1452" t="inlineStr"/>
-      <c r="C1452" t="inlineStr"/>
-      <c r="D1452" t="inlineStr"/>
-      <c r="E1452" t="inlineStr"/>
-      <c r="F1452" t="inlineStr"/>
-      <c r="G1452" t="inlineStr"/>
-      <c r="H1452" t="inlineStr"/>
-      <c r="I1452" t="inlineStr"/>
-    </row>
-    <row r="1453">
-      <c r="A1453" t="inlineStr">
-        <is>
-          <t>Summarized description: The Eiffel Tower is one of the most visited tourist attractions in the world. It is located on the banks of the River Seine in Paris, France.</t>
-        </is>
-      </c>
-      <c r="B1453" t="inlineStr"/>
-      <c r="C1453" t="inlineStr"/>
-      <c r="D1453" t="inlineStr"/>
-      <c r="E1453" t="inlineStr"/>
-      <c r="F1453" t="inlineStr"/>
-      <c r="G1453" t="inlineStr"/>
-      <c r="H1453" t="inlineStr"/>
-      <c r="I1453" t="inlineStr"/>
-    </row>
-    <row r="1454">
-      <c r="A1454" t="inlineStr">
-        <is>
-          <t>Title: Paris Eiffel Tower Experience (Access to 2nd Floor)</t>
-        </is>
-      </c>
-      <c r="B1454" t="inlineStr"/>
-      <c r="C1454" t="inlineStr"/>
-      <c r="D1454" t="inlineStr"/>
-      <c r="E1454" t="inlineStr"/>
-      <c r="F1454" t="inlineStr"/>
-      <c r="G1454" t="inlineStr"/>
-      <c r="H1454" t="inlineStr"/>
-      <c r="I1454" t="inlineStr"/>
-    </row>
-    <row r="1455">
-      <c r="A1455" t="inlineStr">
-        <is>
-          <t>TotalReviews: 0</t>
-        </is>
-      </c>
-      <c r="B1455" t="inlineStr"/>
-      <c r="C1455" t="inlineStr"/>
-      <c r="D1455" t="inlineStr"/>
-      <c r="E1455" t="inlineStr"/>
-      <c r="F1455" t="inlineStr"/>
-      <c r="G1455" t="inlineStr"/>
-      <c r="H1455" t="inlineStr"/>
-      <c r="I1455" t="inlineStr"/>
-    </row>
-    <row r="1456">
-      <c r="A1456" t="inlineStr">
-        <is>
-          <t>Category: ['Scenic Tours', 'Modern Attractions']</t>
-        </is>
-      </c>
-      <c r="B1456" t="inlineStr"/>
-      <c r="C1456" t="inlineStr"/>
-      <c r="D1456" t="inlineStr"/>
-      <c r="E1456" t="inlineStr"/>
-      <c r="F1456" t="inlineStr"/>
-      <c r="G1456" t="inlineStr"/>
-      <c r="H1456" t="inlineStr"/>
-      <c r="I1456" t="inlineStr"/>
-    </row>
-    <row r="1457">
-      <c r="A1457" t="inlineStr">
-        <is>
-          <t>PRODUCTCODE: 90219P399</t>
-        </is>
-      </c>
-      <c r="B1457" t="inlineStr"/>
-      <c r="C1457" t="inlineStr"/>
-      <c r="D1457" t="inlineStr"/>
-      <c r="E1457" t="inlineStr"/>
-      <c r="F1457" t="inlineStr"/>
-      <c r="G1457" t="inlineStr"/>
-      <c r="H1457" t="inlineStr"/>
-      <c r="I1457" t="inlineStr"/>
-    </row>
-    <row r="1458">
-      <c r="A1458" t="inlineStr">
-        <is>
-          <t>Summarized description: Get the fastest entry by avoiding the long elevator lines at the Eiffel Tower and climb up 704 steps to the second level. Arrive 30 minutes earlier than your departure time to get through the security line to reach the check-in point on time. Jules Verne is inside security point.</t>
-        </is>
-      </c>
-      <c r="B1458" t="inlineStr"/>
-      <c r="C1458" t="inlineStr"/>
-      <c r="D1458" t="inlineStr"/>
-      <c r="E1458" t="inlineStr"/>
-      <c r="F1458" t="inlineStr"/>
-      <c r="G1458" t="inlineStr"/>
-      <c r="H1458" t="inlineStr"/>
-      <c r="I1458" t="inlineStr"/>
-    </row>
-    <row r="1459">
-      <c r="A1459" t="inlineStr">
-        <is>
-          <t>Title: Paris: Most Attractive Eiffel Tower Guided Climb with Optional Summit Access</t>
-        </is>
-      </c>
-      <c r="B1459" t="inlineStr"/>
-      <c r="C1459" t="inlineStr"/>
-      <c r="D1459" t="inlineStr"/>
-      <c r="E1459" t="inlineStr"/>
-      <c r="F1459" t="inlineStr"/>
-      <c r="G1459" t="inlineStr"/>
-      <c r="H1459" t="inlineStr"/>
-      <c r="I1459" t="inlineStr"/>
-    </row>
-    <row r="1460">
-      <c r="A1460" t="inlineStr">
-        <is>
-          <t>TotalReviews: 0</t>
-        </is>
-      </c>
-      <c r="B1460" t="inlineStr"/>
-      <c r="C1460" t="inlineStr"/>
-      <c r="D1460" t="inlineStr"/>
-      <c r="E1460" t="inlineStr"/>
-      <c r="F1460" t="inlineStr"/>
-      <c r="G1460" t="inlineStr"/>
-      <c r="H1460" t="inlineStr"/>
-      <c r="I1460" t="inlineStr"/>
-    </row>
-    <row r="1461">
-      <c r="A1461" t="inlineStr">
-        <is>
-          <t>Category: ['Scenic Tours', 'Modern Attractions']</t>
-        </is>
-      </c>
-      <c r="B1461" t="inlineStr"/>
-      <c r="C1461" t="inlineStr"/>
-      <c r="D1461" t="inlineStr"/>
-      <c r="E1461" t="inlineStr"/>
-      <c r="F1461" t="inlineStr"/>
-      <c r="G1461" t="inlineStr"/>
-      <c r="H1461" t="inlineStr"/>
-      <c r="I1461" t="inlineStr"/>
-    </row>
-    <row r="1462">
-      <c r="A1462" t="inlineStr">
-        <is>
-          <t>PRODUCTCODE: 374060P11</t>
-        </is>
-      </c>
-      <c r="B1462" t="inlineStr"/>
-      <c r="C1462" t="inlineStr"/>
-      <c r="D1462" t="inlineStr"/>
-      <c r="E1462" t="inlineStr"/>
-      <c r="F1462" t="inlineStr"/>
-      <c r="G1462" t="inlineStr"/>
-      <c r="H1462" t="inlineStr"/>
-      <c r="I1462" t="inlineStr"/>
-    </row>
-    <row r="1463">
-      <c r="A1463" t="inlineStr">
-        <is>
-          <t>Summarized description: After the security entrance, you can skip the line with our Guide. Climb up together on the stairs, up until to the second floor. Learn more about the architecture and history of the Eiffel Tower.</t>
-        </is>
-      </c>
-      <c r="B1463" t="inlineStr"/>
-      <c r="C1463" t="inlineStr"/>
-      <c r="D1463" t="inlineStr"/>
-      <c r="E1463" t="inlineStr"/>
-      <c r="F1463" t="inlineStr"/>
-      <c r="G1463" t="inlineStr"/>
-      <c r="H1463" t="inlineStr"/>
-      <c r="I1463" t="inlineStr"/>
-    </row>
-    <row r="1464">
-      <c r="A1464" t="inlineStr">
-        <is>
-          <t>Title: Guided Tour to the Second Floor off Eiffel Tower in Paris</t>
-        </is>
-      </c>
-      <c r="B1464" t="inlineStr"/>
-      <c r="C1464" t="inlineStr"/>
-      <c r="D1464" t="inlineStr"/>
-      <c r="E1464" t="inlineStr"/>
-      <c r="F1464" t="inlineStr"/>
-      <c r="G1464" t="inlineStr"/>
-      <c r="H1464" t="inlineStr"/>
-      <c r="I1464" t="inlineStr"/>
-    </row>
-    <row r="1465">
-      <c r="A1465" t="inlineStr">
-        <is>
-          <t>TotalReviews: 0</t>
-        </is>
-      </c>
-      <c r="B1465" t="inlineStr"/>
-      <c r="C1465" t="inlineStr"/>
-      <c r="D1465" t="inlineStr"/>
-      <c r="E1465" t="inlineStr"/>
-      <c r="F1465" t="inlineStr"/>
-      <c r="G1465" t="inlineStr"/>
-      <c r="H1465" t="inlineStr"/>
-      <c r="I1465" t="inlineStr"/>
-    </row>
-    <row r="1466">
-      <c r="A1466" t="inlineStr">
-        <is>
-          <t>Category: ['Historical Tours']</t>
-        </is>
-      </c>
-      <c r="B1466" t="inlineStr"/>
-      <c r="C1466" t="inlineStr"/>
-      <c r="D1466" t="inlineStr"/>
-      <c r="E1466" t="inlineStr"/>
-      <c r="F1466" t="inlineStr"/>
-      <c r="G1466" t="inlineStr"/>
-      <c r="H1466" t="inlineStr"/>
-      <c r="I1466" t="inlineStr"/>
-    </row>
-    <row r="1467">
-      <c r="A1467" t="inlineStr">
-        <is>
-          <t>PRODUCTCODE: 427087P2</t>
-        </is>
-      </c>
-      <c r="B1467" t="inlineStr"/>
-      <c r="C1467" t="inlineStr"/>
-      <c r="D1467" t="inlineStr"/>
-      <c r="E1467" t="inlineStr"/>
-      <c r="F1467" t="inlineStr"/>
-      <c r="G1467" t="inlineStr"/>
-      <c r="H1467" t="inlineStr"/>
-      <c r="I1467" t="inlineStr"/>
-    </row>
-    <row r="1468">
-      <c r="A1468" t="inlineStr">
-        <is>
-          <t>Summarized description: Discover the Eiffel Tower at your own pace. You will get a more personalized and relaxed experience focused on your wishes. It will be a great and unique opportunity to share this memorable visit with your family or closest friends and nobody else.</t>
-        </is>
-      </c>
-      <c r="B1468" t="inlineStr"/>
-      <c r="C1468" t="inlineStr"/>
-      <c r="D1468" t="inlineStr"/>
-      <c r="E1468" t="inlineStr"/>
-      <c r="F1468" t="inlineStr"/>
-      <c r="G1468" t="inlineStr"/>
-      <c r="H1468" t="inlineStr"/>
-      <c r="I1468" t="inlineStr"/>
-    </row>
-    <row r="1469">
-      <c r="A1469" t="inlineStr">
-        <is>
-          <t>Title: Private Tour at the Eiffel Tower with Second Floor Access</t>
-        </is>
-      </c>
-      <c r="B1469" t="inlineStr"/>
-      <c r="C1469" t="inlineStr"/>
-      <c r="D1469" t="inlineStr"/>
-      <c r="E1469" t="inlineStr"/>
-      <c r="F1469" t="inlineStr"/>
-      <c r="G1469" t="inlineStr"/>
-      <c r="H1469" t="inlineStr"/>
-      <c r="I1469" t="inlineStr"/>
-    </row>
-    <row r="1470">
-      <c r="A1470" t="inlineStr">
-        <is>
-          <t>TotalReviews: 0</t>
-        </is>
-      </c>
-      <c r="B1470" t="inlineStr"/>
-      <c r="C1470" t="inlineStr"/>
-      <c r="D1470" t="inlineStr"/>
-      <c r="E1470" t="inlineStr"/>
-      <c r="F1470" t="inlineStr"/>
-      <c r="G1470" t="inlineStr"/>
-      <c r="H1470" t="inlineStr"/>
-      <c r="I1470" t="inlineStr"/>
-    </row>
-    <row r="1471">
-      <c r="A1471" t="inlineStr">
-        <is>
-          <t>Category: ['City Tours', 'Historical Tours']</t>
-        </is>
-      </c>
-      <c r="B1471" t="inlineStr"/>
-      <c r="C1471" t="inlineStr"/>
-      <c r="D1471" t="inlineStr"/>
-      <c r="E1471" t="inlineStr"/>
-      <c r="F1471" t="inlineStr"/>
-      <c r="G1471" t="inlineStr"/>
-      <c r="H1471" t="inlineStr"/>
-      <c r="I1471" t="inlineStr"/>
-    </row>
-    <row r="1472">
-      <c r="A1472" t="inlineStr">
-        <is>
-          <t>PRODUCTCODE: 183842P3</t>
-        </is>
-      </c>
-      <c r="B1472" t="inlineStr"/>
-      <c r="C1472" t="inlineStr"/>
-      <c r="D1472" t="inlineStr"/>
-      <c r="E1472" t="inlineStr"/>
-      <c r="F1472" t="inlineStr"/>
-      <c r="G1472" t="inlineStr"/>
-      <c r="H1472" t="inlineStr"/>
-      <c r="I1472" t="inlineStr"/>
-    </row>
-    <row r="1473">
-      <c r="A1473" t="inlineStr">
-        <is>
-          <t>Summarized description: A unique experience, taking the elevator to the second floor and then the summit. Guided admission ticket to the Eiffel Tower. Enjoying panoramic view from both the summit and the first floor.</t>
-        </is>
-      </c>
-      <c r="B1473" t="inlineStr"/>
-      <c r="C1473" t="inlineStr"/>
-      <c r="D1473" t="inlineStr"/>
-      <c r="E1473" t="inlineStr"/>
-      <c r="F1473" t="inlineStr"/>
-      <c r="G1473" t="inlineStr"/>
-      <c r="H1473" t="inlineStr"/>
-      <c r="I1473" t="inlineStr"/>
-    </row>
-    <row r="1474">
-      <c r="A1474" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Title: Guided Tour Eiffel Tower elevator with Host </t>
-        </is>
-      </c>
-      <c r="B1474" t="inlineStr"/>
-      <c r="C1474" t="inlineStr"/>
-      <c r="D1474" t="inlineStr"/>
-      <c r="E1474" t="inlineStr"/>
-      <c r="F1474" t="inlineStr"/>
-      <c r="G1474" t="inlineStr"/>
-      <c r="H1474" t="inlineStr"/>
-      <c r="I1474" t="inlineStr"/>
-    </row>
-    <row r="1475">
-      <c r="A1475" t="inlineStr">
-        <is>
-          <t>TotalReviews: 0</t>
-        </is>
-      </c>
-      <c r="B1475" t="inlineStr"/>
-      <c r="C1475" t="inlineStr"/>
-      <c r="D1475" t="inlineStr"/>
-      <c r="E1475" t="inlineStr"/>
-      <c r="F1475" t="inlineStr"/>
-      <c r="G1475" t="inlineStr"/>
-      <c r="H1475" t="inlineStr"/>
-      <c r="I1475" t="inlineStr"/>
-    </row>
-    <row r="1476">
-      <c r="A1476" t="inlineStr">
-        <is>
-          <t>Category: ['Scenic Tours', 'Modern Attractions']</t>
-        </is>
-      </c>
-      <c r="B1476" t="inlineStr"/>
-      <c r="C1476" t="inlineStr"/>
-      <c r="D1476" t="inlineStr"/>
-      <c r="E1476" t="inlineStr"/>
-      <c r="F1476" t="inlineStr"/>
-      <c r="G1476" t="inlineStr"/>
-      <c r="H1476" t="inlineStr"/>
-      <c r="I1476" t="inlineStr"/>
-    </row>
-    <row r="1477">
-      <c r="A1477" t="inlineStr">
-        <is>
-          <t>PRODUCTCODE: 320547P861</t>
-        </is>
-      </c>
-      <c r="B1477" t="inlineStr"/>
-      <c r="C1477" t="inlineStr"/>
-      <c r="D1477" t="inlineStr"/>
-      <c r="E1477" t="inlineStr"/>
-      <c r="F1477" t="inlineStr"/>
-      <c r="G1477" t="inlineStr"/>
-      <c r="H1477" t="inlineStr"/>
-      <c r="I1477" t="inlineStr"/>
-    </row>
-    <row r="1478">
-      <c r="A1478" t="inlineStr">
-        <is>
-          <t>Summarized description: The Eiffel Tower has one of the best panoramic views in Paris. View the Louvre, Les Invalides, Sacré Coeur, and the Champ de Mars.</t>
-        </is>
-      </c>
-      <c r="B1478" t="inlineStr"/>
-      <c r="C1478" t="inlineStr"/>
-      <c r="D1478" t="inlineStr"/>
-      <c r="E1478" t="inlineStr"/>
-      <c r="F1478" t="inlineStr"/>
-      <c r="G1478" t="inlineStr"/>
-      <c r="H1478" t="inlineStr"/>
-      <c r="I1478" t="inlineStr"/>
-    </row>
-    <row r="1479">
-      <c r="A1479" t="inlineStr">
-        <is>
-          <t>Title: Eiffel Tower Summit Eiffel tower Skip The Line with Host</t>
-        </is>
-      </c>
-      <c r="B1479" t="inlineStr"/>
-      <c r="C1479" t="inlineStr"/>
-      <c r="D1479" t="inlineStr"/>
-      <c r="E1479" t="inlineStr"/>
-      <c r="F1479" t="inlineStr"/>
-      <c r="G1479" t="inlineStr"/>
-      <c r="H1479" t="inlineStr"/>
-      <c r="I1479" t="inlineStr"/>
-    </row>
-    <row r="1480">
-      <c r="A1480" t="inlineStr">
-        <is>
-          <t>TotalReviews: 0</t>
-        </is>
-      </c>
-      <c r="B1480" t="inlineStr"/>
-      <c r="C1480" t="inlineStr"/>
-      <c r="D1480" t="inlineStr"/>
-      <c r="E1480" t="inlineStr"/>
-      <c r="F1480" t="inlineStr"/>
-      <c r="G1480" t="inlineStr"/>
-      <c r="H1480" t="inlineStr"/>
-      <c r="I1480" t="inlineStr"/>
-    </row>
-    <row r="1481">
-      <c r="A1481" t="inlineStr">
-        <is>
-          <t>Category: ['Modern Attractions']</t>
-        </is>
-      </c>
-      <c r="B1481" t="inlineStr"/>
-      <c r="C1481" t="inlineStr"/>
-      <c r="D1481" t="inlineStr"/>
-      <c r="E1481" t="inlineStr"/>
-      <c r="F1481" t="inlineStr"/>
-      <c r="G1481" t="inlineStr"/>
-      <c r="H1481" t="inlineStr"/>
-      <c r="I1481" t="inlineStr"/>
-    </row>
-    <row r="1482">
-      <c r="A1482" t="inlineStr">
-        <is>
-          <t>PRODUCTCODE: 199710P1</t>
-        </is>
-      </c>
-      <c r="B1482" t="inlineStr"/>
-      <c r="C1482" t="inlineStr"/>
-      <c r="D1482" t="inlineStr"/>
-      <c r="E1482" t="inlineStr"/>
-      <c r="F1482" t="inlineStr"/>
-      <c r="G1482" t="inlineStr"/>
-      <c r="H1482" t="inlineStr"/>
-      <c r="I1482" t="inlineStr"/>
-    </row>
-    <row r="1483">
-      <c r="A1483" t="inlineStr">
-        <is>
-          <t>Summarized description: Visit the Eiffel Tower with a priority access ticket. Enjoy access to the 1st and 2nd floors and the Top. Marvel at spectacular views of Paris.</t>
-        </is>
-      </c>
-      <c r="B1483" t="inlineStr"/>
-      <c r="C1483" t="inlineStr"/>
-      <c r="D1483" t="inlineStr"/>
-      <c r="E1483" t="inlineStr"/>
-      <c r="F1483" t="inlineStr"/>
-      <c r="G1483" t="inlineStr"/>
-      <c r="H1483" t="inlineStr"/>
-      <c r="I1483" t="inlineStr"/>
-    </row>
-    <row r="1484">
-      <c r="A1484" t="inlineStr">
-        <is>
-          <t>Title: Eiffel Tower Skip the Ticket Line with Summit Access</t>
-        </is>
-      </c>
-      <c r="B1484" t="inlineStr"/>
-      <c r="C1484" t="inlineStr"/>
-      <c r="D1484" t="inlineStr"/>
-      <c r="E1484" t="inlineStr"/>
-      <c r="F1484" t="inlineStr"/>
-      <c r="G1484" t="inlineStr"/>
-      <c r="H1484" t="inlineStr"/>
-      <c r="I1484" t="inlineStr"/>
-    </row>
-    <row r="1485">
-      <c r="A1485" t="inlineStr">
-        <is>
-          <t>TotalReviews: 0</t>
-        </is>
-      </c>
-      <c r="B1485" t="inlineStr"/>
-      <c r="C1485" t="inlineStr"/>
-      <c r="D1485" t="inlineStr"/>
-      <c r="E1485" t="inlineStr"/>
-      <c r="F1485" t="inlineStr"/>
-      <c r="G1485" t="inlineStr"/>
-      <c r="H1485" t="inlineStr"/>
-      <c r="I1485" t="inlineStr"/>
-    </row>
-    <row r="1486">
-      <c r="A1486" t="inlineStr">
-        <is>
-          <t>Category: ['City Tours', 'Modern Attractions']</t>
-        </is>
-      </c>
-      <c r="B1486" t="inlineStr"/>
-      <c r="C1486" t="inlineStr"/>
-      <c r="D1486" t="inlineStr"/>
-      <c r="E1486" t="inlineStr"/>
-      <c r="F1486" t="inlineStr"/>
-      <c r="G1486" t="inlineStr"/>
-      <c r="H1486" t="inlineStr"/>
-      <c r="I1486" t="inlineStr"/>
-    </row>
-    <row r="1487">
-      <c r="A1487" t="inlineStr">
-        <is>
-          <t>PRODUCTCODE: 423194P1</t>
-        </is>
-      </c>
-      <c r="B1487" t="inlineStr"/>
-      <c r="C1487" t="inlineStr"/>
-      <c r="D1487" t="inlineStr"/>
-      <c r="E1487" t="inlineStr"/>
-      <c r="F1487" t="inlineStr"/>
-      <c r="G1487" t="inlineStr"/>
-      <c r="H1487" t="inlineStr"/>
-      <c r="I1487" t="inlineStr"/>
-    </row>
-    <row r="1488">
-      <c r="A1488" t="inlineStr">
-        <is>
-          <t>Summarized description: Visit the Eiffel Tower with this entry ticket and marvel at spectacular views of Paris. Enjoy access to the 1st and 2nd floors by elevator. Hear the history and legends behind the Paris icon.</t>
-        </is>
-      </c>
-      <c r="B1488" t="inlineStr"/>
-      <c r="C1488" t="inlineStr"/>
-      <c r="D1488" t="inlineStr"/>
-      <c r="E1488" t="inlineStr"/>
-      <c r="F1488" t="inlineStr"/>
-      <c r="G1488" t="inlineStr"/>
-      <c r="H1488" t="inlineStr"/>
-      <c r="I1488" t="inlineStr"/>
-    </row>
-    <row r="1489">
-      <c r="A1489" t="inlineStr">
-        <is>
-          <t>Title: Eiffel Tower Elevator Guided Tour with Summit Access</t>
-        </is>
-      </c>
-      <c r="B1489" t="inlineStr"/>
-      <c r="C1489" t="inlineStr"/>
-      <c r="D1489" t="inlineStr"/>
-      <c r="E1489" t="inlineStr"/>
-      <c r="F1489" t="inlineStr"/>
-      <c r="G1489" t="inlineStr"/>
-      <c r="H1489" t="inlineStr"/>
-      <c r="I1489" t="inlineStr"/>
-    </row>
-    <row r="1490">
-      <c r="A1490" t="inlineStr">
-        <is>
-          <t>TotalReviews: 0</t>
-        </is>
-      </c>
-      <c r="B1490" t="inlineStr"/>
-      <c r="C1490" t="inlineStr"/>
-      <c r="D1490" t="inlineStr"/>
-      <c r="E1490" t="inlineStr"/>
-      <c r="F1490" t="inlineStr"/>
-      <c r="G1490" t="inlineStr"/>
-      <c r="H1490" t="inlineStr"/>
-      <c r="I1490" t="inlineStr"/>
-    </row>
-    <row r="1491">
-      <c r="A1491" t="inlineStr">
-        <is>
-          <t>Category: ['Modern Attractions']</t>
-        </is>
-      </c>
-      <c r="B1491" t="inlineStr"/>
-      <c r="C1491" t="inlineStr"/>
-      <c r="D1491" t="inlineStr"/>
-      <c r="E1491" t="inlineStr"/>
-      <c r="F1491" t="inlineStr"/>
-      <c r="G1491" t="inlineStr"/>
-      <c r="H1491" t="inlineStr"/>
-      <c r="I1491" t="inlineStr"/>
-    </row>
-    <row r="1492">
-      <c r="A1492" t="inlineStr">
-        <is>
-          <t>PRODUCTCODE: 112782P31</t>
-        </is>
-      </c>
-      <c r="B1492" t="inlineStr"/>
-      <c r="C1492" t="inlineStr"/>
-      <c r="D1492" t="inlineStr"/>
-      <c r="E1492" t="inlineStr"/>
-      <c r="F1492" t="inlineStr"/>
-      <c r="G1492" t="inlineStr"/>
-      <c r="H1492" t="inlineStr"/>
-      <c r="I1492" t="inlineStr"/>
-    </row>
-    <row r="1493">
-      <c r="A1493" t="inlineStr">
-        <is>
-          <t>Summarized description: The Eiffel Tower is known to be the symbol of the city of Paris. You will get to know all about the building itself and about the civil engineer who created it. The view over the city will take your breath away.</t>
-        </is>
-      </c>
-      <c r="B1493" t="inlineStr"/>
-      <c r="C1493" t="inlineStr"/>
-      <c r="D1493" t="inlineStr"/>
-      <c r="E1493" t="inlineStr"/>
-      <c r="F1493" t="inlineStr"/>
-      <c r="G1493" t="inlineStr"/>
-      <c r="H1493" t="inlineStr"/>
-      <c r="I1493" t="inlineStr"/>
-    </row>
-    <row r="1494">
-      <c r="A1494" t="inlineStr">
-        <is>
-          <t>Title: Paris: Eiffel Tower Guided Tour with Summit Access</t>
-        </is>
-      </c>
-      <c r="B1494" t="inlineStr"/>
-      <c r="C1494" t="inlineStr"/>
-      <c r="D1494" t="inlineStr"/>
-      <c r="E1494" t="inlineStr"/>
-      <c r="F1494" t="inlineStr"/>
-      <c r="G1494" t="inlineStr"/>
-      <c r="H1494" t="inlineStr"/>
-      <c r="I1494" t="inlineStr"/>
-    </row>
-    <row r="1495">
-      <c r="A1495" t="inlineStr">
-        <is>
-          <t>TotalReviews: 0</t>
-        </is>
-      </c>
-      <c r="B1495" t="inlineStr"/>
-      <c r="C1495" t="inlineStr"/>
-      <c r="D1495" t="inlineStr"/>
-      <c r="E1495" t="inlineStr"/>
-      <c r="F1495" t="inlineStr"/>
-      <c r="G1495" t="inlineStr"/>
-      <c r="H1495" t="inlineStr"/>
-      <c r="I1495" t="inlineStr"/>
-    </row>
-    <row r="1496">
-      <c r="A1496" t="inlineStr">
-        <is>
-          <t>Category: ['Scenic Tours', 'Modern Attractions']</t>
-        </is>
-      </c>
-      <c r="B1496" t="inlineStr"/>
-      <c r="C1496" t="inlineStr"/>
-      <c r="D1496" t="inlineStr"/>
-      <c r="E1496" t="inlineStr"/>
-      <c r="F1496" t="inlineStr"/>
-      <c r="G1496" t="inlineStr"/>
-      <c r="H1496" t="inlineStr"/>
-      <c r="I1496" t="inlineStr"/>
-    </row>
-    <row r="1497">
-      <c r="A1497" t="inlineStr">
-        <is>
-          <t>PRODUCTCODE: 396871P30</t>
-        </is>
-      </c>
-      <c r="B1497" t="inlineStr"/>
-      <c r="C1497" t="inlineStr"/>
-      <c r="D1497" t="inlineStr"/>
-      <c r="E1497" t="inlineStr"/>
-      <c r="F1497" t="inlineStr"/>
-      <c r="G1497" t="inlineStr"/>
-      <c r="H1497" t="inlineStr"/>
-      <c r="I1497" t="inlineStr"/>
-    </row>
-    <row r="1498">
-      <c r="A1498" t="inlineStr">
-        <is>
-          <t>Summarized description: Gain immediate access to the Eiffel Tower's Top Summit. Ascend to the highest viewing platform for breathtaking, panoramic views of Paris. Enjoy a comprehensive audio guide available in English.</t>
-        </is>
-      </c>
-      <c r="B1498" t="inlineStr"/>
-      <c r="C1498" t="inlineStr"/>
-      <c r="D1498" t="inlineStr"/>
-      <c r="E1498" t="inlineStr"/>
-      <c r="F1498" t="inlineStr"/>
-      <c r="G1498" t="inlineStr"/>
-      <c r="H1498" t="inlineStr"/>
-      <c r="I1498" t="inlineStr"/>
-    </row>
-    <row r="1499">
-      <c r="A1499" t="inlineStr">
-        <is>
-          <t>Title: Summit Eiffel Tower Top Floor Skip the line with Audio Guide Tour</t>
-        </is>
-      </c>
-      <c r="B1499" t="inlineStr"/>
-      <c r="C1499" t="inlineStr"/>
-      <c r="D1499" t="inlineStr"/>
-      <c r="E1499" t="inlineStr"/>
-      <c r="F1499" t="inlineStr"/>
-      <c r="G1499" t="inlineStr"/>
-      <c r="H1499" t="inlineStr"/>
-      <c r="I1499" t="inlineStr"/>
-    </row>
-    <row r="1500">
-      <c r="A1500" t="inlineStr">
-        <is>
-          <t>TotalReviews: 0</t>
-        </is>
-      </c>
-      <c r="B1500" t="inlineStr"/>
-      <c r="C1500" t="inlineStr"/>
-      <c r="D1500" t="inlineStr"/>
-      <c r="E1500" t="inlineStr"/>
-      <c r="F1500" t="inlineStr"/>
-      <c r="G1500" t="inlineStr"/>
-      <c r="H1500" t="inlineStr"/>
-      <c r="I1500" t="inlineStr"/>
-    </row>
-    <row r="1501">
-      <c r="A1501" t="inlineStr">
-        <is>
-          <t>Category: ['City Tours', 'Modern Attractions']</t>
-        </is>
-      </c>
-      <c r="B1501" t="inlineStr"/>
-      <c r="C1501" t="inlineStr"/>
-      <c r="D1501" t="inlineStr"/>
-      <c r="E1501" t="inlineStr"/>
-      <c r="F1501" t="inlineStr"/>
-      <c r="G1501" t="inlineStr"/>
-      <c r="H1501" t="inlineStr"/>
-      <c r="I1501" t="inlineStr"/>
-    </row>
-    <row r="1502">
-      <c r="A1502" t="inlineStr">
-        <is>
-          <t>PRODUCTCODE: 182119P6</t>
-        </is>
-      </c>
-      <c r="B1502" t="inlineStr"/>
-      <c r="C1502" t="inlineStr"/>
-      <c r="D1502" t="inlineStr"/>
-      <c r="E1502" t="inlineStr"/>
-      <c r="F1502" t="inlineStr"/>
-      <c r="G1502" t="inlineStr"/>
-      <c r="H1502" t="inlineStr"/>
-      <c r="I1502" t="inlineStr"/>
-    </row>
-    <row r="1503">
-      <c r="A1503" t="inlineStr">
-        <is>
-          <t>Summarized description:  Skip the lines at the Eiffel Tower and enter without the wait. Admire the city of Paris from its highest point. Spend as much time as you like exploring the tower.</t>
-        </is>
-      </c>
-      <c r="B1503" t="inlineStr"/>
-      <c r="C1503" t="inlineStr"/>
-      <c r="D1503" t="inlineStr"/>
-      <c r="E1503" t="inlineStr"/>
-      <c r="F1503" t="inlineStr"/>
-      <c r="G1503" t="inlineStr"/>
-      <c r="H1503" t="inlineStr"/>
-      <c r="I1503" t="inlineStr"/>
-    </row>
-    <row r="1504">
-      <c r="A1504" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Title: Eiffel Tower: Skip-the-Line Ticket with Summit Access </t>
-        </is>
-      </c>
-      <c r="B1504" t="inlineStr"/>
-      <c r="C1504" t="inlineStr"/>
-      <c r="D1504" t="inlineStr"/>
-      <c r="E1504" t="inlineStr"/>
-      <c r="F1504" t="inlineStr"/>
-      <c r="G1504" t="inlineStr"/>
-      <c r="H1504" t="inlineStr"/>
-      <c r="I1504" t="inlineStr"/>
-    </row>
-    <row r="1505">
-      <c r="A1505" t="inlineStr">
-        <is>
-          <t>TotalReviews: 0</t>
-        </is>
-      </c>
-      <c r="B1505" t="inlineStr"/>
-      <c r="C1505" t="inlineStr"/>
-      <c r="D1505" t="inlineStr"/>
-      <c r="E1505" t="inlineStr"/>
-      <c r="F1505" t="inlineStr"/>
-      <c r="G1505" t="inlineStr"/>
-      <c r="H1505" t="inlineStr"/>
-      <c r="I1505" t="inlineStr"/>
-    </row>
-    <row r="1506">
-      <c r="A1506" t="inlineStr">
-        <is>
-          <t>Category: ['Modern Attractions']</t>
-        </is>
-      </c>
-      <c r="B1506" t="inlineStr"/>
-      <c r="C1506" t="inlineStr"/>
-      <c r="D1506" t="inlineStr"/>
-      <c r="E1506" t="inlineStr"/>
-      <c r="F1506" t="inlineStr"/>
-      <c r="G1506" t="inlineStr"/>
-      <c r="H1506" t="inlineStr"/>
-      <c r="I1506" t="inlineStr"/>
-    </row>
-    <row r="1507">
-      <c r="A1507" t="inlineStr">
-        <is>
-          <t>PRODUCTCODE: 466185P1</t>
-        </is>
-      </c>
-      <c r="B1507" t="inlineStr"/>
-      <c r="C1507" t="inlineStr"/>
-      <c r="D1507" t="inlineStr"/>
-      <c r="E1507" t="inlineStr"/>
-      <c r="F1507" t="inlineStr"/>
-      <c r="G1507" t="inlineStr"/>
-      <c r="H1507" t="inlineStr"/>
-      <c r="I1507" t="inlineStr"/>
-    </row>
-    <row r="1508">
-      <c r="A1508" t="inlineStr">
-        <is>
-          <t>Summarized description: The Eiffel Tower Guided Climb offers a unique blend of personal attention and privileged access. As you ascend, engage in interactive games that not only entertain but enrich your journey with laughter and camaraderie.</t>
-        </is>
-      </c>
-      <c r="B1508" t="inlineStr"/>
-      <c r="C1508" t="inlineStr"/>
-      <c r="D1508" t="inlineStr"/>
-      <c r="E1508" t="inlineStr"/>
-      <c r="F1508" t="inlineStr"/>
-      <c r="G1508" t="inlineStr"/>
-      <c r="H1508" t="inlineStr"/>
-      <c r="I1508" t="inlineStr"/>
-    </row>
-    <row r="1509">
-      <c r="A1509" t="inlineStr">
-        <is>
-          <t>Title: Eiffel Tower Climb With Summit Concierge</t>
-        </is>
-      </c>
-      <c r="B1509" t="inlineStr"/>
-      <c r="C1509" t="inlineStr"/>
-      <c r="D1509" t="inlineStr"/>
-      <c r="E1509" t="inlineStr"/>
-      <c r="F1509" t="inlineStr"/>
-      <c r="G1509" t="inlineStr"/>
-      <c r="H1509" t="inlineStr"/>
-      <c r="I1509" t="inlineStr"/>
-    </row>
-    <row r="1510">
-      <c r="A1510" t="inlineStr">
-        <is>
-          <t>TotalReviews: 0</t>
-        </is>
-      </c>
-      <c r="B1510" t="inlineStr"/>
-      <c r="C1510" t="inlineStr"/>
-      <c r="D1510" t="inlineStr"/>
-      <c r="E1510" t="inlineStr"/>
-      <c r="F1510" t="inlineStr"/>
-      <c r="G1510" t="inlineStr"/>
-      <c r="H1510" t="inlineStr"/>
-      <c r="I1510" t="inlineStr"/>
-    </row>
-    <row r="1511">
-      <c r="A1511" t="inlineStr">
-        <is>
-          <t>Category: ['City Tours', 'Modern Attractions']</t>
-        </is>
-      </c>
-      <c r="B1511" t="inlineStr"/>
-      <c r="C1511" t="inlineStr"/>
-      <c r="D1511" t="inlineStr"/>
-      <c r="E1511" t="inlineStr"/>
-      <c r="F1511" t="inlineStr"/>
-      <c r="G1511" t="inlineStr"/>
-      <c r="H1511" t="inlineStr"/>
-      <c r="I1511" t="inlineStr"/>
-    </row>
-    <row r="1512">
-      <c r="A1512" t="inlineStr">
-        <is>
-          <t>PRODUCTCODE: 458844P1</t>
-        </is>
-      </c>
-      <c r="B1512" t="inlineStr"/>
-      <c r="C1512" t="inlineStr"/>
-      <c r="D1512" t="inlineStr"/>
-      <c r="E1512" t="inlineStr"/>
-      <c r="F1512" t="inlineStr"/>
-      <c r="G1512" t="inlineStr"/>
-      <c r="H1512" t="inlineStr"/>
-      <c r="I1512" t="inlineStr"/>
-    </row>
-    <row r="1513">
-      <c r="A1513" t="inlineStr">
-        <is>
-          <t>Summarized description: Make the most of this Viator Eiffel Tower ticket. Enjoy hassle-free entry to one of the world’s busiest monuments. Listen as your host adds colourful history and facts to the sights below.</t>
-        </is>
-      </c>
-      <c r="B1513" t="inlineStr"/>
-      <c r="C1513" t="inlineStr"/>
-      <c r="D1513" t="inlineStr"/>
-      <c r="E1513" t="inlineStr"/>
-      <c r="F1513" t="inlineStr"/>
-      <c r="G1513" t="inlineStr"/>
-      <c r="H1513" t="inlineStr"/>
-      <c r="I1513" t="inlineStr"/>
-    </row>
-    <row r="1514">
-      <c r="A1514" t="inlineStr">
-        <is>
-          <t>Title: Eiffel Tower with Host 2nd Floor access with elevator</t>
-        </is>
-      </c>
-      <c r="B1514" t="inlineStr"/>
-      <c r="C1514" t="inlineStr"/>
-      <c r="D1514" t="inlineStr"/>
-      <c r="E1514" t="inlineStr"/>
-      <c r="F1514" t="inlineStr"/>
-      <c r="G1514" t="inlineStr"/>
-      <c r="H1514" t="inlineStr"/>
-      <c r="I1514" t="inlineStr"/>
-    </row>
-    <row r="1515">
-      <c r="A1515" t="inlineStr">
-        <is>
-          <t>TotalReviews: 0</t>
-        </is>
-      </c>
-      <c r="B1515" t="inlineStr"/>
-      <c r="C1515" t="inlineStr"/>
-      <c r="D1515" t="inlineStr"/>
-      <c r="E1515" t="inlineStr"/>
-      <c r="F1515" t="inlineStr"/>
-      <c r="G1515" t="inlineStr"/>
-      <c r="H1515" t="inlineStr"/>
-      <c r="I1515" t="inlineStr"/>
-    </row>
-    <row r="1516">
-      <c r="A1516" t="inlineStr">
-        <is>
-          <t>Category: ['City Tours', 'Historical Tours']</t>
-        </is>
-      </c>
-      <c r="B1516" t="inlineStr"/>
-      <c r="C1516" t="inlineStr"/>
-      <c r="D1516" t="inlineStr"/>
-      <c r="E1516" t="inlineStr"/>
-      <c r="F1516" t="inlineStr"/>
-      <c r="G1516" t="inlineStr"/>
-      <c r="H1516" t="inlineStr"/>
-      <c r="I1516" t="inlineStr"/>
-    </row>
-    <row r="1517">
-      <c r="A1517" t="inlineStr">
-        <is>
-          <t>PRODUCTCODE: 183842P4</t>
-        </is>
-      </c>
-      <c r="B1517" t="inlineStr"/>
-      <c r="C1517" t="inlineStr"/>
-      <c r="D1517" t="inlineStr"/>
-      <c r="E1517" t="inlineStr"/>
-      <c r="F1517" t="inlineStr"/>
-      <c r="G1517" t="inlineStr"/>
-      <c r="H1517" t="inlineStr"/>
-      <c r="I1517" t="inlineStr"/>
-    </row>
-    <row r="1518">
-      <c r="A1518" t="inlineStr">
-        <is>
-          <t>Summarized description: A unique experience, taking the elevator to the second floor and then the summit. Guided admission ticket to the Eiffel Tower. Enjoying panoramic view from both the summit and the first floor.</t>
-        </is>
-      </c>
-      <c r="B1518" t="inlineStr"/>
-      <c r="C1518" t="inlineStr"/>
-      <c r="D1518" t="inlineStr"/>
-      <c r="E1518" t="inlineStr"/>
-      <c r="F1518" t="inlineStr"/>
-      <c r="G1518" t="inlineStr"/>
-      <c r="H1518" t="inlineStr"/>
-      <c r="I1518" t="inlineStr"/>
-    </row>
-    <row r="1519">
-      <c r="A1519" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Title: Guided Eiffel Tower Tour by Elevator with professional guide </t>
-        </is>
-      </c>
-      <c r="B1519" t="inlineStr"/>
-      <c r="C1519" t="inlineStr"/>
-      <c r="D1519" t="inlineStr"/>
-      <c r="E1519" t="inlineStr"/>
-      <c r="F1519" t="inlineStr"/>
-      <c r="G1519" t="inlineStr"/>
-      <c r="H1519" t="inlineStr"/>
-      <c r="I1519" t="inlineStr"/>
-    </row>
-    <row r="1520">
-      <c r="A1520" t="inlineStr">
-        <is>
-          <t>TotalReviews: 0</t>
-        </is>
-      </c>
-      <c r="B1520" t="inlineStr"/>
-      <c r="C1520" t="inlineStr"/>
-      <c r="D1520" t="inlineStr"/>
-      <c r="E1520" t="inlineStr"/>
-      <c r="F1520" t="inlineStr"/>
-      <c r="G1520" t="inlineStr"/>
-      <c r="H1520" t="inlineStr"/>
-      <c r="I1520" t="inlineStr"/>
-    </row>
-    <row r="1521">
-      <c r="A1521" t="inlineStr">
-        <is>
-          <t>Category: ['Scenic Tours', 'Modern Attractions']</t>
-        </is>
-      </c>
-      <c r="B1521" t="inlineStr"/>
-      <c r="C1521" t="inlineStr"/>
-      <c r="D1521" t="inlineStr"/>
-      <c r="E1521" t="inlineStr"/>
-      <c r="F1521" t="inlineStr"/>
-      <c r="G1521" t="inlineStr"/>
-      <c r="H1521" t="inlineStr"/>
-      <c r="I1521" t="inlineStr"/>
-    </row>
-    <row r="1522">
-      <c r="A1522" t="inlineStr">
-        <is>
-          <t>PRODUCTCODE: 382015P2</t>
-        </is>
-      </c>
-      <c r="B1522" t="inlineStr"/>
-      <c r="C1522" t="inlineStr"/>
-      <c r="D1522" t="inlineStr"/>
-      <c r="E1522" t="inlineStr"/>
-      <c r="F1522" t="inlineStr"/>
-      <c r="G1522" t="inlineStr"/>
-      <c r="H1522" t="inlineStr"/>
-      <c r="I1522" t="inlineStr"/>
-    </row>
-    <row r="1523">
-      <c r="A1523" t="inlineStr">
-        <is>
-          <t>Summarized description: Join a small group to visit the Eiffel Tower with a Direct Access ticket. The guide will take you on a tour and will tell you all about Gustave Eiffle, the Tower's builder.</t>
-        </is>
-      </c>
-      <c r="B1523" t="inlineStr"/>
-      <c r="C1523" t="inlineStr"/>
-      <c r="D1523" t="inlineStr"/>
-      <c r="E1523" t="inlineStr"/>
-      <c r="F1523" t="inlineStr"/>
-      <c r="G1523" t="inlineStr"/>
-      <c r="H1523" t="inlineStr"/>
-      <c r="I1523" t="inlineStr"/>
-    </row>
-    <row r="1524">
-      <c r="A1524" t="inlineStr">
-        <is>
-          <t>Title: 2 Hour Tour Eiffel Tower 2nd Floor Direct Access</t>
-        </is>
-      </c>
-      <c r="B1524" t="inlineStr"/>
-      <c r="C1524" t="inlineStr"/>
-      <c r="D1524" t="inlineStr"/>
-      <c r="E1524" t="inlineStr"/>
-      <c r="F1524" t="inlineStr"/>
-      <c r="G1524" t="inlineStr"/>
-      <c r="H1524" t="inlineStr"/>
-      <c r="I1524" t="inlineStr"/>
-    </row>
-    <row r="1525">
-      <c r="A1525" t="inlineStr">
-        <is>
-          <t>TotalReviews: 0</t>
-        </is>
-      </c>
-      <c r="B1525" t="inlineStr"/>
-      <c r="C1525" t="inlineStr"/>
-      <c r="D1525" t="inlineStr"/>
-      <c r="E1525" t="inlineStr"/>
-      <c r="F1525" t="inlineStr"/>
-      <c r="G1525" t="inlineStr"/>
-      <c r="H1525" t="inlineStr"/>
-      <c r="I1525" t="inlineStr"/>
-    </row>
-    <row r="1526">
-      <c r="A1526" t="inlineStr">
-        <is>
-          <t>Category: ['Scenic Tours', 'Modern Attractions']</t>
-        </is>
-      </c>
-      <c r="B1526" t="inlineStr"/>
-      <c r="C1526" t="inlineStr"/>
-      <c r="D1526" t="inlineStr"/>
-      <c r="E1526" t="inlineStr"/>
-      <c r="F1526" t="inlineStr"/>
-      <c r="G1526" t="inlineStr"/>
-      <c r="H1526" t="inlineStr"/>
-      <c r="I1526" t="inlineStr"/>
-    </row>
-    <row r="1527">
-      <c r="A1527" t="inlineStr">
-        <is>
-          <t>PRODUCTCODE: 451031P1</t>
-        </is>
-      </c>
-      <c r="B1527" t="inlineStr"/>
-      <c r="C1527" t="inlineStr"/>
-      <c r="D1527" t="inlineStr"/>
-      <c r="E1527" t="inlineStr"/>
-      <c r="F1527" t="inlineStr"/>
-      <c r="G1527" t="inlineStr"/>
-      <c r="H1527" t="inlineStr"/>
-      <c r="I1527" t="inlineStr"/>
-    </row>
-    <row r="1528">
-      <c r="A1528" t="inlineStr">
-        <is>
-          <t>Summarized description:  Conquer the top of Eiffel Tower by elevator and enjoy the view like you've never seen it before. From the Sacré-Coeur to the Grand Palais showcases the beauty of Paris.</t>
-        </is>
-      </c>
-      <c r="B1528" t="inlineStr"/>
-      <c r="C1528" t="inlineStr"/>
-      <c r="D1528" t="inlineStr"/>
-      <c r="E1528" t="inlineStr"/>
-      <c r="F1528" t="inlineStr"/>
-      <c r="G1528" t="inlineStr"/>
-      <c r="H1528" t="inlineStr"/>
-      <c r="I1528" t="inlineStr"/>
-    </row>
-    <row r="1529">
-      <c r="A1529" t="inlineStr">
-        <is>
-          <t>Title: Paris Eiffel Tower Entry Ticket Summit Access</t>
-        </is>
-      </c>
-      <c r="B1529" t="inlineStr"/>
-      <c r="C1529" t="inlineStr"/>
-      <c r="D1529" t="inlineStr"/>
-      <c r="E1529" t="inlineStr"/>
-      <c r="F1529" t="inlineStr"/>
-      <c r="G1529" t="inlineStr"/>
-      <c r="H1529" t="inlineStr"/>
-      <c r="I1529" t="inlineStr"/>
-    </row>
-    <row r="1530">
-      <c r="A1530" t="inlineStr">
-        <is>
-          <t>TotalReviews: 0</t>
-        </is>
-      </c>
-      <c r="B1530" t="inlineStr"/>
-      <c r="C1530" t="inlineStr"/>
-      <c r="D1530" t="inlineStr"/>
-      <c r="E1530" t="inlineStr"/>
-      <c r="F1530" t="inlineStr"/>
-      <c r="G1530" t="inlineStr"/>
-      <c r="H1530" t="inlineStr"/>
-      <c r="I1530" t="inlineStr"/>
-    </row>
-    <row r="1531">
-      <c r="A1531" t="inlineStr">
-        <is>
-          <t>Category: ['Museums', 'Modern Attractions']</t>
-        </is>
-      </c>
-      <c r="B1531" t="inlineStr"/>
-      <c r="C1531" t="inlineStr"/>
-      <c r="D1531" t="inlineStr"/>
-      <c r="E1531" t="inlineStr"/>
-      <c r="F1531" t="inlineStr"/>
-      <c r="G1531" t="inlineStr"/>
-      <c r="H1531" t="inlineStr"/>
-      <c r="I1531" t="inlineStr"/>
-    </row>
-    <row r="1532">
-      <c r="A1532" t="inlineStr">
-        <is>
-          <t>PRODUCTCODE: 7832P98</t>
-        </is>
-      </c>
-      <c r="B1532" t="inlineStr"/>
-      <c r="C1532" t="inlineStr"/>
-      <c r="D1532" t="inlineStr"/>
-      <c r="E1532" t="inlineStr"/>
-      <c r="F1532" t="inlineStr"/>
-      <c r="G1532" t="inlineStr"/>
-      <c r="H1532" t="inlineStr"/>
-      <c r="I1532" t="inlineStr"/>
-    </row>
-    <row r="1533">
-      <c r="A1533" t="inlineStr">
-        <is>
-          <t>Summarized description: "It is one the unique experience where the customer will enjoy the illumination of Paris sipping a glass of Champagne," says the company.</t>
-        </is>
-      </c>
-      <c r="B1533" t="inlineStr"/>
-      <c r="C1533" t="inlineStr"/>
-      <c r="D1533" t="inlineStr"/>
-      <c r="E1533" t="inlineStr"/>
-      <c r="F1533" t="inlineStr"/>
-      <c r="G1533" t="inlineStr"/>
-      <c r="H1533" t="inlineStr"/>
-      <c r="I1533" t="inlineStr"/>
-    </row>
-    <row r="1534">
-      <c r="A1534" t="inlineStr">
-        <is>
-          <t>Title: Eiffel Tower Summit Entrance and Champagne Experience</t>
-        </is>
-      </c>
-      <c r="B1534" t="inlineStr"/>
-      <c r="C1534" t="inlineStr"/>
-      <c r="D1534" t="inlineStr"/>
-      <c r="E1534" t="inlineStr"/>
-      <c r="F1534" t="inlineStr"/>
-      <c r="G1534" t="inlineStr"/>
-      <c r="H1534" t="inlineStr"/>
-      <c r="I1534" t="inlineStr"/>
-    </row>
-    <row r="1535">
-      <c r="A1535" t="inlineStr">
-        <is>
-          <t>TotalReviews: 0</t>
-        </is>
-      </c>
-      <c r="B1535" t="inlineStr"/>
-      <c r="C1535" t="inlineStr"/>
-      <c r="D1535" t="inlineStr"/>
-      <c r="E1535" t="inlineStr"/>
-      <c r="F1535" t="inlineStr"/>
-      <c r="G1535" t="inlineStr"/>
-      <c r="H1535" t="inlineStr"/>
-      <c r="I1535" t="inlineStr"/>
-    </row>
-    <row r="1536">
-      <c r="A1536" t="inlineStr">
-        <is>
-          <t>Category: ['Entertainment']</t>
-        </is>
-      </c>
-      <c r="B1536" t="inlineStr"/>
-      <c r="C1536" t="inlineStr"/>
-      <c r="D1536" t="inlineStr"/>
-      <c r="E1536" t="inlineStr"/>
-      <c r="F1536" t="inlineStr"/>
-      <c r="G1536" t="inlineStr"/>
-      <c r="H1536" t="inlineStr"/>
-      <c r="I1536" t="inlineStr"/>
-    </row>
-    <row r="1537">
-      <c r="A1537" t="inlineStr">
-        <is>
-          <t>PRODUCTCODE: 175581P38</t>
-        </is>
-      </c>
-      <c r="B1537" t="inlineStr"/>
-      <c r="C1537" t="inlineStr"/>
-      <c r="D1537" t="inlineStr"/>
-      <c r="E1537" t="inlineStr"/>
-      <c r="F1537" t="inlineStr"/>
-      <c r="G1537" t="inlineStr"/>
-      <c r="H1537" t="inlineStr"/>
-      <c r="I1537" t="inlineStr"/>
-    </row>
-    <row r="1538">
-      <c r="A1538" t="inlineStr">
-        <is>
-          <t>Summarized description: In small groups of 20 or less you will climb to the 2nd level with our enthusiastic English-speaking guide. Listen to stories about the controversial construction and how it changed the face of Paris on your way up to the 1st level.</t>
-        </is>
-      </c>
-      <c r="B1538" t="inlineStr"/>
-      <c r="C1538" t="inlineStr"/>
-      <c r="D1538" t="inlineStr"/>
-      <c r="E1538" t="inlineStr"/>
-      <c r="F1538" t="inlineStr"/>
-      <c r="G1538" t="inlineStr"/>
-      <c r="H1538" t="inlineStr"/>
-      <c r="I1538" t="inlineStr"/>
-    </row>
-    <row r="1539">
-      <c r="A1539" t="inlineStr">
-        <is>
-          <t>Title: Eiffel Tower Climbing Experience with Optional Access to the Summit Level</t>
-        </is>
-      </c>
-      <c r="B1539" t="inlineStr"/>
-      <c r="C1539" t="inlineStr"/>
-      <c r="D1539" t="inlineStr"/>
-      <c r="E1539" t="inlineStr"/>
-      <c r="F1539" t="inlineStr"/>
-      <c r="G1539" t="inlineStr"/>
-      <c r="H1539" t="inlineStr"/>
-      <c r="I1539" t="inlineStr"/>
-    </row>
-    <row r="1540">
-      <c r="A1540" t="inlineStr">
-        <is>
-          <t>TotalReviews: 0</t>
-        </is>
-      </c>
-      <c r="B1540" t="inlineStr"/>
-      <c r="C1540" t="inlineStr"/>
-      <c r="D1540" t="inlineStr"/>
-      <c r="E1540" t="inlineStr"/>
-      <c r="F1540" t="inlineStr"/>
-      <c r="G1540" t="inlineStr"/>
-      <c r="H1540" t="inlineStr"/>
-      <c r="I1540" t="inlineStr"/>
-    </row>
-    <row r="1541">
-      <c r="A1541" t="inlineStr">
-        <is>
-          <t>Category: ['City Tours', 'Modern Attractions']</t>
-        </is>
-      </c>
-      <c r="B1541" t="inlineStr"/>
-      <c r="C1541" t="inlineStr"/>
-      <c r="D1541" t="inlineStr"/>
-      <c r="E1541" t="inlineStr"/>
-      <c r="F1541" t="inlineStr"/>
-      <c r="G1541" t="inlineStr"/>
-      <c r="H1541" t="inlineStr"/>
-      <c r="I1541" t="inlineStr"/>
-    </row>
-    <row r="1542">
-      <c r="A1542" t="inlineStr">
-        <is>
-          <t>PRODUCTCODE: 125051P3</t>
-        </is>
-      </c>
-      <c r="B1542" t="inlineStr"/>
-      <c r="C1542" t="inlineStr"/>
-      <c r="D1542" t="inlineStr"/>
-      <c r="E1542" t="inlineStr"/>
-      <c r="F1542" t="inlineStr"/>
-      <c r="G1542" t="inlineStr"/>
-      <c r="H1542" t="inlineStr"/>
-      <c r="I1542" t="inlineStr"/>
-    </row>
-    <row r="1543">
-      <c r="A1543" t="inlineStr">
-        <is>
-          <t>Summarized description: Take an insider's tour of the summit with a guide. Get unparalleled views of Parisian landmarks like Montmartre, the Louvre Museum and more. Get the lowdown on how and why the tower was built.</t>
-        </is>
-      </c>
-      <c r="B1543" t="inlineStr"/>
-      <c r="C1543" t="inlineStr"/>
-      <c r="D1543" t="inlineStr"/>
-      <c r="E1543" t="inlineStr"/>
-      <c r="F1543" t="inlineStr"/>
-      <c r="G1543" t="inlineStr"/>
-      <c r="H1543" t="inlineStr"/>
-      <c r="I1543" t="inlineStr"/>
-    </row>
-    <row r="1544">
-      <c r="A1544" t="inlineStr">
-        <is>
-          <t>Title: Tickets for Eiffel Tower - Summit: Guided Visit</t>
-        </is>
-      </c>
-      <c r="B1544" t="inlineStr"/>
-      <c r="C1544" t="inlineStr"/>
-      <c r="D1544" t="inlineStr"/>
-      <c r="E1544" t="inlineStr"/>
-      <c r="F1544" t="inlineStr"/>
-      <c r="G1544" t="inlineStr"/>
-      <c r="H1544" t="inlineStr"/>
-      <c r="I1544" t="inlineStr"/>
-    </row>
-    <row r="1545">
-      <c r="A1545" t="inlineStr">
-        <is>
-          <t>TotalReviews: 0</t>
-        </is>
-      </c>
-      <c r="B1545" t="inlineStr"/>
-      <c r="C1545" t="inlineStr"/>
-      <c r="D1545" t="inlineStr"/>
-      <c r="E1545" t="inlineStr"/>
-      <c r="F1545" t="inlineStr"/>
-      <c r="G1545" t="inlineStr"/>
-      <c r="H1545" t="inlineStr"/>
-      <c r="I1545" t="inlineStr"/>
-    </row>
-    <row r="1546">
-      <c r="A1546" t="inlineStr">
-        <is>
-          <t>Category: ['Scenic Tours', 'Cultural Tours', 'Historical Tours']</t>
-        </is>
-      </c>
-      <c r="B1546" t="inlineStr"/>
-      <c r="C1546" t="inlineStr"/>
-      <c r="D1546" t="inlineStr"/>
-      <c r="E1546" t="inlineStr"/>
-      <c r="F1546" t="inlineStr"/>
-      <c r="G1546" t="inlineStr"/>
-      <c r="H1546" t="inlineStr"/>
-      <c r="I1546" t="inlineStr"/>
-    </row>
-    <row r="1547">
-      <c r="A1547" t="inlineStr">
-        <is>
-          <t>PRODUCTCODE: 248877P31</t>
-        </is>
-      </c>
-      <c r="B1547" t="inlineStr"/>
-      <c r="C1547" t="inlineStr"/>
-      <c r="D1547" t="inlineStr"/>
-      <c r="E1547" t="inlineStr"/>
-      <c r="F1547" t="inlineStr"/>
-      <c r="G1547" t="inlineStr"/>
-      <c r="H1547" t="inlineStr"/>
-      <c r="I1547" t="inlineStr"/>
-    </row>
-    <row r="1548">
-      <c r="A1548" t="inlineStr">
-        <is>
-          <t>Summarized description: Visit the Eiffel Tower with a priority-access ticket. Enjoy access to the 1st and 2nd floors and the Summit by elevator. Marvel at spectacular views of Paris.</t>
-        </is>
-      </c>
-      <c r="B1548" t="inlineStr"/>
-      <c r="C1548" t="inlineStr"/>
-      <c r="D1548" t="inlineStr"/>
-      <c r="E1548" t="inlineStr"/>
-      <c r="F1548" t="inlineStr"/>
-      <c r="G1548" t="inlineStr"/>
-      <c r="H1548" t="inlineStr"/>
-      <c r="I1548" t="inlineStr"/>
-    </row>
-    <row r="1549">
-      <c r="A1549" t="inlineStr">
-        <is>
-          <t>Title: Paris Essentials : Eiffel Tower Skip the Line with Summit Access</t>
-        </is>
-      </c>
-      <c r="B1549" t="inlineStr"/>
-      <c r="C1549" t="inlineStr"/>
-      <c r="D1549" t="inlineStr"/>
-      <c r="E1549" t="inlineStr"/>
-      <c r="F1549" t="inlineStr"/>
-      <c r="G1549" t="inlineStr"/>
-      <c r="H1549" t="inlineStr"/>
-      <c r="I1549" t="inlineStr"/>
-    </row>
-    <row r="1550">
-      <c r="A1550" t="inlineStr">
-        <is>
-          <t>TotalReviews: 0</t>
-        </is>
-      </c>
-      <c r="B1550" t="inlineStr"/>
-      <c r="C1550" t="inlineStr"/>
-      <c r="D1550" t="inlineStr"/>
-      <c r="E1550" t="inlineStr"/>
-      <c r="F1550" t="inlineStr"/>
-      <c r="G1550" t="inlineStr"/>
-      <c r="H1550" t="inlineStr"/>
-      <c r="I1550" t="inlineStr"/>
-    </row>
-    <row r="1551">
-      <c r="A1551" t="inlineStr">
-        <is>
-          <t>Category: ['Scenic Tours', 'Modern Attractions']</t>
-        </is>
-      </c>
-      <c r="B1551" t="inlineStr"/>
-      <c r="C1551" t="inlineStr"/>
-      <c r="D1551" t="inlineStr"/>
-      <c r="E1551" t="inlineStr"/>
-      <c r="F1551" t="inlineStr"/>
-      <c r="G1551" t="inlineStr"/>
-      <c r="H1551" t="inlineStr"/>
-      <c r="I1551" t="inlineStr"/>
-    </row>
-    <row r="1552">
-      <c r="A1552" t="inlineStr">
-        <is>
-          <t>PRODUCTCODE: 197814P1</t>
-        </is>
-      </c>
-      <c r="B1552" t="inlineStr"/>
-      <c r="C1552" t="inlineStr"/>
-      <c r="D1552" t="inlineStr"/>
-      <c r="E1552" t="inlineStr"/>
-      <c r="F1552" t="inlineStr"/>
-      <c r="G1552" t="inlineStr"/>
-      <c r="H1552" t="inlineStr"/>
-      <c r="I1552" t="inlineStr"/>
-    </row>
-    <row r="1553">
-      <c r="A1553" t="inlineStr">
-        <is>
-          <t>Summarized description: Learn history of Gustave Eiffel and the tower's construction. See Paris from 300 meters high for a tour from the sky. Toast your arrival at the top at the famous champagne bar.</t>
-        </is>
-      </c>
-      <c r="B1553" t="inlineStr"/>
-      <c r="C1553" t="inlineStr"/>
-      <c r="D1553" t="inlineStr"/>
-      <c r="E1553" t="inlineStr"/>
-      <c r="F1553" t="inlineStr"/>
-      <c r="G1553" t="inlineStr"/>
-      <c r="H1553" t="inlineStr"/>
-      <c r="I1553" t="inlineStr"/>
-    </row>
-    <row r="1554">
-      <c r="A1554" t="inlineStr">
-        <is>
-          <t>Title: Eiffel Tower Tour with Summit Option</t>
-        </is>
-      </c>
-      <c r="B1554" t="inlineStr"/>
-      <c r="C1554" t="inlineStr"/>
-      <c r="D1554" t="inlineStr"/>
-      <c r="E1554" t="inlineStr"/>
-      <c r="F1554" t="inlineStr"/>
-      <c r="G1554" t="inlineStr"/>
-      <c r="H1554" t="inlineStr"/>
-      <c r="I1554" t="inlineStr"/>
-    </row>
-    <row r="1555">
-      <c r="A1555" t="inlineStr">
-        <is>
-          <t>TotalReviews: 0</t>
-        </is>
-      </c>
-      <c r="B1555" t="inlineStr"/>
-      <c r="C1555" t="inlineStr"/>
-      <c r="D1555" t="inlineStr"/>
-      <c r="E1555" t="inlineStr"/>
-      <c r="F1555" t="inlineStr"/>
-      <c r="G1555" t="inlineStr"/>
-      <c r="H1555" t="inlineStr"/>
-      <c r="I1555" t="inlineStr"/>
-    </row>
-    <row r="1556">
-      <c r="A1556" t="inlineStr">
-        <is>
-          <t>Category: ['Cultural Tours', 'Modern Attractions']</t>
-        </is>
-      </c>
-      <c r="B1556" t="inlineStr"/>
-      <c r="C1556" t="inlineStr"/>
-      <c r="D1556" t="inlineStr"/>
-      <c r="E1556" t="inlineStr"/>
-      <c r="F1556" t="inlineStr"/>
-      <c r="G1556" t="inlineStr"/>
-      <c r="H1556" t="inlineStr"/>
-      <c r="I1556" t="inlineStr"/>
-    </row>
-    <row r="1557">
-      <c r="A1557" t="inlineStr">
-        <is>
-          <t>PRODUCTCODE: 7832P167</t>
-        </is>
-      </c>
-      <c r="B1557" t="inlineStr"/>
-      <c r="C1557" t="inlineStr"/>
-      <c r="D1557" t="inlineStr"/>
-      <c r="E1557" t="inlineStr"/>
-      <c r="F1557" t="inlineStr"/>
-      <c r="G1557" t="inlineStr"/>
-      <c r="H1557" t="inlineStr"/>
-      <c r="I1557" t="inlineStr"/>
-    </row>
-    <row r="1558">
-      <c r="A1558" t="inlineStr">
-        <is>
-          <t>Summarized description: The Eiffel Tower is the highest place in Paris and the view from there is breathtaking. Avoid any hassle to purchase the summit acces pass with this prepaid ticket. Get the entrance for the Elevators without waiting in ticket line to buy.</t>
-        </is>
-      </c>
-      <c r="B1558" t="inlineStr"/>
-      <c r="C1558" t="inlineStr"/>
-      <c r="D1558" t="inlineStr"/>
-      <c r="E1558" t="inlineStr"/>
-      <c r="F1558" t="inlineStr"/>
-      <c r="G1558" t="inlineStr"/>
-      <c r="H1558" t="inlineStr"/>
-      <c r="I1558" t="inlineStr"/>
-    </row>
-    <row r="1559">
-      <c r="A1559" t="inlineStr">
-        <is>
-          <t>Title: Eiffel Tower Skip-the-Ticket-line Summit Entrance - Group option</t>
-        </is>
-      </c>
-      <c r="B1559" t="inlineStr"/>
-      <c r="C1559" t="inlineStr"/>
-      <c r="D1559" t="inlineStr"/>
-      <c r="E1559" t="inlineStr"/>
-      <c r="F1559" t="inlineStr"/>
-      <c r="G1559" t="inlineStr"/>
-      <c r="H1559" t="inlineStr"/>
-      <c r="I1559" t="inlineStr"/>
-    </row>
-    <row r="1560">
-      <c r="A1560" t="inlineStr">
-        <is>
-          <t>TotalReviews: 0</t>
-        </is>
-      </c>
-      <c r="B1560" t="inlineStr"/>
-      <c r="C1560" t="inlineStr"/>
-      <c r="D1560" t="inlineStr"/>
-      <c r="E1560" t="inlineStr"/>
-      <c r="F1560" t="inlineStr"/>
-      <c r="G1560" t="inlineStr"/>
-      <c r="H1560" t="inlineStr"/>
-      <c r="I1560" t="inlineStr"/>
-    </row>
-    <row r="1561">
-      <c r="A1561" t="inlineStr">
-        <is>
-          <t>Category: ['Modern Attractions']</t>
-        </is>
-      </c>
-      <c r="B1561" t="inlineStr"/>
-      <c r="C1561" t="inlineStr"/>
-      <c r="D1561" t="inlineStr"/>
-      <c r="E1561" t="inlineStr"/>
-      <c r="F1561" t="inlineStr"/>
-      <c r="G1561" t="inlineStr"/>
-      <c r="H1561" t="inlineStr"/>
-      <c r="I1561" t="inlineStr"/>
-    </row>
-    <row r="1562">
-      <c r="A1562" t="inlineStr">
-        <is>
-          <t>PRODUCTCODE: 330121P5</t>
-        </is>
-      </c>
-      <c r="B1562" t="inlineStr"/>
-      <c r="C1562" t="inlineStr"/>
-      <c r="D1562" t="inlineStr"/>
-      <c r="E1562" t="inlineStr"/>
-      <c r="F1562" t="inlineStr"/>
-      <c r="G1562" t="inlineStr"/>
-      <c r="H1562" t="inlineStr"/>
-      <c r="I1562" t="inlineStr"/>
-    </row>
-    <row r="1563">
-      <c r="A1563" t="inlineStr">
-        <is>
-          <t>Summarized description: Eiffel is a symbol of love for many couples from all over the world. Thousands of marriage proposal made under the beautiful tower every year. Take advantage of direct access to the Champs de Mars.</t>
-        </is>
-      </c>
-      <c r="B1563" t="inlineStr"/>
-      <c r="C1563" t="inlineStr"/>
-      <c r="D1563" t="inlineStr"/>
-      <c r="E1563" t="inlineStr"/>
-      <c r="F1563" t="inlineStr"/>
-      <c r="G1563" t="inlineStr"/>
-      <c r="H1563" t="inlineStr"/>
-      <c r="I1563" t="inlineStr"/>
-    </row>
-    <row r="1564">
-      <c r="A1564" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Title: Eiffel Tower Complete Guided Tour:Exclusive Direct Access 2nd Level and Summit </t>
-        </is>
-      </c>
-      <c r="B1564" t="inlineStr"/>
-      <c r="C1564" t="inlineStr"/>
-      <c r="D1564" t="inlineStr"/>
-      <c r="E1564" t="inlineStr"/>
-      <c r="F1564" t="inlineStr"/>
-      <c r="G1564" t="inlineStr"/>
-      <c r="H1564" t="inlineStr"/>
-      <c r="I1564" t="inlineStr"/>
-    </row>
-    <row r="1565">
-      <c r="A1565" t="inlineStr">
-        <is>
-          <t>TotalReviews: 0</t>
-        </is>
-      </c>
-      <c r="B1565" t="inlineStr"/>
-      <c r="C1565" t="inlineStr"/>
-      <c r="D1565" t="inlineStr"/>
-      <c r="E1565" t="inlineStr"/>
-      <c r="F1565" t="inlineStr"/>
-      <c r="G1565" t="inlineStr"/>
-      <c r="H1565" t="inlineStr"/>
-      <c r="I1565" t="inlineStr"/>
-    </row>
-    <row r="1566">
-      <c r="A1566" t="inlineStr">
-        <is>
-          <t>Category: ['City Tours']</t>
-        </is>
-      </c>
-      <c r="B1566" t="inlineStr"/>
-      <c r="C1566" t="inlineStr"/>
-      <c r="D1566" t="inlineStr"/>
-      <c r="E1566" t="inlineStr"/>
-      <c r="F1566" t="inlineStr"/>
-      <c r="G1566" t="inlineStr"/>
-      <c r="H1566" t="inlineStr"/>
-      <c r="I1566" t="inlineStr"/>
-    </row>
-    <row r="1567">
-      <c r="A1567" t="inlineStr">
-        <is>
-          <t>PRODUCTCODE: 445693P14</t>
-        </is>
-      </c>
-      <c r="B1567" t="inlineStr"/>
-      <c r="C1567" t="inlineStr"/>
-      <c r="D1567" t="inlineStr"/>
-      <c r="E1567" t="inlineStr"/>
-      <c r="F1567" t="inlineStr"/>
-      <c r="G1567" t="inlineStr"/>
-      <c r="H1567" t="inlineStr"/>
-      <c r="I1567" t="inlineStr"/>
-    </row>
-    <row r="1568">
-      <c r="A1568" t="inlineStr">
-        <is>
-          <t>Summarized description: Take a tour of the famous Eiffel Tower and admire the city from above. Enjoy a 2-hour guided tour in English of the tower to learn all about the origins and secrets of the construction.</t>
-        </is>
-      </c>
-      <c r="B1568" t="inlineStr"/>
-      <c r="C1568" t="inlineStr"/>
-      <c r="D1568" t="inlineStr"/>
-      <c r="E1568" t="inlineStr"/>
-      <c r="F1568" t="inlineStr"/>
-      <c r="G1568" t="inlineStr"/>
-      <c r="H1568" t="inlineStr"/>
-      <c r="I1568" t="inlineStr"/>
-    </row>
-    <row r="1569">
-      <c r="A1569" t="inlineStr">
-        <is>
-          <t>Title: 2 hours Guided Tour of the Eiffel Tower with Summit Access</t>
-        </is>
-      </c>
-      <c r="B1569" t="inlineStr"/>
-      <c r="C1569" t="inlineStr"/>
-      <c r="D1569" t="inlineStr"/>
-      <c r="E1569" t="inlineStr"/>
-      <c r="F1569" t="inlineStr"/>
-      <c r="G1569" t="inlineStr"/>
-      <c r="H1569" t="inlineStr"/>
-      <c r="I1569" t="inlineStr"/>
-    </row>
-    <row r="1570">
-      <c r="A1570" t="inlineStr">
-        <is>
-          <t>TotalReviews: 0</t>
-        </is>
-      </c>
-      <c r="B1570" t="inlineStr"/>
-      <c r="C1570" t="inlineStr"/>
-      <c r="D1570" t="inlineStr"/>
-      <c r="E1570" t="inlineStr"/>
-      <c r="F1570" t="inlineStr"/>
-      <c r="G1570" t="inlineStr"/>
-      <c r="H1570" t="inlineStr"/>
-      <c r="I1570" t="inlineStr"/>
-    </row>
-    <row r="1571">
-      <c r="A1571" t="inlineStr">
-        <is>
-          <t>Category: ['Modern Attractions']</t>
-        </is>
-      </c>
-      <c r="B1571" t="inlineStr"/>
-      <c r="C1571" t="inlineStr"/>
-      <c r="D1571" t="inlineStr"/>
-      <c r="E1571" t="inlineStr"/>
-      <c r="F1571" t="inlineStr"/>
-      <c r="G1571" t="inlineStr"/>
-      <c r="H1571" t="inlineStr"/>
-      <c r="I1571" t="inlineStr"/>
-    </row>
-    <row r="1572">
-      <c r="A1572" t="inlineStr">
-        <is>
-          <t>PRODUCTCODE: 5717P11</t>
-        </is>
-      </c>
-      <c r="B1572" t="inlineStr"/>
-      <c r="C1572" t="inlineStr"/>
-      <c r="D1572" t="inlineStr"/>
-      <c r="E1572" t="inlineStr"/>
-      <c r="F1572" t="inlineStr"/>
-      <c r="G1572" t="inlineStr"/>
-      <c r="H1572" t="inlineStr"/>
-      <c r="I1572" t="inlineStr"/>
-    </row>
-    <row r="1573">
-      <c r="A1573" t="inlineStr">
-        <is>
-          <t>Summarized description: Discover a new side of the Eiffel Tower and her secrets. Enjoy a 90-minute guided tour to discover a newside of the tower and its secrets.</t>
-        </is>
-      </c>
-      <c r="B1573" t="inlineStr"/>
-      <c r="C1573" t="inlineStr"/>
-      <c r="D1573" t="inlineStr"/>
-      <c r="E1573" t="inlineStr"/>
-      <c r="F1573" t="inlineStr"/>
-      <c r="G1573" t="inlineStr"/>
-      <c r="H1573" t="inlineStr"/>
-      <c r="I1573" t="inlineStr"/>
-    </row>
-    <row r="1574">
-      <c r="A1574" t="inlineStr">
-        <is>
-          <t>Title: Eiffel Tower Skip the Line Guided Tour to the 2nd floor</t>
-        </is>
-      </c>
-      <c r="B1574" t="inlineStr"/>
-      <c r="C1574" t="inlineStr"/>
-      <c r="D1574" t="inlineStr"/>
-      <c r="E1574" t="inlineStr"/>
-      <c r="F1574" t="inlineStr"/>
-      <c r="G1574" t="inlineStr"/>
-      <c r="H1574" t="inlineStr"/>
-      <c r="I1574" t="inlineStr"/>
-    </row>
-    <row r="1575">
-      <c r="A1575" t="inlineStr">
-        <is>
-          <t>TotalReviews: 0</t>
-        </is>
-      </c>
-      <c r="B1575" t="inlineStr"/>
-      <c r="C1575" t="inlineStr"/>
-      <c r="D1575" t="inlineStr"/>
-      <c r="E1575" t="inlineStr"/>
-      <c r="F1575" t="inlineStr"/>
-      <c r="G1575" t="inlineStr"/>
-      <c r="H1575" t="inlineStr"/>
-      <c r="I1575" t="inlineStr"/>
-    </row>
-    <row r="1576">
-      <c r="A1576" t="inlineStr">
-        <is>
-          <t>Category: ['Historical Tours', 'Modern Attractions']</t>
-        </is>
-      </c>
-      <c r="B1576" t="inlineStr"/>
-      <c r="C1576" t="inlineStr"/>
-      <c r="D1576" t="inlineStr"/>
-      <c r="E1576" t="inlineStr"/>
-      <c r="F1576" t="inlineStr"/>
-      <c r="G1576" t="inlineStr"/>
-      <c r="H1576" t="inlineStr"/>
-      <c r="I1576" t="inlineStr"/>
-    </row>
-    <row r="1577">
-      <c r="A1577" t="inlineStr">
-        <is>
-          <t>PRODUCTCODE: 226089P1</t>
-        </is>
-      </c>
-      <c r="B1577" t="inlineStr"/>
-      <c r="C1577" t="inlineStr"/>
-      <c r="D1577" t="inlineStr"/>
-      <c r="E1577" t="inlineStr"/>
-      <c r="F1577" t="inlineStr"/>
-      <c r="G1577" t="inlineStr"/>
-      <c r="H1577" t="inlineStr"/>
-      <c r="I1577" t="inlineStr"/>
-    </row>
-    <row r="1578">
-      <c r="A1578" t="inlineStr">
-        <is>
-          <t>Summarized description: Explore the stunning views of Gustave Eiffel's most famous creation from top to bottom. Our skip the lines access will send you to the 2nd-floor observation deck right away.</t>
-        </is>
-      </c>
-      <c r="B1578" t="inlineStr"/>
-      <c r="C1578" t="inlineStr"/>
-      <c r="D1578" t="inlineStr"/>
-      <c r="E1578" t="inlineStr"/>
-      <c r="F1578" t="inlineStr"/>
-      <c r="G1578" t="inlineStr"/>
-      <c r="H1578" t="inlineStr"/>
-      <c r="I1578" t="inlineStr"/>
-    </row>
-    <row r="1579">
-      <c r="A1579" t="inlineStr">
-        <is>
-          <t>Title: Skip-the-line access: Guided Eiffel Tower Tour with Optional Summit Access</t>
-        </is>
-      </c>
-      <c r="B1579" t="inlineStr"/>
-      <c r="C1579" t="inlineStr"/>
-      <c r="D1579" t="inlineStr"/>
-      <c r="E1579" t="inlineStr"/>
-      <c r="F1579" t="inlineStr"/>
-      <c r="G1579" t="inlineStr"/>
-      <c r="H1579" t="inlineStr"/>
-      <c r="I1579" t="inlineStr"/>
-    </row>
-    <row r="1580">
-      <c r="A1580" t="inlineStr">
-        <is>
-          <t>TotalReviews: 0</t>
-        </is>
-      </c>
-      <c r="B1580" t="inlineStr"/>
-      <c r="C1580" t="inlineStr"/>
-      <c r="D1580" t="inlineStr"/>
-      <c r="E1580" t="inlineStr"/>
-      <c r="F1580" t="inlineStr"/>
-      <c r="G1580" t="inlineStr"/>
-      <c r="H1580" t="inlineStr"/>
-      <c r="I1580" t="inlineStr"/>
-    </row>
-    <row r="1581">
-      <c r="A1581" t="inlineStr">
-        <is>
-          <t>Category: ['Scenic Tours', 'Modern Attractions']</t>
-        </is>
-      </c>
-      <c r="B1581" t="inlineStr"/>
-      <c r="C1581" t="inlineStr"/>
-      <c r="D1581" t="inlineStr"/>
-      <c r="E1581" t="inlineStr"/>
-      <c r="F1581" t="inlineStr"/>
-      <c r="G1581" t="inlineStr"/>
-      <c r="H1581" t="inlineStr"/>
-      <c r="I1581" t="inlineStr"/>
-    </row>
-    <row r="1582">
-      <c r="A1582" t="inlineStr">
-        <is>
-          <t>*****</t>
-        </is>
-      </c>
-      <c r="B1582" t="inlineStr"/>
-      <c r="C1582" t="inlineStr"/>
-      <c r="D1582" t="inlineStr"/>
-      <c r="E1582" t="inlineStr"/>
-      <c r="F1582" t="inlineStr"/>
-      <c r="G1582" t="inlineStr"/>
-      <c r="H1582" t="inlineStr"/>
-      <c r="I1582" t="inlineStr"/>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/experiment_results/7845P10.xlsx
+++ b/experiment_results/7845P10.xlsx
@@ -1146,7 +1146,7 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>Category: ['', 'Scenic Tours', 'City Tours']</t>
+          <t>Category: ['', 'City Tours', 'Scenic Tours']</t>
         </is>
       </c>
       <c r="B44" t="inlineStr"/>
@@ -1446,7 +1446,7 @@
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Cultural Tours', 'Historical Tours']</t>
+          <t>Category: ['Cultural Tours', 'Historical Tours', 'City Tours']</t>
         </is>
       </c>
       <c r="B64" t="inlineStr"/>
@@ -1671,7 +1671,7 @@
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>Category: ['Entertainment', 'City Tours', 'Historical Tours']</t>
+          <t>Category: ['Historical Tours', 'City Tours', 'Entertainment']</t>
         </is>
       </c>
       <c r="B79" t="inlineStr"/>
@@ -2271,7 +2271,7 @@
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>Category: ['Dining Experiences', 'Historical Tours']</t>
+          <t>Category: ['Historical Tours', 'Dining Experiences']</t>
         </is>
       </c>
       <c r="B119" t="inlineStr"/>
@@ -2346,7 +2346,7 @@
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>Category: ['Dining Experiences', 'Historical Tours']</t>
+          <t>Category: ['Historical Tours', 'Dining Experiences']</t>
         </is>
       </c>
       <c r="B124" t="inlineStr"/>
@@ -2421,7 +2421,7 @@
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>Category: ['Modern Attractions', 'Historical Tours']</t>
+          <t>Category: ['Historical Tours', 'Modern Attractions']</t>
         </is>
       </c>
       <c r="B129" t="inlineStr"/>
@@ -2946,7 +2946,7 @@
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>Category: ['Museums', 'Historical Tours']</t>
+          <t>Category: ['Historical Tours', 'Museums']</t>
         </is>
       </c>
       <c r="B164" t="inlineStr"/>
@@ -3921,7 +3921,7 @@
     <row r="229">
       <c r="A229" t="inlineStr">
         <is>
-          <t>Category: ['Aerial Tours', 'City Tours', 'Modern Attractions']</t>
+          <t>Category: ['City Tours', 'Aerial Tours', 'Modern Attractions']</t>
         </is>
       </c>
       <c r="B229" t="inlineStr"/>
@@ -4071,7 +4071,7 @@
     <row r="239">
       <c r="A239" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Historical Tours']</t>
+          <t>Category: ['Historical Tours', 'City Tours']</t>
         </is>
       </c>
       <c r="B239" t="inlineStr"/>
@@ -4896,7 +4896,7 @@
     <row r="294">
       <c r="A294" t="inlineStr">
         <is>
-          <t>Category: ['Cultural Tours', 'Historical Tours']</t>
+          <t>Category: ['Historical Tours', 'Cultural Tours']</t>
         </is>
       </c>
       <c r="B294" t="inlineStr"/>
@@ -5796,7 +5796,7 @@
     <row r="354">
       <c r="A354" t="inlineStr">
         <is>
-          <t>Category: ['Transportation &amp; Travel Services', 'Modern Attractions']</t>
+          <t>Category: ['Modern Attractions', 'Transportation &amp; Travel Services']</t>
         </is>
       </c>
       <c r="B354" t="inlineStr"/>
@@ -6171,7 +6171,7 @@
     <row r="379">
       <c r="A379" t="inlineStr">
         <is>
-          <t>Category: ['Modern Attractions', 'Historical Tours']</t>
+          <t>Category: ['Historical Tours', 'Modern Attractions']</t>
         </is>
       </c>
       <c r="B379" t="inlineStr"/>
@@ -6771,7 +6771,7 @@
     <row r="419">
       <c r="A419" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Modern Attractions', 'Historical Tours']</t>
+          <t>Category: ['Historical Tours', 'City Tours', 'Modern Attractions']</t>
         </is>
       </c>
       <c r="B419" t="inlineStr"/>
@@ -6846,7 +6846,7 @@
     <row r="424">
       <c r="A424" t="inlineStr">
         <is>
-          <t>Category: ['', 'Museums', 'Historical Tours']</t>
+          <t>Category: ['', 'Historical Tours', 'Museums']</t>
         </is>
       </c>
       <c r="B424" t="inlineStr"/>
@@ -7371,7 +7371,7 @@
     <row r="459">
       <c r="A459" t="inlineStr">
         <is>
-          <t>Category: ['Cultural Cruises', 'Historical Tours']</t>
+          <t>Category: ['Historical Tours', 'Cultural Cruises']</t>
         </is>
       </c>
       <c r="B459" t="inlineStr"/>
@@ -8796,7 +8796,7 @@
     <row r="554">
       <c r="A554" t="inlineStr">
         <is>
-          <t>Category: ['Transportation &amp; Travel Services', 'Modern Attractions']</t>
+          <t>Category: ['Modern Attractions', 'Transportation &amp; Travel Services']</t>
         </is>
       </c>
       <c r="B554" t="inlineStr"/>
@@ -9996,7 +9996,7 @@
     <row r="634">
       <c r="A634" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Museums', 'Historical Tours']</t>
+          <t>Category: ['City Tours', 'Historical Tours', 'Museums']</t>
         </is>
       </c>
       <c r="B634" t="inlineStr"/>
@@ -10071,7 +10071,7 @@
     <row r="639">
       <c r="A639" t="inlineStr">
         <is>
-          <t>Category: ['Cultural Tours', 'Historical Tours']</t>
+          <t>Category: ['Historical Tours', 'Cultural Tours']</t>
         </is>
       </c>
       <c r="B639" t="inlineStr"/>
@@ -10521,7 +10521,7 @@
     <row r="669">
       <c r="A669" t="inlineStr">
         <is>
-          <t>Category: ['Workshops and Classes', 'Cultural Tours']</t>
+          <t>Category: ['Cultural Tours', 'Workshops and Classes']</t>
         </is>
       </c>
       <c r="B669" t="inlineStr"/>
@@ -11046,7 +11046,7 @@
     <row r="704">
       <c r="A704" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Historical Tours']</t>
+          <t>Category: ['Historical Tours', 'City Tours']</t>
         </is>
       </c>
       <c r="B704" t="inlineStr"/>
@@ -11121,7 +11121,7 @@
     <row r="709">
       <c r="A709" t="inlineStr">
         <is>
-          <t>Category: ['Scenic Tours', 'Cultural Tours', 'Historical Tours']</t>
+          <t>Category: ['Scenic Tours', 'Historical Tours', 'Cultural Tours']</t>
         </is>
       </c>
       <c r="B709" t="inlineStr"/>
@@ -11496,7 +11496,7 @@
     <row r="734">
       <c r="A734" t="inlineStr">
         <is>
-          <t>Category: ['Modern Attractions', 'Historical Tours']</t>
+          <t>Category: ['Historical Tours', 'Modern Attractions']</t>
         </is>
       </c>
       <c r="B734" t="inlineStr"/>
@@ -12321,7 +12321,7 @@
     <row r="789">
       <c r="A789" t="inlineStr">
         <is>
-          <t>Category: ['Wine and Beverage Tastings', 'City Tours', 'Modern Attractions']</t>
+          <t>Category: ['City Tours', 'Wine and Beverage Tastings', 'Modern Attractions']</t>
         </is>
       </c>
       <c r="B789" t="inlineStr"/>
@@ -13371,7 +13371,7 @@
     <row r="859">
       <c r="A859" t="inlineStr">
         <is>
-          <t>Category: ['Scenic Tours', 'Cultural Tours', 'Historical Tours']</t>
+          <t>Category: ['Scenic Tours', 'Historical Tours', 'Cultural Tours']</t>
         </is>
       </c>
       <c r="B859" t="inlineStr"/>
@@ -14692,7 +14692,7 @@
     <row r="947">
       <c r="A947" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 382015P1</t>
+          <t>PRODUCTCODE: 3731EIFFELTOWER</t>
         </is>
       </c>
       <c r="B947" t="inlineStr"/>
@@ -14707,7 +14707,7 @@
     <row r="948">
       <c r="A948" t="inlineStr">
         <is>
-          <t>Summarized description: Direct access ticket to the Eiffel Tower. Professional guides will accompany you all the way to the iconic “Iron Lady'' Panoramic and unobstructed view of the most romantic city in the world.</t>
+          <t>Summarized description: Meet your guide near the base of the Eiffel Tower, listening to the fascinating history of the original “Dame de Fer” (Iron Lady) You’ll have a chance to enjoy her every curve from every angle and to understand the beautiful science that keeps her standing.</t>
         </is>
       </c>
       <c r="B948" t="inlineStr"/>
@@ -14722,7 +14722,7 @@
     <row r="949">
       <c r="A949" t="inlineStr">
         <is>
-          <t>Title: Eiffel Tower Reserved Access Summit or 2nd Floor Guided by Lift</t>
+          <t>Title: Eiffel Tower Guided Tour with Optional Access to the Summit</t>
         </is>
       </c>
       <c r="B949" t="inlineStr"/>
@@ -14737,7 +14737,7 @@
     <row r="950">
       <c r="A950" t="inlineStr">
         <is>
-          <t>TotalReviews: 939</t>
+          <t>TotalReviews: 973</t>
         </is>
       </c>
       <c r="B950" t="inlineStr"/>
@@ -14752,7 +14752,7 @@
     <row r="951">
       <c r="A951" t="inlineStr">
         <is>
-          <t>Category: ['Scenic Tours', 'Modern Attractions']</t>
+          <t>Category: ['', 'City Tours', 'Scenic Tours']</t>
         </is>
       </c>
       <c r="B951" t="inlineStr"/>
@@ -14767,7 +14767,7 @@
     <row r="952">
       <c r="A952" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 352648P19</t>
+          <t>PRODUCTCODE: 382015P1</t>
         </is>
       </c>
       <c r="B952" t="inlineStr"/>
@@ -14782,7 +14782,7 @@
     <row r="953">
       <c r="A953" t="inlineStr">
         <is>
-          <t>Summarized description: Ascend the Eiffel Tower in Style by the slanting elevator. Take awesome pictures from any of the floors of the Tower. Be ready to see Paris from a different perspective.</t>
+          <t>Summarized description: Direct access ticket to the Eiffel Tower. Professional guides will accompany you all the way to the iconic “Iron Lady'' Panoramic and unobstructed view of the most romantic city in the world.</t>
         </is>
       </c>
       <c r="B953" t="inlineStr"/>
@@ -14797,7 +14797,7 @@
     <row r="954">
       <c r="A954" t="inlineStr">
         <is>
-          <t>Title: Eiffel Tower by Elevator, Spectacular City Views</t>
+          <t>Title: Eiffel Tower Reserved Access Summit or 2nd Floor Guided by Lift</t>
         </is>
       </c>
       <c r="B954" t="inlineStr"/>
@@ -14812,7 +14812,7 @@
     <row r="955">
       <c r="A955" t="inlineStr">
         <is>
-          <t>TotalReviews: 651</t>
+          <t>TotalReviews: 939</t>
         </is>
       </c>
       <c r="B955" t="inlineStr"/>
@@ -14827,7 +14827,7 @@
     <row r="956">
       <c r="A956" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Cultural Tours', 'Historical Tours']</t>
+          <t>Category: ['Scenic Tours', 'Modern Attractions']</t>
         </is>
       </c>
       <c r="B956" t="inlineStr"/>
@@ -14842,7 +14842,7 @@
     <row r="957">
       <c r="A957" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 3588EIFFELTOWER_S</t>
+          <t>PRODUCTCODE: 352648P19</t>
         </is>
       </c>
       <c r="B957" t="inlineStr"/>
@@ -14857,7 +14857,7 @@
     <row r="958">
       <c r="A958" t="inlineStr">
         <is>
-          <t>Summarized description: Enjoy a spectacular sunset from one of the world’s most iconic landmarks, the Eiffel Tower. With your reserved entry ticket in hand your expert guide will explain the fascinating history of this Paris icon.</t>
+          <t>Summarized description: Ascend the Eiffel Tower in Style by the slanting elevator. Take awesome pictures from any of the floors of the Tower. Be ready to see Paris from a different perspective.</t>
         </is>
       </c>
       <c r="B958" t="inlineStr"/>
@@ -14872,7 +14872,7 @@
     <row r="959">
       <c r="A959" t="inlineStr">
         <is>
-          <t>Title: Eiffel Tower Sunset Views Tour: Reserved Entry and Summit Access</t>
+          <t>Title: Eiffel Tower by Elevator, Spectacular City Views</t>
         </is>
       </c>
       <c r="B959" t="inlineStr"/>
@@ -14887,7 +14887,7 @@
     <row r="960">
       <c r="A960" t="inlineStr">
         <is>
-          <t>TotalReviews: 437</t>
+          <t>TotalReviews: 651</t>
         </is>
       </c>
       <c r="B960" t="inlineStr"/>
@@ -14902,7 +14902,7 @@
     <row r="961">
       <c r="A961" t="inlineStr">
         <is>
-          <t>Category: ['Scenic Tours', 'Modern Attractions']</t>
+          <t>Category: ['Cultural Tours', 'Historical Tours', 'City Tours']</t>
         </is>
       </c>
       <c r="B961" t="inlineStr"/>
@@ -14917,7 +14917,7 @@
     <row r="962">
       <c r="A962" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 420369P3</t>
+          <t>PRODUCTCODE: 3588EIFFELTOWER_S</t>
         </is>
       </c>
       <c r="B962" t="inlineStr"/>
@@ -14932,7 +14932,7 @@
     <row r="963">
       <c r="A963" t="inlineStr">
         <is>
-          <t>Summarized description: Built for the Paris World Exhibition in 1889, it has gone on to become one of the most widely recognized landmarks in the world. Save time with a pre-booked, ticket to the second level or the Summit (Top) of the Eiffel Tower via lift.</t>
+          <t>Summarized description: Enjoy a spectacular sunset from one of the world’s most iconic landmarks, the Eiffel Tower. With your reserved entry ticket in hand your expert guide will explain the fascinating history of this Paris icon.</t>
         </is>
       </c>
       <c r="B963" t="inlineStr"/>
@@ -14947,7 +14947,7 @@
     <row r="964">
       <c r="A964" t="inlineStr">
         <is>
-          <t>Title: Paris Eiffel Tower Entry Ticket to 2nd floor or Summit via Lift</t>
+          <t>Title: Eiffel Tower Sunset Views Tour: Reserved Entry and Summit Access</t>
         </is>
       </c>
       <c r="B964" t="inlineStr"/>
@@ -14962,7 +14962,7 @@
     <row r="965">
       <c r="A965" t="inlineStr">
         <is>
-          <t>TotalReviews: 411</t>
+          <t>TotalReviews: 437</t>
         </is>
       </c>
       <c r="B965" t="inlineStr"/>
@@ -14977,7 +14977,7 @@
     <row r="966">
       <c r="A966" t="inlineStr">
         <is>
-          <t>Category: ['Modern Attractions']</t>
+          <t>Category: ['Scenic Tours', 'Modern Attractions']</t>
         </is>
       </c>
       <c r="B966" t="inlineStr"/>
@@ -14992,7 +14992,7 @@
     <row r="967">
       <c r="A967" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 352648P3</t>
+          <t>PRODUCTCODE: 420369P3</t>
         </is>
       </c>
       <c r="B967" t="inlineStr"/>
@@ -15007,7 +15007,7 @@
     <row r="968">
       <c r="A968" t="inlineStr">
         <is>
-          <t>Summarized description: Take awesome pictures from any of the floors of the Tower and get ready to see Paris from a different and spectacular perspective. Engage in our exciting quiz session to broaden your knowledge of the tower in a fun and engaging way. The quiz master will be rewarded with a special gift, making this experience truly unforgettable.</t>
+          <t>Summarized description: Built for the Paris World Exhibition in 1889, it has gone on to become one of the most widely recognized landmarks in the world. Save time with a pre-booked, ticket to the second level or the Summit (Top) of the Eiffel Tower via lift.</t>
         </is>
       </c>
       <c r="B968" t="inlineStr"/>
@@ -15022,7 +15022,7 @@
     <row r="969">
       <c r="A969" t="inlineStr">
         <is>
-          <t>Title: Eiffel Tower by Elevator, Lovely Views, Optional Summit &amp; Cruise</t>
+          <t>Title: Paris Eiffel Tower Entry Ticket to 2nd floor or Summit via Lift</t>
         </is>
       </c>
       <c r="B969" t="inlineStr"/>
@@ -15037,7 +15037,7 @@
     <row r="970">
       <c r="A970" t="inlineStr">
         <is>
-          <t>TotalReviews: 402</t>
+          <t>TotalReviews: 411</t>
         </is>
       </c>
       <c r="B970" t="inlineStr"/>
@@ -15052,7 +15052,7 @@
     <row r="971">
       <c r="A971" t="inlineStr">
         <is>
-          <t>Category: ['Entertainment', 'City Tours', 'Historical Tours']</t>
+          <t>Category: ['Modern Attractions']</t>
         </is>
       </c>
       <c r="B971" t="inlineStr"/>
@@ -15067,7 +15067,7 @@
     <row r="972">
       <c r="A972" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 7832P46</t>
+          <t>PRODUCTCODE: 352648P3</t>
         </is>
       </c>
       <c r="B972" t="inlineStr"/>
@@ -15082,7 +15082,7 @@
     <row r="973">
       <c r="A973" t="inlineStr">
         <is>
-          <t>Summarized description: Ascend to the peak of Paris via the elevators. Experience the panoramic vistas from the tower's highest level. Don't miss the chance to witness the stunning scenery of this iconic landmark.</t>
+          <t>Summarized description: Take awesome pictures from any of the floors of the Tower and get ready to see Paris from a different and spectacular perspective. Engage in our exciting quiz session to broaden your knowledge of the tower in a fun and engaging way. The quiz master will be rewarded with a special gift, making this experience truly unforgettable.</t>
         </is>
       </c>
       <c r="B973" t="inlineStr"/>
@@ -15097,7 +15097,7 @@
     <row r="974">
       <c r="A974" t="inlineStr">
         <is>
-          <t>Title: Eiffel Tower Summit Entry &amp; City of Lights Views of Iconic Paris</t>
+          <t>Title: Eiffel Tower by Elevator, Lovely Views, Optional Summit &amp; Cruise</t>
         </is>
       </c>
       <c r="B974" t="inlineStr"/>
@@ -15112,7 +15112,7 @@
     <row r="975">
       <c r="A975" t="inlineStr">
         <is>
-          <t>TotalReviews: 382</t>
+          <t>TotalReviews: 402</t>
         </is>
       </c>
       <c r="B975" t="inlineStr"/>
@@ -15127,7 +15127,7 @@
     <row r="976">
       <c r="A976" t="inlineStr">
         <is>
-          <t>Category: ['Modern Attractions']</t>
+          <t>Category: ['Historical Tours', 'City Tours', 'Entertainment']</t>
         </is>
       </c>
       <c r="B976" t="inlineStr"/>
@@ -15142,7 +15142,7 @@
     <row r="977">
       <c r="A977" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 6839P8</t>
+          <t>PRODUCTCODE: 7832P46</t>
         </is>
       </c>
       <c r="B977" t="inlineStr"/>
@@ -15157,7 +15157,7 @@
     <row r="978">
       <c r="A978" t="inlineStr">
         <is>
-          <t>Summarized description: Choose a morning start time when it is less crowded to start your journey at the Eiffel Tower. You will hear tales as you walk, and learn about its creation for the International Exposition of 1889. Hop aboard your sightseeing boat at the water’s edge, and relax out on deck or in the lower saloon as you cruise along the famous river.</t>
+          <t>Summarized description: Ascend to the peak of Paris via the elevators. Experience the panoramic vistas from the tower's highest level. Don't miss the chance to witness the stunning scenery of this iconic landmark.</t>
         </is>
       </c>
       <c r="B978" t="inlineStr"/>
@@ -15172,7 +15172,7 @@
     <row r="979">
       <c r="A979" t="inlineStr">
         <is>
-          <t>Title: Eiffel Tower Summit Morning Tour by Elevator &amp; Seine River Cruise</t>
+          <t>Title: Eiffel Tower Summit Entry &amp; City of Lights Views of Iconic Paris</t>
         </is>
       </c>
       <c r="B979" t="inlineStr"/>
@@ -15187,7 +15187,7 @@
     <row r="980">
       <c r="A980" t="inlineStr">
         <is>
-          <t>TotalReviews: 328</t>
+          <t>TotalReviews: 382</t>
         </is>
       </c>
       <c r="B980" t="inlineStr"/>
@@ -15202,7 +15202,7 @@
     <row r="981">
       <c r="A981" t="inlineStr">
         <is>
-          <t>Category: ['Scenic Tours', 'Modern Attractions']</t>
+          <t>Category: ['Modern Attractions']</t>
         </is>
       </c>
       <c r="B981" t="inlineStr"/>
@@ -15217,7 +15217,7 @@
     <row r="982">
       <c r="A982" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 220637P8</t>
+          <t>PRODUCTCODE: 6839P8</t>
         </is>
       </c>
       <c r="B982" t="inlineStr"/>
@@ -15232,7 +15232,7 @@
     <row r="983">
       <c r="A983" t="inlineStr">
         <is>
-          <t>Summarized description: Meet your English-speaking guide a few steps from the Eiffel Tower. Enjoy breathtaking 360-degree panoramic views of the capital of France.</t>
+          <t>Summarized description: Choose a morning start time when it is less crowded to start your journey at the Eiffel Tower. You will hear tales as you walk, and learn about its creation for the International Exposition of 1889. Hop aboard your sightseeing boat at the water’s edge, and relax out on deck or in the lower saloon as you cruise along the famous river.</t>
         </is>
       </c>
       <c r="B983" t="inlineStr"/>
@@ -15247,7 +15247,7 @@
     <row r="984">
       <c r="A984" t="inlineStr">
         <is>
-          <t>Title: Eiffel Tower with reserved access to the Summit</t>
+          <t>Title: Eiffel Tower Summit Morning Tour by Elevator &amp; Seine River Cruise</t>
         </is>
       </c>
       <c r="B984" t="inlineStr"/>
@@ -15262,7 +15262,7 @@
     <row r="985">
       <c r="A985" t="inlineStr">
         <is>
-          <t>TotalReviews: 316</t>
+          <t>TotalReviews: 328</t>
         </is>
       </c>
       <c r="B985" t="inlineStr"/>
@@ -15277,7 +15277,7 @@
     <row r="986">
       <c r="A986" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Modern Attractions']</t>
+          <t>Category: ['Scenic Tours', 'Modern Attractions']</t>
         </is>
       </c>
       <c r="B986" t="inlineStr"/>
@@ -15292,7 +15292,7 @@
     <row r="987">
       <c r="A987" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 220637P13</t>
+          <t>PRODUCTCODE: 220637P8</t>
         </is>
       </c>
       <c r="B987" t="inlineStr"/>
@@ -15307,7 +15307,7 @@
     <row r="988">
       <c r="A988" t="inlineStr">
         <is>
-          <t>Summarized description: If you purchased the option, you will also have access to the top of the Eiffel Tower. Rising to a height of approximately 276 meters, this third floor offers its visitors the best view over the City of Light.</t>
+          <t>Summarized description: Meet your English-speaking guide a few steps from the Eiffel Tower. Enjoy breathtaking 360-degree panoramic views of the capital of France.</t>
         </is>
       </c>
       <c r="B988" t="inlineStr"/>
@@ -15322,7 +15322,7 @@
     <row r="989">
       <c r="A989" t="inlineStr">
         <is>
-          <t>Title: Eiffel Tower Guided Tour of 2nd Floor with Summit Access Option</t>
+          <t>Title: Eiffel Tower with reserved access to the Summit</t>
         </is>
       </c>
       <c r="B989" t="inlineStr"/>
@@ -15337,7 +15337,7 @@
     <row r="990">
       <c r="A990" t="inlineStr">
         <is>
-          <t>TotalReviews: 293</t>
+          <t>TotalReviews: 316</t>
         </is>
       </c>
       <c r="B990" t="inlineStr"/>
@@ -15367,7 +15367,7 @@
     <row r="992">
       <c r="A992" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 7832P151</t>
+          <t>PRODUCTCODE: 220637P13</t>
         </is>
       </c>
       <c r="B992" t="inlineStr"/>
@@ -15382,7 +15382,7 @@
     <row r="993">
       <c r="A993" t="inlineStr">
         <is>
-          <t>Summarized description: The Eiffel Tower is the highest place in Paris and the view from there is breath taking. Meet with one of our friendly hosts at our meeting point and let us lead you to the entrance to the tower via elevator.</t>
+          <t>Summarized description: If you purchased the option, you will also have access to the top of the Eiffel Tower. Rising to a height of approximately 276 meters, this third floor offers its visitors the best view over the City of Light.</t>
         </is>
       </c>
       <c r="B993" t="inlineStr"/>
@@ -15397,7 +15397,7 @@
     <row r="994">
       <c r="A994" t="inlineStr">
         <is>
-          <t>Title: Eiffel Tower Entry Ticket with Summit Access by Elevator</t>
+          <t>Title: Eiffel Tower Guided Tour of 2nd Floor with Summit Access Option</t>
         </is>
       </c>
       <c r="B994" t="inlineStr"/>
@@ -15412,7 +15412,7 @@
     <row r="995">
       <c r="A995" t="inlineStr">
         <is>
-          <t>TotalReviews: 283</t>
+          <t>TotalReviews: 293</t>
         </is>
       </c>
       <c r="B995" t="inlineStr"/>
@@ -15427,7 +15427,7 @@
     <row r="996">
       <c r="A996" t="inlineStr">
         <is>
-          <t>Category: ['Modern Attractions']</t>
+          <t>Category: ['City Tours', 'Modern Attractions']</t>
         </is>
       </c>
       <c r="B996" t="inlineStr"/>
@@ -15442,7 +15442,7 @@
     <row r="997">
       <c r="A997" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 47475P15</t>
+          <t>PRODUCTCODE: 7832P151</t>
         </is>
       </c>
       <c r="B997" t="inlineStr"/>
@@ -15457,7 +15457,7 @@
     <row r="998">
       <c r="A998" t="inlineStr">
         <is>
-          <t>Summarized description: This guided tour of the Eiffel Tower teaches you about the tower’s history, architecture, and even its brief notoriety. On the second level, enjoy one of the best views of Paris. There are plenty of places to eat here, including a macaron bar.</t>
+          <t>Summarized description: The Eiffel Tower is the highest place in Paris and the view from there is breath taking. Meet with one of our friendly hosts at our meeting point and let us lead you to the entrance to the tower via elevator.</t>
         </is>
       </c>
       <c r="B998" t="inlineStr"/>
@@ -15472,7 +15472,7 @@
     <row r="999">
       <c r="A999" t="inlineStr">
         <is>
-          <t>Title: Eiffel Tower Private Guided Tour by Elevator with Summit</t>
+          <t>Title: Eiffel Tower Entry Ticket with Summit Access by Elevator</t>
         </is>
       </c>
       <c r="B999" t="inlineStr"/>
@@ -15487,7 +15487,7 @@
     <row r="1000">
       <c r="A1000" t="inlineStr">
         <is>
-          <t>TotalReviews: 267</t>
+          <t>TotalReviews: 283</t>
         </is>
       </c>
       <c r="B1000" t="inlineStr"/>
@@ -15502,7 +15502,7 @@
     <row r="1001">
       <c r="A1001" t="inlineStr">
         <is>
-          <t>Category: ['Dining Experiences', 'Historical Tours']</t>
+          <t>Category: ['Modern Attractions']</t>
         </is>
       </c>
       <c r="B1001" t="inlineStr"/>
@@ -15517,7 +15517,7 @@
     <row r="1002">
       <c r="A1002" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 456325P1</t>
+          <t>PRODUCTCODE: 47475P15</t>
         </is>
       </c>
       <c r="B1002" t="inlineStr"/>
@@ -15532,7 +15532,7 @@
     <row r="1003">
       <c r="A1003" t="inlineStr">
         <is>
-          <t>Summarized description: Discover the enchanting beauty and rich history of Paris through our exclusive tour of the Eiffel Tower. With special access to the summit, you get to admire breathtaking panoramas from the second level. Indulge in a glass of Champagne from the bar (additional cost)</t>
+          <t>Summarized description: This guided tour of the Eiffel Tower teaches you about the tower’s history, architecture, and even its brief notoriety. On the second level, enjoy one of the best views of Paris. There are plenty of places to eat here, including a macaron bar.</t>
         </is>
       </c>
       <c r="B1003" t="inlineStr"/>
@@ -15547,7 +15547,7 @@
     <row r="1004">
       <c r="A1004" t="inlineStr">
         <is>
-          <t xml:space="preserve">Title: Eiffel Tower Guided Tour by Elevator with Summit access Reserved </t>
+          <t>Title: Eiffel Tower Private Guided Tour by Elevator with Summit</t>
         </is>
       </c>
       <c r="B1004" t="inlineStr"/>
@@ -15562,7 +15562,7 @@
     <row r="1005">
       <c r="A1005" t="inlineStr">
         <is>
-          <t>TotalReviews: 250</t>
+          <t>TotalReviews: 267</t>
         </is>
       </c>
       <c r="B1005" t="inlineStr"/>
@@ -15577,7 +15577,7 @@
     <row r="1006">
       <c r="A1006" t="inlineStr">
         <is>
-          <t>Category: ['Dining Experiences', 'Historical Tours']</t>
+          <t>Category: ['Historical Tours', 'Dining Experiences']</t>
         </is>
       </c>
       <c r="B1006" t="inlineStr"/>
@@ -15592,7 +15592,7 @@
     <row r="1007">
       <c r="A1007" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 46334P29</t>
+          <t>PRODUCTCODE: 456325P1</t>
         </is>
       </c>
       <c r="B1007" t="inlineStr"/>
@@ -15607,7 +15607,7 @@
     <row r="1008">
       <c r="A1008" t="inlineStr">
         <is>
-          <t>Summarized description: Climb to the top of the Eiffel Tower with our timed entry tour. Discover the fascinating stories behind the construction of the ‘Iron Lady’</t>
+          <t>Summarized description: Discover the enchanting beauty and rich history of Paris through our exclusive tour of the Eiffel Tower. With special access to the summit, you get to admire breathtaking panoramas from the second level. Indulge in a glass of Champagne from the bar (additional cost)</t>
         </is>
       </c>
       <c r="B1008" t="inlineStr"/>
@@ -15622,7 +15622,7 @@
     <row r="1009">
       <c r="A1009" t="inlineStr">
         <is>
-          <t>Title: Eiffel Tower Guided Tour with Summit Access</t>
+          <t xml:space="preserve">Title: Eiffel Tower Guided Tour by Elevator with Summit access Reserved </t>
         </is>
       </c>
       <c r="B1009" t="inlineStr"/>
@@ -15637,7 +15637,7 @@
     <row r="1010">
       <c r="A1010" t="inlineStr">
         <is>
-          <t>TotalReviews: 238</t>
+          <t>TotalReviews: 250</t>
         </is>
       </c>
       <c r="B1010" t="inlineStr"/>
@@ -15652,7 +15652,7 @@
     <row r="1011">
       <c r="A1011" t="inlineStr">
         <is>
-          <t>Category: ['Modern Attractions', 'Historical Tours']</t>
+          <t>Category: ['Historical Tours', 'Dining Experiences']</t>
         </is>
       </c>
       <c r="B1011" t="inlineStr"/>
@@ -15667,7 +15667,7 @@
     <row r="1012">
       <c r="A1012" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 384451P1</t>
+          <t>PRODUCTCODE: 46334P29</t>
         </is>
       </c>
       <c r="B1012" t="inlineStr"/>
@@ -15682,7 +15682,7 @@
     <row r="1013">
       <c r="A1013" t="inlineStr">
         <is>
-          <t>Summarized description: Expert guides will entertain you with facts about the Eiffel tower, its history, and much more while you ascend to the summit in a glass-walled elevator.</t>
+          <t>Summarized description: Climb to the top of the Eiffel Tower with our timed entry tour. Discover the fascinating stories behind the construction of the ‘Iron Lady’</t>
         </is>
       </c>
       <c r="B1013" t="inlineStr"/>
@@ -15697,7 +15697,7 @@
     <row r="1014">
       <c r="A1014" t="inlineStr">
         <is>
-          <t>Title: Eiffel Tower Summit Priority Access Guided Experience</t>
+          <t>Title: Eiffel Tower Guided Tour with Summit Access</t>
         </is>
       </c>
       <c r="B1014" t="inlineStr"/>
@@ -15712,7 +15712,7 @@
     <row r="1015">
       <c r="A1015" t="inlineStr">
         <is>
-          <t>TotalReviews: 157</t>
+          <t>TotalReviews: 238</t>
         </is>
       </c>
       <c r="B1015" t="inlineStr"/>
@@ -15727,7 +15727,7 @@
     <row r="1016">
       <c r="A1016" t="inlineStr">
         <is>
-          <t>Category: ['Scenic Tours', 'City Tours']</t>
+          <t>Category: ['Historical Tours', 'Modern Attractions']</t>
         </is>
       </c>
       <c r="B1016" t="inlineStr"/>
@@ -15742,7 +15742,7 @@
     <row r="1017">
       <c r="A1017" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 193509P1</t>
+          <t>PRODUCTCODE: 384451P1</t>
         </is>
       </c>
       <c r="B1017" t="inlineStr"/>
@@ -15757,7 +15757,7 @@
     <row r="1018">
       <c r="A1018" t="inlineStr">
         <is>
-          <t>Summarized description: Fast track, skip-the-line access to the Eiffel Tower includes summit access. Sip Champagne from the onsite bar (own expense) at the summit.</t>
+          <t>Summarized description: Expert guides will entertain you with facts about the Eiffel tower, its history, and much more while you ascend to the summit in a glass-walled elevator.</t>
         </is>
       </c>
       <c r="B1018" t="inlineStr"/>
@@ -15772,7 +15772,7 @@
     <row r="1019">
       <c r="A1019" t="inlineStr">
         <is>
-          <t>Title: Skip the Line: Eiffel Tower Summit Priority Access Ticket with Host</t>
+          <t>Title: Eiffel Tower Summit Priority Access Guided Experience</t>
         </is>
       </c>
       <c r="B1019" t="inlineStr"/>
@@ -15787,7 +15787,7 @@
     <row r="1020">
       <c r="A1020" t="inlineStr">
         <is>
-          <t>TotalReviews: 119</t>
+          <t>TotalReviews: 157</t>
         </is>
       </c>
       <c r="B1020" t="inlineStr"/>
@@ -15802,7 +15802,7 @@
     <row r="1021">
       <c r="A1021" t="inlineStr">
         <is>
-          <t>Category: ['Modern Attractions']</t>
+          <t>Category: ['Scenic Tours', 'City Tours']</t>
         </is>
       </c>
       <c r="B1021" t="inlineStr"/>
@@ -15817,7 +15817,7 @@
     <row r="1022">
       <c r="A1022" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 7249P6</t>
+          <t>PRODUCTCODE: 193509P1</t>
         </is>
       </c>
       <c r="B1022" t="inlineStr"/>
@@ -15832,7 +15832,7 @@
     <row r="1023">
       <c r="A1023" t="inlineStr">
         <is>
-          <t>Summarized description: This tour provides access to all three floors of the Eiffel Tower. Included the Top floor Access. Skip the line and visit this iconic monument with a local guide who loves it.</t>
+          <t>Summarized description: Fast track, skip-the-line access to the Eiffel Tower includes summit access. Sip Champagne from the onsite bar (own expense) at the summit.</t>
         </is>
       </c>
       <c r="B1023" t="inlineStr"/>
@@ -15847,7 +15847,7 @@
     <row r="1024">
       <c r="A1024" t="inlineStr">
         <is>
-          <t>Title: Eiffel Tower Full access : Skip-the-Line Tour with Summit Access included</t>
+          <t>Title: Skip the Line: Eiffel Tower Summit Priority Access Ticket with Host</t>
         </is>
       </c>
       <c r="B1024" t="inlineStr"/>
@@ -15877,7 +15877,7 @@
     <row r="1026">
       <c r="A1026" t="inlineStr">
         <is>
-          <t>Category: ['Museums', 'Historical Tours']</t>
+          <t>Category: ['Modern Attractions']</t>
         </is>
       </c>
       <c r="B1026" t="inlineStr"/>
@@ -15892,7 +15892,7 @@
     <row r="1027">
       <c r="A1027" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 193509P2</t>
+          <t>PRODUCTCODE: 7249P6</t>
         </is>
       </c>
       <c r="B1027" t="inlineStr"/>
@@ -15907,7 +15907,7 @@
     <row r="1028">
       <c r="A1028" t="inlineStr">
         <is>
-          <t>Summarized description: Eiffel Tower skip-the-line pass and 1.5-hour tour. Get priority access to the tower's second level. Toast your travels with a glass of bubbly from the Champagne bar.</t>
+          <t>Summarized description: This tour provides access to all three floors of the Eiffel Tower. Included the Top floor Access. Skip the line and visit this iconic monument with a local guide who loves it.</t>
         </is>
       </c>
       <c r="B1028" t="inlineStr"/>
@@ -15922,7 +15922,7 @@
     <row r="1029">
       <c r="A1029" t="inlineStr">
         <is>
-          <t>Title: Skip the Line: Eiffel Tower Tour and Summit Access by elevator</t>
+          <t>Title: Eiffel Tower Full access : Skip-the-Line Tour with Summit Access included</t>
         </is>
       </c>
       <c r="B1029" t="inlineStr"/>
@@ -15937,7 +15937,7 @@
     <row r="1030">
       <c r="A1030" t="inlineStr">
         <is>
-          <t>TotalReviews: 116</t>
+          <t>TotalReviews: 119</t>
         </is>
       </c>
       <c r="B1030" t="inlineStr"/>
@@ -15952,7 +15952,7 @@
     <row r="1031">
       <c r="A1031" t="inlineStr">
         <is>
-          <t>Category: ['Modern Attractions']</t>
+          <t>Category: ['Historical Tours', 'Museums']</t>
         </is>
       </c>
       <c r="B1031" t="inlineStr"/>
@@ -15967,7 +15967,7 @@
     <row r="1032">
       <c r="A1032" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 275837P5</t>
+          <t>PRODUCTCODE: 193509P2</t>
         </is>
       </c>
       <c r="B1032" t="inlineStr"/>
@@ -15982,7 +15982,7 @@
     <row r="1033">
       <c r="A1033" t="inlineStr">
         <is>
-          <t>Summarized description: Take the elevator straight to the 2nd floor of the Eiffel Tower from where you will see a breathtaking view of the amazing city of Paris. Our fluent guides, with their novel storytelling approach, makes this tour extremely unique.</t>
+          <t>Summarized description: Eiffel Tower skip-the-line pass and 1.5-hour tour. Get priority access to the tower's second level. Toast your travels with a glass of bubbly from the Champagne bar.</t>
         </is>
       </c>
       <c r="B1033" t="inlineStr"/>
@@ -15997,7 +15997,7 @@
     <row r="1034">
       <c r="A1034" t="inlineStr">
         <is>
-          <t>Title: Visit the Eiffel Tower with Experienced Guide | Elevator to the 2nd Floor</t>
+          <t>Title: Skip the Line: Eiffel Tower Tour and Summit Access by elevator</t>
         </is>
       </c>
       <c r="B1034" t="inlineStr"/>
@@ -16012,7 +16012,7 @@
     <row r="1035">
       <c r="A1035" t="inlineStr">
         <is>
-          <t>TotalReviews: 73</t>
+          <t>TotalReviews: 116</t>
         </is>
       </c>
       <c r="B1035" t="inlineStr"/>
@@ -16042,7 +16042,7 @@
     <row r="1037">
       <c r="A1037" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 7832P148</t>
+          <t>PRODUCTCODE: 275837P5</t>
         </is>
       </c>
       <c r="B1037" t="inlineStr"/>
@@ -16057,7 +16057,7 @@
     <row r="1038">
       <c r="A1038" t="inlineStr">
         <is>
-          <t>Summarized description: Get sensational views from the 2nd floor of the Iron Lady. Enjoy access to the 1st and 2nd floors of the most iconic monument in Paris.</t>
+          <t>Summarized description: Take the elevator straight to the 2nd floor of the Eiffel Tower from where you will see a breathtaking view of the amazing city of Paris. Our fluent guides, with their novel storytelling approach, makes this tour extremely unique.</t>
         </is>
       </c>
       <c r="B1038" t="inlineStr"/>
@@ -16072,7 +16072,7 @@
     <row r="1039">
       <c r="A1039" t="inlineStr">
         <is>
-          <t>Title: Eiffel Tower Entry Ticket to Second Floor by Elevator with Views</t>
+          <t>Title: Visit the Eiffel Tower with Experienced Guide | Elevator to the 2nd Floor</t>
         </is>
       </c>
       <c r="B1039" t="inlineStr"/>
@@ -16087,7 +16087,7 @@
     <row r="1040">
       <c r="A1040" t="inlineStr">
         <is>
-          <t>TotalReviews: 53</t>
+          <t>TotalReviews: 73</t>
         </is>
       </c>
       <c r="B1040" t="inlineStr"/>
@@ -16117,7 +16117,7 @@
     <row r="1042">
       <c r="A1042" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 247780P6</t>
+          <t>PRODUCTCODE: 7832P148</t>
         </is>
       </c>
       <c r="B1042" t="inlineStr"/>
@@ -16132,7 +16132,7 @@
     <row r="1043">
       <c r="A1043" t="inlineStr">
         <is>
-          <t>Summarized description: 360° views and telescopes at the summit uncover further sights, like Montmartre Hill. Try to spot Gustave Eiffel’s secret apartment. Walk on the extraordinary glass floor on the 1st level.</t>
+          <t>Summarized description: Get sensational views from the 2nd floor of the Iron Lady. Enjoy access to the 1st and 2nd floors of the most iconic monument in Paris.</t>
         </is>
       </c>
       <c r="B1043" t="inlineStr"/>
@@ -16147,7 +16147,7 @@
     <row r="1044">
       <c r="A1044" t="inlineStr">
         <is>
-          <t>Title:  Tickets Eiffel Tower For Second Floor With elevator</t>
+          <t>Title: Eiffel Tower Entry Ticket to Second Floor by Elevator with Views</t>
         </is>
       </c>
       <c r="B1044" t="inlineStr"/>
@@ -16162,7 +16162,7 @@
     <row r="1045">
       <c r="A1045" t="inlineStr">
         <is>
-          <t>TotalReviews: 39</t>
+          <t>TotalReviews: 53</t>
         </is>
       </c>
       <c r="B1045" t="inlineStr"/>
@@ -16192,7 +16192,7 @@
     <row r="1047">
       <c r="A1047" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 5045P40</t>
+          <t>PRODUCTCODE: 247780P6</t>
         </is>
       </c>
       <c r="B1047" t="inlineStr"/>
@@ -16207,7 +16207,7 @@
     <row r="1048">
       <c r="A1048" t="inlineStr">
         <is>
-          <t>Summarized description: Head directly up to the 2nd level of the Eiffel Tower with your ticket. Get access to the Summit so you can admire the city from every angle. Later on, you and your small group will have the opportunity to embark on a Seine River cruise.</t>
+          <t>Summarized description: 360° views and telescopes at the summit uncover further sights, like Montmartre Hill. Try to spot Gustave Eiffel’s secret apartment. Walk on the extraordinary glass floor on the 1st level.</t>
         </is>
       </c>
       <c r="B1048" t="inlineStr"/>
@@ -16222,7 +16222,7 @@
     <row r="1049">
       <c r="A1049" t="inlineStr">
         <is>
-          <t xml:space="preserve">Title: Eiffel Tower Tour with Summit by Elevator and Seine Cruise </t>
+          <t>Title:  Tickets Eiffel Tower For Second Floor With elevator</t>
         </is>
       </c>
       <c r="B1049" t="inlineStr"/>
@@ -16237,7 +16237,7 @@
     <row r="1050">
       <c r="A1050" t="inlineStr">
         <is>
-          <t>TotalReviews: 34</t>
+          <t>TotalReviews: 39</t>
         </is>
       </c>
       <c r="B1050" t="inlineStr"/>
@@ -16252,7 +16252,7 @@
     <row r="1051">
       <c r="A1051" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Modern Attractions']</t>
+          <t>Category: ['Modern Attractions']</t>
         </is>
       </c>
       <c r="B1051" t="inlineStr"/>
@@ -16267,7 +16267,7 @@
     <row r="1052">
       <c r="A1052" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 239576P45</t>
+          <t>PRODUCTCODE: 5045P40</t>
         </is>
       </c>
       <c r="B1052" t="inlineStr"/>
@@ -16282,7 +16282,7 @@
     <row r="1053">
       <c r="A1053" t="inlineStr">
         <is>
-          <t>Summarized description: Discover inside information about this world-famous landmark. Access to the 2nd level or the Summit of the tower or both. Guided tour meeting point: Avenue Suffren.</t>
+          <t>Summarized description: Head directly up to the 2nd level of the Eiffel Tower with your ticket. Get access to the Summit so you can admire the city from every angle. Later on, you and your small group will have the opportunity to embark on a Seine River cruise.</t>
         </is>
       </c>
       <c r="B1053" t="inlineStr"/>
@@ -16297,7 +16297,7 @@
     <row r="1054">
       <c r="A1054" t="inlineStr">
         <is>
-          <t>Title: Eiffel Tower Skip the Line Guided Tour: 2nd Floor or SUMMIT with Lift</t>
+          <t xml:space="preserve">Title: Eiffel Tower Tour with Summit by Elevator and Seine Cruise </t>
         </is>
       </c>
       <c r="B1054" t="inlineStr"/>
@@ -16312,7 +16312,7 @@
     <row r="1055">
       <c r="A1055" t="inlineStr">
         <is>
-          <t>TotalReviews: 33</t>
+          <t>TotalReviews: 34</t>
         </is>
       </c>
       <c r="B1055" t="inlineStr"/>
@@ -16327,7 +16327,7 @@
     <row r="1056">
       <c r="A1056" t="inlineStr">
         <is>
-          <t>Category: ['Aerial Tours']</t>
+          <t>Category: ['City Tours', 'Modern Attractions']</t>
         </is>
       </c>
       <c r="B1056" t="inlineStr"/>
@@ -16342,7 +16342,7 @@
     <row r="1057">
       <c r="A1057" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 413318P103</t>
+          <t>PRODUCTCODE: 239576P45</t>
         </is>
       </c>
       <c r="B1057" t="inlineStr"/>
@@ -16357,7 +16357,7 @@
     <row r="1058">
       <c r="A1058" t="inlineStr">
         <is>
-          <t>Summarized description: The summit of the Eiffel Tower offers a bird's-eye view of Paris. The vistas from the summit are simply awe-inspiring. You'll see Paris's most renowned landmarks, its winding river, and the bustling streets.</t>
+          <t>Summarized description: Discover inside information about this world-famous landmark. Access to the 2nd level or the Summit of the tower or both. Guided tour meeting point: Avenue Suffren.</t>
         </is>
       </c>
       <c r="B1058" t="inlineStr"/>
@@ -16372,7 +16372,7 @@
     <row r="1059">
       <c r="A1059" t="inlineStr">
         <is>
-          <t>Title: Eiffel Tower Summit Skip the Line Ticket with Audio Guide Tour</t>
+          <t>Title: Eiffel Tower Skip the Line Guided Tour: 2nd Floor or SUMMIT with Lift</t>
         </is>
       </c>
       <c r="B1059" t="inlineStr"/>
@@ -16387,7 +16387,7 @@
     <row r="1060">
       <c r="A1060" t="inlineStr">
         <is>
-          <t>TotalReviews: 32</t>
+          <t>TotalReviews: 33</t>
         </is>
       </c>
       <c r="B1060" t="inlineStr"/>
@@ -16402,7 +16402,7 @@
     <row r="1061">
       <c r="A1061" t="inlineStr">
         <is>
-          <t>Category: ['Aerial Tours', 'City Tours', 'Modern Attractions']</t>
+          <t>Category: ['Aerial Tours']</t>
         </is>
       </c>
       <c r="B1061" t="inlineStr"/>
@@ -16417,7 +16417,7 @@
     <row r="1062">
       <c r="A1062" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 457596P2</t>
+          <t>PRODUCTCODE: 413318P103</t>
         </is>
       </c>
       <c r="B1062" t="inlineStr"/>
@@ -16432,7 +16432,7 @@
     <row r="1063">
       <c r="A1063" t="inlineStr">
         <is>
-          <t>Summarized description: The Eiffel Tower tour is an unforgettable exploration of the iconic Parisian landmark. Visitors have the opportunity to ascend the tower and enjoy breathtaking views of the city's skyline, including the Louvre, Notre-Dame, and the Seine River.</t>
+          <t>Summarized description: The summit of the Eiffel Tower offers a bird's-eye view of Paris. The vistas from the summit are simply awe-inspiring. You'll see Paris's most renowned landmarks, its winding river, and the bustling streets.</t>
         </is>
       </c>
       <c r="B1063" t="inlineStr"/>
@@ -16447,7 +16447,7 @@
     <row r="1064">
       <c r="A1064" t="inlineStr">
         <is>
-          <t>Title: Eiffel Tower Guided Tour Summit Access</t>
+          <t>Title: Eiffel Tower Summit Skip the Line Ticket with Audio Guide Tour</t>
         </is>
       </c>
       <c r="B1064" t="inlineStr"/>
@@ -16462,7 +16462,7 @@
     <row r="1065">
       <c r="A1065" t="inlineStr">
         <is>
-          <t>TotalReviews: 23</t>
+          <t>TotalReviews: 32</t>
         </is>
       </c>
       <c r="B1065" t="inlineStr"/>
@@ -16477,7 +16477,7 @@
     <row r="1066">
       <c r="A1066" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Historical Tours']</t>
+          <t>Category: ['City Tours', 'Aerial Tours', 'Modern Attractions']</t>
         </is>
       </c>
       <c r="B1066" t="inlineStr"/>
@@ -16492,7 +16492,7 @@
     <row r="1067">
       <c r="A1067" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 5045P70</t>
+          <t>PRODUCTCODE: 457596P2</t>
         </is>
       </c>
       <c r="B1067" t="inlineStr"/>
@@ -16507,7 +16507,7 @@
     <row r="1068">
       <c r="A1068" t="inlineStr">
         <is>
-          <t>Summarized description: Head up to the 2nd level of the Eiffel Tower with your ticket by elevator. Get access to the Summit so you can admire the city from every angle.</t>
+          <t>Summarized description: The Eiffel Tower tour is an unforgettable exploration of the iconic Parisian landmark. Visitors have the opportunity to ascend the tower and enjoy breathtaking views of the city's skyline, including the Louvre, Notre-Dame, and the Seine River.</t>
         </is>
       </c>
       <c r="B1068" t="inlineStr"/>
@@ -16522,7 +16522,7 @@
     <row r="1069">
       <c r="A1069" t="inlineStr">
         <is>
-          <t>Title: Eiffel Tower Timed Entrance Ticket SUMMIT Access by Elevator</t>
+          <t>Title: Eiffel Tower Guided Tour Summit Access</t>
         </is>
       </c>
       <c r="B1069" t="inlineStr"/>
@@ -16552,7 +16552,7 @@
     <row r="1071">
       <c r="A1071" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Modern Attractions']</t>
+          <t>Category: ['Historical Tours', 'City Tours']</t>
         </is>
       </c>
       <c r="B1071" t="inlineStr"/>
@@ -16567,7 +16567,7 @@
     <row r="1072">
       <c r="A1072" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 268768P58</t>
+          <t>PRODUCTCODE: 5045P70</t>
         </is>
       </c>
       <c r="B1072" t="inlineStr"/>
@@ -16582,7 +16582,7 @@
     <row r="1073">
       <c r="A1073" t="inlineStr">
         <is>
-          <t>Summarized description: The Eiffel Tower is one of the world's most iconic observation points. From the summit, enjoy a panoramic bird's-eye view of Paris that's truly unmatched.</t>
+          <t>Summarized description: Head up to the 2nd level of the Eiffel Tower with your ticket by elevator. Get access to the Summit so you can admire the city from every angle.</t>
         </is>
       </c>
       <c r="B1073" t="inlineStr"/>
@@ -16597,7 +16597,7 @@
     <row r="1074">
       <c r="A1074" t="inlineStr">
         <is>
-          <t>Title: Summit Eiffel Tower Skip the Queue Ticket and Audio Guide Tour</t>
+          <t>Title: Eiffel Tower Timed Entrance Ticket SUMMIT Access by Elevator</t>
         </is>
       </c>
       <c r="B1074" t="inlineStr"/>
@@ -16612,7 +16612,7 @@
     <row r="1075">
       <c r="A1075" t="inlineStr">
         <is>
-          <t>TotalReviews: 22</t>
+          <t>TotalReviews: 23</t>
         </is>
       </c>
       <c r="B1075" t="inlineStr"/>
@@ -16627,7 +16627,7 @@
     <row r="1076">
       <c r="A1076" t="inlineStr">
         <is>
-          <t>Category: ['Modern Attractions']</t>
+          <t>Category: ['City Tours', 'Modern Attractions']</t>
         </is>
       </c>
       <c r="B1076" t="inlineStr"/>
@@ -16642,7 +16642,7 @@
     <row r="1077">
       <c r="A1077" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 3588P46</t>
+          <t>PRODUCTCODE: 268768P58</t>
         </is>
       </c>
       <c r="B1077" t="inlineStr"/>
@@ -16657,7 +16657,7 @@
     <row r="1078">
       <c r="A1078" t="inlineStr">
         <is>
-          <t>Summarized description: Enjoy reserved entry at the base of the Tower. As you make your way up to the summit, your guide will give you background on the history of the Eiffel Tower. Your guide will point out various amenities, such as restaurants, current exhibitions, and places where you can sit.</t>
+          <t>Summarized description: The Eiffel Tower is one of the world's most iconic observation points. From the summit, enjoy a panoramic bird's-eye view of Paris that's truly unmatched.</t>
         </is>
       </c>
       <c r="B1078" t="inlineStr"/>
@@ -16672,7 +16672,7 @@
     <row r="1079">
       <c r="A1079" t="inlineStr">
         <is>
-          <t>Title: Small-Group Eiffel Tower Tour with Reserved Entry &amp; Summit Access</t>
+          <t>Title: Summit Eiffel Tower Skip the Queue Ticket and Audio Guide Tour</t>
         </is>
       </c>
       <c r="B1079" t="inlineStr"/>
@@ -16687,7 +16687,7 @@
     <row r="1080">
       <c r="A1080" t="inlineStr">
         <is>
-          <t>TotalReviews: 21</t>
+          <t>TotalReviews: 22</t>
         </is>
       </c>
       <c r="B1080" t="inlineStr"/>
@@ -16702,7 +16702,7 @@
     <row r="1081">
       <c r="A1081" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Modern Attractions']</t>
+          <t>Category: ['Modern Attractions']</t>
         </is>
       </c>
       <c r="B1081" t="inlineStr"/>
@@ -16717,7 +16717,7 @@
     <row r="1082">
       <c r="A1082" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 275837P8</t>
+          <t>PRODUCTCODE: 387432P1</t>
         </is>
       </c>
       <c r="B1082" t="inlineStr"/>
@@ -16732,7 +16732,7 @@
     <row r="1083">
       <c r="A1083" t="inlineStr">
         <is>
-          <t>Summarized description: Guests book this experience because they are assured of access to the summit. Get within hand reach of the details of the tower - the rivets holding together the iron pieces, the bulbs that light up at night.</t>
+          <t>Summarized description: Group guides aim to make each experience on the Eiffel Tower unique. We focus on small group sizes so everyone has a unique and personalized experience. We use a very visual and entertaining approach to present the iron lady.</t>
         </is>
       </c>
       <c r="B1083" t="inlineStr"/>
@@ -16747,7 +16747,7 @@
     <row r="1084">
       <c r="A1084" t="inlineStr">
         <is>
-          <t>Title: Guaranteed Summit Access - Eiffel Tower Elevator Tour</t>
+          <t>Title: Eiffel Tower Visit With A Guide and Top Elevator Access</t>
         </is>
       </c>
       <c r="B1084" t="inlineStr"/>
@@ -16762,7 +16762,7 @@
     <row r="1085">
       <c r="A1085" t="inlineStr">
         <is>
-          <t>TotalReviews: 21</t>
+          <t>TotalReviews: 22</t>
         </is>
       </c>
       <c r="B1085" t="inlineStr"/>
@@ -16777,7 +16777,7 @@
     <row r="1086">
       <c r="A1086" t="inlineStr">
         <is>
-          <t>Category: ['Modern Attractions']</t>
+          <t>Category: ['City Tours']</t>
         </is>
       </c>
       <c r="B1086" t="inlineStr"/>
@@ -16792,7 +16792,7 @@
     <row r="1087">
       <c r="A1087" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 112782P30</t>
+          <t>PRODUCTCODE: 3588P46</t>
         </is>
       </c>
       <c r="B1087" t="inlineStr"/>
@@ -16807,7 +16807,7 @@
     <row r="1088">
       <c r="A1088" t="inlineStr">
         <is>
-          <t>Summarized description: Learn about the building itself and about the civil engineer who created it, Gustave Eiffel. Take advantage of the optional opportunity to ascend by elevator past the second floor to the summit of the tower.</t>
+          <t>Summarized description: Enjoy reserved entry at the base of the Tower. As you make your way up to the summit, your guide will give you background on the history of the Eiffel Tower. Your guide will point out various amenities, such as restaurants, current exhibitions, and places where you can sit.</t>
         </is>
       </c>
       <c r="B1088" t="inlineStr"/>
@@ -16822,7 +16822,7 @@
     <row r="1089">
       <c r="A1089" t="inlineStr">
         <is>
-          <t>Title: Eiffel Tower Guided Tour - 2nd floor + optional Summit access</t>
+          <t>Title: Small-Group Eiffel Tower Tour with Reserved Entry &amp; Summit Access</t>
         </is>
       </c>
       <c r="B1089" t="inlineStr"/>
@@ -16837,7 +16837,7 @@
     <row r="1090">
       <c r="A1090" t="inlineStr">
         <is>
-          <t>TotalReviews: 19</t>
+          <t>TotalReviews: 21</t>
         </is>
       </c>
       <c r="B1090" t="inlineStr"/>
@@ -16852,7 +16852,7 @@
     <row r="1091">
       <c r="A1091" t="inlineStr">
         <is>
-          <t>Category: ['Modern Attractions']</t>
+          <t>Category: ['City Tours', 'Modern Attractions']</t>
         </is>
       </c>
       <c r="B1091" t="inlineStr"/>
@@ -16867,7 +16867,7 @@
     <row r="1092">
       <c r="A1092" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 7824P7</t>
+          <t>PRODUCTCODE: 275837P8</t>
         </is>
       </c>
       <c r="B1092" t="inlineStr"/>
@@ -16882,7 +16882,7 @@
     <row r="1093">
       <c r="A1093" t="inlineStr">
         <is>
-          <t>Summarized description:  skip-the-line admission ticket for priority access to the Eiffel Tower. Discover the most emblematic Parisian monument from the second and third floors.</t>
+          <t>Summarized description: Guests book this experience because they are assured of access to the summit. Get within hand reach of the details of the tower - the rivets holding together the iron pieces, the bulbs that light up at night.</t>
         </is>
       </c>
       <c r="B1093" t="inlineStr"/>
@@ -16897,7 +16897,7 @@
     <row r="1094">
       <c r="A1094" t="inlineStr">
         <is>
-          <t>Title: Skip the Line: Eiffel Tower Small-Group Tour with Summit Access</t>
+          <t>Title: Guaranteed Summit Access - Eiffel Tower Elevator Tour</t>
         </is>
       </c>
       <c r="B1094" t="inlineStr"/>
@@ -16912,7 +16912,7 @@
     <row r="1095">
       <c r="A1095" t="inlineStr">
         <is>
-          <t>TotalReviews: 16</t>
+          <t>TotalReviews: 21</t>
         </is>
       </c>
       <c r="B1095" t="inlineStr"/>
@@ -16942,7 +16942,7 @@
     <row r="1097">
       <c r="A1097" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 320547P457</t>
+          <t>PRODUCTCODE: 112782P30</t>
         </is>
       </c>
       <c r="B1097" t="inlineStr"/>
@@ -16957,7 +16957,7 @@
     <row r="1098">
       <c r="A1098" t="inlineStr">
         <is>
-          <t>Summarized description: Our host will give you a brief history of the Eiffel Tower. As you pass through security, you join our host in line. You must wait in line with our host, who will pick up the summit (top floor) with elevator tickets.</t>
+          <t>Summarized description: Learn about the building itself and about the civil engineer who created it, Gustave Eiffel. Take advantage of the optional opportunity to ascend by elevator past the second floor to the summit of the tower.</t>
         </is>
       </c>
       <c r="B1098" t="inlineStr"/>
@@ -16972,7 +16972,7 @@
     <row r="1099">
       <c r="A1099" t="inlineStr">
         <is>
-          <t>Title: Eiffel Tower Summit 3rd Floor Summit Tour with Private Host</t>
+          <t>Title: Eiffel Tower Guided Tour - 2nd floor + optional Summit access</t>
         </is>
       </c>
       <c r="B1099" t="inlineStr"/>
@@ -16987,7 +16987,7 @@
     <row r="1100">
       <c r="A1100" t="inlineStr">
         <is>
-          <t>TotalReviews: 13</t>
+          <t>TotalReviews: 19</t>
         </is>
       </c>
       <c r="B1100" t="inlineStr"/>
@@ -17017,7 +17017,7 @@
     <row r="1102">
       <c r="A1102" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 7832P36</t>
+          <t>PRODUCTCODE: 7824P7</t>
         </is>
       </c>
       <c r="B1102" t="inlineStr"/>
@@ -17032,7 +17032,7 @@
     <row r="1103">
       <c r="A1103" t="inlineStr">
         <is>
-          <t>Summarized description: Your guide will take you to the second floor on which s/he will tell you about the history of the Eiffel Tower and get a detailed description of the view. Enjoy visiting  all the way up the world's famous  monument with your guide.</t>
+          <t>Summarized description:  skip-the-line admission ticket for priority access to the Eiffel Tower. Discover the most emblematic Parisian monument from the second and third floors.</t>
         </is>
       </c>
       <c r="B1103" t="inlineStr"/>
@@ -17047,7 +17047,7 @@
     <row r="1104">
       <c r="A1104" t="inlineStr">
         <is>
-          <t>Title: Eiffel Tower Summit Access Guided Visit and Optional Cruise</t>
+          <t>Title: Skip the Line: Eiffel Tower Small-Group Tour with Summit Access</t>
         </is>
       </c>
       <c r="B1104" t="inlineStr"/>
@@ -17062,7 +17062,7 @@
     <row r="1105">
       <c r="A1105" t="inlineStr">
         <is>
-          <t>TotalReviews: 9</t>
+          <t>TotalReviews: 16</t>
         </is>
       </c>
       <c r="B1105" t="inlineStr"/>
@@ -17092,7 +17092,7 @@
     <row r="1107">
       <c r="A1107" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 2050P306</t>
+          <t>PRODUCTCODE: 435669P6</t>
         </is>
       </c>
       <c r="B1107" t="inlineStr"/>
@@ -17107,7 +17107,7 @@
     <row r="1108">
       <c r="A1108" t="inlineStr">
         <is>
-          <t>Summarized description: Visit the first, second and third level of the iconic monument at your leisure. Take your time to marvel at the spectacular views of the city and learn about the fascinating history of the Tower.</t>
+          <t>Summarized description: Then, it's OPTIONAL if you want to proceed to the summit to see Gustave Eiffel's private apartments and sip Champagne from the onsite bar (own expense)</t>
         </is>
       </c>
       <c r="B1108" t="inlineStr"/>
@@ -17122,7 +17122,7 @@
     <row r="1109">
       <c r="A1109" t="inlineStr">
         <is>
-          <t>Title: Eiffel Tower Access &amp; Lunch &amp; Optional Summit Ticket</t>
+          <t>Title: Eiffel Tower 2 Floor Access With Guide</t>
         </is>
       </c>
       <c r="B1109" t="inlineStr"/>
@@ -17137,7 +17137,7 @@
     <row r="1110">
       <c r="A1110" t="inlineStr">
         <is>
-          <t>TotalReviews: 8</t>
+          <t>TotalReviews: 15</t>
         </is>
       </c>
       <c r="B1110" t="inlineStr"/>
@@ -17152,7 +17152,7 @@
     <row r="1111">
       <c r="A1111" t="inlineStr">
         <is>
-          <t>Category: ['Modern Attractions']</t>
+          <t>Category: ['Cultural Cruises', 'Modern Attractions']</t>
         </is>
       </c>
       <c r="B1111" t="inlineStr"/>
@@ -17167,7 +17167,7 @@
     <row r="1112">
       <c r="A1112" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 7832P177</t>
+          <t>PRODUCTCODE: 379045P2</t>
         </is>
       </c>
       <c r="B1112" t="inlineStr"/>
@@ -17182,7 +17182,7 @@
     <row r="1113">
       <c r="A1113" t="inlineStr">
         <is>
-          <t>Summarized description: Your ticket includes a 1-hour cruise on the Seine river, that you can take at any time. Admire the UNESCO-listed buildings lining the riverbanks, including the Eiffel Tower.</t>
+          <t>Summarized description: Step into the historic elevators of the Eiffel Tower and be whisked away to dizzying heights. Panoramic views of Paris await you at every turn. Learn the Tower's Secrets with insightful commentary from our knowledgeable guides. Skip the lines and enjoy VIP treatment with our exclusive tour package.</t>
         </is>
       </c>
       <c r="B1113" t="inlineStr"/>
@@ -17197,7 +17197,7 @@
     <row r="1114">
       <c r="A1114" t="inlineStr">
         <is>
-          <t>Title: Eiffel Tower Summit Floor Ticket and Seine River Cruise</t>
+          <t xml:space="preserve">Title: Eiffel Tower Elevator Tour </t>
         </is>
       </c>
       <c r="B1114" t="inlineStr"/>
@@ -17212,7 +17212,7 @@
     <row r="1115">
       <c r="A1115" t="inlineStr">
         <is>
-          <t>TotalReviews: 8</t>
+          <t>TotalReviews: 15</t>
         </is>
       </c>
       <c r="B1115" t="inlineStr"/>
@@ -17227,7 +17227,7 @@
     <row r="1116">
       <c r="A1116" t="inlineStr">
         <is>
-          <t>Category: ['Cultural Cruises']</t>
+          <t>Category: ['Historical Tours', 'Cultural Tours']</t>
         </is>
       </c>
       <c r="B1116" t="inlineStr"/>
@@ -17242,7 +17242,7 @@
     <row r="1117">
       <c r="A1117" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 220418P22</t>
+          <t>PRODUCTCODE: 320547P457</t>
         </is>
       </c>
       <c r="B1117" t="inlineStr"/>
@@ -17257,7 +17257,7 @@
     <row r="1118">
       <c r="A1118" t="inlineStr">
         <is>
-          <t>Summarized description: Visit Paris' most iconic attraction with skip-the-line access and a tour guide. Take in the most impressive views of the city and learn about its construction and significance. Take the optional opportunity to ascend by elevator past the second floor to the summit.</t>
+          <t>Summarized description: Our host will give you a brief history of the Eiffel Tower. As you pass through security, you join our host in line. You must wait in line with our host, who will pick up the summit (top floor) with elevator tickets.</t>
         </is>
       </c>
       <c r="B1118" t="inlineStr"/>
@@ -17272,7 +17272,7 @@
     <row r="1119">
       <c r="A1119" t="inlineStr">
         <is>
-          <t>Title: Paris: Eiffel Tower Guided Tour with Summit Access</t>
+          <t>Title: Eiffel Tower Summit 3rd Floor Summit Tour with Private Host</t>
         </is>
       </c>
       <c r="B1119" t="inlineStr"/>
@@ -17287,7 +17287,7 @@
     <row r="1120">
       <c r="A1120" t="inlineStr">
         <is>
-          <t>TotalReviews: 7</t>
+          <t>TotalReviews: 13</t>
         </is>
       </c>
       <c r="B1120" t="inlineStr"/>
@@ -17302,7 +17302,7 @@
     <row r="1121">
       <c r="A1121" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Modern Attractions']</t>
+          <t>Category: ['Modern Attractions']</t>
         </is>
       </c>
       <c r="B1121" t="inlineStr"/>
@@ -17317,7 +17317,7 @@
     <row r="1122">
       <c r="A1122" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 198319P6</t>
+          <t>PRODUCTCODE: 7832P36</t>
         </is>
       </c>
       <c r="B1122" t="inlineStr"/>
@@ -17332,7 +17332,7 @@
     <row r="1123">
       <c r="A1123" t="inlineStr">
         <is>
-          <t>Summarized description: Find out more about the building itself and the civil engineer who designed it, Gustave Eiffel. Take advantage of the optional opportunity to ascend by elevator past the second floor to the summit of the tower.</t>
+          <t>Summarized description: Your guide will take you to the second floor on which s/he will tell you about the history of the Eiffel Tower and get a detailed description of the view. Enjoy visiting  all the way up the world's famous  monument with your guide.</t>
         </is>
       </c>
       <c r="B1123" t="inlineStr"/>
@@ -17347,7 +17347,7 @@
     <row r="1124">
       <c r="A1124" t="inlineStr">
         <is>
-          <t>Title: Paris: Eiffel Tower Guided Tour with Optional Summit Access</t>
+          <t>Title: Eiffel Tower Summit Access Guided Visit and Optional Cruise</t>
         </is>
       </c>
       <c r="B1124" t="inlineStr"/>
@@ -17362,7 +17362,7 @@
     <row r="1125">
       <c r="A1125" t="inlineStr">
         <is>
-          <t>TotalReviews: 7</t>
+          <t>TotalReviews: 9</t>
         </is>
       </c>
       <c r="B1125" t="inlineStr"/>
@@ -17377,7 +17377,7 @@
     <row r="1126">
       <c r="A1126" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Modern Attractions']</t>
+          <t>Category: ['Modern Attractions']</t>
         </is>
       </c>
       <c r="B1126" t="inlineStr"/>
@@ -17392,7 +17392,7 @@
     <row r="1127">
       <c r="A1127" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 419625P1</t>
+          <t>PRODUCTCODE: 2050P306</t>
         </is>
       </c>
       <c r="B1127" t="inlineStr"/>
@@ -17407,7 +17407,7 @@
     <row r="1128">
       <c r="A1128" t="inlineStr">
         <is>
-          <t>Summarized description: Our guide will provide a captivating historical overview of the Eiffel Tower. As you pass through security, our knowledgeable host will accompany you, addressing any questions you may have along the way.</t>
+          <t>Summarized description: Visit the first, second and third level of the iconic monument at your leisure. Take your time to marvel at the spectacular views of the city and learn about the fascinating history of the Tower.</t>
         </is>
       </c>
       <c r="B1128" t="inlineStr"/>
@@ -17422,7 +17422,7 @@
     <row r="1129">
       <c r="A1129" t="inlineStr">
         <is>
-          <t>Title: Eiffel Tower Summit (All Floors) Guided Tour by Elevator Tickets.</t>
+          <t>Title: Eiffel Tower Access &amp; Lunch &amp; Optional Summit Ticket</t>
         </is>
       </c>
       <c r="B1129" t="inlineStr"/>
@@ -17437,7 +17437,7 @@
     <row r="1130">
       <c r="A1130" t="inlineStr">
         <is>
-          <t>TotalReviews: 7</t>
+          <t>TotalReviews: 8</t>
         </is>
       </c>
       <c r="B1130" t="inlineStr"/>
@@ -17452,7 +17452,7 @@
     <row r="1131">
       <c r="A1131" t="inlineStr">
         <is>
-          <t>Category: ['Historical Tours']</t>
+          <t>Category: ['Modern Attractions']</t>
         </is>
       </c>
       <c r="B1131" t="inlineStr"/>
@@ -17467,7 +17467,7 @@
     <row r="1132">
       <c r="A1132" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 210555P13</t>
+          <t>PRODUCTCODE: 7832P177</t>
         </is>
       </c>
       <c r="B1132" t="inlineStr"/>
@@ -17482,7 +17482,7 @@
     <row r="1133">
       <c r="A1133" t="inlineStr">
         <is>
-          <t>Summarized description: Get your tickets in your mobile and get into the Eiffel Tower at top floor like a VIP. Just sit back and relax and let us buy you the tickets in just few clicks.</t>
+          <t>Summarized description: Your ticket includes a 1-hour cruise on the Seine river, that you can take at any time. Admire the UNESCO-listed buildings lining the riverbanks, including the Eiffel Tower.</t>
         </is>
       </c>
       <c r="B1133" t="inlineStr"/>
@@ -17497,7 +17497,7 @@
     <row r="1134">
       <c r="A1134" t="inlineStr">
         <is>
-          <t>Title: Eiffel Tower Top Floor Ticket: Skip The Line VIP access to Summit (3rd floor)</t>
+          <t>Title: Eiffel Tower Summit Floor Ticket and Seine River Cruise</t>
         </is>
       </c>
       <c r="B1134" t="inlineStr"/>
@@ -17512,7 +17512,7 @@
     <row r="1135">
       <c r="A1135" t="inlineStr">
         <is>
-          <t>TotalReviews: 6</t>
+          <t>TotalReviews: 8</t>
         </is>
       </c>
       <c r="B1135" t="inlineStr"/>
@@ -17527,7 +17527,7 @@
     <row r="1136">
       <c r="A1136" t="inlineStr">
         <is>
-          <t>Category: ['Transportation &amp; Travel Services', 'Modern Attractions']</t>
+          <t>Category: ['Cultural Cruises']</t>
         </is>
       </c>
       <c r="B1136" t="inlineStr"/>
@@ -17542,7 +17542,7 @@
     <row r="1137">
       <c r="A1137" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 64296P2</t>
+          <t>PRODUCTCODE: 220418P22</t>
         </is>
       </c>
       <c r="B1137" t="inlineStr"/>
@@ -17557,7 +17557,7 @@
     <row r="1138">
       <c r="A1138" t="inlineStr">
         <is>
-          <t>Summarized description: The Eiffel Tower needs no introduction and you are just one of millions of travellers who will visit this year. Don’t waste time and stand in line but instead join us to Skip the Line with a local, fun, licensed, English speaking guide.</t>
+          <t>Summarized description: Visit Paris' most iconic attraction with skip-the-line access and a tour guide. Take in the most impressive views of the city and learn about its construction and significance. Take the optional opportunity to ascend by elevator past the second floor to the summit.</t>
         </is>
       </c>
       <c r="B1138" t="inlineStr"/>
@@ -17572,7 +17572,7 @@
     <row r="1139">
       <c r="A1139" t="inlineStr">
         <is>
-          <t>Title: VIP Eiffel Tower Tour &amp; Summit Access</t>
+          <t>Title: Paris: Eiffel Tower Guided Tour with Summit Access</t>
         </is>
       </c>
       <c r="B1139" t="inlineStr"/>
@@ -17587,7 +17587,7 @@
     <row r="1140">
       <c r="A1140" t="inlineStr">
         <is>
-          <t>TotalReviews: 6</t>
+          <t>TotalReviews: 7</t>
         </is>
       </c>
       <c r="B1140" t="inlineStr"/>
@@ -17617,7 +17617,7 @@
     <row r="1142">
       <c r="A1142" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 2050P352</t>
+          <t>PRODUCTCODE: 198319P6</t>
         </is>
       </c>
       <c r="B1142" t="inlineStr"/>
@@ -17632,7 +17632,7 @@
     <row r="1143">
       <c r="A1143" t="inlineStr">
         <is>
-          <t>Summarized description: Paris is a wonderful city, indeed the city of light will leave you speechless. Get on a coach with your friends and family to discover all the emblematic places of the city. Discover world-famous places such as the Louvre, the Champs Elysées, the Arc de Triomphe, Notre Dame and the Opéra Garnier.</t>
+          <t>Summarized description: Find out more about the building itself and the civil engineer who designed it, Gustave Eiffel. Take advantage of the optional opportunity to ascend by elevator past the second floor to the summit of the tower.</t>
         </is>
       </c>
       <c r="B1143" t="inlineStr"/>
@@ -17647,7 +17647,7 @@
     <row r="1144">
       <c r="A1144" t="inlineStr">
         <is>
-          <t xml:space="preserve">Title: Eiffel Tower Visit of the 2nd floor &amp; Summit Option &amp; City Tour </t>
+          <t>Title: Paris: Eiffel Tower Guided Tour with Optional Summit Access</t>
         </is>
       </c>
       <c r="B1144" t="inlineStr"/>
@@ -17662,7 +17662,7 @@
     <row r="1145">
       <c r="A1145" t="inlineStr">
         <is>
-          <t>TotalReviews: 4</t>
+          <t>TotalReviews: 7</t>
         </is>
       </c>
       <c r="B1145" t="inlineStr"/>
@@ -17677,7 +17677,7 @@
     <row r="1146">
       <c r="A1146" t="inlineStr">
         <is>
-          <t>Category: ['City Tours']</t>
+          <t>Category: ['City Tours', 'Modern Attractions']</t>
         </is>
       </c>
       <c r="B1146" t="inlineStr"/>
@@ -17692,7 +17692,7 @@
     <row r="1147">
       <c r="A1147" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 73434P64</t>
+          <t>PRODUCTCODE: 419625P1</t>
         </is>
       </c>
       <c r="B1147" t="inlineStr"/>
@@ -17707,7 +17707,7 @@
     <row r="1148">
       <c r="A1148" t="inlineStr">
         <is>
-          <t>Summarized description: Enjoy priority access to one of the world's most iconic landmarks, the Eiffel Tower. Learn about its history and experience breathtaking views over Paris.</t>
+          <t>Summarized description: Our guide will provide a captivating historical overview of the Eiffel Tower. As you pass through security, our knowledgeable host will accompany you, addressing any questions you may have along the way.</t>
         </is>
       </c>
       <c r="B1148" t="inlineStr"/>
@@ -17722,7 +17722,7 @@
     <row r="1149">
       <c r="A1149" t="inlineStr">
         <is>
-          <t>Title: Eiffel Tower Tickets including the Summit in Paris</t>
+          <t>Title: Eiffel Tower Summit (All Floors) Guided Tour by Elevator Tickets.</t>
         </is>
       </c>
       <c r="B1149" t="inlineStr"/>
@@ -17737,7 +17737,7 @@
     <row r="1150">
       <c r="A1150" t="inlineStr">
         <is>
-          <t>TotalReviews: 3</t>
+          <t>TotalReviews: 7</t>
         </is>
       </c>
       <c r="B1150" t="inlineStr"/>
@@ -17752,7 +17752,7 @@
     <row r="1151">
       <c r="A1151" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Modern Attractions']</t>
+          <t>Category: ['Historical Tours']</t>
         </is>
       </c>
       <c r="B1151" t="inlineStr"/>
@@ -17767,7 +17767,7 @@
     <row r="1152">
       <c r="A1152" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 239922P36</t>
+          <t>PRODUCTCODE: 210555P13</t>
         </is>
       </c>
       <c r="B1152" t="inlineStr"/>
@@ -17782,7 +17782,7 @@
     <row r="1153">
       <c r="A1153" t="inlineStr">
         <is>
-          <t>Summarized description: The design of the Eiffel Tower is attributed to Maurice Koechlin and Émile Nouguier. It was envisioned after a discussion about a suitable centerpiece for the proposed 1889 Exposition Universelle, a world's fair to celebrate the centennial of the French Revolution.</t>
+          <t>Summarized description: Get your tickets in your mobile and get into the Eiffel Tower at top floor like a VIP. Just sit back and relax and let us buy you the tickets in just few clicks.</t>
         </is>
       </c>
       <c r="B1153" t="inlineStr"/>
@@ -17797,7 +17797,7 @@
     <row r="1154">
       <c r="A1154" t="inlineStr">
         <is>
-          <t>Title: Eiffel Tower Summit or 2nd Floor Access With Optional 1-hour Seine River Cruise</t>
+          <t>Title: Eiffel Tower Top Floor Ticket: Skip The Line VIP access to Summit (3rd floor)</t>
         </is>
       </c>
       <c r="B1154" t="inlineStr"/>
@@ -17812,7 +17812,7 @@
     <row r="1155">
       <c r="A1155" t="inlineStr">
         <is>
-          <t>TotalReviews: 3</t>
+          <t>TotalReviews: 6</t>
         </is>
       </c>
       <c r="B1155" t="inlineStr"/>
@@ -17827,7 +17827,7 @@
     <row r="1156">
       <c r="A1156" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Modern Attractions', 'Historical Tours']</t>
+          <t>Category: ['Modern Attractions', 'Transportation &amp; Travel Services']</t>
         </is>
       </c>
       <c r="B1156" t="inlineStr"/>
@@ -17842,7 +17842,7 @@
     <row r="1157">
       <c r="A1157" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 239576P24</t>
+          <t>PRODUCTCODE: 64296P2</t>
         </is>
       </c>
       <c r="B1157" t="inlineStr"/>
@@ -17857,7 +17857,7 @@
     <row r="1158">
       <c r="A1158" t="inlineStr">
         <is>
-          <t>Summarized description: Learn the tower's background and all of its little-known mysteries from your knowledgeable guide. With optional summit access, enjoy unrivaled city views.</t>
+          <t>Summarized description: The Eiffel Tower needs no introduction and you are just one of millions of travellers who will visit this year. Don’t waste time and stand in line but instead join us to Skip the Line with a local, fun, licensed, English speaking guide.</t>
         </is>
       </c>
       <c r="B1158" t="inlineStr"/>
@@ -17872,7 +17872,7 @@
     <row r="1159">
       <c r="A1159" t="inlineStr">
         <is>
-          <t>Title: Eiffel Tower Summit or Second Floor Access with Lift</t>
+          <t>Title: VIP Eiffel Tower Tour &amp; Summit Access</t>
         </is>
       </c>
       <c r="B1159" t="inlineStr"/>
@@ -17887,7 +17887,7 @@
     <row r="1160">
       <c r="A1160" t="inlineStr">
         <is>
-          <t>TotalReviews: 3</t>
+          <t>TotalReviews: 6</t>
         </is>
       </c>
       <c r="B1160" t="inlineStr"/>
@@ -17902,7 +17902,7 @@
     <row r="1161">
       <c r="A1161" t="inlineStr">
         <is>
-          <t>Category: ['Aerial Tours']</t>
+          <t>Category: ['City Tours', 'Modern Attractions']</t>
         </is>
       </c>
       <c r="B1161" t="inlineStr"/>
@@ -17917,7 +17917,7 @@
     <row r="1162">
       <c r="A1162" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 60672P97</t>
+          <t>PRODUCTCODE: 2050P352</t>
         </is>
       </c>
       <c r="B1162" t="inlineStr"/>
@@ -17932,7 +17932,7 @@
     <row r="1163">
       <c r="A1163" t="inlineStr">
         <is>
-          <t>Summarized description: The Eiffel Tower is one of the most famous landmarks in the world. It is located at the top of the Champs-Elysees in Paris, France.</t>
+          <t>Summarized description: Paris is a wonderful city, indeed the city of light will leave you speechless. Get on a coach with your friends and family to discover all the emblematic places of the city. Discover world-famous places such as the Louvre, the Champs Elysées, the Arc de Triomphe, Notre Dame and the Opéra Garnier.</t>
         </is>
       </c>
       <c r="B1163" t="inlineStr"/>
@@ -17947,7 +17947,7 @@
     <row r="1164">
       <c r="A1164" t="inlineStr">
         <is>
-          <t>Title: Paris: Climb up the Eiffel Tower - Summit Included By Lift</t>
+          <t xml:space="preserve">Title: Eiffel Tower Visit of the 2nd floor &amp; Summit Option &amp; City Tour </t>
         </is>
       </c>
       <c r="B1164" t="inlineStr"/>
@@ -17962,7 +17962,7 @@
     <row r="1165">
       <c r="A1165" t="inlineStr">
         <is>
-          <t>TotalReviews: 3</t>
+          <t>TotalReviews: 4</t>
         </is>
       </c>
       <c r="B1165" t="inlineStr"/>
@@ -17977,7 +17977,7 @@
     <row r="1166">
       <c r="A1166" t="inlineStr">
         <is>
-          <t>Category: ['Modern Attractions']</t>
+          <t>Category: ['City Tours']</t>
         </is>
       </c>
       <c r="B1166" t="inlineStr"/>
@@ -17992,7 +17992,7 @@
     <row r="1167">
       <c r="A1167" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 60672P98</t>
+          <t>PRODUCTCODE: 73434P64</t>
         </is>
       </c>
       <c r="B1167" t="inlineStr"/>
@@ -18007,7 +18007,7 @@
     <row r="1168">
       <c r="A1168" t="inlineStr">
         <is>
-          <t>Summarized description: Enjoy bird's eye views of Paris from the 2nd floor observation deck. Then access the summit for a peek at Gustave Eiffel's original office. Please make sure to arrive 15 min before the hour of your tour.</t>
+          <t>Summarized description: Enjoy priority access to one of the world's most iconic landmarks, the Eiffel Tower. Learn about its history and experience breathtaking views over Paris.</t>
         </is>
       </c>
       <c r="B1168" t="inlineStr"/>
@@ -18022,7 +18022,7 @@
     <row r="1169">
       <c r="A1169" t="inlineStr">
         <is>
-          <t>Title: Paris: Eiffel Tower Fast Access, Entertaining Guide + Summit access</t>
+          <t>Title: Eiffel Tower Tickets including the Summit in Paris</t>
         </is>
       </c>
       <c r="B1169" t="inlineStr"/>
@@ -18052,7 +18052,7 @@
     <row r="1171">
       <c r="A1171" t="inlineStr">
         <is>
-          <t>Category: ['Modern Attractions']</t>
+          <t>Category: ['City Tours', 'Modern Attractions']</t>
         </is>
       </c>
       <c r="B1171" t="inlineStr"/>
@@ -18067,7 +18067,7 @@
     <row r="1172">
       <c r="A1172" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 247780P9</t>
+          <t>PRODUCTCODE: 239922P36</t>
         </is>
       </c>
       <c r="B1172" t="inlineStr"/>
@@ -18082,7 +18082,7 @@
     <row r="1173">
       <c r="A1173" t="inlineStr">
         <is>
-          <t>Summarized description: Get access to the tower's second level. Delve into the history of one of the world's most famous monuments. Head to the summit for stellar views of the City of Lights.</t>
+          <t>Summarized description: The design of the Eiffel Tower is attributed to Maurice Koechlin and Émile Nouguier. It was envisioned after a discussion about a suitable centerpiece for the proposed 1889 Exposition Universelle, a world's fair to celebrate the centennial of the French Revolution.</t>
         </is>
       </c>
       <c r="B1173" t="inlineStr"/>
@@ -18097,7 +18097,7 @@
     <row r="1174">
       <c r="A1174" t="inlineStr">
         <is>
-          <t>Title: Access the 2nd floor and Summit Level of Eiffel tower with Guide</t>
+          <t>Title: Eiffel Tower Summit or 2nd Floor Access With Optional 1-hour Seine River Cruise</t>
         </is>
       </c>
       <c r="B1174" t="inlineStr"/>
@@ -18112,7 +18112,7 @@
     <row r="1175">
       <c r="A1175" t="inlineStr">
         <is>
-          <t>TotalReviews: 2</t>
+          <t>TotalReviews: 3</t>
         </is>
       </c>
       <c r="B1175" t="inlineStr"/>
@@ -18127,7 +18127,7 @@
     <row r="1176">
       <c r="A1176" t="inlineStr">
         <is>
-          <t>Category: ['Modern Attractions']</t>
+          <t>Category: ['Historical Tours', 'City Tours', 'Modern Attractions']</t>
         </is>
       </c>
       <c r="B1176" t="inlineStr"/>
@@ -18142,7 +18142,7 @@
     <row r="1177">
       <c r="A1177" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 275837P12</t>
+          <t>PRODUCTCODE: 239576P24</t>
         </is>
       </c>
       <c r="B1177" t="inlineStr"/>
@@ -18157,7 +18157,7 @@
     <row r="1178">
       <c r="A1178" t="inlineStr">
         <is>
-          <t>Summarized description: Guests book this experience because their guide handles everything. Your tickets are acquired on site by your guide and it takes you up to the 2nd level. For an extra experience, you can take the stairs as you descend.</t>
+          <t>Summarized description: Learn the tower's background and all of its little-known mysteries from your knowledgeable guide. With optional summit access, enjoy unrivaled city views.</t>
         </is>
       </c>
       <c r="B1178" t="inlineStr"/>
@@ -18172,7 +18172,7 @@
     <row r="1179">
       <c r="A1179" t="inlineStr">
         <is>
-          <t>Title: Eiffel Tower visit with Experienced Guide | Take the Elevator to the 2nd Floor</t>
+          <t>Title: Eiffel Tower Summit or Second Floor Access with Lift</t>
         </is>
       </c>
       <c r="B1179" t="inlineStr"/>
@@ -18187,7 +18187,7 @@
     <row r="1180">
       <c r="A1180" t="inlineStr">
         <is>
-          <t>TotalReviews: 2</t>
+          <t>TotalReviews: 3</t>
         </is>
       </c>
       <c r="B1180" t="inlineStr"/>
@@ -18202,7 +18202,7 @@
     <row r="1181">
       <c r="A1181" t="inlineStr">
         <is>
-          <t>Category: ['Modern Attractions']</t>
+          <t>Category: ['Aerial Tours']</t>
         </is>
       </c>
       <c r="B1181" t="inlineStr"/>
@@ -18217,7 +18217,7 @@
     <row r="1182">
       <c r="A1182" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 7832P152</t>
+          <t>PRODUCTCODE: 60672P97</t>
         </is>
       </c>
       <c r="B1182" t="inlineStr"/>
@@ -18232,7 +18232,7 @@
     <row r="1183">
       <c r="A1183" t="inlineStr">
         <is>
-          <t>Summarized description: Get panoramic views of iconic monuments such as the Notre-Dame de Paris. Enjoy bird's eye views of the Egyptian obelisk on Place de la Concorde. See the Louvre Museum and Sacré Coeur basilica from a different perspective.</t>
+          <t>Summarized description: The Eiffel Tower is one of the most famous landmarks in the world. It is located at the top of the Champs-Elysees in Paris, France.</t>
         </is>
       </c>
       <c r="B1183" t="inlineStr"/>
@@ -18247,7 +18247,7 @@
     <row r="1184">
       <c r="A1184" t="inlineStr">
         <is>
-          <t>Title: Eiffel Tower Second Floor Access With Host</t>
+          <t>Title: Paris: Climb up the Eiffel Tower - Summit Included By Lift</t>
         </is>
       </c>
       <c r="B1184" t="inlineStr"/>
@@ -18262,7 +18262,7 @@
     <row r="1185">
       <c r="A1185" t="inlineStr">
         <is>
-          <t>TotalReviews: 2</t>
+          <t>TotalReviews: 3</t>
         </is>
       </c>
       <c r="B1185" t="inlineStr"/>
@@ -18277,7 +18277,7 @@
     <row r="1186">
       <c r="A1186" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Modern Attractions']</t>
+          <t>Category: ['Modern Attractions']</t>
         </is>
       </c>
       <c r="B1186" t="inlineStr"/>
@@ -18292,7 +18292,7 @@
     <row r="1187">
       <c r="A1187" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 421480P6</t>
+          <t>PRODUCTCODE: 60672P98</t>
         </is>
       </c>
       <c r="B1187" t="inlineStr"/>
@@ -18307,7 +18307,7 @@
     <row r="1188">
       <c r="A1188" t="inlineStr">
         <is>
-          <t>Summarized description: Pre-purchased tickets offer direct access inside the tower after a swift security check at your selected time slot. This not only ensures a seamless entry process but also saves you valuable time.</t>
+          <t>Summarized description: Enjoy bird's eye views of Paris from the 2nd floor observation deck. Then access the summit for a peek at Gustave Eiffel's original office. Please make sure to arrive 15 min before the hour of your tour.</t>
         </is>
       </c>
       <c r="B1188" t="inlineStr"/>
@@ -18322,7 +18322,7 @@
     <row r="1189">
       <c r="A1189" t="inlineStr">
         <is>
-          <t>Title: Eiffel Tower Skip The Line Ticket To Second Floor</t>
+          <t>Title: Paris: Eiffel Tower Fast Access, Entertaining Guide + Summit access</t>
         </is>
       </c>
       <c r="B1189" t="inlineStr"/>
@@ -18337,7 +18337,7 @@
     <row r="1190">
       <c r="A1190" t="inlineStr">
         <is>
-          <t>TotalReviews: 1</t>
+          <t>TotalReviews: 3</t>
         </is>
       </c>
       <c r="B1190" t="inlineStr"/>
@@ -18352,7 +18352,7 @@
     <row r="1191">
       <c r="A1191" t="inlineStr">
         <is>
-          <t>Category: ['']</t>
+          <t>Category: ['Modern Attractions']</t>
         </is>
       </c>
       <c r="B1191" t="inlineStr"/>
@@ -18367,7 +18367,7 @@
     <row r="1192">
       <c r="A1192" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 3731P120</t>
+          <t>PRODUCTCODE: 247780P9</t>
         </is>
       </c>
       <c r="B1192" t="inlineStr"/>
@@ -18382,7 +18382,7 @@
     <row r="1193">
       <c r="A1193" t="inlineStr">
         <is>
-          <t>Summarized description: Get acquainted with Paris’s most famous lady 'Dame de Fer', the Iron Lady. During your visit you’ll enjoy the valuable insight of your English-speaking guide.</t>
+          <t>Summarized description: Get access to the tower's second level. Delve into the history of one of the world's most famous monuments. Head to the summit for stellar views of the City of Lights.</t>
         </is>
       </c>
       <c r="B1193" t="inlineStr"/>
@@ -18397,7 +18397,7 @@
     <row r="1194">
       <c r="A1194" t="inlineStr">
         <is>
-          <t>Title: Special Access: Express Eiffel Tower Guided Tour with 2nd floor Observation Deck Access</t>
+          <t>Title: Access the 2nd floor and Summit Level of Eiffel tower with Guide</t>
         </is>
       </c>
       <c r="B1194" t="inlineStr"/>
@@ -18412,7 +18412,7 @@
     <row r="1195">
       <c r="A1195" t="inlineStr">
         <is>
-          <t>TotalReviews: 1</t>
+          <t>TotalReviews: 2</t>
         </is>
       </c>
       <c r="B1195" t="inlineStr"/>
@@ -18427,7 +18427,7 @@
     <row r="1196">
       <c r="A1196" t="inlineStr">
         <is>
-          <t>Category: ['City Tours']</t>
+          <t>Category: ['Modern Attractions']</t>
         </is>
       </c>
       <c r="B1196" t="inlineStr"/>
@@ -18442,7 +18442,7 @@
     <row r="1197">
       <c r="A1197" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 248877P36</t>
+          <t>PRODUCTCODE: 275837P12</t>
         </is>
       </c>
       <c r="B1197" t="inlineStr"/>
@@ -18457,7 +18457,7 @@
     <row r="1198">
       <c r="A1198" t="inlineStr">
         <is>
-          <t>Summarized description: Take advantage of priority access to the 2nd floor of the Eiffel Tower with a expert English speaking guide. Enjoy the view of Paris from above and add access to go all the way to the summit.</t>
+          <t>Summarized description: Guests book this experience because their guide handles everything. Your tickets are acquired on site by your guide and it takes you up to the 2nd level. For an extra experience, you can take the stairs as you descend.</t>
         </is>
       </c>
       <c r="B1198" t="inlineStr"/>
@@ -18472,7 +18472,7 @@
     <row r="1199">
       <c r="A1199" t="inlineStr">
         <is>
-          <t>Title: Eiffel Tower Guided Tour with Summit or Second Floor Priority Access</t>
+          <t>Title: Eiffel Tower visit with Experienced Guide | Take the Elevator to the 2nd Floor</t>
         </is>
       </c>
       <c r="B1199" t="inlineStr"/>
@@ -18487,7 +18487,7 @@
     <row r="1200">
       <c r="A1200" t="inlineStr">
         <is>
-          <t>TotalReviews: 1</t>
+          <t>TotalReviews: 2</t>
         </is>
       </c>
       <c r="B1200" t="inlineStr"/>
@@ -18502,7 +18502,7 @@
     <row r="1201">
       <c r="A1201" t="inlineStr">
         <is>
-          <t>Category: ['Scenic Tours', 'Modern Attractions']</t>
+          <t>Category: ['Modern Attractions']</t>
         </is>
       </c>
       <c r="B1201" t="inlineStr"/>
@@ -18517,7 +18517,7 @@
     <row r="1202">
       <c r="A1202" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 247780P10</t>
+          <t>PRODUCTCODE: 7832P152</t>
         </is>
       </c>
       <c r="B1202" t="inlineStr"/>
@@ -18532,7 +18532,7 @@
     <row r="1203">
       <c r="A1203" t="inlineStr">
         <is>
-          <t>Summarized description: Enjoy hassle-free entry to one of the world’s busiest monuments. Cut out the long admission lines with a timed, priority-entry ticket. Admire sweeping aerial views of Les Invalides, Notre Dame Cathedral, and more.</t>
+          <t>Summarized description: Get panoramic views of iconic monuments such as the Notre-Dame de Paris. Enjoy bird's eye views of the Egyptian obelisk on Place de la Concorde. See the Louvre Museum and Sacré Coeur basilica from a different perspective.</t>
         </is>
       </c>
       <c r="B1203" t="inlineStr"/>
@@ -18547,7 +18547,7 @@
     <row r="1204">
       <c r="A1204" t="inlineStr">
         <is>
-          <t>Title: Eiffel Tower Skip the Line 2nd Level Access with Host in Paris</t>
+          <t>Title: Eiffel Tower Second Floor Access With Host</t>
         </is>
       </c>
       <c r="B1204" t="inlineStr"/>
@@ -18562,7 +18562,7 @@
     <row r="1205">
       <c r="A1205" t="inlineStr">
         <is>
-          <t>TotalReviews: 1</t>
+          <t>TotalReviews: 2</t>
         </is>
       </c>
       <c r="B1205" t="inlineStr"/>
@@ -18577,7 +18577,7 @@
     <row r="1206">
       <c r="A1206" t="inlineStr">
         <is>
-          <t>Category: ['Modern Attractions']</t>
+          <t>Category: ['City Tours', 'Modern Attractions']</t>
         </is>
       </c>
       <c r="B1206" t="inlineStr"/>
@@ -18592,7 +18592,7 @@
     <row r="1207">
       <c r="A1207" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 116848P36</t>
+          <t>PRODUCTCODE: 421480P6</t>
         </is>
       </c>
       <c r="B1207" t="inlineStr"/>
@@ -18607,7 +18607,7 @@
     <row r="1208">
       <c r="A1208" t="inlineStr">
         <is>
-          <t>Summarized description: The Eiffel Tower is one of the most popular tourist attractions in the world. Choose a priority-access ticket to the second floor to avoid long lines.</t>
+          <t>Summarized description: Pre-purchased tickets offer direct access inside the tower after a swift security check at your selected time slot. This not only ensures a seamless entry process but also saves you valuable time.</t>
         </is>
       </c>
       <c r="B1208" t="inlineStr"/>
@@ -18622,7 +18622,7 @@
     <row r="1209">
       <c r="A1209" t="inlineStr">
         <is>
-          <t>Title: Eiffel Tower Paris Second Floor Priority Access</t>
+          <t>Title: Eiffel Tower Skip The Line Ticket To Second Floor</t>
         </is>
       </c>
       <c r="B1209" t="inlineStr"/>
@@ -18652,7 +18652,7 @@
     <row r="1211">
       <c r="A1211" t="inlineStr">
         <is>
-          <t>Category: ['Modern Attractions']</t>
+          <t>Category: ['']</t>
         </is>
       </c>
       <c r="B1211" t="inlineStr"/>
@@ -18667,7 +18667,7 @@
     <row r="1212">
       <c r="A1212" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 248877P27</t>
+          <t>PRODUCTCODE: 3731P120</t>
         </is>
       </c>
       <c r="B1212" t="inlineStr"/>
@@ -18682,7 +18682,7 @@
     <row r="1213">
       <c r="A1213" t="inlineStr">
         <is>
-          <t>Summarized description: Visit the Eiffel Tower with a priority-access ticket. Enjoy access to the 1st and 2nd floors and the Summit by elevator. Marvel at spectacular views of Paris.</t>
+          <t>Summarized description: Get acquainted with Paris’s most famous lady 'Dame de Fer', the Iron Lady. During your visit you’ll enjoy the valuable insight of your English-speaking guide.</t>
         </is>
       </c>
       <c r="B1213" t="inlineStr"/>
@@ -18697,7 +18697,7 @@
     <row r="1214">
       <c r="A1214" t="inlineStr">
         <is>
-          <t>Title: Paris Essentials : Eiffel Tower Skip the Line with Summit Access</t>
+          <t>Title: Special Access: Express Eiffel Tower Guided Tour with 2nd floor Observation Deck Access</t>
         </is>
       </c>
       <c r="B1214" t="inlineStr"/>
@@ -18727,7 +18727,7 @@
     <row r="1216">
       <c r="A1216" t="inlineStr">
         <is>
-          <t>Category: ['Scenic Tours', 'Modern Attractions']</t>
+          <t>Category: ['City Tours']</t>
         </is>
       </c>
       <c r="B1216" t="inlineStr"/>
@@ -18742,7 +18742,7 @@
     <row r="1217">
       <c r="A1217" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 381347P3</t>
+          <t>PRODUCTCODE: 248877P36</t>
         </is>
       </c>
       <c r="B1217" t="inlineStr"/>
@@ -18757,7 +18757,7 @@
     <row r="1218">
       <c r="A1218" t="inlineStr">
         <is>
-          <t>Summarized description: Direct Summit Access to one of the most famous monuments in the world. knowledgeable guides will entertain you with facts about the Eiffel tower. Breathtaking panoramic views from the top floor.</t>
+          <t>Summarized description: Take advantage of priority access to the 2nd floor of the Eiffel Tower with a expert English speaking guide. Enjoy the view of Paris from above and add access to go all the way to the summit.</t>
         </is>
       </c>
       <c r="B1218" t="inlineStr"/>
@@ -18772,7 +18772,7 @@
     <row r="1219">
       <c r="A1219" t="inlineStr">
         <is>
-          <t>Title: Eiffel Tower Summit Direct Access</t>
+          <t>Title: Eiffel Tower Guided Tour with Summit or Second Floor Priority Access</t>
         </is>
       </c>
       <c r="B1219" t="inlineStr"/>
@@ -18817,7 +18817,7 @@
     <row r="1222">
       <c r="A1222" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 158620P26</t>
+          <t>PRODUCTCODE: 247780P10</t>
         </is>
       </c>
       <c r="B1222" t="inlineStr"/>
@@ -18832,7 +18832,7 @@
     <row r="1223">
       <c r="A1223" t="inlineStr">
         <is>
-          <t>Summarized description: Enjoy priority access to one of the world's most iconic landmarks, the Eiffel Tower. Learn about its history and experience breathtaking views over Paris.</t>
+          <t>Summarized description: Enjoy hassle-free entry to one of the world’s busiest monuments. Cut out the long admission lines with a timed, priority-entry ticket. Admire sweeping aerial views of Les Invalides, Notre Dame Cathedral, and more.</t>
         </is>
       </c>
       <c r="B1223" t="inlineStr"/>
@@ -18847,7 +18847,7 @@
     <row r="1224">
       <c r="A1224" t="inlineStr">
         <is>
-          <t>Title: Eiffel Tower Tickets including the Summit</t>
+          <t>Title: Eiffel Tower Skip the Line 2nd Level Access with Host in Paris</t>
         </is>
       </c>
       <c r="B1224" t="inlineStr"/>
@@ -18877,7 +18877,7 @@
     <row r="1226">
       <c r="A1226" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Modern Attractions']</t>
+          <t>Category: ['Modern Attractions']</t>
         </is>
       </c>
       <c r="B1226" t="inlineStr"/>
@@ -18892,7 +18892,7 @@
     <row r="1227">
       <c r="A1227" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 210555P12</t>
+          <t>PRODUCTCODE: 116848P36</t>
         </is>
       </c>
       <c r="B1227" t="inlineStr"/>
@@ -18907,7 +18907,7 @@
     <row r="1228">
       <c r="A1228" t="inlineStr">
         <is>
-          <t>Summarized description: Get your E-tickets by sitting at your home and skip the line like a VIP once you reach at Eiffel Tower. Take direct entry to second floor via lift.</t>
+          <t>Summarized description: The Eiffel Tower is one of the most popular tourist attractions in the world. Choose a priority-access ticket to the second floor to avoid long lines.</t>
         </is>
       </c>
       <c r="B1228" t="inlineStr"/>
@@ -18922,7 +18922,7 @@
     <row r="1229">
       <c r="A1229" t="inlineStr">
         <is>
-          <t>Title: Eiffel Tower Tickets----Skip The Line VIP access to Second Floor</t>
+          <t>Title: Eiffel Tower Paris Second Floor Priority Access</t>
         </is>
       </c>
       <c r="B1229" t="inlineStr"/>
@@ -18952,7 +18952,7 @@
     <row r="1231">
       <c r="A1231" t="inlineStr">
         <is>
-          <t>Category: ['Transportation &amp; Travel Services', 'Modern Attractions']</t>
+          <t>Category: ['Modern Attractions']</t>
         </is>
       </c>
       <c r="B1231" t="inlineStr"/>
@@ -18967,7 +18967,7 @@
     <row r="1232">
       <c r="A1232" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 384451P2</t>
+          <t>PRODUCTCODE: 248877P27</t>
         </is>
       </c>
       <c r="B1232" t="inlineStr"/>
@@ -18982,7 +18982,7 @@
     <row r="1233">
       <c r="A1233" t="inlineStr">
         <is>
-          <t>Summarized description: Soar at 115 m high for a 360 stunning view of the City of Light and all of its gorgeous landscapes. Expert team will provide you with every bit of information and facts about the famous Iron Lady.</t>
+          <t>Summarized description: Visit the Eiffel Tower with a priority-access ticket. Enjoy access to the 1st and 2nd floors and the Summit by elevator. Marvel at spectacular views of Paris.</t>
         </is>
       </c>
       <c r="B1233" t="inlineStr"/>
@@ -18997,7 +18997,7 @@
     <row r="1234">
       <c r="A1234" t="inlineStr">
         <is>
-          <t>Title: Eiffel Tower Second Floor Priority Access</t>
+          <t>Title: Paris Essentials : Eiffel Tower Skip the Line with Summit Access</t>
         </is>
       </c>
       <c r="B1234" t="inlineStr"/>
@@ -19027,7 +19027,7 @@
     <row r="1236">
       <c r="A1236" t="inlineStr">
         <is>
-          <t>Category: ['Scenic Tours', 'City Tours']</t>
+          <t>Category: ['Scenic Tours', 'Modern Attractions']</t>
         </is>
       </c>
       <c r="B1236" t="inlineStr"/>
@@ -19042,7 +19042,7 @@
     <row r="1237">
       <c r="A1237" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 6839P104</t>
+          <t>PRODUCTCODE: 210555P12</t>
         </is>
       </c>
       <c r="B1237" t="inlineStr"/>
@@ -19057,7 +19057,7 @@
     <row r="1238">
       <c r="A1238" t="inlineStr">
         <is>
-          <t>Summarized description: Take the elevators to the 2nd floor or the summit and enjoy the panoramic views of the city. Experience the Eiffel Tower with priority access.</t>
+          <t>Summarized description: Get your E-tickets by sitting at your home and skip the line like a VIP once you reach at Eiffel Tower. Take direct entry to second floor via lift.</t>
         </is>
       </c>
       <c r="B1238" t="inlineStr"/>
@@ -19072,7 +19072,7 @@
     <row r="1239">
       <c r="A1239" t="inlineStr">
         <is>
-          <t>Title: Paris: Eiffel Tower Experience</t>
+          <t>Title: Eiffel Tower Tickets----Skip The Line VIP access to Second Floor</t>
         </is>
       </c>
       <c r="B1239" t="inlineStr"/>
@@ -19102,7 +19102,7 @@
     <row r="1241">
       <c r="A1241" t="inlineStr">
         <is>
-          <t>Category: ['Modern Attractions']</t>
+          <t>Category: ['Modern Attractions', 'Transportation &amp; Travel Services']</t>
         </is>
       </c>
       <c r="B1241" t="inlineStr"/>
@@ -19117,7 +19117,7 @@
     <row r="1242">
       <c r="A1242" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 157275P54</t>
+          <t>PRODUCTCODE: 384451P2</t>
         </is>
       </c>
       <c r="B1242" t="inlineStr"/>
@@ -19132,7 +19132,7 @@
     <row r="1243">
       <c r="A1243" t="inlineStr">
         <is>
-          <t>Summarized description: Paris Eiffel Tower Ticket Direct Entry with Summit Floor 5-hour tour. With Audio Guide, you’ll gain priority access to tower’s second level. Toast your travels with a glass of bubbly from the Champagne bar.</t>
+          <t>Summarized description: Soar at 115 m high for a 360 stunning view of the City of Light and all of its gorgeous landscapes. Expert team will provide you with every bit of information and facts about the famous Iron Lady.</t>
         </is>
       </c>
       <c r="B1243" t="inlineStr"/>
@@ -19147,7 +19147,7 @@
     <row r="1244">
       <c r="A1244" t="inlineStr">
         <is>
-          <t>Title: Paris Eiffel Tower Ticket Direct Entry with Summit Floor</t>
+          <t>Title: Eiffel Tower Second Floor Priority Access</t>
         </is>
       </c>
       <c r="B1244" t="inlineStr"/>
@@ -19177,7 +19177,7 @@
     <row r="1246">
       <c r="A1246" t="inlineStr">
         <is>
-          <t>Category: ['Culinary Tours', 'Modern Attractions']</t>
+          <t>Category: ['Scenic Tours', 'City Tours']</t>
         </is>
       </c>
       <c r="B1246" t="inlineStr"/>
@@ -19192,7 +19192,7 @@
     <row r="1247">
       <c r="A1247" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 157275P27</t>
+          <t>PRODUCTCODE: 157275P54</t>
         </is>
       </c>
       <c r="B1247" t="inlineStr"/>
@@ -19222,7 +19222,7 @@
     <row r="1249">
       <c r="A1249" t="inlineStr">
         <is>
-          <t xml:space="preserve">Title:  Paris Eiffel Tower Ticket Direct Entry with Summit Floor </t>
+          <t>Title: Paris Eiffel Tower Ticket Direct Entry with Summit Floor</t>
         </is>
       </c>
       <c r="B1249" t="inlineStr"/>
@@ -19267,7 +19267,7 @@
     <row r="1252">
       <c r="A1252" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 158620P3</t>
+          <t>PRODUCTCODE: 157275P27</t>
         </is>
       </c>
       <c r="B1252" t="inlineStr"/>
@@ -19282,7 +19282,7 @@
     <row r="1253">
       <c r="A1253" t="inlineStr">
         <is>
-          <t>Summarized description: Get sensational views from the 2nd floor of the Iron Lady and walk on the glass floor. Embark on a 2-hour tour with a Timed Entrance Ticket &amp; a professional experienced guide.</t>
+          <t>Summarized description: Paris Eiffel Tower Ticket Direct Entry with Summit Floor 5-hour tour. With Audio Guide, you’ll gain priority access to tower’s second level. Toast your travels with a glass of bubbly from the Champagne bar.</t>
         </is>
       </c>
       <c r="B1253" t="inlineStr"/>
@@ -19297,7 +19297,7 @@
     <row r="1254">
       <c r="A1254" t="inlineStr">
         <is>
-          <t>Title:  Paris: Eiffel Tower 2nd Level Tour with Summit Access</t>
+          <t xml:space="preserve">Title:  Paris Eiffel Tower Ticket Direct Entry with Summit Floor </t>
         </is>
       </c>
       <c r="B1254" t="inlineStr"/>
@@ -19327,7 +19327,7 @@
     <row r="1256">
       <c r="A1256" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Modern Attractions']</t>
+          <t>Category: ['Culinary Tours', 'Modern Attractions']</t>
         </is>
       </c>
       <c r="B1256" t="inlineStr"/>
@@ -19342,7 +19342,7 @@
     <row r="1257">
       <c r="A1257" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 243313P23</t>
+          <t>PRODUCTCODE: 158620P3</t>
         </is>
       </c>
       <c r="B1257" t="inlineStr"/>
@@ -19357,7 +19357,7 @@
     <row r="1258">
       <c r="A1258" t="inlineStr">
         <is>
-          <t>Summarized description:  skip-the-line tickets give you access to the 2nd level of the Eiffel Tower. Check out stunning Parisian landmarks such as the Champs Elysees, Notre Dame, Montmartre, Seine River, and so on.</t>
+          <t>Summarized description: Get sensational views from the 2nd floor of the Iron Lady and walk on the glass floor. Embark on a 2-hour tour with a Timed Entrance Ticket &amp; a professional experienced guide.</t>
         </is>
       </c>
       <c r="B1258" t="inlineStr"/>
@@ -19372,7 +19372,7 @@
     <row r="1259">
       <c r="A1259" t="inlineStr">
         <is>
-          <t xml:space="preserve">Title: Eiffel Tower Skip the Line Experience : 2nd Floor or SUMMIT with Lift Access </t>
+          <t>Title:  Paris: Eiffel Tower 2nd Level Tour with Summit Access</t>
         </is>
       </c>
       <c r="B1259" t="inlineStr"/>
@@ -19402,7 +19402,7 @@
     <row r="1261">
       <c r="A1261" t="inlineStr">
         <is>
-          <t>Category: ['Scenic Tours', 'City Tours']</t>
+          <t>Category: ['City Tours', 'Modern Attractions']</t>
         </is>
       </c>
       <c r="B1261" t="inlineStr"/>
@@ -19417,7 +19417,7 @@
     <row r="1262">
       <c r="A1262" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 175789P38</t>
+          <t>PRODUCTCODE: 243313P23</t>
         </is>
       </c>
       <c r="B1262" t="inlineStr"/>
@@ -19432,7 +19432,7 @@
     <row r="1263">
       <c r="A1263" t="inlineStr">
         <is>
-          <t>Summarized description: Watch the bustling crowds on the busy Champ de Mars in the Tower's shadow. Save precious time at the Eiffel Tower with a priority-access ticket to the second level.</t>
+          <t>Summarized description:  skip-the-line tickets give you access to the 2nd level of the Eiffel Tower. Check out stunning Parisian landmarks such as the Champs Elysees, Notre Dame, Montmartre, Seine River, and so on.</t>
         </is>
       </c>
       <c r="B1263" t="inlineStr"/>
@@ -19447,7 +19447,7 @@
     <row r="1264">
       <c r="A1264" t="inlineStr">
         <is>
-          <t>Title: Paris Essentials : Eiffel Tower Tour (Skip the line &amp; Second Floor Access)</t>
+          <t xml:space="preserve">Title: Eiffel Tower Skip the Line Experience : 2nd Floor or SUMMIT with Lift Access </t>
         </is>
       </c>
       <c r="B1264" t="inlineStr"/>
@@ -19462,7 +19462,7 @@
     <row r="1265">
       <c r="A1265" t="inlineStr">
         <is>
-          <t>TotalReviews: 0</t>
+          <t>TotalReviews: 1</t>
         </is>
       </c>
       <c r="B1265" t="inlineStr"/>
@@ -19477,7 +19477,7 @@
     <row r="1266">
       <c r="A1266" t="inlineStr">
         <is>
-          <t>Category: ['Scenic Tours', 'Modern Attractions']</t>
+          <t>Category: ['Scenic Tours', 'City Tours']</t>
         </is>
       </c>
       <c r="B1266" t="inlineStr"/>
@@ -19492,7 +19492,7 @@
     <row r="1267">
       <c r="A1267" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 429951P1</t>
+          <t>PRODUCTCODE: 175789P38</t>
         </is>
       </c>
       <c r="B1267" t="inlineStr"/>
@@ -19507,7 +19507,7 @@
     <row r="1268">
       <c r="A1268" t="inlineStr">
         <is>
-          <t>Summarized description: Eiffel Tower, Invalides, Cathedrale Notre-Dame de Paris, Arc de Triomphe, Grande Arche de La Defense, Louvre Museum, Grande Palais, Tour Montparnasse, etc.</t>
+          <t>Summarized description: Watch the bustling crowds on the busy Champ de Mars in the Tower's shadow. Save precious time at the Eiffel Tower with a priority-access ticket to the second level.</t>
         </is>
       </c>
       <c r="B1268" t="inlineStr"/>
@@ -19522,7 +19522,7 @@
     <row r="1269">
       <c r="A1269" t="inlineStr">
         <is>
-          <t>Title: Skip The Line Eiffel Tower 2nd Floor by Elevator</t>
+          <t>Title: Paris Essentials : Eiffel Tower Tour (Skip the line &amp; Second Floor Access)</t>
         </is>
       </c>
       <c r="B1269" t="inlineStr"/>
@@ -19552,7 +19552,7 @@
     <row r="1271">
       <c r="A1271" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Museums', 'Historical Tours']</t>
+          <t>Category: ['Scenic Tours', 'Modern Attractions']</t>
         </is>
       </c>
       <c r="B1271" t="inlineStr"/>
@@ -19567,7 +19567,7 @@
     <row r="1272">
       <c r="A1272" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 163680P31</t>
+          <t>PRODUCTCODE: 429951P1</t>
         </is>
       </c>
       <c r="B1272" t="inlineStr"/>
@@ -19582,7 +19582,7 @@
     <row r="1273">
       <c r="A1273" t="inlineStr">
         <is>
-          <t>Summarized description: The Eiffel Tower was the main exhibit of the Paris Exposition — or World's Fair — of 1889. It was constructed to commemorate the centennial of the French Revolution and to demonstrate France's industrial prowess.</t>
+          <t>Summarized description: Eiffel Tower, Invalides, Cathedrale Notre-Dame de Paris, Arc de Triomphe, Grande Arche de La Defense, Louvre Museum, Grande Palais, Tour Montparnasse, etc.</t>
         </is>
       </c>
       <c r="B1273" t="inlineStr"/>
@@ -19597,7 +19597,7 @@
     <row r="1274">
       <c r="A1274" t="inlineStr">
         <is>
-          <t>Title: The Eiffel Tower Skip- the -Line- Ticket with access to Summit via lifts</t>
+          <t>Title: Skip The Line Eiffel Tower 2nd Floor by Elevator</t>
         </is>
       </c>
       <c r="B1274" t="inlineStr"/>
@@ -19627,7 +19627,7 @@
     <row r="1276">
       <c r="A1276" t="inlineStr">
         <is>
-          <t>Category: ['Cultural Tours', 'Historical Tours']</t>
+          <t>Category: ['City Tours', 'Historical Tours', 'Museums']</t>
         </is>
       </c>
       <c r="B1276" t="inlineStr"/>
@@ -19642,7 +19642,7 @@
     <row r="1277">
       <c r="A1277" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 248877P42</t>
+          <t>PRODUCTCODE: 163680P31</t>
         </is>
       </c>
       <c r="B1277" t="inlineStr"/>
@@ -19657,7 +19657,7 @@
     <row r="1278">
       <c r="A1278" t="inlineStr">
         <is>
-          <t>Summarized description: The Eiffel Tower is a wrought iron lattice tower on the Champ de Mars in Paris, France. Enjoy direct access before admiring exceptional views of Paris. Take a thrilling trip to the summit or second level with a professional guide.</t>
+          <t>Summarized description: The Eiffel Tower was the main exhibit of the Paris Exposition — or World's Fair — of 1889. It was constructed to commemorate the centennial of the French Revolution and to demonstrate France's industrial prowess.</t>
         </is>
       </c>
       <c r="B1278" t="inlineStr"/>
@@ -19672,7 +19672,7 @@
     <row r="1279">
       <c r="A1279" t="inlineStr">
         <is>
-          <t>Title: Eiffel Tower Summit or 2nd Floor Direct Access Guided Tour (Small Group)</t>
+          <t>Title: The Eiffel Tower Skip- the -Line- Ticket with access to Summit via lifts</t>
         </is>
       </c>
       <c r="B1279" t="inlineStr"/>
@@ -19702,7 +19702,7 @@
     <row r="1281">
       <c r="A1281" t="inlineStr">
         <is>
-          <t>Category: ['Scenic Tours', 'Modern Attractions']</t>
+          <t>Category: ['Historical Tours', 'Cultural Tours']</t>
         </is>
       </c>
       <c r="B1281" t="inlineStr"/>
@@ -19717,7 +19717,7 @@
     <row r="1282">
       <c r="A1282" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 248877P48</t>
+          <t>PRODUCTCODE: 248877P42</t>
         </is>
       </c>
       <c r="B1282" t="inlineStr"/>
@@ -19732,7 +19732,7 @@
     <row r="1283">
       <c r="A1283" t="inlineStr">
         <is>
-          <t>Summarized description:  skip-the-line tickets give you access to the 2nd level of the Eiffel Tower. Check out stunning Parisian neighborhoods such as the Champs Elysees, Notre Dame, Montmartre, Seine River.</t>
+          <t>Summarized description: The Eiffel Tower is a wrought iron lattice tower on the Champ de Mars in Paris, France. Enjoy direct access before admiring exceptional views of Paris. Take a thrilling trip to the summit or second level with a professional guide.</t>
         </is>
       </c>
       <c r="B1283" t="inlineStr"/>
@@ -19747,7 +19747,7 @@
     <row r="1284">
       <c r="A1284" t="inlineStr">
         <is>
-          <t xml:space="preserve">Title: Eiffel Tower Skip the Line: 2nd Floor or SUMMIT Access with Quick Lift </t>
+          <t>Title: Eiffel Tower Summit or 2nd Floor Direct Access Guided Tour (Small Group)</t>
         </is>
       </c>
       <c r="B1284" t="inlineStr"/>
@@ -19792,7 +19792,7 @@
     <row r="1287">
       <c r="A1287" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 226727P85</t>
+          <t>PRODUCTCODE: 248877P48</t>
         </is>
       </c>
       <c r="B1287" t="inlineStr"/>
@@ -19807,7 +19807,7 @@
     <row r="1288">
       <c r="A1288" t="inlineStr">
         <is>
-          <t>Summarized description: The Eiffel Tower is one of the most famous landmarks in the world. It was built in 1889 by French engineer Gustave Eiffler. The tower is now a tourist attraction.</t>
+          <t>Summarized description:  skip-the-line tickets give you access to the 2nd level of the Eiffel Tower. Check out stunning Parisian neighborhoods such as the Champs Elysees, Notre Dame, Montmartre, Seine River.</t>
         </is>
       </c>
       <c r="B1288" t="inlineStr"/>
@@ -19822,7 +19822,7 @@
     <row r="1289">
       <c r="A1289" t="inlineStr">
         <is>
-          <t xml:space="preserve">Title: Tickets for Eiffel Tower - 2nd Floor: Priority Entrance + Audio Tour </t>
+          <t xml:space="preserve">Title: Eiffel Tower Skip the Line: 2nd Floor or SUMMIT Access with Quick Lift </t>
         </is>
       </c>
       <c r="B1289" t="inlineStr"/>
@@ -19852,7 +19852,7 @@
     <row r="1291">
       <c r="A1291" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Historical Tours']</t>
+          <t>Category: ['Scenic Tours', 'Modern Attractions']</t>
         </is>
       </c>
       <c r="B1291" t="inlineStr"/>
@@ -19867,7 +19867,7 @@
     <row r="1292">
       <c r="A1292" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 73434P120</t>
+          <t>PRODUCTCODE: 226727P85</t>
         </is>
       </c>
       <c r="B1292" t="inlineStr"/>
@@ -19882,7 +19882,7 @@
     <row r="1293">
       <c r="A1293" t="inlineStr">
         <is>
-          <t>Summarized description: Get sensational views from the 2nd floor of the Iron Lady and walk on the glass floor. Embark on a 2-hour private guided tour with a Timed Entrance Ticket.</t>
+          <t>Summarized description: The Eiffel Tower is one of the most famous landmarks in the world. It was built in 1889 by French engineer Gustave Eiffler. The tower is now a tourist attraction.</t>
         </is>
       </c>
       <c r="B1293" t="inlineStr"/>
@@ -19897,7 +19897,7 @@
     <row r="1294">
       <c r="A1294" t="inlineStr">
         <is>
-          <t>Title: Private Eiffel Tower 2nd level Tour with Summit Access in Paris</t>
+          <t xml:space="preserve">Title: Tickets for Eiffel Tower - 2nd Floor: Priority Entrance + Audio Tour </t>
         </is>
       </c>
       <c r="B1294" t="inlineStr"/>
@@ -19927,7 +19927,7 @@
     <row r="1296">
       <c r="A1296" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Modern Attractions']</t>
+          <t>Category: ['Historical Tours', 'City Tours']</t>
         </is>
       </c>
       <c r="B1296" t="inlineStr"/>
@@ -19942,7 +19942,7 @@
     <row r="1297">
       <c r="A1297" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 9205P14</t>
+          <t>PRODUCTCODE: 73434P120</t>
         </is>
       </c>
       <c r="B1297" t="inlineStr"/>
@@ -19957,7 +19957,7 @@
     <row r="1298">
       <c r="A1298" t="inlineStr">
         <is>
-          <t>Summarized description: Discover Paris' most famous landmark with a local and passionate guide. Ticket includes skip-the-line access to the second level of the Eiffel Tower.</t>
+          <t>Summarized description: Get sensational views from the 2nd floor of the Iron Lady and walk on the glass floor. Embark on a 2-hour private guided tour with a Timed Entrance Ticket.</t>
         </is>
       </c>
       <c r="B1298" t="inlineStr"/>
@@ -19972,7 +19972,7 @@
     <row r="1299">
       <c r="A1299" t="inlineStr">
         <is>
-          <t>Title: Skip the Line: Eiffel Tower Tour and Summit Access by elevator-Group Option</t>
+          <t>Title: Private Eiffel Tower 2nd level Tour with Summit Access in Paris</t>
         </is>
       </c>
       <c r="B1299" t="inlineStr"/>
@@ -20002,7 +20002,7 @@
     <row r="1301">
       <c r="A1301" t="inlineStr">
         <is>
-          <t>Category: ['Modern Attractions', 'Historical Tours']</t>
+          <t>Category: ['City Tours', 'Modern Attractions']</t>
         </is>
       </c>
       <c r="B1301" t="inlineStr"/>
@@ -21052,7 +21052,7 @@
     <row r="1371">
       <c r="A1371" t="inlineStr">
         <is>
-          <t>Category: ['Scenic Tours', 'Cultural Tours', 'Historical Tours']</t>
+          <t>Category: ['Scenic Tours', 'Historical Tours', 'Cultural Tours']</t>
         </is>
       </c>
       <c r="B1371" t="inlineStr"/>

--- a/experiment_results/7845P10.xlsx
+++ b/experiment_results/7845P10.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1407"/>
+  <dimension ref="A1:I1487"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -696,7 +696,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Modern Attractions']</t>
+          <t>Category: ['Modern Attractions', 'City Tours']</t>
         </is>
       </c>
       <c r="B14" t="inlineStr"/>
@@ -1146,7 +1146,7 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>Category: ['', 'City Tours', 'Scenic Tours']</t>
+          <t>Category: ['', 'Scenic Tours', 'City Tours']</t>
         </is>
       </c>
       <c r="B44" t="inlineStr"/>
@@ -1296,7 +1296,7 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>Category: ['', 'City Tours', 'Cultural Cruises']</t>
+          <t>Category: ['', 'Cultural Cruises', 'City Tours']</t>
         </is>
       </c>
       <c r="B54" t="inlineStr"/>
@@ -1671,7 +1671,7 @@
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>Category: ['Historical Tours', 'City Tours', 'Entertainment']</t>
+          <t>Category: ['Entertainment', 'Historical Tours', 'City Tours']</t>
         </is>
       </c>
       <c r="B79" t="inlineStr"/>
@@ -1896,7 +1896,7 @@
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Modern Attractions']</t>
+          <t>Category: ['Modern Attractions', 'City Tours']</t>
         </is>
       </c>
       <c r="B94" t="inlineStr"/>
@@ -2046,7 +2046,7 @@
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Modern Attractions']</t>
+          <t>Category: ['Modern Attractions', 'City Tours']</t>
         </is>
       </c>
       <c r="B104" t="inlineStr"/>
@@ -2496,7 +2496,7 @@
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Historical Tours']</t>
+          <t>Category: ['Historical Tours', 'City Tours']</t>
         </is>
       </c>
       <c r="B134" t="inlineStr"/>
@@ -2796,7 +2796,7 @@
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Modern Attractions']</t>
+          <t>Category: ['Modern Attractions', 'City Tours']</t>
         </is>
       </c>
       <c r="B154" t="inlineStr"/>
@@ -3096,7 +3096,7 @@
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>Category: ['Cultural Cruises', 'Modern Attractions']</t>
+          <t>Category: ['Modern Attractions', 'Cultural Cruises']</t>
         </is>
       </c>
       <c r="B174" t="inlineStr"/>
@@ -3246,7 +3246,7 @@
     <row r="184">
       <c r="A184" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Modern Attractions']</t>
+          <t>Category: ['Modern Attractions', 'City Tours']</t>
         </is>
       </c>
       <c r="B184" t="inlineStr"/>
@@ -3321,7 +3321,7 @@
     <row r="189">
       <c r="A189" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Modern Attractions']</t>
+          <t>Category: ['Modern Attractions', 'City Tours']</t>
         </is>
       </c>
       <c r="B189" t="inlineStr"/>
@@ -3696,7 +3696,7 @@
     <row r="214">
       <c r="A214" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Modern Attractions']</t>
+          <t>Category: ['Modern Attractions', 'City Tours']</t>
         </is>
       </c>
       <c r="B214" t="inlineStr"/>
@@ -3921,7 +3921,7 @@
     <row r="229">
       <c r="A229" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Aerial Tours', 'Modern Attractions']</t>
+          <t>Category: ['Modern Attractions', 'Aerial Tours', 'City Tours']</t>
         </is>
       </c>
       <c r="B229" t="inlineStr"/>
@@ -4146,7 +4146,7 @@
     <row r="244">
       <c r="A244" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Modern Attractions']</t>
+          <t>Category: ['Modern Attractions', 'City Tours']</t>
         </is>
       </c>
       <c r="B244" t="inlineStr"/>
@@ -4446,7 +4446,7 @@
     <row r="264">
       <c r="A264" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Modern Attractions']</t>
+          <t>Category: ['Modern Attractions', 'City Tours']</t>
         </is>
       </c>
       <c r="B264" t="inlineStr"/>
@@ -4596,7 +4596,7 @@
     <row r="274">
       <c r="A274" t="inlineStr">
         <is>
-          <t>Category: ['Cultural Cruises', 'Modern Attractions']</t>
+          <t>Category: ['Modern Attractions', 'Cultural Cruises']</t>
         </is>
       </c>
       <c r="B274" t="inlineStr"/>
@@ -4821,7 +4821,7 @@
     <row r="289">
       <c r="A289" t="inlineStr">
         <is>
-          <t>Category: ['Cultural Cruises', 'Modern Attractions']</t>
+          <t>Category: ['Modern Attractions', 'Cultural Cruises']</t>
         </is>
       </c>
       <c r="B289" t="inlineStr"/>
@@ -5571,7 +5571,7 @@
     <row r="339">
       <c r="A339" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Modern Attractions']</t>
+          <t>Category: ['Modern Attractions', 'City Tours']</t>
         </is>
       </c>
       <c r="B339" t="inlineStr"/>
@@ -5646,7 +5646,7 @@
     <row r="344">
       <c r="A344" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Modern Attractions']</t>
+          <t>Category: ['Modern Attractions', 'City Tours']</t>
         </is>
       </c>
       <c r="B344" t="inlineStr"/>
@@ -5796,7 +5796,7 @@
     <row r="354">
       <c r="A354" t="inlineStr">
         <is>
-          <t>Category: ['Modern Attractions', 'Transportation &amp; Travel Services']</t>
+          <t>Category: ['Transportation &amp; Travel Services', 'Modern Attractions']</t>
         </is>
       </c>
       <c r="B354" t="inlineStr"/>
@@ -5871,7 +5871,7 @@
     <row r="359">
       <c r="A359" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Modern Attractions']</t>
+          <t>Category: ['Modern Attractions', 'City Tours']</t>
         </is>
       </c>
       <c r="B359" t="inlineStr"/>
@@ -5946,7 +5946,7 @@
     <row r="364">
       <c r="A364" t="inlineStr">
         <is>
-          <t>Category: ['Cultural Cruises', 'Modern Attractions']</t>
+          <t>Category: ['Modern Attractions', 'Cultural Cruises']</t>
         </is>
       </c>
       <c r="B364" t="inlineStr"/>
@@ -6321,7 +6321,7 @@
     <row r="389">
       <c r="A389" t="inlineStr">
         <is>
-          <t>Category: ['Cultural Cruises', 'Modern Attractions']</t>
+          <t>Category: ['Modern Attractions', 'Cultural Cruises']</t>
         </is>
       </c>
       <c r="B389" t="inlineStr"/>
@@ -6621,7 +6621,7 @@
     <row r="409">
       <c r="A409" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Modern Attractions']</t>
+          <t>Category: ['Modern Attractions', 'City Tours']</t>
         </is>
       </c>
       <c r="B409" t="inlineStr"/>
@@ -6696,7 +6696,7 @@
     <row r="414">
       <c r="A414" t="inlineStr">
         <is>
-          <t>Category: ['Cultural Cruises', 'Modern Attractions']</t>
+          <t>Category: ['Modern Attractions', 'Cultural Cruises']</t>
         </is>
       </c>
       <c r="B414" t="inlineStr"/>
@@ -6771,7 +6771,7 @@
     <row r="419">
       <c r="A419" t="inlineStr">
         <is>
-          <t>Category: ['Historical Tours', 'City Tours', 'Modern Attractions']</t>
+          <t>Category: ['Historical Tours', 'Modern Attractions', 'City Tours']</t>
         </is>
       </c>
       <c r="B419" t="inlineStr"/>
@@ -7671,7 +7671,7 @@
     <row r="479">
       <c r="A479" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Modern Attractions']</t>
+          <t>Category: ['Modern Attractions', 'City Tours']</t>
         </is>
       </c>
       <c r="B479" t="inlineStr"/>
@@ -8121,7 +8121,7 @@
     <row r="509">
       <c r="A509" t="inlineStr">
         <is>
-          <t>Category: ['Dining Experiences', 'Modern Attractions']</t>
+          <t>Category: ['Modern Attractions', 'Dining Experiences']</t>
         </is>
       </c>
       <c r="B509" t="inlineStr"/>
@@ -8646,7 +8646,7 @@
     <row r="544">
       <c r="A544" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Modern Attractions']</t>
+          <t>Category: ['Modern Attractions', 'City Tours']</t>
         </is>
       </c>
       <c r="B544" t="inlineStr"/>
@@ -8796,7 +8796,7 @@
     <row r="554">
       <c r="A554" t="inlineStr">
         <is>
-          <t>Category: ['Modern Attractions', 'Transportation &amp; Travel Services']</t>
+          <t>Category: ['Transportation &amp; Travel Services', 'Modern Attractions']</t>
         </is>
       </c>
       <c r="B554" t="inlineStr"/>
@@ -9246,7 +9246,7 @@
     <row r="584">
       <c r="A584" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Modern Attractions']</t>
+          <t>Category: ['Modern Attractions', 'City Tours']</t>
         </is>
       </c>
       <c r="B584" t="inlineStr"/>
@@ -9321,7 +9321,7 @@
     <row r="589">
       <c r="A589" t="inlineStr">
         <is>
-          <t>Category: ['Scenic Tours', 'City Tours', 'Historical Tours']</t>
+          <t>Category: ['Scenic Tours', 'Historical Tours', 'City Tours']</t>
         </is>
       </c>
       <c r="B589" t="inlineStr"/>
@@ -9546,7 +9546,7 @@
     <row r="604">
       <c r="A604" t="inlineStr">
         <is>
-          <t>Category: ['Cultural Cruises', 'Dining Experiences', 'Modern Attractions']</t>
+          <t>Category: ['Modern Attractions', 'Cultural Cruises', 'Dining Experiences']</t>
         </is>
       </c>
       <c r="B604" t="inlineStr"/>
@@ -9621,7 +9621,7 @@
     <row r="609">
       <c r="A609" t="inlineStr">
         <is>
-          <t>Category: ['Wine and Beverage Tastings', 'Modern Attractions']</t>
+          <t>Category: ['Modern Attractions', 'Wine and Beverage Tastings']</t>
         </is>
       </c>
       <c r="B609" t="inlineStr"/>
@@ -9996,7 +9996,7 @@
     <row r="634">
       <c r="A634" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Historical Tours', 'Museums']</t>
+          <t>Category: ['Historical Tours', 'Museums', 'City Tours']</t>
         </is>
       </c>
       <c r="B634" t="inlineStr"/>
@@ -10221,7 +10221,7 @@
     <row r="649">
       <c r="A649" t="inlineStr">
         <is>
-          <t>Category: ['Cultural Cruises', 'Modern Attractions']</t>
+          <t>Category: ['Modern Attractions', 'Cultural Cruises']</t>
         </is>
       </c>
       <c r="B649" t="inlineStr"/>
@@ -10296,7 +10296,7 @@
     <row r="654">
       <c r="A654" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Modern Attractions']</t>
+          <t>Category: ['Modern Attractions', 'City Tours']</t>
         </is>
       </c>
       <c r="B654" t="inlineStr"/>
@@ -10371,7 +10371,7 @@
     <row r="659">
       <c r="A659" t="inlineStr">
         <is>
-          <t>Category: ['Dining Experiences', 'Modern Attractions']</t>
+          <t>Category: ['Modern Attractions', 'Dining Experiences']</t>
         </is>
       </c>
       <c r="B659" t="inlineStr"/>
@@ -10521,7 +10521,7 @@
     <row r="669">
       <c r="A669" t="inlineStr">
         <is>
-          <t>Category: ['Cultural Tours', 'Workshops and Classes']</t>
+          <t>Category: ['Workshops and Classes', 'Cultural Tours']</t>
         </is>
       </c>
       <c r="B669" t="inlineStr"/>
@@ -10596,7 +10596,7 @@
     <row r="674">
       <c r="A674" t="inlineStr">
         <is>
-          <t>Category: ['Shopping and Fashion', 'Modern Attractions']</t>
+          <t>Category: ['Modern Attractions', 'Shopping and Fashion']</t>
         </is>
       </c>
       <c r="B674" t="inlineStr"/>
@@ -11196,7 +11196,7 @@
     <row r="714">
       <c r="A714" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Modern Attractions']</t>
+          <t>Category: ['Modern Attractions', 'City Tours']</t>
         </is>
       </c>
       <c r="B714" t="inlineStr"/>
@@ -11271,7 +11271,7 @@
     <row r="719">
       <c r="A719" t="inlineStr">
         <is>
-          <t>Category: ['Cultural Cruises', 'Dining Experiences', 'Modern Attractions']</t>
+          <t>Category: ['Modern Attractions', 'Cultural Cruises', 'Dining Experiences']</t>
         </is>
       </c>
       <c r="B719" t="inlineStr"/>
@@ -11421,7 +11421,7 @@
     <row r="729">
       <c r="A729" t="inlineStr">
         <is>
-          <t>Category: ['Scenic Tours', 'City Tours', 'Cultural Cruises']</t>
+          <t>Category: ['Scenic Tours', 'Cultural Cruises', 'City Tours']</t>
         </is>
       </c>
       <c r="B729" t="inlineStr"/>
@@ -11571,7 +11571,7 @@
     <row r="739">
       <c r="A739" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Modern Attractions']</t>
+          <t>Category: ['Modern Attractions', 'City Tours']</t>
         </is>
       </c>
       <c r="B739" t="inlineStr"/>
@@ -11871,7 +11871,7 @@
     <row r="759">
       <c r="A759" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Historical Tours']</t>
+          <t>Category: ['Historical Tours', 'City Tours']</t>
         </is>
       </c>
       <c r="B759" t="inlineStr"/>
@@ -12246,7 +12246,7 @@
     <row r="784">
       <c r="A784" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Modern Attractions']</t>
+          <t>Category: ['Modern Attractions', 'City Tours']</t>
         </is>
       </c>
       <c r="B784" t="inlineStr"/>
@@ -12321,7 +12321,7 @@
     <row r="789">
       <c r="A789" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Wine and Beverage Tastings', 'Modern Attractions']</t>
+          <t>Category: ['Wine and Beverage Tastings', 'Modern Attractions', 'City Tours']</t>
         </is>
       </c>
       <c r="B789" t="inlineStr"/>
@@ -12621,7 +12621,7 @@
     <row r="809">
       <c r="A809" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Historical Tours']</t>
+          <t>Category: ['Historical Tours', 'City Tours']</t>
         </is>
       </c>
       <c r="B809" t="inlineStr"/>
@@ -12696,7 +12696,7 @@
     <row r="814">
       <c r="A814" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Modern Attractions']</t>
+          <t>Category: ['Modern Attractions', 'City Tours']</t>
         </is>
       </c>
       <c r="B814" t="inlineStr"/>
@@ -12846,7 +12846,7 @@
     <row r="824">
       <c r="A824" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Modern Attractions']</t>
+          <t>Category: ['Modern Attractions', 'City Tours']</t>
         </is>
       </c>
       <c r="B824" t="inlineStr"/>
@@ -12921,7 +12921,7 @@
     <row r="829">
       <c r="A829" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Historical Tours']</t>
+          <t>Category: ['Historical Tours', 'City Tours']</t>
         </is>
       </c>
       <c r="B829" t="inlineStr"/>
@@ -13146,7 +13146,7 @@
     <row r="844">
       <c r="A844" t="inlineStr">
         <is>
-          <t>Category: ['Museums', 'Modern Attractions']</t>
+          <t>Category: ['Modern Attractions', 'Museums']</t>
         </is>
       </c>
       <c r="B844" t="inlineStr"/>
@@ -13296,7 +13296,7 @@
     <row r="854">
       <c r="A854" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Modern Attractions']</t>
+          <t>Category: ['Modern Attractions', 'City Tours']</t>
         </is>
       </c>
       <c r="B854" t="inlineStr"/>
@@ -13521,7 +13521,7 @@
     <row r="869">
       <c r="A869" t="inlineStr">
         <is>
-          <t>Category: ['Cultural Tours', 'Modern Attractions']</t>
+          <t>Category: ['Modern Attractions', 'Cultural Tours']</t>
         </is>
       </c>
       <c r="B869" t="inlineStr"/>
@@ -13596,7 +13596,7 @@
     <row r="874">
       <c r="A874" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Modern Attractions']</t>
+          <t>Category: ['Modern Attractions', 'City Tours']</t>
         </is>
       </c>
       <c r="B874" t="inlineStr"/>
@@ -13821,7 +13821,7 @@
     <row r="889">
       <c r="A889" t="inlineStr">
         <is>
-          <t>Category: ['Cultural Cruises', 'Modern Attractions']</t>
+          <t>Category: ['Modern Attractions', 'Cultural Cruises']</t>
         </is>
       </c>
       <c r="B889" t="inlineStr"/>
@@ -13971,7 +13971,7 @@
     <row r="899">
       <c r="A899" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Historical Tours']</t>
+          <t>Category: ['Historical Tours', 'City Tours']</t>
         </is>
       </c>
       <c r="B899" t="inlineStr"/>
@@ -14271,7 +14271,7 @@
     <row r="919">
       <c r="A919" t="inlineStr">
         <is>
-          <t>Category: ['Cultural Cruises', 'Dining Experiences', 'Modern Attractions']</t>
+          <t>Category: ['Modern Attractions', 'Cultural Cruises', 'Dining Experiences']</t>
         </is>
       </c>
       <c r="B919" t="inlineStr"/>
@@ -14527,7 +14527,7 @@
     <row r="936">
       <c r="A936" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Modern Attractions']</t>
+          <t>Category: ['Modern Attractions', 'City Tours']</t>
         </is>
       </c>
       <c r="B936" t="inlineStr"/>
@@ -14692,7 +14692,7 @@
     <row r="947">
       <c r="A947" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 3731EIFFELTOWER</t>
+          <t>PRODUCTCODE: 3731P202</t>
         </is>
       </c>
       <c r="B947" t="inlineStr"/>
@@ -14707,7 +14707,7 @@
     <row r="948">
       <c r="A948" t="inlineStr">
         <is>
-          <t>Summarized description: Meet your guide near the base of the Eiffel Tower, listening to the fascinating history of the original “Dame de Fer” (Iron Lady) You’ll have a chance to enjoy her every curve from every angle and to understand the beautiful science that keeps her standing.</t>
+          <t>Summarized description: Learn all about the construction, controversies, and mystique surrounding the iconic tower from a guide as you ascend to the second level. It’s an adventurous way to go behind the scenes—and under the beams—of one of the world's most popular attractions.</t>
         </is>
       </c>
       <c r="B948" t="inlineStr"/>
@@ -14722,7 +14722,7 @@
     <row r="949">
       <c r="A949" t="inlineStr">
         <is>
-          <t>Title: Eiffel Tower Guided Tour with Optional Access to the Summit</t>
+          <t>Title: Guided Eiffel Tower Climbing Experience &amp; Optional Summit Upgrade</t>
         </is>
       </c>
       <c r="B949" t="inlineStr"/>
@@ -14737,7 +14737,7 @@
     <row r="950">
       <c r="A950" t="inlineStr">
         <is>
-          <t>TotalReviews: 973</t>
+          <t>TotalReviews: 1890</t>
         </is>
       </c>
       <c r="B950" t="inlineStr"/>
@@ -14752,7 +14752,7 @@
     <row r="951">
       <c r="A951" t="inlineStr">
         <is>
-          <t>Category: ['', 'City Tours', 'Scenic Tours']</t>
+          <t>Category: ['City Tours']</t>
         </is>
       </c>
       <c r="B951" t="inlineStr"/>
@@ -14767,7 +14767,7 @@
     <row r="952">
       <c r="A952" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 382015P1</t>
+          <t>PRODUCTCODE: 3731EIFFELTOWER</t>
         </is>
       </c>
       <c r="B952" t="inlineStr"/>
@@ -14782,7 +14782,7 @@
     <row r="953">
       <c r="A953" t="inlineStr">
         <is>
-          <t>Summarized description: Direct access ticket to the Eiffel Tower. Professional guides will accompany you all the way to the iconic “Iron Lady'' Panoramic and unobstructed view of the most romantic city in the world.</t>
+          <t>Summarized description: Meet your guide near the base of the Eiffel Tower, listening to the fascinating history of the original “Dame de Fer” (Iron Lady) You’ll have a chance to enjoy her every curve from every angle and to understand the beautiful science that keeps her standing.</t>
         </is>
       </c>
       <c r="B953" t="inlineStr"/>
@@ -14797,7 +14797,7 @@
     <row r="954">
       <c r="A954" t="inlineStr">
         <is>
-          <t>Title: Eiffel Tower Reserved Access Summit or 2nd Floor Guided by Lift</t>
+          <t>Title: Eiffel Tower Guided Tour with Optional Access to the Summit</t>
         </is>
       </c>
       <c r="B954" t="inlineStr"/>
@@ -14812,7 +14812,7 @@
     <row r="955">
       <c r="A955" t="inlineStr">
         <is>
-          <t>TotalReviews: 939</t>
+          <t>TotalReviews: 973</t>
         </is>
       </c>
       <c r="B955" t="inlineStr"/>
@@ -14827,7 +14827,7 @@
     <row r="956">
       <c r="A956" t="inlineStr">
         <is>
-          <t>Category: ['Scenic Tours', 'Modern Attractions']</t>
+          <t>Category: ['', 'Scenic Tours', 'City Tours']</t>
         </is>
       </c>
       <c r="B956" t="inlineStr"/>
@@ -14842,7 +14842,7 @@
     <row r="957">
       <c r="A957" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 352648P19</t>
+          <t>PRODUCTCODE: 382015P1</t>
         </is>
       </c>
       <c r="B957" t="inlineStr"/>
@@ -14857,7 +14857,7 @@
     <row r="958">
       <c r="A958" t="inlineStr">
         <is>
-          <t>Summarized description: Ascend the Eiffel Tower in Style by the slanting elevator. Take awesome pictures from any of the floors of the Tower. Be ready to see Paris from a different perspective.</t>
+          <t>Summarized description: Direct access ticket to the Eiffel Tower. Professional guides will accompany you all the way to the iconic “Iron Lady'' Panoramic and unobstructed view of the most romantic city in the world.</t>
         </is>
       </c>
       <c r="B958" t="inlineStr"/>
@@ -14872,7 +14872,7 @@
     <row r="959">
       <c r="A959" t="inlineStr">
         <is>
-          <t>Title: Eiffel Tower by Elevator, Spectacular City Views</t>
+          <t>Title: Eiffel Tower Reserved Access Summit or 2nd Floor Guided by Lift</t>
         </is>
       </c>
       <c r="B959" t="inlineStr"/>
@@ -14887,7 +14887,7 @@
     <row r="960">
       <c r="A960" t="inlineStr">
         <is>
-          <t>TotalReviews: 651</t>
+          <t>TotalReviews: 939</t>
         </is>
       </c>
       <c r="B960" t="inlineStr"/>
@@ -14902,7 +14902,7 @@
     <row r="961">
       <c r="A961" t="inlineStr">
         <is>
-          <t>Category: ['Cultural Tours', 'Historical Tours', 'City Tours']</t>
+          <t>Category: ['Scenic Tours', 'Modern Attractions']</t>
         </is>
       </c>
       <c r="B961" t="inlineStr"/>
@@ -14917,7 +14917,7 @@
     <row r="962">
       <c r="A962" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 3588EIFFELTOWER_S</t>
+          <t>PRODUCTCODE: 423364P2</t>
         </is>
       </c>
       <c r="B962" t="inlineStr"/>
@@ -14932,7 +14932,7 @@
     <row r="963">
       <c r="A963" t="inlineStr">
         <is>
-          <t>Summarized description: Enjoy a spectacular sunset from one of the world’s most iconic landmarks, the Eiffel Tower. With your reserved entry ticket in hand your expert guide will explain the fascinating history of this Paris icon.</t>
+          <t>Summarized description: Climbing the Eiffel Tower is undeniably an unforgettable and dream-come-true experience for anyone. Scaling 669 steps to reach the second floor provides a sense of accomplishment and offers breathtaking views of Paris along the way.</t>
         </is>
       </c>
       <c r="B963" t="inlineStr"/>
@@ -14947,7 +14947,7 @@
     <row r="964">
       <c r="A964" t="inlineStr">
         <is>
-          <t>Title: Eiffel Tower Sunset Views Tour: Reserved Entry and Summit Access</t>
+          <t>Title: Guided Eiffel Tower Climbing Tour with Summit Access</t>
         </is>
       </c>
       <c r="B964" t="inlineStr"/>
@@ -14962,7 +14962,7 @@
     <row r="965">
       <c r="A965" t="inlineStr">
         <is>
-          <t>TotalReviews: 437</t>
+          <t>TotalReviews: 696</t>
         </is>
       </c>
       <c r="B965" t="inlineStr"/>
@@ -14977,7 +14977,7 @@
     <row r="966">
       <c r="A966" t="inlineStr">
         <is>
-          <t>Category: ['Scenic Tours', 'Modern Attractions']</t>
+          <t>Category: ['Scenic Tours', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B966" t="inlineStr"/>
@@ -14992,7 +14992,7 @@
     <row r="967">
       <c r="A967" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 420369P3</t>
+          <t>PRODUCTCODE: 352648P19</t>
         </is>
       </c>
       <c r="B967" t="inlineStr"/>
@@ -15007,7 +15007,7 @@
     <row r="968">
       <c r="A968" t="inlineStr">
         <is>
-          <t>Summarized description: Built for the Paris World Exhibition in 1889, it has gone on to become one of the most widely recognized landmarks in the world. Save time with a pre-booked, ticket to the second level or the Summit (Top) of the Eiffel Tower via lift.</t>
+          <t>Summarized description: Ascend the Eiffel Tower in Style by the slanting elevator. Take awesome pictures from any of the floors of the Tower. Be ready to see Paris from a different perspective.</t>
         </is>
       </c>
       <c r="B968" t="inlineStr"/>
@@ -15022,7 +15022,7 @@
     <row r="969">
       <c r="A969" t="inlineStr">
         <is>
-          <t>Title: Paris Eiffel Tower Entry Ticket to 2nd floor or Summit via Lift</t>
+          <t>Title: Eiffel Tower by Elevator, Spectacular City Views</t>
         </is>
       </c>
       <c r="B969" t="inlineStr"/>
@@ -15037,7 +15037,7 @@
     <row r="970">
       <c r="A970" t="inlineStr">
         <is>
-          <t>TotalReviews: 411</t>
+          <t>TotalReviews: 651</t>
         </is>
       </c>
       <c r="B970" t="inlineStr"/>
@@ -15052,7 +15052,7 @@
     <row r="971">
       <c r="A971" t="inlineStr">
         <is>
-          <t>Category: ['Modern Attractions']</t>
+          <t>Category: ['Cultural Tours', 'Historical Tours', 'City Tours']</t>
         </is>
       </c>
       <c r="B971" t="inlineStr"/>
@@ -15067,7 +15067,7 @@
     <row r="972">
       <c r="A972" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 352648P3</t>
+          <t>PRODUCTCODE: 3588EIFFELTOWER_S</t>
         </is>
       </c>
       <c r="B972" t="inlineStr"/>
@@ -15082,7 +15082,7 @@
     <row r="973">
       <c r="A973" t="inlineStr">
         <is>
-          <t>Summarized description: Take awesome pictures from any of the floors of the Tower and get ready to see Paris from a different and spectacular perspective. Engage in our exciting quiz session to broaden your knowledge of the tower in a fun and engaging way. The quiz master will be rewarded with a special gift, making this experience truly unforgettable.</t>
+          <t>Summarized description: Enjoy a spectacular sunset from one of the world’s most iconic landmarks, the Eiffel Tower. With your reserved entry ticket in hand your expert guide will explain the fascinating history of this Paris icon.</t>
         </is>
       </c>
       <c r="B973" t="inlineStr"/>
@@ -15097,7 +15097,7 @@
     <row r="974">
       <c r="A974" t="inlineStr">
         <is>
-          <t>Title: Eiffel Tower by Elevator, Lovely Views, Optional Summit &amp; Cruise</t>
+          <t>Title: Eiffel Tower Sunset Views Tour: Reserved Entry and Summit Access</t>
         </is>
       </c>
       <c r="B974" t="inlineStr"/>
@@ -15112,7 +15112,7 @@
     <row r="975">
       <c r="A975" t="inlineStr">
         <is>
-          <t>TotalReviews: 402</t>
+          <t>TotalReviews: 437</t>
         </is>
       </c>
       <c r="B975" t="inlineStr"/>
@@ -15127,7 +15127,7 @@
     <row r="976">
       <c r="A976" t="inlineStr">
         <is>
-          <t>Category: ['Historical Tours', 'City Tours', 'Entertainment']</t>
+          <t>Category: ['Scenic Tours', 'Modern Attractions']</t>
         </is>
       </c>
       <c r="B976" t="inlineStr"/>
@@ -15142,7 +15142,7 @@
     <row r="977">
       <c r="A977" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 7832P46</t>
+          <t>PRODUCTCODE: 420369P3</t>
         </is>
       </c>
       <c r="B977" t="inlineStr"/>
@@ -15157,7 +15157,7 @@
     <row r="978">
       <c r="A978" t="inlineStr">
         <is>
-          <t>Summarized description: Ascend to the peak of Paris via the elevators. Experience the panoramic vistas from the tower's highest level. Don't miss the chance to witness the stunning scenery of this iconic landmark.</t>
+          <t>Summarized description: Built for the Paris World Exhibition in 1889, it has gone on to become one of the most widely recognized landmarks in the world. Save time with a pre-booked, ticket to the second level or the Summit (Top) of the Eiffel Tower via lift.</t>
         </is>
       </c>
       <c r="B978" t="inlineStr"/>
@@ -15172,7 +15172,7 @@
     <row r="979">
       <c r="A979" t="inlineStr">
         <is>
-          <t>Title: Eiffel Tower Summit Entry &amp; City of Lights Views of Iconic Paris</t>
+          <t>Title: Paris Eiffel Tower Entry Ticket to 2nd floor or Summit via Lift</t>
         </is>
       </c>
       <c r="B979" t="inlineStr"/>
@@ -15187,7 +15187,7 @@
     <row r="980">
       <c r="A980" t="inlineStr">
         <is>
-          <t>TotalReviews: 382</t>
+          <t>TotalReviews: 411</t>
         </is>
       </c>
       <c r="B980" t="inlineStr"/>
@@ -15217,7 +15217,7 @@
     <row r="982">
       <c r="A982" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 6839P8</t>
+          <t>PRODUCTCODE: 352648P3</t>
         </is>
       </c>
       <c r="B982" t="inlineStr"/>
@@ -15232,7 +15232,7 @@
     <row r="983">
       <c r="A983" t="inlineStr">
         <is>
-          <t>Summarized description: Choose a morning start time when it is less crowded to start your journey at the Eiffel Tower. You will hear tales as you walk, and learn about its creation for the International Exposition of 1889. Hop aboard your sightseeing boat at the water’s edge, and relax out on deck or in the lower saloon as you cruise along the famous river.</t>
+          <t>Summarized description: Take awesome pictures from any of the floors of the Tower and get ready to see Paris from a different and spectacular perspective. Engage in our exciting quiz session to broaden your knowledge of the tower in a fun and engaging way. The quiz master will be rewarded with a special gift, making this experience truly unforgettable.</t>
         </is>
       </c>
       <c r="B983" t="inlineStr"/>
@@ -15247,7 +15247,7 @@
     <row r="984">
       <c r="A984" t="inlineStr">
         <is>
-          <t>Title: Eiffel Tower Summit Morning Tour by Elevator &amp; Seine River Cruise</t>
+          <t>Title: Eiffel Tower by Elevator, Lovely Views, Optional Summit &amp; Cruise</t>
         </is>
       </c>
       <c r="B984" t="inlineStr"/>
@@ -15262,7 +15262,7 @@
     <row r="985">
       <c r="A985" t="inlineStr">
         <is>
-          <t>TotalReviews: 328</t>
+          <t>TotalReviews: 402</t>
         </is>
       </c>
       <c r="B985" t="inlineStr"/>
@@ -15277,7 +15277,7 @@
     <row r="986">
       <c r="A986" t="inlineStr">
         <is>
-          <t>Category: ['Scenic Tours', 'Modern Attractions']</t>
+          <t>Category: ['Entertainment', 'Historical Tours', 'City Tours']</t>
         </is>
       </c>
       <c r="B986" t="inlineStr"/>
@@ -15292,7 +15292,7 @@
     <row r="987">
       <c r="A987" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 220637P8</t>
+          <t>PRODUCTCODE: 7832P46</t>
         </is>
       </c>
       <c r="B987" t="inlineStr"/>
@@ -15307,7 +15307,7 @@
     <row r="988">
       <c r="A988" t="inlineStr">
         <is>
-          <t>Summarized description: Meet your English-speaking guide a few steps from the Eiffel Tower. Enjoy breathtaking 360-degree panoramic views of the capital of France.</t>
+          <t>Summarized description: Ascend to the peak of Paris via the elevators. Experience the panoramic vistas from the tower's highest level. Don't miss the chance to witness the stunning scenery of this iconic landmark.</t>
         </is>
       </c>
       <c r="B988" t="inlineStr"/>
@@ -15322,7 +15322,7 @@
     <row r="989">
       <c r="A989" t="inlineStr">
         <is>
-          <t>Title: Eiffel Tower with reserved access to the Summit</t>
+          <t>Title: Eiffel Tower Summit Entry &amp; City of Lights Views of Iconic Paris</t>
         </is>
       </c>
       <c r="B989" t="inlineStr"/>
@@ -15337,7 +15337,7 @@
     <row r="990">
       <c r="A990" t="inlineStr">
         <is>
-          <t>TotalReviews: 316</t>
+          <t>TotalReviews: 382</t>
         </is>
       </c>
       <c r="B990" t="inlineStr"/>
@@ -15352,7 +15352,7 @@
     <row r="991">
       <c r="A991" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Modern Attractions']</t>
+          <t>Category: ['Modern Attractions']</t>
         </is>
       </c>
       <c r="B991" t="inlineStr"/>
@@ -15367,7 +15367,7 @@
     <row r="992">
       <c r="A992" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 220637P13</t>
+          <t>PRODUCTCODE: 220637P8</t>
         </is>
       </c>
       <c r="B992" t="inlineStr"/>
@@ -15382,7 +15382,7 @@
     <row r="993">
       <c r="A993" t="inlineStr">
         <is>
-          <t>Summarized description: If you purchased the option, you will also have access to the top of the Eiffel Tower. Rising to a height of approximately 276 meters, this third floor offers its visitors the best view over the City of Light.</t>
+          <t>Summarized description: Meet your English-speaking guide a few steps from the Eiffel Tower. Enjoy breathtaking 360-degree panoramic views of the capital of France.</t>
         </is>
       </c>
       <c r="B993" t="inlineStr"/>
@@ -15397,7 +15397,7 @@
     <row r="994">
       <c r="A994" t="inlineStr">
         <is>
-          <t>Title: Eiffel Tower Guided Tour of 2nd Floor with Summit Access Option</t>
+          <t>Title: Eiffel Tower with reserved access to the Summit</t>
         </is>
       </c>
       <c r="B994" t="inlineStr"/>
@@ -15412,7 +15412,7 @@
     <row r="995">
       <c r="A995" t="inlineStr">
         <is>
-          <t>TotalReviews: 293</t>
+          <t>TotalReviews: 316</t>
         </is>
       </c>
       <c r="B995" t="inlineStr"/>
@@ -15427,7 +15427,7 @@
     <row r="996">
       <c r="A996" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Modern Attractions']</t>
+          <t>Category: ['Modern Attractions', 'City Tours']</t>
         </is>
       </c>
       <c r="B996" t="inlineStr"/>
@@ -15442,7 +15442,7 @@
     <row r="997">
       <c r="A997" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 7832P151</t>
+          <t>PRODUCTCODE: 220637P13</t>
         </is>
       </c>
       <c r="B997" t="inlineStr"/>
@@ -15457,7 +15457,7 @@
     <row r="998">
       <c r="A998" t="inlineStr">
         <is>
-          <t>Summarized description: The Eiffel Tower is the highest place in Paris and the view from there is breath taking. Meet with one of our friendly hosts at our meeting point and let us lead you to the entrance to the tower via elevator.</t>
+          <t>Summarized description: If you purchased the option, you will also have access to the top of the Eiffel Tower. Rising to a height of approximately 276 meters, this third floor offers its visitors the best view over the City of Light.</t>
         </is>
       </c>
       <c r="B998" t="inlineStr"/>
@@ -15472,7 +15472,7 @@
     <row r="999">
       <c r="A999" t="inlineStr">
         <is>
-          <t>Title: Eiffel Tower Entry Ticket with Summit Access by Elevator</t>
+          <t>Title: Eiffel Tower Guided Tour of 2nd Floor with Summit Access Option</t>
         </is>
       </c>
       <c r="B999" t="inlineStr"/>
@@ -15487,7 +15487,7 @@
     <row r="1000">
       <c r="A1000" t="inlineStr">
         <is>
-          <t>TotalReviews: 283</t>
+          <t>TotalReviews: 293</t>
         </is>
       </c>
       <c r="B1000" t="inlineStr"/>
@@ -15502,7 +15502,7 @@
     <row r="1001">
       <c r="A1001" t="inlineStr">
         <is>
-          <t>Category: ['Modern Attractions']</t>
+          <t>Category: ['Modern Attractions', 'City Tours']</t>
         </is>
       </c>
       <c r="B1001" t="inlineStr"/>
@@ -15517,7 +15517,7 @@
     <row r="1002">
       <c r="A1002" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 47475P15</t>
+          <t>PRODUCTCODE: 7832P151</t>
         </is>
       </c>
       <c r="B1002" t="inlineStr"/>
@@ -15532,7 +15532,7 @@
     <row r="1003">
       <c r="A1003" t="inlineStr">
         <is>
-          <t>Summarized description: This guided tour of the Eiffel Tower teaches you about the tower’s history, architecture, and even its brief notoriety. On the second level, enjoy one of the best views of Paris. There are plenty of places to eat here, including a macaron bar.</t>
+          <t>Summarized description: The Eiffel Tower is the highest place in Paris and the view from there is breath taking. Meet with one of our friendly hosts at our meeting point and let us lead you to the entrance to the tower via elevator.</t>
         </is>
       </c>
       <c r="B1003" t="inlineStr"/>
@@ -15547,7 +15547,7 @@
     <row r="1004">
       <c r="A1004" t="inlineStr">
         <is>
-          <t>Title: Eiffel Tower Private Guided Tour by Elevator with Summit</t>
+          <t>Title: Eiffel Tower Entry Ticket with Summit Access by Elevator</t>
         </is>
       </c>
       <c r="B1004" t="inlineStr"/>
@@ -15562,7 +15562,7 @@
     <row r="1005">
       <c r="A1005" t="inlineStr">
         <is>
-          <t>TotalReviews: 267</t>
+          <t>TotalReviews: 283</t>
         </is>
       </c>
       <c r="B1005" t="inlineStr"/>
@@ -15577,7 +15577,7 @@
     <row r="1006">
       <c r="A1006" t="inlineStr">
         <is>
-          <t>Category: ['Historical Tours', 'Dining Experiences']</t>
+          <t>Category: ['Modern Attractions']</t>
         </is>
       </c>
       <c r="B1006" t="inlineStr"/>
@@ -15592,7 +15592,7 @@
     <row r="1007">
       <c r="A1007" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 456325P1</t>
+          <t>PRODUCTCODE: 374952P3</t>
         </is>
       </c>
       <c r="B1007" t="inlineStr"/>
@@ -15607,7 +15607,7 @@
     <row r="1008">
       <c r="A1008" t="inlineStr">
         <is>
-          <t>Summarized description: Discover the enchanting beauty and rich history of Paris through our exclusive tour of the Eiffel Tower. With special access to the summit, you get to admire breathtaking panoramas from the second level. Indulge in a glass of Champagne from the bar (additional cost)</t>
+          <t>Summarized description: Discover the world's most popular attraction, the Eiffel Tower, also known as the Iron Lady of Paris. Ascend to the second level for a breath taking panoramic view of the city.</t>
         </is>
       </c>
       <c r="B1008" t="inlineStr"/>
@@ -15622,7 +15622,7 @@
     <row r="1009">
       <c r="A1009" t="inlineStr">
         <is>
-          <t xml:space="preserve">Title: Eiffel Tower Guided Tour by Elevator with Summit access Reserved </t>
+          <t>Title: Priority Eiffel Tower Ticket with access to 2nd floor via stairs</t>
         </is>
       </c>
       <c r="B1009" t="inlineStr"/>
@@ -15637,7 +15637,7 @@
     <row r="1010">
       <c r="A1010" t="inlineStr">
         <is>
-          <t>TotalReviews: 250</t>
+          <t>TotalReviews: 270</t>
         </is>
       </c>
       <c r="B1010" t="inlineStr"/>
@@ -15652,7 +15652,7 @@
     <row r="1011">
       <c r="A1011" t="inlineStr">
         <is>
-          <t>Category: ['Historical Tours', 'Dining Experiences']</t>
+          <t>Category: ['Historical Tours']</t>
         </is>
       </c>
       <c r="B1011" t="inlineStr"/>
@@ -15667,7 +15667,7 @@
     <row r="1012">
       <c r="A1012" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 46334P29</t>
+          <t>PRODUCTCODE: 47475P15</t>
         </is>
       </c>
       <c r="B1012" t="inlineStr"/>
@@ -15682,7 +15682,7 @@
     <row r="1013">
       <c r="A1013" t="inlineStr">
         <is>
-          <t>Summarized description: Climb to the top of the Eiffel Tower with our timed entry tour. Discover the fascinating stories behind the construction of the ‘Iron Lady’</t>
+          <t>Summarized description: This guided tour of the Eiffel Tower teaches you about the tower’s history, architecture, and even its brief notoriety. On the second level, enjoy one of the best views of Paris. There are plenty of places to eat here, including a macaron bar.</t>
         </is>
       </c>
       <c r="B1013" t="inlineStr"/>
@@ -15697,7 +15697,7 @@
     <row r="1014">
       <c r="A1014" t="inlineStr">
         <is>
-          <t>Title: Eiffel Tower Guided Tour with Summit Access</t>
+          <t>Title: Eiffel Tower Private Guided Tour by Elevator with Summit</t>
         </is>
       </c>
       <c r="B1014" t="inlineStr"/>
@@ -15712,7 +15712,7 @@
     <row r="1015">
       <c r="A1015" t="inlineStr">
         <is>
-          <t>TotalReviews: 238</t>
+          <t>TotalReviews: 267</t>
         </is>
       </c>
       <c r="B1015" t="inlineStr"/>
@@ -15727,7 +15727,7 @@
     <row r="1016">
       <c r="A1016" t="inlineStr">
         <is>
-          <t>Category: ['Historical Tours', 'Modern Attractions']</t>
+          <t>Category: ['Historical Tours', 'Dining Experiences']</t>
         </is>
       </c>
       <c r="B1016" t="inlineStr"/>
@@ -15742,7 +15742,7 @@
     <row r="1017">
       <c r="A1017" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 384451P1</t>
+          <t>PRODUCTCODE: 456325P1</t>
         </is>
       </c>
       <c r="B1017" t="inlineStr"/>
@@ -15757,7 +15757,7 @@
     <row r="1018">
       <c r="A1018" t="inlineStr">
         <is>
-          <t>Summarized description: Expert guides will entertain you with facts about the Eiffel tower, its history, and much more while you ascend to the summit in a glass-walled elevator.</t>
+          <t>Summarized description: Discover the enchanting beauty and rich history of Paris through our exclusive tour of the Eiffel Tower. With special access to the summit, you get to admire breathtaking panoramas from the second level. Indulge in a glass of Champagne from the bar (additional cost)</t>
         </is>
       </c>
       <c r="B1018" t="inlineStr"/>
@@ -15772,7 +15772,7 @@
     <row r="1019">
       <c r="A1019" t="inlineStr">
         <is>
-          <t>Title: Eiffel Tower Summit Priority Access Guided Experience</t>
+          <t xml:space="preserve">Title: Eiffel Tower Guided Tour by Elevator with Summit access Reserved </t>
         </is>
       </c>
       <c r="B1019" t="inlineStr"/>
@@ -15787,7 +15787,7 @@
     <row r="1020">
       <c r="A1020" t="inlineStr">
         <is>
-          <t>TotalReviews: 157</t>
+          <t>TotalReviews: 250</t>
         </is>
       </c>
       <c r="B1020" t="inlineStr"/>
@@ -15802,7 +15802,7 @@
     <row r="1021">
       <c r="A1021" t="inlineStr">
         <is>
-          <t>Category: ['Scenic Tours', 'City Tours']</t>
+          <t>Category: ['Historical Tours', 'Dining Experiences']</t>
         </is>
       </c>
       <c r="B1021" t="inlineStr"/>
@@ -15817,7 +15817,7 @@
     <row r="1022">
       <c r="A1022" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 193509P1</t>
+          <t>PRODUCTCODE: 46334P29</t>
         </is>
       </c>
       <c r="B1022" t="inlineStr"/>
@@ -15832,7 +15832,7 @@
     <row r="1023">
       <c r="A1023" t="inlineStr">
         <is>
-          <t>Summarized description: Fast track, skip-the-line access to the Eiffel Tower includes summit access. Sip Champagne from the onsite bar (own expense) at the summit.</t>
+          <t>Summarized description: Climb to the top of the Eiffel Tower with our timed entry tour. Discover the fascinating stories behind the construction of the ‘Iron Lady’</t>
         </is>
       </c>
       <c r="B1023" t="inlineStr"/>
@@ -15847,7 +15847,7 @@
     <row r="1024">
       <c r="A1024" t="inlineStr">
         <is>
-          <t>Title: Skip the Line: Eiffel Tower Summit Priority Access Ticket with Host</t>
+          <t>Title: Eiffel Tower Guided Tour with Summit Access</t>
         </is>
       </c>
       <c r="B1024" t="inlineStr"/>
@@ -15862,7 +15862,7 @@
     <row r="1025">
       <c r="A1025" t="inlineStr">
         <is>
-          <t>TotalReviews: 119</t>
+          <t>TotalReviews: 238</t>
         </is>
       </c>
       <c r="B1025" t="inlineStr"/>
@@ -15877,7 +15877,7 @@
     <row r="1026">
       <c r="A1026" t="inlineStr">
         <is>
-          <t>Category: ['Modern Attractions']</t>
+          <t>Category: ['Historical Tours', 'Modern Attractions']</t>
         </is>
       </c>
       <c r="B1026" t="inlineStr"/>
@@ -15892,7 +15892,7 @@
     <row r="1027">
       <c r="A1027" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 7249P6</t>
+          <t>PRODUCTCODE: 67584P13</t>
         </is>
       </c>
       <c r="B1027" t="inlineStr"/>
@@ -15907,7 +15907,7 @@
     <row r="1028">
       <c r="A1028" t="inlineStr">
         <is>
-          <t>Summarized description: This tour provides access to all three floors of the Eiffel Tower. Included the Top floor Access. Skip the line and visit this iconic monument with a local guide who loves it.</t>
+          <t>Summarized description: This guided ascent of France's renowned symbol allows you to fulfill that aspiration. As you ascend the 674 steps to the tower's second level, you'll be captivated by the tale of its extraordinary construction and tumultuous beginnings.</t>
         </is>
       </c>
       <c r="B1028" t="inlineStr"/>
@@ -15922,7 +15922,7 @@
     <row r="1029">
       <c r="A1029" t="inlineStr">
         <is>
-          <t>Title: Eiffel Tower Full access : Skip-the-Line Tour with Summit Access included</t>
+          <t>Title: Eiffel Tower Climbing Tour with Summit Access</t>
         </is>
       </c>
       <c r="B1029" t="inlineStr"/>
@@ -15937,7 +15937,7 @@
     <row r="1030">
       <c r="A1030" t="inlineStr">
         <is>
-          <t>TotalReviews: 119</t>
+          <t>TotalReviews: 199</t>
         </is>
       </c>
       <c r="B1030" t="inlineStr"/>
@@ -15952,7 +15952,7 @@
     <row r="1031">
       <c r="A1031" t="inlineStr">
         <is>
-          <t>Category: ['Historical Tours', 'Museums']</t>
+          <t>Category: ['Historical Tours', 'City Tours']</t>
         </is>
       </c>
       <c r="B1031" t="inlineStr"/>
@@ -15967,7 +15967,7 @@
     <row r="1032">
       <c r="A1032" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 193509P2</t>
+          <t>PRODUCTCODE: 6839P88</t>
         </is>
       </c>
       <c r="B1032" t="inlineStr"/>
@@ -15982,7 +15982,7 @@
     <row r="1033">
       <c r="A1033" t="inlineStr">
         <is>
-          <t>Summarized description: Eiffel Tower skip-the-line pass and 1.5-hour tour. Get priority access to the tower's second level. Toast your travels with a glass of bubbly from the Champagne bar.</t>
+          <t>Summarized description: From the tower’s second floor, the city of Paris spreads out like a virtual map. Revel in sweeping panoramic views over Paris from the top of the Eiffel Tower.</t>
         </is>
       </c>
       <c r="B1033" t="inlineStr"/>
@@ -15997,7 +15997,7 @@
     <row r="1034">
       <c r="A1034" t="inlineStr">
         <is>
-          <t>Title: Skip the Line: Eiffel Tower Tour and Summit Access by elevator</t>
+          <t xml:space="preserve">Title: Eiffel Tower Tour: Morning Access with host by Elevator </t>
         </is>
       </c>
       <c r="B1034" t="inlineStr"/>
@@ -16012,7 +16012,7 @@
     <row r="1035">
       <c r="A1035" t="inlineStr">
         <is>
-          <t>TotalReviews: 116</t>
+          <t>TotalReviews: 165</t>
         </is>
       </c>
       <c r="B1035" t="inlineStr"/>
@@ -16042,7 +16042,7 @@
     <row r="1037">
       <c r="A1037" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 275837P5</t>
+          <t>PRODUCTCODE: 384451P1</t>
         </is>
       </c>
       <c r="B1037" t="inlineStr"/>
@@ -16057,7 +16057,7 @@
     <row r="1038">
       <c r="A1038" t="inlineStr">
         <is>
-          <t>Summarized description: Take the elevator straight to the 2nd floor of the Eiffel Tower from where you will see a breathtaking view of the amazing city of Paris. Our fluent guides, with their novel storytelling approach, makes this tour extremely unique.</t>
+          <t>Summarized description: Expert guides will entertain you with facts about the Eiffel tower, its history, and much more while you ascend to the summit in a glass-walled elevator.</t>
         </is>
       </c>
       <c r="B1038" t="inlineStr"/>
@@ -16072,7 +16072,7 @@
     <row r="1039">
       <c r="A1039" t="inlineStr">
         <is>
-          <t>Title: Visit the Eiffel Tower with Experienced Guide | Elevator to the 2nd Floor</t>
+          <t>Title: Eiffel Tower Summit Priority Access Guided Experience</t>
         </is>
       </c>
       <c r="B1039" t="inlineStr"/>
@@ -16087,7 +16087,7 @@
     <row r="1040">
       <c r="A1040" t="inlineStr">
         <is>
-          <t>TotalReviews: 73</t>
+          <t>TotalReviews: 157</t>
         </is>
       </c>
       <c r="B1040" t="inlineStr"/>
@@ -16102,7 +16102,7 @@
     <row r="1041">
       <c r="A1041" t="inlineStr">
         <is>
-          <t>Category: ['Modern Attractions']</t>
+          <t>Category: ['Scenic Tours', 'City Tours']</t>
         </is>
       </c>
       <c r="B1041" t="inlineStr"/>
@@ -16117,7 +16117,7 @@
     <row r="1042">
       <c r="A1042" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 7832P148</t>
+          <t>PRODUCTCODE: 193509P1</t>
         </is>
       </c>
       <c r="B1042" t="inlineStr"/>
@@ -16132,7 +16132,7 @@
     <row r="1043">
       <c r="A1043" t="inlineStr">
         <is>
-          <t>Summarized description: Get sensational views from the 2nd floor of the Iron Lady. Enjoy access to the 1st and 2nd floors of the most iconic monument in Paris.</t>
+          <t>Summarized description: Fast track, skip-the-line access to the Eiffel Tower includes summit access. Sip Champagne from the onsite bar (own expense) at the summit.</t>
         </is>
       </c>
       <c r="B1043" t="inlineStr"/>
@@ -16147,7 +16147,7 @@
     <row r="1044">
       <c r="A1044" t="inlineStr">
         <is>
-          <t>Title: Eiffel Tower Entry Ticket to Second Floor by Elevator with Views</t>
+          <t>Title: Skip the Line: Eiffel Tower Summit Priority Access Ticket with Host</t>
         </is>
       </c>
       <c r="B1044" t="inlineStr"/>
@@ -16162,7 +16162,7 @@
     <row r="1045">
       <c r="A1045" t="inlineStr">
         <is>
-          <t>TotalReviews: 53</t>
+          <t>TotalReviews: 119</t>
         </is>
       </c>
       <c r="B1045" t="inlineStr"/>
@@ -16192,7 +16192,7 @@
     <row r="1047">
       <c r="A1047" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 247780P6</t>
+          <t>PRODUCTCODE: 7249P6</t>
         </is>
       </c>
       <c r="B1047" t="inlineStr"/>
@@ -16207,7 +16207,7 @@
     <row r="1048">
       <c r="A1048" t="inlineStr">
         <is>
-          <t>Summarized description: 360° views and telescopes at the summit uncover further sights, like Montmartre Hill. Try to spot Gustave Eiffel’s secret apartment. Walk on the extraordinary glass floor on the 1st level.</t>
+          <t>Summarized description: This tour provides access to all three floors of the Eiffel Tower. Included the Top floor Access. Skip the line and visit this iconic monument with a local guide who loves it.</t>
         </is>
       </c>
       <c r="B1048" t="inlineStr"/>
@@ -16222,7 +16222,7 @@
     <row r="1049">
       <c r="A1049" t="inlineStr">
         <is>
-          <t>Title:  Tickets Eiffel Tower For Second Floor With elevator</t>
+          <t>Title: Eiffel Tower Full access : Skip-the-Line Tour with Summit Access included</t>
         </is>
       </c>
       <c r="B1049" t="inlineStr"/>
@@ -16237,7 +16237,7 @@
     <row r="1050">
       <c r="A1050" t="inlineStr">
         <is>
-          <t>TotalReviews: 39</t>
+          <t>TotalReviews: 119</t>
         </is>
       </c>
       <c r="B1050" t="inlineStr"/>
@@ -16252,7 +16252,7 @@
     <row r="1051">
       <c r="A1051" t="inlineStr">
         <is>
-          <t>Category: ['Modern Attractions']</t>
+          <t>Category: ['Historical Tours', 'Museums']</t>
         </is>
       </c>
       <c r="B1051" t="inlineStr"/>
@@ -16267,7 +16267,7 @@
     <row r="1052">
       <c r="A1052" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 5045P40</t>
+          <t>PRODUCTCODE: 193509P2</t>
         </is>
       </c>
       <c r="B1052" t="inlineStr"/>
@@ -16282,7 +16282,7 @@
     <row r="1053">
       <c r="A1053" t="inlineStr">
         <is>
-          <t>Summarized description: Head directly up to the 2nd level of the Eiffel Tower with your ticket. Get access to the Summit so you can admire the city from every angle. Later on, you and your small group will have the opportunity to embark on a Seine River cruise.</t>
+          <t>Summarized description: Eiffel Tower skip-the-line pass and 1.5-hour tour. Get priority access to the tower's second level. Toast your travels with a glass of bubbly from the Champagne bar.</t>
         </is>
       </c>
       <c r="B1053" t="inlineStr"/>
@@ -16297,7 +16297,7 @@
     <row r="1054">
       <c r="A1054" t="inlineStr">
         <is>
-          <t xml:space="preserve">Title: Eiffel Tower Tour with Summit by Elevator and Seine Cruise </t>
+          <t>Title: Skip the Line: Eiffel Tower Tour and Summit Access by elevator</t>
         </is>
       </c>
       <c r="B1054" t="inlineStr"/>
@@ -16312,7 +16312,7 @@
     <row r="1055">
       <c r="A1055" t="inlineStr">
         <is>
-          <t>TotalReviews: 34</t>
+          <t>TotalReviews: 116</t>
         </is>
       </c>
       <c r="B1055" t="inlineStr"/>
@@ -16327,7 +16327,7 @@
     <row r="1056">
       <c r="A1056" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Modern Attractions']</t>
+          <t>Category: ['Modern Attractions']</t>
         </is>
       </c>
       <c r="B1056" t="inlineStr"/>
@@ -16342,7 +16342,7 @@
     <row r="1057">
       <c r="A1057" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 239576P45</t>
+          <t>PRODUCTCODE: 133051P11</t>
         </is>
       </c>
       <c r="B1057" t="inlineStr"/>
@@ -16357,7 +16357,7 @@
     <row r="1058">
       <c r="A1058" t="inlineStr">
         <is>
-          <t>Summarized description: Discover inside information about this world-famous landmark. Access to the 2nd level or the Summit of the tower or both. Guided tour meeting point: Avenue Suffren.</t>
+          <t>Summarized description: Go to the top of the Eiffel Tower by lift (skipping the line at the ticket office) and visit one of the most famous monuments in the world. Discover Paris streets with a fun and self balanced machine: a Segway.</t>
         </is>
       </c>
       <c r="B1058" t="inlineStr"/>
@@ -16372,7 +16372,7 @@
     <row r="1059">
       <c r="A1059" t="inlineStr">
         <is>
-          <t>Title: Eiffel Tower Skip the Line Guided Tour: 2nd Floor or SUMMIT with Lift</t>
+          <t>Title: Paris Segway Tour with Eiffel Tower Ticket and Summit Access</t>
         </is>
       </c>
       <c r="B1059" t="inlineStr"/>
@@ -16387,7 +16387,7 @@
     <row r="1060">
       <c r="A1060" t="inlineStr">
         <is>
-          <t>TotalReviews: 33</t>
+          <t>TotalReviews: 67</t>
         </is>
       </c>
       <c r="B1060" t="inlineStr"/>
@@ -16402,7 +16402,7 @@
     <row r="1061">
       <c r="A1061" t="inlineStr">
         <is>
-          <t>Category: ['Aerial Tours']</t>
+          <t>Category: ['Modern Attractions', 'City Tours']</t>
         </is>
       </c>
       <c r="B1061" t="inlineStr"/>
@@ -16417,7 +16417,7 @@
     <row r="1062">
       <c r="A1062" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 413318P103</t>
+          <t>PRODUCTCODE: 5045P40</t>
         </is>
       </c>
       <c r="B1062" t="inlineStr"/>
@@ -16432,7 +16432,7 @@
     <row r="1063">
       <c r="A1063" t="inlineStr">
         <is>
-          <t>Summarized description: The summit of the Eiffel Tower offers a bird's-eye view of Paris. The vistas from the summit are simply awe-inspiring. You'll see Paris's most renowned landmarks, its winding river, and the bustling streets.</t>
+          <t>Summarized description: Head directly up to the 2nd level of the Eiffel Tower with your ticket. Get access to the Summit so you can admire the city from every angle. Later on, you and your small group will have the opportunity to embark on a Seine River cruise.</t>
         </is>
       </c>
       <c r="B1063" t="inlineStr"/>
@@ -16447,7 +16447,7 @@
     <row r="1064">
       <c r="A1064" t="inlineStr">
         <is>
-          <t>Title: Eiffel Tower Summit Skip the Line Ticket with Audio Guide Tour</t>
+          <t xml:space="preserve">Title: Eiffel Tower Tour with Summit by Elevator and Seine Cruise </t>
         </is>
       </c>
       <c r="B1064" t="inlineStr"/>
@@ -16462,7 +16462,7 @@
     <row r="1065">
       <c r="A1065" t="inlineStr">
         <is>
-          <t>TotalReviews: 32</t>
+          <t>TotalReviews: 34</t>
         </is>
       </c>
       <c r="B1065" t="inlineStr"/>
@@ -16477,7 +16477,7 @@
     <row r="1066">
       <c r="A1066" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Aerial Tours', 'Modern Attractions']</t>
+          <t>Category: ['Modern Attractions', 'City Tours']</t>
         </is>
       </c>
       <c r="B1066" t="inlineStr"/>
@@ -16492,7 +16492,7 @@
     <row r="1067">
       <c r="A1067" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 457596P2</t>
+          <t>PRODUCTCODE: 239576P45</t>
         </is>
       </c>
       <c r="B1067" t="inlineStr"/>
@@ -16507,7 +16507,7 @@
     <row r="1068">
       <c r="A1068" t="inlineStr">
         <is>
-          <t>Summarized description: The Eiffel Tower tour is an unforgettable exploration of the iconic Parisian landmark. Visitors have the opportunity to ascend the tower and enjoy breathtaking views of the city's skyline, including the Louvre, Notre-Dame, and the Seine River.</t>
+          <t>Summarized description: Discover inside information about this world-famous landmark. Access to the 2nd level or the Summit of the tower or both. Guided tour meeting point: Avenue Suffren.</t>
         </is>
       </c>
       <c r="B1068" t="inlineStr"/>
@@ -16522,7 +16522,7 @@
     <row r="1069">
       <c r="A1069" t="inlineStr">
         <is>
-          <t>Title: Eiffel Tower Guided Tour Summit Access</t>
+          <t>Title: Eiffel Tower Skip the Line Guided Tour: 2nd Floor or SUMMIT with Lift</t>
         </is>
       </c>
       <c r="B1069" t="inlineStr"/>
@@ -16537,7 +16537,7 @@
     <row r="1070">
       <c r="A1070" t="inlineStr">
         <is>
-          <t>TotalReviews: 23</t>
+          <t>TotalReviews: 33</t>
         </is>
       </c>
       <c r="B1070" t="inlineStr"/>
@@ -16552,7 +16552,7 @@
     <row r="1071">
       <c r="A1071" t="inlineStr">
         <is>
-          <t>Category: ['Historical Tours', 'City Tours']</t>
+          <t>Category: ['Aerial Tours']</t>
         </is>
       </c>
       <c r="B1071" t="inlineStr"/>
@@ -16567,7 +16567,7 @@
     <row r="1072">
       <c r="A1072" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 5045P70</t>
+          <t>PRODUCTCODE: 413318P103</t>
         </is>
       </c>
       <c r="B1072" t="inlineStr"/>
@@ -16582,7 +16582,7 @@
     <row r="1073">
       <c r="A1073" t="inlineStr">
         <is>
-          <t>Summarized description: Head up to the 2nd level of the Eiffel Tower with your ticket by elevator. Get access to the Summit so you can admire the city from every angle.</t>
+          <t>Summarized description: The summit of the Eiffel Tower offers a bird's-eye view of Paris. The vistas from the summit are simply awe-inspiring. You'll see Paris's most renowned landmarks, its winding river, and the bustling streets.</t>
         </is>
       </c>
       <c r="B1073" t="inlineStr"/>
@@ -16597,7 +16597,7 @@
     <row r="1074">
       <c r="A1074" t="inlineStr">
         <is>
-          <t>Title: Eiffel Tower Timed Entrance Ticket SUMMIT Access by Elevator</t>
+          <t>Title: Eiffel Tower Summit Skip the Line Ticket with Audio Guide Tour</t>
         </is>
       </c>
       <c r="B1074" t="inlineStr"/>
@@ -16612,7 +16612,7 @@
     <row r="1075">
       <c r="A1075" t="inlineStr">
         <is>
-          <t>TotalReviews: 23</t>
+          <t>TotalReviews: 32</t>
         </is>
       </c>
       <c r="B1075" t="inlineStr"/>
@@ -16627,7 +16627,7 @@
     <row r="1076">
       <c r="A1076" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Modern Attractions']</t>
+          <t>Category: ['Modern Attractions', 'Aerial Tours', 'City Tours']</t>
         </is>
       </c>
       <c r="B1076" t="inlineStr"/>
@@ -16642,7 +16642,7 @@
     <row r="1077">
       <c r="A1077" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 268768P58</t>
+          <t>PRODUCTCODE: 457596P2</t>
         </is>
       </c>
       <c r="B1077" t="inlineStr"/>
@@ -16657,7 +16657,7 @@
     <row r="1078">
       <c r="A1078" t="inlineStr">
         <is>
-          <t>Summarized description: The Eiffel Tower is one of the world's most iconic observation points. From the summit, enjoy a panoramic bird's-eye view of Paris that's truly unmatched.</t>
+          <t>Summarized description: The Eiffel Tower tour is an unforgettable exploration of the iconic Parisian landmark. Visitors have the opportunity to ascend the tower and enjoy breathtaking views of the city's skyline, including the Louvre, Notre-Dame, and the Seine River.</t>
         </is>
       </c>
       <c r="B1078" t="inlineStr"/>
@@ -16672,7 +16672,7 @@
     <row r="1079">
       <c r="A1079" t="inlineStr">
         <is>
-          <t>Title: Summit Eiffel Tower Skip the Queue Ticket and Audio Guide Tour</t>
+          <t>Title: Eiffel Tower Guided Tour Summit Access</t>
         </is>
       </c>
       <c r="B1079" t="inlineStr"/>
@@ -16687,7 +16687,7 @@
     <row r="1080">
       <c r="A1080" t="inlineStr">
         <is>
-          <t>TotalReviews: 22</t>
+          <t>TotalReviews: 23</t>
         </is>
       </c>
       <c r="B1080" t="inlineStr"/>
@@ -16702,7 +16702,7 @@
     <row r="1081">
       <c r="A1081" t="inlineStr">
         <is>
-          <t>Category: ['Modern Attractions']</t>
+          <t>Category: ['Historical Tours', 'City Tours']</t>
         </is>
       </c>
       <c r="B1081" t="inlineStr"/>
@@ -16717,7 +16717,7 @@
     <row r="1082">
       <c r="A1082" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 387432P1</t>
+          <t>PRODUCTCODE: 5045P70</t>
         </is>
       </c>
       <c r="B1082" t="inlineStr"/>
@@ -16732,7 +16732,7 @@
     <row r="1083">
       <c r="A1083" t="inlineStr">
         <is>
-          <t>Summarized description: Group guides aim to make each experience on the Eiffel Tower unique. We focus on small group sizes so everyone has a unique and personalized experience. We use a very visual and entertaining approach to present the iron lady.</t>
+          <t>Summarized description: Head up to the 2nd level of the Eiffel Tower with your ticket by elevator. Get access to the Summit so you can admire the city from every angle.</t>
         </is>
       </c>
       <c r="B1083" t="inlineStr"/>
@@ -16747,7 +16747,7 @@
     <row r="1084">
       <c r="A1084" t="inlineStr">
         <is>
-          <t>Title: Eiffel Tower Visit With A Guide and Top Elevator Access</t>
+          <t>Title: Eiffel Tower Timed Entrance Ticket SUMMIT Access by Elevator</t>
         </is>
       </c>
       <c r="B1084" t="inlineStr"/>
@@ -16762,7 +16762,7 @@
     <row r="1085">
       <c r="A1085" t="inlineStr">
         <is>
-          <t>TotalReviews: 22</t>
+          <t>TotalReviews: 23</t>
         </is>
       </c>
       <c r="B1085" t="inlineStr"/>
@@ -16777,7 +16777,7 @@
     <row r="1086">
       <c r="A1086" t="inlineStr">
         <is>
-          <t>Category: ['City Tours']</t>
+          <t>Category: ['Modern Attractions', 'City Tours']</t>
         </is>
       </c>
       <c r="B1086" t="inlineStr"/>
@@ -16792,7 +16792,7 @@
     <row r="1087">
       <c r="A1087" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 3588P46</t>
+          <t>PRODUCTCODE: 268768P58</t>
         </is>
       </c>
       <c r="B1087" t="inlineStr"/>
@@ -16807,7 +16807,7 @@
     <row r="1088">
       <c r="A1088" t="inlineStr">
         <is>
-          <t>Summarized description: Enjoy reserved entry at the base of the Tower. As you make your way up to the summit, your guide will give you background on the history of the Eiffel Tower. Your guide will point out various amenities, such as restaurants, current exhibitions, and places where you can sit.</t>
+          <t>Summarized description: The Eiffel Tower is one of the world's most iconic observation points. From the summit, enjoy a panoramic bird's-eye view of Paris that's truly unmatched.</t>
         </is>
       </c>
       <c r="B1088" t="inlineStr"/>
@@ -16822,7 +16822,7 @@
     <row r="1089">
       <c r="A1089" t="inlineStr">
         <is>
-          <t>Title: Small-Group Eiffel Tower Tour with Reserved Entry &amp; Summit Access</t>
+          <t>Title: Summit Eiffel Tower Skip the Queue Ticket and Audio Guide Tour</t>
         </is>
       </c>
       <c r="B1089" t="inlineStr"/>
@@ -16837,7 +16837,7 @@
     <row r="1090">
       <c r="A1090" t="inlineStr">
         <is>
-          <t>TotalReviews: 21</t>
+          <t>TotalReviews: 22</t>
         </is>
       </c>
       <c r="B1090" t="inlineStr"/>
@@ -16852,7 +16852,7 @@
     <row r="1091">
       <c r="A1091" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Modern Attractions']</t>
+          <t>Category: ['Modern Attractions']</t>
         </is>
       </c>
       <c r="B1091" t="inlineStr"/>
@@ -16867,7 +16867,7 @@
     <row r="1092">
       <c r="A1092" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 275837P8</t>
+          <t>PRODUCTCODE: 3588P46</t>
         </is>
       </c>
       <c r="B1092" t="inlineStr"/>
@@ -16882,7 +16882,7 @@
     <row r="1093">
       <c r="A1093" t="inlineStr">
         <is>
-          <t>Summarized description: Guests book this experience because they are assured of access to the summit. Get within hand reach of the details of the tower - the rivets holding together the iron pieces, the bulbs that light up at night.</t>
+          <t>Summarized description: Enjoy reserved entry at the base of the Tower. As you make your way up to the summit, your guide will give you background on the history of the Eiffel Tower. Your guide will point out various amenities, such as restaurants, current exhibitions, and places where you can sit.</t>
         </is>
       </c>
       <c r="B1093" t="inlineStr"/>
@@ -16897,7 +16897,7 @@
     <row r="1094">
       <c r="A1094" t="inlineStr">
         <is>
-          <t>Title: Guaranteed Summit Access - Eiffel Tower Elevator Tour</t>
+          <t>Title: Small-Group Eiffel Tower Tour with Reserved Entry &amp; Summit Access</t>
         </is>
       </c>
       <c r="B1094" t="inlineStr"/>
@@ -16927,7 +16927,7 @@
     <row r="1096">
       <c r="A1096" t="inlineStr">
         <is>
-          <t>Category: ['Modern Attractions']</t>
+          <t>Category: ['Modern Attractions', 'City Tours']</t>
         </is>
       </c>
       <c r="B1096" t="inlineStr"/>
@@ -16942,7 +16942,7 @@
     <row r="1097">
       <c r="A1097" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 112782P30</t>
+          <t>PRODUCTCODE: 275837P8</t>
         </is>
       </c>
       <c r="B1097" t="inlineStr"/>
@@ -16957,7 +16957,7 @@
     <row r="1098">
       <c r="A1098" t="inlineStr">
         <is>
-          <t>Summarized description: Learn about the building itself and about the civil engineer who created it, Gustave Eiffel. Take advantage of the optional opportunity to ascend by elevator past the second floor to the summit of the tower.</t>
+          <t>Summarized description: Guests book this experience because they are assured of access to the summit. Get within hand reach of the details of the tower - the rivets holding together the iron pieces, the bulbs that light up at night.</t>
         </is>
       </c>
       <c r="B1098" t="inlineStr"/>
@@ -16972,7 +16972,7 @@
     <row r="1099">
       <c r="A1099" t="inlineStr">
         <is>
-          <t>Title: Eiffel Tower Guided Tour - 2nd floor + optional Summit access</t>
+          <t>Title: Guaranteed Summit Access - Eiffel Tower Elevator Tour</t>
         </is>
       </c>
       <c r="B1099" t="inlineStr"/>
@@ -16987,7 +16987,7 @@
     <row r="1100">
       <c r="A1100" t="inlineStr">
         <is>
-          <t>TotalReviews: 19</t>
+          <t>TotalReviews: 21</t>
         </is>
       </c>
       <c r="B1100" t="inlineStr"/>
@@ -17017,7 +17017,7 @@
     <row r="1102">
       <c r="A1102" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 7824P7</t>
+          <t>PRODUCTCODE: 112782P30</t>
         </is>
       </c>
       <c r="B1102" t="inlineStr"/>
@@ -17032,7 +17032,7 @@
     <row r="1103">
       <c r="A1103" t="inlineStr">
         <is>
-          <t>Summarized description:  skip-the-line admission ticket for priority access to the Eiffel Tower. Discover the most emblematic Parisian monument from the second and third floors.</t>
+          <t>Summarized description: Learn about the building itself and about the civil engineer who created it, Gustave Eiffel. Take advantage of the optional opportunity to ascend by elevator past the second floor to the summit of the tower.</t>
         </is>
       </c>
       <c r="B1103" t="inlineStr"/>
@@ -17047,7 +17047,7 @@
     <row r="1104">
       <c r="A1104" t="inlineStr">
         <is>
-          <t>Title: Skip the Line: Eiffel Tower Small-Group Tour with Summit Access</t>
+          <t>Title: Eiffel Tower Guided Tour - 2nd floor + optional Summit access</t>
         </is>
       </c>
       <c r="B1104" t="inlineStr"/>
@@ -17062,7 +17062,7 @@
     <row r="1105">
       <c r="A1105" t="inlineStr">
         <is>
-          <t>TotalReviews: 16</t>
+          <t>TotalReviews: 19</t>
         </is>
       </c>
       <c r="B1105" t="inlineStr"/>
@@ -17092,7 +17092,7 @@
     <row r="1107">
       <c r="A1107" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 435669P6</t>
+          <t>PRODUCTCODE: 7824P7</t>
         </is>
       </c>
       <c r="B1107" t="inlineStr"/>
@@ -17107,7 +17107,7 @@
     <row r="1108">
       <c r="A1108" t="inlineStr">
         <is>
-          <t>Summarized description: Then, it's OPTIONAL if you want to proceed to the summit to see Gustave Eiffel's private apartments and sip Champagne from the onsite bar (own expense)</t>
+          <t>Summarized description:  skip-the-line admission ticket for priority access to the Eiffel Tower. Discover the most emblematic Parisian monument from the second and third floors.</t>
         </is>
       </c>
       <c r="B1108" t="inlineStr"/>
@@ -17122,7 +17122,7 @@
     <row r="1109">
       <c r="A1109" t="inlineStr">
         <is>
-          <t>Title: Eiffel Tower 2 Floor Access With Guide</t>
+          <t>Title: Skip the Line: Eiffel Tower Small-Group Tour with Summit Access</t>
         </is>
       </c>
       <c r="B1109" t="inlineStr"/>
@@ -17137,7 +17137,7 @@
     <row r="1110">
       <c r="A1110" t="inlineStr">
         <is>
-          <t>TotalReviews: 15</t>
+          <t>TotalReviews: 16</t>
         </is>
       </c>
       <c r="B1110" t="inlineStr"/>
@@ -17152,7 +17152,7 @@
     <row r="1111">
       <c r="A1111" t="inlineStr">
         <is>
-          <t>Category: ['Cultural Cruises', 'Modern Attractions']</t>
+          <t>Category: ['Modern Attractions']</t>
         </is>
       </c>
       <c r="B1111" t="inlineStr"/>
@@ -17167,7 +17167,7 @@
     <row r="1112">
       <c r="A1112" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 379045P2</t>
+          <t>PRODUCTCODE: 7832P36</t>
         </is>
       </c>
       <c r="B1112" t="inlineStr"/>
@@ -17182,7 +17182,7 @@
     <row r="1113">
       <c r="A1113" t="inlineStr">
         <is>
-          <t>Summarized description: Step into the historic elevators of the Eiffel Tower and be whisked away to dizzying heights. Panoramic views of Paris await you at every turn. Learn the Tower's Secrets with insightful commentary from our knowledgeable guides. Skip the lines and enjoy VIP treatment with our exclusive tour package.</t>
+          <t>Summarized description: Your guide will take you to the second floor on which s/he will tell you about the history of the Eiffel Tower and get a detailed description of the view. Enjoy visiting  all the way up the world's famous  monument with your guide.</t>
         </is>
       </c>
       <c r="B1113" t="inlineStr"/>
@@ -17197,7 +17197,7 @@
     <row r="1114">
       <c r="A1114" t="inlineStr">
         <is>
-          <t xml:space="preserve">Title: Eiffel Tower Elevator Tour </t>
+          <t>Title: Eiffel Tower Summit Access Guided Visit and Optional Cruise</t>
         </is>
       </c>
       <c r="B1114" t="inlineStr"/>
@@ -17212,7 +17212,7 @@
     <row r="1115">
       <c r="A1115" t="inlineStr">
         <is>
-          <t>TotalReviews: 15</t>
+          <t>TotalReviews: 9</t>
         </is>
       </c>
       <c r="B1115" t="inlineStr"/>
@@ -17227,7 +17227,7 @@
     <row r="1116">
       <c r="A1116" t="inlineStr">
         <is>
-          <t>Category: ['Historical Tours', 'Cultural Tours']</t>
+          <t>Category: ['Modern Attractions']</t>
         </is>
       </c>
       <c r="B1116" t="inlineStr"/>
@@ -17242,7 +17242,7 @@
     <row r="1117">
       <c r="A1117" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 320547P457</t>
+          <t>PRODUCTCODE: 2050P306</t>
         </is>
       </c>
       <c r="B1117" t="inlineStr"/>
@@ -17257,7 +17257,7 @@
     <row r="1118">
       <c r="A1118" t="inlineStr">
         <is>
-          <t>Summarized description: Our host will give you a brief history of the Eiffel Tower. As you pass through security, you join our host in line. You must wait in line with our host, who will pick up the summit (top floor) with elevator tickets.</t>
+          <t>Summarized description: Visit the first, second and third level of the iconic monument at your leisure. Take your time to marvel at the spectacular views of the city and learn about the fascinating history of the Tower.</t>
         </is>
       </c>
       <c r="B1118" t="inlineStr"/>
@@ -17272,7 +17272,7 @@
     <row r="1119">
       <c r="A1119" t="inlineStr">
         <is>
-          <t>Title: Eiffel Tower Summit 3rd Floor Summit Tour with Private Host</t>
+          <t>Title: Eiffel Tower Access &amp; Lunch &amp; Optional Summit Ticket</t>
         </is>
       </c>
       <c r="B1119" t="inlineStr"/>
@@ -17287,7 +17287,7 @@
     <row r="1120">
       <c r="A1120" t="inlineStr">
         <is>
-          <t>TotalReviews: 13</t>
+          <t>TotalReviews: 8</t>
         </is>
       </c>
       <c r="B1120" t="inlineStr"/>
@@ -17317,7 +17317,7 @@
     <row r="1122">
       <c r="A1122" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 7832P36</t>
+          <t>PRODUCTCODE: 7832P177</t>
         </is>
       </c>
       <c r="B1122" t="inlineStr"/>
@@ -17332,7 +17332,7 @@
     <row r="1123">
       <c r="A1123" t="inlineStr">
         <is>
-          <t>Summarized description: Your guide will take you to the second floor on which s/he will tell you about the history of the Eiffel Tower and get a detailed description of the view. Enjoy visiting  all the way up the world's famous  monument with your guide.</t>
+          <t>Summarized description: Your ticket includes a 1-hour cruise on the Seine river, that you can take at any time. Admire the UNESCO-listed buildings lining the riverbanks, including the Eiffel Tower.</t>
         </is>
       </c>
       <c r="B1123" t="inlineStr"/>
@@ -17347,7 +17347,7 @@
     <row r="1124">
       <c r="A1124" t="inlineStr">
         <is>
-          <t>Title: Eiffel Tower Summit Access Guided Visit and Optional Cruise</t>
+          <t>Title: Eiffel Tower Summit Floor Ticket and Seine River Cruise</t>
         </is>
       </c>
       <c r="B1124" t="inlineStr"/>
@@ -17362,7 +17362,7 @@
     <row r="1125">
       <c r="A1125" t="inlineStr">
         <is>
-          <t>TotalReviews: 9</t>
+          <t>TotalReviews: 8</t>
         </is>
       </c>
       <c r="B1125" t="inlineStr"/>
@@ -17377,7 +17377,7 @@
     <row r="1126">
       <c r="A1126" t="inlineStr">
         <is>
-          <t>Category: ['Modern Attractions']</t>
+          <t>Category: ['Cultural Cruises']</t>
         </is>
       </c>
       <c r="B1126" t="inlineStr"/>
@@ -17392,7 +17392,7 @@
     <row r="1127">
       <c r="A1127" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 2050P306</t>
+          <t>PRODUCTCODE: 2050P204</t>
         </is>
       </c>
       <c r="B1127" t="inlineStr"/>
@@ -17407,7 +17407,7 @@
     <row r="1128">
       <c r="A1128" t="inlineStr">
         <is>
-          <t>Summarized description: Visit the first, second and third level of the iconic monument at your leisure. Take your time to marvel at the spectacular views of the city and learn about the fascinating history of the Tower.</t>
+          <t>Summarized description:  Skip the Line Eiffel Tower Ticket up to 01st and 02nd Floor accompanied by a host. Meeting time will be at least 15 minutes prior to the departure nearby the Emblematic Monument. You will then jump the lines to access the tower!</t>
         </is>
       </c>
       <c r="B1128" t="inlineStr"/>
@@ -17422,7 +17422,7 @@
     <row r="1129">
       <c r="A1129" t="inlineStr">
         <is>
-          <t>Title: Eiffel Tower Access &amp; Lunch &amp; Optional Summit Ticket</t>
+          <t>Title: Priority to 1st and 2nd Floors Eiffel Tower Ticket</t>
         </is>
       </c>
       <c r="B1129" t="inlineStr"/>
@@ -17437,7 +17437,7 @@
     <row r="1130">
       <c r="A1130" t="inlineStr">
         <is>
-          <t>TotalReviews: 8</t>
+          <t>TotalReviews: 7</t>
         </is>
       </c>
       <c r="B1130" t="inlineStr"/>
@@ -17467,7 +17467,7 @@
     <row r="1132">
       <c r="A1132" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 7832P177</t>
+          <t>PRODUCTCODE: 220418P22</t>
         </is>
       </c>
       <c r="B1132" t="inlineStr"/>
@@ -17482,7 +17482,7 @@
     <row r="1133">
       <c r="A1133" t="inlineStr">
         <is>
-          <t>Summarized description: Your ticket includes a 1-hour cruise on the Seine river, that you can take at any time. Admire the UNESCO-listed buildings lining the riverbanks, including the Eiffel Tower.</t>
+          <t>Summarized description: Visit Paris' most iconic attraction with skip-the-line access and a tour guide. Take in the most impressive views of the city and learn about its construction and significance. Take the optional opportunity to ascend by elevator past the second floor to the summit.</t>
         </is>
       </c>
       <c r="B1133" t="inlineStr"/>
@@ -17497,7 +17497,7 @@
     <row r="1134">
       <c r="A1134" t="inlineStr">
         <is>
-          <t>Title: Eiffel Tower Summit Floor Ticket and Seine River Cruise</t>
+          <t>Title: Paris: Eiffel Tower Guided Tour with Summit Access</t>
         </is>
       </c>
       <c r="B1134" t="inlineStr"/>
@@ -17512,7 +17512,7 @@
     <row r="1135">
       <c r="A1135" t="inlineStr">
         <is>
-          <t>TotalReviews: 8</t>
+          <t>TotalReviews: 7</t>
         </is>
       </c>
       <c r="B1135" t="inlineStr"/>
@@ -17527,7 +17527,7 @@
     <row r="1136">
       <c r="A1136" t="inlineStr">
         <is>
-          <t>Category: ['Cultural Cruises']</t>
+          <t>Category: ['Modern Attractions', 'City Tours']</t>
         </is>
       </c>
       <c r="B1136" t="inlineStr"/>
@@ -17542,7 +17542,7 @@
     <row r="1137">
       <c r="A1137" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 220418P22</t>
+          <t>PRODUCTCODE: 198319P6</t>
         </is>
       </c>
       <c r="B1137" t="inlineStr"/>
@@ -17557,7 +17557,7 @@
     <row r="1138">
       <c r="A1138" t="inlineStr">
         <is>
-          <t>Summarized description: Visit Paris' most iconic attraction with skip-the-line access and a tour guide. Take in the most impressive views of the city and learn about its construction and significance. Take the optional opportunity to ascend by elevator past the second floor to the summit.</t>
+          <t>Summarized description: Find out more about the building itself and the civil engineer who designed it, Gustave Eiffel. Take advantage of the optional opportunity to ascend by elevator past the second floor to the summit of the tower.</t>
         </is>
       </c>
       <c r="B1138" t="inlineStr"/>
@@ -17572,7 +17572,7 @@
     <row r="1139">
       <c r="A1139" t="inlineStr">
         <is>
-          <t>Title: Paris: Eiffel Tower Guided Tour with Summit Access</t>
+          <t>Title: Paris: Eiffel Tower Guided Tour with Optional Summit Access</t>
         </is>
       </c>
       <c r="B1139" t="inlineStr"/>
@@ -17602,7 +17602,7 @@
     <row r="1141">
       <c r="A1141" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Modern Attractions']</t>
+          <t>Category: ['Modern Attractions', 'City Tours']</t>
         </is>
       </c>
       <c r="B1141" t="inlineStr"/>
@@ -17617,7 +17617,7 @@
     <row r="1142">
       <c r="A1142" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 198319P6</t>
+          <t>PRODUCTCODE: 419625P1</t>
         </is>
       </c>
       <c r="B1142" t="inlineStr"/>
@@ -17632,7 +17632,7 @@
     <row r="1143">
       <c r="A1143" t="inlineStr">
         <is>
-          <t>Summarized description: Find out more about the building itself and the civil engineer who designed it, Gustave Eiffel. Take advantage of the optional opportunity to ascend by elevator past the second floor to the summit of the tower.</t>
+          <t>Summarized description: Our guide will provide a captivating historical overview of the Eiffel Tower. As you pass through security, our knowledgeable host will accompany you, addressing any questions you may have along the way.</t>
         </is>
       </c>
       <c r="B1143" t="inlineStr"/>
@@ -17647,7 +17647,7 @@
     <row r="1144">
       <c r="A1144" t="inlineStr">
         <is>
-          <t>Title: Paris: Eiffel Tower Guided Tour with Optional Summit Access</t>
+          <t>Title: Eiffel Tower Summit (All Floors) Guided Tour by Elevator Tickets.</t>
         </is>
       </c>
       <c r="B1144" t="inlineStr"/>
@@ -17677,7 +17677,7 @@
     <row r="1146">
       <c r="A1146" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Modern Attractions']</t>
+          <t>Category: ['Historical Tours']</t>
         </is>
       </c>
       <c r="B1146" t="inlineStr"/>
@@ -17692,7 +17692,7 @@
     <row r="1147">
       <c r="A1147" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 419625P1</t>
+          <t>PRODUCTCODE: 210555P13</t>
         </is>
       </c>
       <c r="B1147" t="inlineStr"/>
@@ -17707,7 +17707,7 @@
     <row r="1148">
       <c r="A1148" t="inlineStr">
         <is>
-          <t>Summarized description: Our guide will provide a captivating historical overview of the Eiffel Tower. As you pass through security, our knowledgeable host will accompany you, addressing any questions you may have along the way.</t>
+          <t>Summarized description: Get your tickets in your mobile and get into the Eiffel Tower at top floor like a VIP. Just sit back and relax and let us buy you the tickets in just few clicks.</t>
         </is>
       </c>
       <c r="B1148" t="inlineStr"/>
@@ -17722,7 +17722,7 @@
     <row r="1149">
       <c r="A1149" t="inlineStr">
         <is>
-          <t>Title: Eiffel Tower Summit (All Floors) Guided Tour by Elevator Tickets.</t>
+          <t>Title: Eiffel Tower Top Floor Ticket: Skip The Line VIP access to Summit (3rd floor)</t>
         </is>
       </c>
       <c r="B1149" t="inlineStr"/>
@@ -17737,7 +17737,7 @@
     <row r="1150">
       <c r="A1150" t="inlineStr">
         <is>
-          <t>TotalReviews: 7</t>
+          <t>TotalReviews: 6</t>
         </is>
       </c>
       <c r="B1150" t="inlineStr"/>
@@ -17752,7 +17752,7 @@
     <row r="1151">
       <c r="A1151" t="inlineStr">
         <is>
-          <t>Category: ['Historical Tours']</t>
+          <t>Category: ['Transportation &amp; Travel Services', 'Modern Attractions']</t>
         </is>
       </c>
       <c r="B1151" t="inlineStr"/>
@@ -17767,7 +17767,7 @@
     <row r="1152">
       <c r="A1152" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 210555P13</t>
+          <t>PRODUCTCODE: 64296P2</t>
         </is>
       </c>
       <c r="B1152" t="inlineStr"/>
@@ -17782,7 +17782,7 @@
     <row r="1153">
       <c r="A1153" t="inlineStr">
         <is>
-          <t>Summarized description: Get your tickets in your mobile and get into the Eiffel Tower at top floor like a VIP. Just sit back and relax and let us buy you the tickets in just few clicks.</t>
+          <t>Summarized description: The Eiffel Tower needs no introduction and you are just one of millions of travellers who will visit this year. Don’t waste time and stand in line but instead join us to Skip the Line with a local, fun, licensed, English speaking guide.</t>
         </is>
       </c>
       <c r="B1153" t="inlineStr"/>
@@ -17797,7 +17797,7 @@
     <row r="1154">
       <c r="A1154" t="inlineStr">
         <is>
-          <t>Title: Eiffel Tower Top Floor Ticket: Skip The Line VIP access to Summit (3rd floor)</t>
+          <t>Title: VIP Eiffel Tower Tour &amp; Summit Access</t>
         </is>
       </c>
       <c r="B1154" t="inlineStr"/>
@@ -17827,7 +17827,7 @@
     <row r="1156">
       <c r="A1156" t="inlineStr">
         <is>
-          <t>Category: ['Modern Attractions', 'Transportation &amp; Travel Services']</t>
+          <t>Category: ['Modern Attractions', 'City Tours']</t>
         </is>
       </c>
       <c r="B1156" t="inlineStr"/>
@@ -17842,7 +17842,7 @@
     <row r="1157">
       <c r="A1157" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 64296P2</t>
+          <t>PRODUCTCODE: 2050P265</t>
         </is>
       </c>
       <c r="B1157" t="inlineStr"/>
@@ -17857,7 +17857,7 @@
     <row r="1158">
       <c r="A1158" t="inlineStr">
         <is>
-          <t>Summarized description: The Eiffel Tower needs no introduction and you are just one of millions of travellers who will visit this year. Don’t waste time and stand in line but instead join us to Skip the Line with a local, fun, licensed, English speaking guide.</t>
+          <t>Summarized description: The meeting time will be at least 15 minutes prior to the departure nearby the Emblematic Monument. You will then jump the lines to access the tower! Get ready to get some breathtaking panoramic view of the whole Paris. Add a cruise and you will enjoy some Stunning Monuments in the City of Light &amp; Love!</t>
         </is>
       </c>
       <c r="B1158" t="inlineStr"/>
@@ -17872,7 +17872,7 @@
     <row r="1159">
       <c r="A1159" t="inlineStr">
         <is>
-          <t>Title: VIP Eiffel Tower Tour &amp; Summit Access</t>
+          <t>Title: Eiffel Tower with reserved Access and Mobile App &amp; Cruise Option</t>
         </is>
       </c>
       <c r="B1159" t="inlineStr"/>
@@ -17887,7 +17887,7 @@
     <row r="1160">
       <c r="A1160" t="inlineStr">
         <is>
-          <t>TotalReviews: 6</t>
+          <t>TotalReviews: 5</t>
         </is>
       </c>
       <c r="B1160" t="inlineStr"/>
@@ -17902,7 +17902,7 @@
     <row r="1161">
       <c r="A1161" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Modern Attractions']</t>
+          <t>Category: ['Modern Attractions', 'Cultural Cruises']</t>
         </is>
       </c>
       <c r="B1161" t="inlineStr"/>
@@ -17917,7 +17917,7 @@
     <row r="1162">
       <c r="A1162" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 2050P352</t>
+          <t>PRODUCTCODE: 275837P2</t>
         </is>
       </c>
       <c r="B1162" t="inlineStr"/>
@@ -17932,7 +17932,7 @@
     <row r="1163">
       <c r="A1163" t="inlineStr">
         <is>
-          <t>Summarized description: Paris is a wonderful city, indeed the city of light will leave you speechless. Get on a coach with your friends and family to discover all the emblematic places of the city. Discover world-famous places such as the Louvre, the Champs Elysées, the Arc de Triomphe, Notre Dame and the Opéra Garnier.</t>
+          <t>Summarized description: Your guide will handle everything. From the meeting point, they will navigate you past the complications you might experience if you were by yourself. Guests book this experience because they are assured of access to the summit.</t>
         </is>
       </c>
       <c r="B1163" t="inlineStr"/>
@@ -17947,7 +17947,7 @@
     <row r="1164">
       <c r="A1164" t="inlineStr">
         <is>
-          <t xml:space="preserve">Title: Eiffel Tower Visit of the 2nd floor &amp; Summit Option &amp; City Tour </t>
+          <t>Title: Guaranteed Summit Access - Eiffel Tower Climb</t>
         </is>
       </c>
       <c r="B1164" t="inlineStr"/>
@@ -17962,7 +17962,7 @@
     <row r="1165">
       <c r="A1165" t="inlineStr">
         <is>
-          <t>TotalReviews: 4</t>
+          <t>TotalReviews: 5</t>
         </is>
       </c>
       <c r="B1165" t="inlineStr"/>
@@ -17977,7 +17977,7 @@
     <row r="1166">
       <c r="A1166" t="inlineStr">
         <is>
-          <t>Category: ['City Tours']</t>
+          <t>Category: ['Modern Attractions']</t>
         </is>
       </c>
       <c r="B1166" t="inlineStr"/>
@@ -17992,7 +17992,7 @@
     <row r="1167">
       <c r="A1167" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 73434P64</t>
+          <t>PRODUCTCODE: 7832P194</t>
         </is>
       </c>
       <c r="B1167" t="inlineStr"/>
@@ -18007,7 +18007,7 @@
     <row r="1168">
       <c r="A1168" t="inlineStr">
         <is>
-          <t>Summarized description: Enjoy priority access to one of the world's most iconic landmarks, the Eiffel Tower. Learn about its history and experience breathtaking views over Paris.</t>
+          <t>Summarized description: Your ticket includes a 1-hour cruise on the Seine River, that you can take at any time during your stay. Admire the UNESCO-listed buildings lining the riverbanks, including the Eiffel Tower.</t>
         </is>
       </c>
       <c r="B1168" t="inlineStr"/>
@@ -18022,7 +18022,7 @@
     <row r="1169">
       <c r="A1169" t="inlineStr">
         <is>
-          <t>Title: Eiffel Tower Tickets including the Summit in Paris</t>
+          <t>Title: Eiffel Tower Summit Floor Access and Seine River Cruise</t>
         </is>
       </c>
       <c r="B1169" t="inlineStr"/>
@@ -18037,7 +18037,7 @@
     <row r="1170">
       <c r="A1170" t="inlineStr">
         <is>
-          <t>TotalReviews: 3</t>
+          <t>TotalReviews: 5</t>
         </is>
       </c>
       <c r="B1170" t="inlineStr"/>
@@ -18052,7 +18052,7 @@
     <row r="1171">
       <c r="A1171" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Modern Attractions']</t>
+          <t>Category: ['Cultural Cruises']</t>
         </is>
       </c>
       <c r="B1171" t="inlineStr"/>
@@ -18067,7 +18067,7 @@
     <row r="1172">
       <c r="A1172" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 239922P36</t>
+          <t>PRODUCTCODE: 46334P52</t>
         </is>
       </c>
       <c r="B1172" t="inlineStr"/>
@@ -18082,7 +18082,7 @@
     <row r="1173">
       <c r="A1173" t="inlineStr">
         <is>
-          <t>Summarized description: The design of the Eiffel Tower is attributed to Maurice Koechlin and Émile Nouguier. It was envisioned after a discussion about a suitable centerpiece for the proposed 1889 Exposition Universelle, a world's fair to celebrate the centennial of the French Revolution.</t>
+          <t>Summarized description: Join an expert local guide to climb the Eiffel Tower. Hear about the events, techniques and controversies leading to the Tower’s construction. Enjoy some of the best views over the City of Lights.</t>
         </is>
       </c>
       <c r="B1173" t="inlineStr"/>
@@ -18097,7 +18097,7 @@
     <row r="1174">
       <c r="A1174" t="inlineStr">
         <is>
-          <t>Title: Eiffel Tower Summit or 2nd Floor Access With Optional 1-hour Seine River Cruise</t>
+          <t>Title: Eiffel Tower Tour with Second floor access and timed entry</t>
         </is>
       </c>
       <c r="B1174" t="inlineStr"/>
@@ -18112,7 +18112,7 @@
     <row r="1175">
       <c r="A1175" t="inlineStr">
         <is>
-          <t>TotalReviews: 3</t>
+          <t>TotalReviews: 4</t>
         </is>
       </c>
       <c r="B1175" t="inlineStr"/>
@@ -18127,7 +18127,7 @@
     <row r="1176">
       <c r="A1176" t="inlineStr">
         <is>
-          <t>Category: ['Historical Tours', 'City Tours', 'Modern Attractions']</t>
+          <t>Category: ['Historical Tours', 'Modern Attractions']</t>
         </is>
       </c>
       <c r="B1176" t="inlineStr"/>
@@ -18142,7 +18142,7 @@
     <row r="1177">
       <c r="A1177" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 239576P24</t>
+          <t>PRODUCTCODE: 2050P352</t>
         </is>
       </c>
       <c r="B1177" t="inlineStr"/>
@@ -18157,7 +18157,7 @@
     <row r="1178">
       <c r="A1178" t="inlineStr">
         <is>
-          <t>Summarized description: Learn the tower's background and all of its little-known mysteries from your knowledgeable guide. With optional summit access, enjoy unrivaled city views.</t>
+          <t>Summarized description: Paris is a wonderful city, indeed the city of light will leave you speechless. Get on a coach with your friends and family to discover all the emblematic places of the city. Discover world-famous places such as the Louvre, the Champs Elysées, the Arc de Triomphe, Notre Dame and the Opéra Garnier.</t>
         </is>
       </c>
       <c r="B1178" t="inlineStr"/>
@@ -18172,7 +18172,7 @@
     <row r="1179">
       <c r="A1179" t="inlineStr">
         <is>
-          <t>Title: Eiffel Tower Summit or Second Floor Access with Lift</t>
+          <t xml:space="preserve">Title: Eiffel Tower Visit of the 2nd floor &amp; Summit Option &amp; City Tour </t>
         </is>
       </c>
       <c r="B1179" t="inlineStr"/>
@@ -18187,7 +18187,7 @@
     <row r="1180">
       <c r="A1180" t="inlineStr">
         <is>
-          <t>TotalReviews: 3</t>
+          <t>TotalReviews: 4</t>
         </is>
       </c>
       <c r="B1180" t="inlineStr"/>
@@ -18202,7 +18202,7 @@
     <row r="1181">
       <c r="A1181" t="inlineStr">
         <is>
-          <t>Category: ['Aerial Tours']</t>
+          <t>Category: ['City Tours']</t>
         </is>
       </c>
       <c r="B1181" t="inlineStr"/>
@@ -18217,7 +18217,7 @@
     <row r="1182">
       <c r="A1182" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 60672P97</t>
+          <t>PRODUCTCODE: 7832P109</t>
         </is>
       </c>
       <c r="B1182" t="inlineStr"/>
@@ -18232,7 +18232,7 @@
     <row r="1183">
       <c r="A1183" t="inlineStr">
         <is>
-          <t>Summarized description: The Eiffel Tower is one of the most famous landmarks in the world. It is located at the top of the Champs-Elysees in Paris, France.</t>
+          <t>Summarized description: Skip the long lines to one of the most popular monument in Europe and enjoy fast track access to the Eiffel Tower. Be amazed by the illuminated views of Paris at night on a 1 hour River Cruise.</t>
         </is>
       </c>
       <c r="B1183" t="inlineStr"/>
@@ -18247,7 +18247,7 @@
     <row r="1184">
       <c r="A1184" t="inlineStr">
         <is>
-          <t>Title: Paris: Climb up the Eiffel Tower - Summit Included By Lift</t>
+          <t xml:space="preserve">Title:  Eiffel Tower Summit &amp; River Cruise Tickets by Night </t>
         </is>
       </c>
       <c r="B1184" t="inlineStr"/>
@@ -18262,7 +18262,7 @@
     <row r="1185">
       <c r="A1185" t="inlineStr">
         <is>
-          <t>TotalReviews: 3</t>
+          <t>TotalReviews: 4</t>
         </is>
       </c>
       <c r="B1185" t="inlineStr"/>
@@ -18277,7 +18277,7 @@
     <row r="1186">
       <c r="A1186" t="inlineStr">
         <is>
-          <t>Category: ['Modern Attractions']</t>
+          <t>Category: ['Modern Attractions', 'Cultural Cruises']</t>
         </is>
       </c>
       <c r="B1186" t="inlineStr"/>
@@ -18292,7 +18292,7 @@
     <row r="1187">
       <c r="A1187" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 60672P98</t>
+          <t>PRODUCTCODE: 419625P4</t>
         </is>
       </c>
       <c r="B1187" t="inlineStr"/>
@@ -18307,7 +18307,7 @@
     <row r="1188">
       <c r="A1188" t="inlineStr">
         <is>
-          <t>Summarized description: Enjoy bird's eye views of Paris from the 2nd floor observation deck. Then access the summit for a peek at Gustave Eiffel's original office. Please make sure to arrive 15 min before the hour of your tour.</t>
+          <t>Summarized description: Our guide will provide a captivating historical overview of the Eiffel Tower. As you pass through security, our knowledgeable host will accompany you. The guide will have your summit (top floor) Skip-The-Line elevator tickets.</t>
         </is>
       </c>
       <c r="B1188" t="inlineStr"/>
@@ -18322,7 +18322,7 @@
     <row r="1189">
       <c r="A1189" t="inlineStr">
         <is>
-          <t>Title: Paris: Eiffel Tower Fast Access, Entertaining Guide + Summit access</t>
+          <t>Title: Eiffel Tower Summit/All Floors Skip-The-Line Guided Tour By Lift</t>
         </is>
       </c>
       <c r="B1189" t="inlineStr"/>
@@ -18367,7 +18367,7 @@
     <row r="1192">
       <c r="A1192" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 247780P9</t>
+          <t>PRODUCTCODE: 443044P1</t>
         </is>
       </c>
       <c r="B1192" t="inlineStr"/>
@@ -18382,7 +18382,7 @@
     <row r="1193">
       <c r="A1193" t="inlineStr">
         <is>
-          <t>Summarized description: Get access to the tower's second level. Delve into the history of one of the world's most famous monuments. Head to the summit for stellar views of the City of Lights.</t>
+          <t>Summarized description: Find out more about the building itself and the civil engineer that designed it, Gustave Eiffel. Take advantage of the optional opportunity to ascend by elevator past the second floor to the summit of the tower.</t>
         </is>
       </c>
       <c r="B1193" t="inlineStr"/>
@@ -18397,7 +18397,7 @@
     <row r="1194">
       <c r="A1194" t="inlineStr">
         <is>
-          <t>Title: Access the 2nd floor and Summit Level of Eiffel tower with Guide</t>
+          <t>Title: Paris: Eiffel Tower Guided Tour with Optional Summit Access</t>
         </is>
       </c>
       <c r="B1194" t="inlineStr"/>
@@ -18412,7 +18412,7 @@
     <row r="1195">
       <c r="A1195" t="inlineStr">
         <is>
-          <t>TotalReviews: 2</t>
+          <t>TotalReviews: 3</t>
         </is>
       </c>
       <c r="B1195" t="inlineStr"/>
@@ -18442,7 +18442,7 @@
     <row r="1197">
       <c r="A1197" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 275837P12</t>
+          <t>PRODUCTCODE: 451830P1</t>
         </is>
       </c>
       <c r="B1197" t="inlineStr"/>
@@ -18457,7 +18457,7 @@
     <row r="1198">
       <c r="A1198" t="inlineStr">
         <is>
-          <t>Summarized description: Guests book this experience because their guide handles everything. Your tickets are acquired on site by your guide and it takes you up to the 2nd level. For an extra experience, you can take the stairs as you descend.</t>
+          <t>Summarized description: The climb up to the second floor of the Eiffel Tower is around 674 steps. From there, you can choose to keep going to the summit on your own via elevator.</t>
         </is>
       </c>
       <c r="B1198" t="inlineStr"/>
@@ -18472,7 +18472,7 @@
     <row r="1199">
       <c r="A1199" t="inlineStr">
         <is>
-          <t>Title: Eiffel Tower visit with Experienced Guide | Take the Elevator to the 2nd Floor</t>
+          <t>Title: Rise Above Paris Eiffel Tower Climbing Tour with Summit Access</t>
         </is>
       </c>
       <c r="B1199" t="inlineStr"/>
@@ -18487,7 +18487,7 @@
     <row r="1200">
       <c r="A1200" t="inlineStr">
         <is>
-          <t>TotalReviews: 2</t>
+          <t>TotalReviews: 3</t>
         </is>
       </c>
       <c r="B1200" t="inlineStr"/>
@@ -18517,7 +18517,7 @@
     <row r="1202">
       <c r="A1202" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 7832P152</t>
+          <t>PRODUCTCODE: 73434P64</t>
         </is>
       </c>
       <c r="B1202" t="inlineStr"/>
@@ -18532,7 +18532,7 @@
     <row r="1203">
       <c r="A1203" t="inlineStr">
         <is>
-          <t>Summarized description: Get panoramic views of iconic monuments such as the Notre-Dame de Paris. Enjoy bird's eye views of the Egyptian obelisk on Place de la Concorde. See the Louvre Museum and Sacré Coeur basilica from a different perspective.</t>
+          <t>Summarized description: Enjoy priority access to one of the world's most iconic landmarks, the Eiffel Tower. Learn about its history and experience breathtaking views over Paris.</t>
         </is>
       </c>
       <c r="B1203" t="inlineStr"/>
@@ -18547,7 +18547,7 @@
     <row r="1204">
       <c r="A1204" t="inlineStr">
         <is>
-          <t>Title: Eiffel Tower Second Floor Access With Host</t>
+          <t>Title: Eiffel Tower Tickets including the Summit in Paris</t>
         </is>
       </c>
       <c r="B1204" t="inlineStr"/>
@@ -18562,7 +18562,7 @@
     <row r="1205">
       <c r="A1205" t="inlineStr">
         <is>
-          <t>TotalReviews: 2</t>
+          <t>TotalReviews: 3</t>
         </is>
       </c>
       <c r="B1205" t="inlineStr"/>
@@ -18577,7 +18577,7 @@
     <row r="1206">
       <c r="A1206" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Modern Attractions']</t>
+          <t>Category: ['Modern Attractions', 'City Tours']</t>
         </is>
       </c>
       <c r="B1206" t="inlineStr"/>
@@ -18592,7 +18592,7 @@
     <row r="1207">
       <c r="A1207" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 421480P6</t>
+          <t>PRODUCTCODE: 7832P116</t>
         </is>
       </c>
       <c r="B1207" t="inlineStr"/>
@@ -18607,7 +18607,7 @@
     <row r="1208">
       <c r="A1208" t="inlineStr">
         <is>
-          <t>Summarized description: Pre-purchased tickets offer direct access inside the tower after a swift security check at your selected time slot. This not only ensures a seamless entry process but also saves you valuable time.</t>
+          <t>Summarized description: Skip the long lines to one of the most popular monument in Europe and enjoy fast track access to the Eiffel Tower. Be amazed by the illuminated views of Paris at night on a 1 hour River Cruise.</t>
         </is>
       </c>
       <c r="B1208" t="inlineStr"/>
@@ -18622,7 +18622,7 @@
     <row r="1209">
       <c r="A1209" t="inlineStr">
         <is>
-          <t>Title: Eiffel Tower Skip The Line Ticket To Second Floor</t>
+          <t xml:space="preserve">Title:  Eiffel Tower Ticket with Summit Access &amp; Seine River Cruise by Night </t>
         </is>
       </c>
       <c r="B1209" t="inlineStr"/>
@@ -18637,7 +18637,7 @@
     <row r="1210">
       <c r="A1210" t="inlineStr">
         <is>
-          <t>TotalReviews: 1</t>
+          <t>TotalReviews: 3</t>
         </is>
       </c>
       <c r="B1210" t="inlineStr"/>
@@ -18652,7 +18652,7 @@
     <row r="1211">
       <c r="A1211" t="inlineStr">
         <is>
-          <t>Category: ['']</t>
+          <t>Category: ['Modern Attractions', 'Cultural Cruises']</t>
         </is>
       </c>
       <c r="B1211" t="inlineStr"/>
@@ -18667,7 +18667,7 @@
     <row r="1212">
       <c r="A1212" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 3731P120</t>
+          <t>PRODUCTCODE: 239922P36</t>
         </is>
       </c>
       <c r="B1212" t="inlineStr"/>
@@ -18682,7 +18682,7 @@
     <row r="1213">
       <c r="A1213" t="inlineStr">
         <is>
-          <t>Summarized description: Get acquainted with Paris’s most famous lady 'Dame de Fer', the Iron Lady. During your visit you’ll enjoy the valuable insight of your English-speaking guide.</t>
+          <t>Summarized description: The design of the Eiffel Tower is attributed to Maurice Koechlin and Émile Nouguier. It was envisioned after a discussion about a suitable centerpiece for the proposed 1889 Exposition Universelle, a world's fair to celebrate the centennial of the French Revolution.</t>
         </is>
       </c>
       <c r="B1213" t="inlineStr"/>
@@ -18697,7 +18697,7 @@
     <row r="1214">
       <c r="A1214" t="inlineStr">
         <is>
-          <t>Title: Special Access: Express Eiffel Tower Guided Tour with 2nd floor Observation Deck Access</t>
+          <t>Title: Eiffel Tower Summit or 2nd Floor Access With Optional 1-hour Seine River Cruise</t>
         </is>
       </c>
       <c r="B1214" t="inlineStr"/>
@@ -18712,7 +18712,7 @@
     <row r="1215">
       <c r="A1215" t="inlineStr">
         <is>
-          <t>TotalReviews: 1</t>
+          <t>TotalReviews: 3</t>
         </is>
       </c>
       <c r="B1215" t="inlineStr"/>
@@ -18727,7 +18727,7 @@
     <row r="1216">
       <c r="A1216" t="inlineStr">
         <is>
-          <t>Category: ['City Tours']</t>
+          <t>Category: ['Historical Tours', 'Modern Attractions', 'City Tours']</t>
         </is>
       </c>
       <c r="B1216" t="inlineStr"/>
@@ -18742,7 +18742,7 @@
     <row r="1217">
       <c r="A1217" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 248877P36</t>
+          <t>PRODUCTCODE: 239576P24</t>
         </is>
       </c>
       <c r="B1217" t="inlineStr"/>
@@ -18757,7 +18757,7 @@
     <row r="1218">
       <c r="A1218" t="inlineStr">
         <is>
-          <t>Summarized description: Take advantage of priority access to the 2nd floor of the Eiffel Tower with a expert English speaking guide. Enjoy the view of Paris from above and add access to go all the way to the summit.</t>
+          <t>Summarized description: Learn the tower's background and all of its little-known mysteries from your knowledgeable guide. With optional summit access, enjoy unrivaled city views.</t>
         </is>
       </c>
       <c r="B1218" t="inlineStr"/>
@@ -18772,7 +18772,7 @@
     <row r="1219">
       <c r="A1219" t="inlineStr">
         <is>
-          <t>Title: Eiffel Tower Guided Tour with Summit or Second Floor Priority Access</t>
+          <t>Title: Eiffel Tower Summit or Second Floor Access with Lift</t>
         </is>
       </c>
       <c r="B1219" t="inlineStr"/>
@@ -18787,7 +18787,7 @@
     <row r="1220">
       <c r="A1220" t="inlineStr">
         <is>
-          <t>TotalReviews: 1</t>
+          <t>TotalReviews: 3</t>
         </is>
       </c>
       <c r="B1220" t="inlineStr"/>
@@ -18802,7 +18802,7 @@
     <row r="1221">
       <c r="A1221" t="inlineStr">
         <is>
-          <t>Category: ['Scenic Tours', 'Modern Attractions']</t>
+          <t>Category: ['Aerial Tours']</t>
         </is>
       </c>
       <c r="B1221" t="inlineStr"/>
@@ -18817,7 +18817,7 @@
     <row r="1222">
       <c r="A1222" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 247780P10</t>
+          <t>PRODUCTCODE: 60672P97</t>
         </is>
       </c>
       <c r="B1222" t="inlineStr"/>
@@ -18832,7 +18832,7 @@
     <row r="1223">
       <c r="A1223" t="inlineStr">
         <is>
-          <t>Summarized description: Enjoy hassle-free entry to one of the world’s busiest monuments. Cut out the long admission lines with a timed, priority-entry ticket. Admire sweeping aerial views of Les Invalides, Notre Dame Cathedral, and more.</t>
+          <t>Summarized description: The Eiffel Tower is one of the most famous landmarks in the world. It is located at the top of the Champs-Elysees in Paris, France.</t>
         </is>
       </c>
       <c r="B1223" t="inlineStr"/>
@@ -18847,7 +18847,7 @@
     <row r="1224">
       <c r="A1224" t="inlineStr">
         <is>
-          <t>Title: Eiffel Tower Skip the Line 2nd Level Access with Host in Paris</t>
+          <t>Title: Paris: Climb up the Eiffel Tower - Summit Included By Lift</t>
         </is>
       </c>
       <c r="B1224" t="inlineStr"/>
@@ -18862,7 +18862,7 @@
     <row r="1225">
       <c r="A1225" t="inlineStr">
         <is>
-          <t>TotalReviews: 1</t>
+          <t>TotalReviews: 3</t>
         </is>
       </c>
       <c r="B1225" t="inlineStr"/>
@@ -18892,7 +18892,7 @@
     <row r="1227">
       <c r="A1227" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 116848P36</t>
+          <t>PRODUCTCODE: 60672P98</t>
         </is>
       </c>
       <c r="B1227" t="inlineStr"/>
@@ -18907,7 +18907,7 @@
     <row r="1228">
       <c r="A1228" t="inlineStr">
         <is>
-          <t>Summarized description: The Eiffel Tower is one of the most popular tourist attractions in the world. Choose a priority-access ticket to the second floor to avoid long lines.</t>
+          <t>Summarized description: Enjoy bird's eye views of Paris from the 2nd floor observation deck. Then access the summit for a peek at Gustave Eiffel's original office. Please make sure to arrive 15 min before the hour of your tour.</t>
         </is>
       </c>
       <c r="B1228" t="inlineStr"/>
@@ -18922,7 +18922,7 @@
     <row r="1229">
       <c r="A1229" t="inlineStr">
         <is>
-          <t>Title: Eiffel Tower Paris Second Floor Priority Access</t>
+          <t>Title: Paris: Eiffel Tower Fast Access, Entertaining Guide + Summit access</t>
         </is>
       </c>
       <c r="B1229" t="inlineStr"/>
@@ -18937,7 +18937,7 @@
     <row r="1230">
       <c r="A1230" t="inlineStr">
         <is>
-          <t>TotalReviews: 1</t>
+          <t>TotalReviews: 3</t>
         </is>
       </c>
       <c r="B1230" t="inlineStr"/>
@@ -18967,7 +18967,7 @@
     <row r="1232">
       <c r="A1232" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 248877P27</t>
+          <t>PRODUCTCODE: 247780P9</t>
         </is>
       </c>
       <c r="B1232" t="inlineStr"/>
@@ -18982,7 +18982,7 @@
     <row r="1233">
       <c r="A1233" t="inlineStr">
         <is>
-          <t>Summarized description: Visit the Eiffel Tower with a priority-access ticket. Enjoy access to the 1st and 2nd floors and the Summit by elevator. Marvel at spectacular views of Paris.</t>
+          <t>Summarized description: Get access to the tower's second level. Delve into the history of one of the world's most famous monuments. Head to the summit for stellar views of the City of Lights.</t>
         </is>
       </c>
       <c r="B1233" t="inlineStr"/>
@@ -18997,7 +18997,7 @@
     <row r="1234">
       <c r="A1234" t="inlineStr">
         <is>
-          <t>Title: Paris Essentials : Eiffel Tower Skip the Line with Summit Access</t>
+          <t>Title: Access the 2nd floor and Summit Level of Eiffel tower with Guide</t>
         </is>
       </c>
       <c r="B1234" t="inlineStr"/>
@@ -19012,7 +19012,7 @@
     <row r="1235">
       <c r="A1235" t="inlineStr">
         <is>
-          <t>TotalReviews: 1</t>
+          <t>TotalReviews: 2</t>
         </is>
       </c>
       <c r="B1235" t="inlineStr"/>
@@ -19027,7 +19027,7 @@
     <row r="1236">
       <c r="A1236" t="inlineStr">
         <is>
-          <t>Category: ['Scenic Tours', 'Modern Attractions']</t>
+          <t>Category: ['Modern Attractions']</t>
         </is>
       </c>
       <c r="B1236" t="inlineStr"/>
@@ -19042,7 +19042,7 @@
     <row r="1237">
       <c r="A1237" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 210555P12</t>
+          <t>PRODUCTCODE: 275837P12</t>
         </is>
       </c>
       <c r="B1237" t="inlineStr"/>
@@ -19057,7 +19057,7 @@
     <row r="1238">
       <c r="A1238" t="inlineStr">
         <is>
-          <t>Summarized description: Get your E-tickets by sitting at your home and skip the line like a VIP once you reach at Eiffel Tower. Take direct entry to second floor via lift.</t>
+          <t>Summarized description: Guests book this experience because their guide handles everything. Your tickets are acquired on site by your guide and it takes you up to the 2nd level. For an extra experience, you can take the stairs as you descend.</t>
         </is>
       </c>
       <c r="B1238" t="inlineStr"/>
@@ -19072,7 +19072,7 @@
     <row r="1239">
       <c r="A1239" t="inlineStr">
         <is>
-          <t>Title: Eiffel Tower Tickets----Skip The Line VIP access to Second Floor</t>
+          <t>Title: Eiffel Tower visit with Experienced Guide | Take the Elevator to the 2nd Floor</t>
         </is>
       </c>
       <c r="B1239" t="inlineStr"/>
@@ -19087,7 +19087,7 @@
     <row r="1240">
       <c r="A1240" t="inlineStr">
         <is>
-          <t>TotalReviews: 1</t>
+          <t>TotalReviews: 2</t>
         </is>
       </c>
       <c r="B1240" t="inlineStr"/>
@@ -19102,7 +19102,7 @@
     <row r="1241">
       <c r="A1241" t="inlineStr">
         <is>
-          <t>Category: ['Modern Attractions', 'Transportation &amp; Travel Services']</t>
+          <t>Category: ['Modern Attractions']</t>
         </is>
       </c>
       <c r="B1241" t="inlineStr"/>
@@ -19117,7 +19117,7 @@
     <row r="1242">
       <c r="A1242" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 384451P2</t>
+          <t>PRODUCTCODE: 116778P40</t>
         </is>
       </c>
       <c r="B1242" t="inlineStr"/>
@@ -19132,7 +19132,7 @@
     <row r="1243">
       <c r="A1243" t="inlineStr">
         <is>
-          <t>Summarized description: Soar at 115 m high for a 360 stunning view of the City of Light and all of its gorgeous landscapes. Expert team will provide you with every bit of information and facts about the famous Iron Lady.</t>
+          <t>Summarized description: Indulge the evening stars of the Parisian skyline as you are guided towards the Summit of the famous Eiffel Tower. Depending on the time you book this tour and scarcity of reservations, there may be the possibility that you will need to wait in line.</t>
         </is>
       </c>
       <c r="B1243" t="inlineStr"/>
@@ -19147,7 +19147,7 @@
     <row r="1244">
       <c r="A1244" t="inlineStr">
         <is>
-          <t>Title: Eiffel Tower Second Floor Priority Access</t>
+          <t>Title: Small Group - Eiffel's Glittering Tower's Summit by Night</t>
         </is>
       </c>
       <c r="B1244" t="inlineStr"/>
@@ -19162,7 +19162,7 @@
     <row r="1245">
       <c r="A1245" t="inlineStr">
         <is>
-          <t>TotalReviews: 1</t>
+          <t>TotalReviews: 2</t>
         </is>
       </c>
       <c r="B1245" t="inlineStr"/>
@@ -19177,7 +19177,7 @@
     <row r="1246">
       <c r="A1246" t="inlineStr">
         <is>
-          <t>Category: ['Scenic Tours', 'City Tours']</t>
+          <t>Category: ['Scenic Tours']</t>
         </is>
       </c>
       <c r="B1246" t="inlineStr"/>
@@ -19192,7 +19192,7 @@
     <row r="1247">
       <c r="A1247" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 157275P54</t>
+          <t>PRODUCTCODE: 85210P33</t>
         </is>
       </c>
       <c r="B1247" t="inlineStr"/>
@@ -19207,7 +19207,7 @@
     <row r="1248">
       <c r="A1248" t="inlineStr">
         <is>
-          <t>Summarized description: Paris Eiffel Tower Ticket Direct Entry with Summit Floor 5-hour tour. With Audio Guide, you’ll gain priority access to tower’s second level. Toast your travels with a glass of bubbly from the Champagne bar.</t>
+          <t>Summarized description: Book your priority access ticket to climb the Eiffel Tower either by day or by night. Enjoy panoramic views across the city and admire famous Parisian landmarks such as Notre-Dame Cathedral.</t>
         </is>
       </c>
       <c r="B1248" t="inlineStr"/>
@@ -19222,7 +19222,7 @@
     <row r="1249">
       <c r="A1249" t="inlineStr">
         <is>
-          <t>Title: Paris Eiffel Tower Ticket Direct Entry with Summit Floor</t>
+          <t>Title: Eiffel tower with audio guide and PRIORITY ACCESS</t>
         </is>
       </c>
       <c r="B1249" t="inlineStr"/>
@@ -19237,7 +19237,7 @@
     <row r="1250">
       <c r="A1250" t="inlineStr">
         <is>
-          <t>TotalReviews: 1</t>
+          <t>TotalReviews: 2</t>
         </is>
       </c>
       <c r="B1250" t="inlineStr"/>
@@ -19252,7 +19252,7 @@
     <row r="1251">
       <c r="A1251" t="inlineStr">
         <is>
-          <t>Category: ['Culinary Tours', 'Modern Attractions']</t>
+          <t>Category: ['Modern Attractions']</t>
         </is>
       </c>
       <c r="B1251" t="inlineStr"/>
@@ -19267,7 +19267,7 @@
     <row r="1252">
       <c r="A1252" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 157275P27</t>
+          <t>PRODUCTCODE: 7832P152</t>
         </is>
       </c>
       <c r="B1252" t="inlineStr"/>
@@ -19282,7 +19282,7 @@
     <row r="1253">
       <c r="A1253" t="inlineStr">
         <is>
-          <t>Summarized description: Paris Eiffel Tower Ticket Direct Entry with Summit Floor 5-hour tour. With Audio Guide, you’ll gain priority access to tower’s second level. Toast your travels with a glass of bubbly from the Champagne bar.</t>
+          <t>Summarized description: Get panoramic views of iconic monuments such as the Notre-Dame de Paris. Enjoy bird's eye views of the Egyptian obelisk on Place de la Concorde. See the Louvre Museum and Sacré Coeur basilica from a different perspective.</t>
         </is>
       </c>
       <c r="B1253" t="inlineStr"/>
@@ -19297,7 +19297,7 @@
     <row r="1254">
       <c r="A1254" t="inlineStr">
         <is>
-          <t xml:space="preserve">Title:  Paris Eiffel Tower Ticket Direct Entry with Summit Floor </t>
+          <t>Title: Eiffel Tower Second Floor Access With Host</t>
         </is>
       </c>
       <c r="B1254" t="inlineStr"/>
@@ -19312,7 +19312,7 @@
     <row r="1255">
       <c r="A1255" t="inlineStr">
         <is>
-          <t>TotalReviews: 1</t>
+          <t>TotalReviews: 2</t>
         </is>
       </c>
       <c r="B1255" t="inlineStr"/>
@@ -19327,7 +19327,7 @@
     <row r="1256">
       <c r="A1256" t="inlineStr">
         <is>
-          <t>Category: ['Culinary Tours', 'Modern Attractions']</t>
+          <t>Category: ['Modern Attractions', 'City Tours']</t>
         </is>
       </c>
       <c r="B1256" t="inlineStr"/>
@@ -19342,7 +19342,7 @@
     <row r="1257">
       <c r="A1257" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 158620P3</t>
+          <t>PRODUCTCODE: 320547P324</t>
         </is>
       </c>
       <c r="B1257" t="inlineStr"/>
@@ -19357,7 +19357,7 @@
     <row r="1258">
       <c r="A1258" t="inlineStr">
         <is>
-          <t>Summarized description: Get sensational views from the 2nd floor of the Iron Lady and walk on the glass floor. Embark on a 2-hour tour with a Timed Entrance Ticket &amp; a professional experienced guide.</t>
+          <t>Summarized description: Paris is beautiful &amp; everyone is tempted to visit the Eiffel Tower. We will pick you up from anywhere in Paris with a private vehicle &amp; take you up to the 2nd floor of the tower. Your guide will also buy you tickets of the second floor.</t>
         </is>
       </c>
       <c r="B1258" t="inlineStr"/>
@@ -19372,7 +19372,7 @@
     <row r="1259">
       <c r="A1259" t="inlineStr">
         <is>
-          <t>Title:  Paris: Eiffel Tower 2nd Level Tour with Summit Access</t>
+          <t xml:space="preserve">Title: Eiffel Tower with private pick up from your hotel </t>
         </is>
       </c>
       <c r="B1259" t="inlineStr"/>
@@ -19387,7 +19387,7 @@
     <row r="1260">
       <c r="A1260" t="inlineStr">
         <is>
-          <t>TotalReviews: 1</t>
+          <t>TotalReviews: 2</t>
         </is>
       </c>
       <c r="B1260" t="inlineStr"/>
@@ -19402,7 +19402,7 @@
     <row r="1261">
       <c r="A1261" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Modern Attractions']</t>
+          <t>Category: ['Modern Attractions']</t>
         </is>
       </c>
       <c r="B1261" t="inlineStr"/>
@@ -19417,7 +19417,7 @@
     <row r="1262">
       <c r="A1262" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 243313P23</t>
+          <t>PRODUCTCODE: 421480P6</t>
         </is>
       </c>
       <c r="B1262" t="inlineStr"/>
@@ -19432,7 +19432,7 @@
     <row r="1263">
       <c r="A1263" t="inlineStr">
         <is>
-          <t>Summarized description:  skip-the-line tickets give you access to the 2nd level of the Eiffel Tower. Check out stunning Parisian landmarks such as the Champs Elysees, Notre Dame, Montmartre, Seine River, and so on.</t>
+          <t>Summarized description: Pre-purchased tickets offer direct access inside the tower after a swift security check at your selected time slot. This not only ensures a seamless entry process but also saves you valuable time.</t>
         </is>
       </c>
       <c r="B1263" t="inlineStr"/>
@@ -19447,7 +19447,7 @@
     <row r="1264">
       <c r="A1264" t="inlineStr">
         <is>
-          <t xml:space="preserve">Title: Eiffel Tower Skip the Line Experience : 2nd Floor or SUMMIT with Lift Access </t>
+          <t>Title: Eiffel Tower Skip The Line Ticket To Second Floor</t>
         </is>
       </c>
       <c r="B1264" t="inlineStr"/>
@@ -19477,7 +19477,7 @@
     <row r="1266">
       <c r="A1266" t="inlineStr">
         <is>
-          <t>Category: ['Scenic Tours', 'City Tours']</t>
+          <t>Category: ['']</t>
         </is>
       </c>
       <c r="B1266" t="inlineStr"/>
@@ -19492,7 +19492,7 @@
     <row r="1267">
       <c r="A1267" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 175789P38</t>
+          <t>PRODUCTCODE: 3731P120</t>
         </is>
       </c>
       <c r="B1267" t="inlineStr"/>
@@ -19507,7 +19507,7 @@
     <row r="1268">
       <c r="A1268" t="inlineStr">
         <is>
-          <t>Summarized description: Watch the bustling crowds on the busy Champ de Mars in the Tower's shadow. Save precious time at the Eiffel Tower with a priority-access ticket to the second level.</t>
+          <t>Summarized description: Get acquainted with Paris’s most famous lady 'Dame de Fer', the Iron Lady. During your visit you’ll enjoy the valuable insight of your English-speaking guide.</t>
         </is>
       </c>
       <c r="B1268" t="inlineStr"/>
@@ -19522,7 +19522,7 @@
     <row r="1269">
       <c r="A1269" t="inlineStr">
         <is>
-          <t>Title: Paris Essentials : Eiffel Tower Tour (Skip the line &amp; Second Floor Access)</t>
+          <t>Title: Special Access: Express Eiffel Tower Guided Tour with 2nd floor Observation Deck Access</t>
         </is>
       </c>
       <c r="B1269" t="inlineStr"/>
@@ -19537,7 +19537,7 @@
     <row r="1270">
       <c r="A1270" t="inlineStr">
         <is>
-          <t>TotalReviews: 0</t>
+          <t>TotalReviews: 1</t>
         </is>
       </c>
       <c r="B1270" t="inlineStr"/>
@@ -19552,7 +19552,7 @@
     <row r="1271">
       <c r="A1271" t="inlineStr">
         <is>
-          <t>Category: ['Scenic Tours', 'Modern Attractions']</t>
+          <t>Category: ['City Tours']</t>
         </is>
       </c>
       <c r="B1271" t="inlineStr"/>
@@ -19567,7 +19567,7 @@
     <row r="1272">
       <c r="A1272" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 429951P1</t>
+          <t>PRODUCTCODE: 320547P788</t>
         </is>
       </c>
       <c r="B1272" t="inlineStr"/>
@@ -19582,7 +19582,7 @@
     <row r="1273">
       <c r="A1273" t="inlineStr">
         <is>
-          <t>Summarized description: Eiffel Tower, Invalides, Cathedrale Notre-Dame de Paris, Arc de Triomphe, Grande Arche de La Defense, Louvre Museum, Grande Palais, Tour Montparnasse, etc.</t>
+          <t>Summarized description: Eiffel Tower summit can be closed sometimes and visitors maybe allowed only up to second floor. In such cases, no refund is possible. Private transport from your hotel to Eiffel tower and back.</t>
         </is>
       </c>
       <c r="B1273" t="inlineStr"/>
@@ -19597,7 +19597,7 @@
     <row r="1274">
       <c r="A1274" t="inlineStr">
         <is>
-          <t>Title: Skip The Line Eiffel Tower 2nd Floor by Elevator</t>
+          <t>Title: Eiffel Tower Summit 3rd Floor Tour with Guide and Pick-up Drop</t>
         </is>
       </c>
       <c r="B1274" t="inlineStr"/>
@@ -19612,7 +19612,7 @@
     <row r="1275">
       <c r="A1275" t="inlineStr">
         <is>
-          <t>TotalReviews: 0</t>
+          <t>TotalReviews: 1</t>
         </is>
       </c>
       <c r="B1275" t="inlineStr"/>
@@ -19627,7 +19627,7 @@
     <row r="1276">
       <c r="A1276" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Historical Tours', 'Museums']</t>
+          <t>Category: ['Modern Attractions']</t>
         </is>
       </c>
       <c r="B1276" t="inlineStr"/>
@@ -19642,7 +19642,7 @@
     <row r="1277">
       <c r="A1277" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 163680P31</t>
+          <t>PRODUCTCODE: 248877P36</t>
         </is>
       </c>
       <c r="B1277" t="inlineStr"/>
@@ -19657,7 +19657,7 @@
     <row r="1278">
       <c r="A1278" t="inlineStr">
         <is>
-          <t>Summarized description: The Eiffel Tower was the main exhibit of the Paris Exposition — or World's Fair — of 1889. It was constructed to commemorate the centennial of the French Revolution and to demonstrate France's industrial prowess.</t>
+          <t>Summarized description: Take advantage of priority access to the 2nd floor of the Eiffel Tower with a expert English speaking guide. Enjoy the view of Paris from above and add access to go all the way to the summit.</t>
         </is>
       </c>
       <c r="B1278" t="inlineStr"/>
@@ -19672,7 +19672,7 @@
     <row r="1279">
       <c r="A1279" t="inlineStr">
         <is>
-          <t>Title: The Eiffel Tower Skip- the -Line- Ticket with access to Summit via lifts</t>
+          <t>Title: Eiffel Tower Guided Tour with Summit or Second Floor Priority Access</t>
         </is>
       </c>
       <c r="B1279" t="inlineStr"/>
@@ -19687,7 +19687,7 @@
     <row r="1280">
       <c r="A1280" t="inlineStr">
         <is>
-          <t>TotalReviews: 0</t>
+          <t>TotalReviews: 1</t>
         </is>
       </c>
       <c r="B1280" t="inlineStr"/>
@@ -19702,7 +19702,7 @@
     <row r="1281">
       <c r="A1281" t="inlineStr">
         <is>
-          <t>Category: ['Historical Tours', 'Cultural Tours']</t>
+          <t>Category: ['Scenic Tours', 'Modern Attractions']</t>
         </is>
       </c>
       <c r="B1281" t="inlineStr"/>
@@ -19717,7 +19717,7 @@
     <row r="1282">
       <c r="A1282" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 248877P42</t>
+          <t>PRODUCTCODE: 247780P10</t>
         </is>
       </c>
       <c r="B1282" t="inlineStr"/>
@@ -19732,7 +19732,7 @@
     <row r="1283">
       <c r="A1283" t="inlineStr">
         <is>
-          <t>Summarized description: The Eiffel Tower is a wrought iron lattice tower on the Champ de Mars in Paris, France. Enjoy direct access before admiring exceptional views of Paris. Take a thrilling trip to the summit or second level with a professional guide.</t>
+          <t>Summarized description: Enjoy hassle-free entry to one of the world’s busiest monuments. Cut out the long admission lines with a timed, priority-entry ticket. Admire sweeping aerial views of Les Invalides, Notre Dame Cathedral, and more.</t>
         </is>
       </c>
       <c r="B1283" t="inlineStr"/>
@@ -19747,7 +19747,7 @@
     <row r="1284">
       <c r="A1284" t="inlineStr">
         <is>
-          <t>Title: Eiffel Tower Summit or 2nd Floor Direct Access Guided Tour (Small Group)</t>
+          <t>Title: Eiffel Tower Skip the Line 2nd Level Access with Host in Paris</t>
         </is>
       </c>
       <c r="B1284" t="inlineStr"/>
@@ -19762,7 +19762,7 @@
     <row r="1285">
       <c r="A1285" t="inlineStr">
         <is>
-          <t>TotalReviews: 0</t>
+          <t>TotalReviews: 1</t>
         </is>
       </c>
       <c r="B1285" t="inlineStr"/>
@@ -19777,7 +19777,7 @@
     <row r="1286">
       <c r="A1286" t="inlineStr">
         <is>
-          <t>Category: ['Scenic Tours', 'Modern Attractions']</t>
+          <t>Category: ['Modern Attractions']</t>
         </is>
       </c>
       <c r="B1286" t="inlineStr"/>
@@ -19792,7 +19792,7 @@
     <row r="1287">
       <c r="A1287" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 248877P48</t>
+          <t>PRODUCTCODE: 116848P36</t>
         </is>
       </c>
       <c r="B1287" t="inlineStr"/>
@@ -19807,7 +19807,7 @@
     <row r="1288">
       <c r="A1288" t="inlineStr">
         <is>
-          <t>Summarized description:  skip-the-line tickets give you access to the 2nd level of the Eiffel Tower. Check out stunning Parisian neighborhoods such as the Champs Elysees, Notre Dame, Montmartre, Seine River.</t>
+          <t>Summarized description: The Eiffel Tower is one of the most popular tourist attractions in the world. Choose a priority-access ticket to the second floor to avoid long lines.</t>
         </is>
       </c>
       <c r="B1288" t="inlineStr"/>
@@ -19822,7 +19822,7 @@
     <row r="1289">
       <c r="A1289" t="inlineStr">
         <is>
-          <t xml:space="preserve">Title: Eiffel Tower Skip the Line: 2nd Floor or SUMMIT Access with Quick Lift </t>
+          <t>Title: Eiffel Tower Paris Second Floor Priority Access</t>
         </is>
       </c>
       <c r="B1289" t="inlineStr"/>
@@ -19837,7 +19837,7 @@
     <row r="1290">
       <c r="A1290" t="inlineStr">
         <is>
-          <t>TotalReviews: 0</t>
+          <t>TotalReviews: 1</t>
         </is>
       </c>
       <c r="B1290" t="inlineStr"/>
@@ -19852,7 +19852,7 @@
     <row r="1291">
       <c r="A1291" t="inlineStr">
         <is>
-          <t>Category: ['Scenic Tours', 'Modern Attractions']</t>
+          <t>Category: ['Modern Attractions']</t>
         </is>
       </c>
       <c r="B1291" t="inlineStr"/>
@@ -19867,7 +19867,7 @@
     <row r="1292">
       <c r="A1292" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 226727P85</t>
+          <t>PRODUCTCODE: 248877P27</t>
         </is>
       </c>
       <c r="B1292" t="inlineStr"/>
@@ -19882,7 +19882,7 @@
     <row r="1293">
       <c r="A1293" t="inlineStr">
         <is>
-          <t>Summarized description: The Eiffel Tower is one of the most famous landmarks in the world. It was built in 1889 by French engineer Gustave Eiffler. The tower is now a tourist attraction.</t>
+          <t>Summarized description: Visit the Eiffel Tower with a priority-access ticket. Enjoy access to the 1st and 2nd floors and the Summit by elevator. Marvel at spectacular views of Paris.</t>
         </is>
       </c>
       <c r="B1293" t="inlineStr"/>
@@ -19897,7 +19897,7 @@
     <row r="1294">
       <c r="A1294" t="inlineStr">
         <is>
-          <t xml:space="preserve">Title: Tickets for Eiffel Tower - 2nd Floor: Priority Entrance + Audio Tour </t>
+          <t>Title: Paris Essentials : Eiffel Tower Skip the Line with Summit Access</t>
         </is>
       </c>
       <c r="B1294" t="inlineStr"/>
@@ -19912,7 +19912,7 @@
     <row r="1295">
       <c r="A1295" t="inlineStr">
         <is>
-          <t>TotalReviews: 0</t>
+          <t>TotalReviews: 1</t>
         </is>
       </c>
       <c r="B1295" t="inlineStr"/>
@@ -19927,7 +19927,7 @@
     <row r="1296">
       <c r="A1296" t="inlineStr">
         <is>
-          <t>Category: ['Historical Tours', 'City Tours']</t>
+          <t>Category: ['Scenic Tours', 'Modern Attractions']</t>
         </is>
       </c>
       <c r="B1296" t="inlineStr"/>
@@ -19942,7 +19942,7 @@
     <row r="1297">
       <c r="A1297" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 73434P120</t>
+          <t>PRODUCTCODE: 381347P3</t>
         </is>
       </c>
       <c r="B1297" t="inlineStr"/>
@@ -19957,7 +19957,7 @@
     <row r="1298">
       <c r="A1298" t="inlineStr">
         <is>
-          <t>Summarized description: Get sensational views from the 2nd floor of the Iron Lady and walk on the glass floor. Embark on a 2-hour private guided tour with a Timed Entrance Ticket.</t>
+          <t>Summarized description: Direct Summit Access to one of the most famous monuments in the world. knowledgeable guides will entertain you with facts about the Eiffel tower. Breathtaking panoramic views from the top floor.</t>
         </is>
       </c>
       <c r="B1298" t="inlineStr"/>
@@ -19972,7 +19972,7 @@
     <row r="1299">
       <c r="A1299" t="inlineStr">
         <is>
-          <t>Title: Private Eiffel Tower 2nd level Tour with Summit Access in Paris</t>
+          <t>Title: Eiffel Tower Summit Direct Access</t>
         </is>
       </c>
       <c r="B1299" t="inlineStr"/>
@@ -19987,7 +19987,7 @@
     <row r="1300">
       <c r="A1300" t="inlineStr">
         <is>
-          <t>TotalReviews: 0</t>
+          <t>TotalReviews: 1</t>
         </is>
       </c>
       <c r="B1300" t="inlineStr"/>
@@ -20002,7 +20002,7 @@
     <row r="1301">
       <c r="A1301" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Modern Attractions']</t>
+          <t>Category: ['Scenic Tours', 'Modern Attractions']</t>
         </is>
       </c>
       <c r="B1301" t="inlineStr"/>
@@ -20017,7 +20017,7 @@
     <row r="1302">
       <c r="A1302" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 170990P27</t>
+          <t>PRODUCTCODE: 158620P26</t>
         </is>
       </c>
       <c r="B1302" t="inlineStr"/>
@@ -20032,7 +20032,7 @@
     <row r="1303">
       <c r="A1303" t="inlineStr">
         <is>
-          <t>Summarized description: Enjoy hassle-free entry to one of the world’s busiest monuments. Cut out the long admission lines with a timed, priority-entry ticket. Explore the Eiffel Tower's first and second levels at your own pace.</t>
+          <t>Summarized description: Enjoy priority access to one of the world's most iconic landmarks, the Eiffel Tower. Learn about its history and experience breathtaking views over Paris.</t>
         </is>
       </c>
       <c r="B1303" t="inlineStr"/>
@@ -20047,7 +20047,7 @@
     <row r="1304">
       <c r="A1304" t="inlineStr">
         <is>
-          <t>Title: Eiffel Tower Tour and Summit Priority Access</t>
+          <t>Title: Eiffel Tower Tickets including the Summit</t>
         </is>
       </c>
       <c r="B1304" t="inlineStr"/>
@@ -20062,7 +20062,7 @@
     <row r="1305">
       <c r="A1305" t="inlineStr">
         <is>
-          <t>TotalReviews: 0</t>
+          <t>TotalReviews: 1</t>
         </is>
       </c>
       <c r="B1305" t="inlineStr"/>
@@ -20077,7 +20077,7 @@
     <row r="1306">
       <c r="A1306" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Modern Attractions']</t>
+          <t>Category: ['Modern Attractions', 'City Tours']</t>
         </is>
       </c>
       <c r="B1306" t="inlineStr"/>
@@ -20092,7 +20092,7 @@
     <row r="1307">
       <c r="A1307" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 248877P47</t>
+          <t>PRODUCTCODE: 7832P142</t>
         </is>
       </c>
       <c r="B1307" t="inlineStr"/>
@@ -20107,7 +20107,7 @@
     <row r="1308">
       <c r="A1308" t="inlineStr">
         <is>
-          <t>Summarized description: The Eiffel Tower is one of the most visited tourist attractions in the world. It is located on the banks of the River Seine in Paris, France.</t>
+          <t>Summarized description: Avoid waiting for long lines and benefit of a priority access with your skip the ticket line tickets to the top of the Eiffel Tower. Enjoy a captivating musical selection played by resident DJs at Buddha-Bar.</t>
         </is>
       </c>
       <c r="B1308" t="inlineStr"/>
@@ -20122,7 +20122,7 @@
     <row r="1309">
       <c r="A1309" t="inlineStr">
         <is>
-          <t>Title: Paris Eiffel Tower Experience (Access to 2nd Floor)</t>
+          <t>Title: Eiffel Tower Summit Priority Access &amp; Champagne at Buddha-Bar</t>
         </is>
       </c>
       <c r="B1309" t="inlineStr"/>
@@ -20137,7 +20137,7 @@
     <row r="1310">
       <c r="A1310" t="inlineStr">
         <is>
-          <t>TotalReviews: 0</t>
+          <t>TotalReviews: 1</t>
         </is>
       </c>
       <c r="B1310" t="inlineStr"/>
@@ -20152,7 +20152,7 @@
     <row r="1311">
       <c r="A1311" t="inlineStr">
         <is>
-          <t>Category: ['Scenic Tours', 'Modern Attractions']</t>
+          <t>Category: ['Entertainment', 'Modern Attractions']</t>
         </is>
       </c>
       <c r="B1311" t="inlineStr"/>
@@ -20167,7 +20167,7 @@
     <row r="1312">
       <c r="A1312" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 427087P2</t>
+          <t>PRODUCTCODE: 210555P12</t>
         </is>
       </c>
       <c r="B1312" t="inlineStr"/>
@@ -20182,7 +20182,7 @@
     <row r="1313">
       <c r="A1313" t="inlineStr">
         <is>
-          <t>Summarized description: Discover the Eiffel Tower at your own pace. You will get a more personalized and relaxed experience focused on your wishes. It will be a great and unique opportunity to share this memorable visit with your family or closest friends and nobody else.</t>
+          <t>Summarized description: Get your E-tickets by sitting at your home and skip the line like a VIP once you reach at Eiffel Tower. Take direct entry to second floor via lift.</t>
         </is>
       </c>
       <c r="B1313" t="inlineStr"/>
@@ -20197,7 +20197,7 @@
     <row r="1314">
       <c r="A1314" t="inlineStr">
         <is>
-          <t>Title: Private Tour at the Eiffel Tower with Second Floor Access</t>
+          <t>Title: Eiffel Tower Tickets----Skip The Line VIP access to Second Floor</t>
         </is>
       </c>
       <c r="B1314" t="inlineStr"/>
@@ -20212,7 +20212,7 @@
     <row r="1315">
       <c r="A1315" t="inlineStr">
         <is>
-          <t>TotalReviews: 0</t>
+          <t>TotalReviews: 1</t>
         </is>
       </c>
       <c r="B1315" t="inlineStr"/>
@@ -20227,7 +20227,7 @@
     <row r="1316">
       <c r="A1316" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Historical Tours']</t>
+          <t>Category: ['Transportation &amp; Travel Services', 'Modern Attractions']</t>
         </is>
       </c>
       <c r="B1316" t="inlineStr"/>
@@ -20242,7 +20242,7 @@
     <row r="1317">
       <c r="A1317" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 183842P3</t>
+          <t>PRODUCTCODE: 384451P2</t>
         </is>
       </c>
       <c r="B1317" t="inlineStr"/>
@@ -20257,7 +20257,7 @@
     <row r="1318">
       <c r="A1318" t="inlineStr">
         <is>
-          <t>Summarized description: A unique experience, taking the elevator to the second floor and then the summit. Guided admission ticket to the Eiffel Tower. Enjoying panoramic view from both the summit and the first floor.</t>
+          <t>Summarized description: Soar at 115 m high for a 360 stunning view of the City of Light and all of its gorgeous landscapes. Expert team will provide you with every bit of information and facts about the famous Iron Lady.</t>
         </is>
       </c>
       <c r="B1318" t="inlineStr"/>
@@ -20272,7 +20272,7 @@
     <row r="1319">
       <c r="A1319" t="inlineStr">
         <is>
-          <t xml:space="preserve">Title: Guided Tour Eiffel Tower elevator with Host </t>
+          <t>Title: Eiffel Tower Second Floor Priority Access</t>
         </is>
       </c>
       <c r="B1319" t="inlineStr"/>
@@ -20287,7 +20287,7 @@
     <row r="1320">
       <c r="A1320" t="inlineStr">
         <is>
-          <t>TotalReviews: 0</t>
+          <t>TotalReviews: 1</t>
         </is>
       </c>
       <c r="B1320" t="inlineStr"/>
@@ -20302,7 +20302,7 @@
     <row r="1321">
       <c r="A1321" t="inlineStr">
         <is>
-          <t>Category: ['Scenic Tours', 'Modern Attractions']</t>
+          <t>Category: ['Scenic Tours', 'City Tours']</t>
         </is>
       </c>
       <c r="B1321" t="inlineStr"/>
@@ -20317,7 +20317,7 @@
     <row r="1322">
       <c r="A1322" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 320547P861</t>
+          <t>PRODUCTCODE: 6839P104</t>
         </is>
       </c>
       <c r="B1322" t="inlineStr"/>
@@ -20332,7 +20332,7 @@
     <row r="1323">
       <c r="A1323" t="inlineStr">
         <is>
-          <t>Summarized description: The Eiffel Tower has one of the best panoramic views in Paris. View the Louvre, Les Invalides, Sacré Coeur, and the Champ de Mars.</t>
+          <t>Summarized description: Take the elevators to the 2nd floor or the summit and enjoy the panoramic views of the city. Experience the Eiffel Tower with priority access.</t>
         </is>
       </c>
       <c r="B1323" t="inlineStr"/>
@@ -20347,7 +20347,7 @@
     <row r="1324">
       <c r="A1324" t="inlineStr">
         <is>
-          <t>Title: Eiffel Tower Summit Eiffel tower Skip The Line with Host</t>
+          <t>Title: Paris: Eiffel Tower Experience</t>
         </is>
       </c>
       <c r="B1324" t="inlineStr"/>
@@ -20362,7 +20362,7 @@
     <row r="1325">
       <c r="A1325" t="inlineStr">
         <is>
-          <t>TotalReviews: 0</t>
+          <t>TotalReviews: 1</t>
         </is>
       </c>
       <c r="B1325" t="inlineStr"/>
@@ -20392,7 +20392,7 @@
     <row r="1327">
       <c r="A1327" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 42097P32</t>
+          <t>PRODUCTCODE: 157275P54</t>
         </is>
       </c>
       <c r="B1327" t="inlineStr"/>
@@ -20407,7 +20407,7 @@
     <row r="1328">
       <c r="A1328" t="inlineStr">
         <is>
-          <t>Summarized description: Choose a priority access ticket to second level of the Eiffel Tower. Take in breathtaking, panoramic views of Paris from the top of the tower.</t>
+          <t>Summarized description: Paris Eiffel Tower Ticket Direct Entry with Summit Floor 5-hour tour. With Audio Guide, you’ll gain priority access to tower’s second level. Toast your travels with a glass of bubbly from the Champagne bar.</t>
         </is>
       </c>
       <c r="B1328" t="inlineStr"/>
@@ -20422,7 +20422,7 @@
     <row r="1329">
       <c r="A1329" t="inlineStr">
         <is>
-          <t>Title: Paris Eiffel Tower - Second Floor Priority Access</t>
+          <t>Title: Paris Eiffel Tower Ticket Direct Entry with Summit Floor</t>
         </is>
       </c>
       <c r="B1329" t="inlineStr"/>
@@ -20437,7 +20437,7 @@
     <row r="1330">
       <c r="A1330" t="inlineStr">
         <is>
-          <t>TotalReviews: 0</t>
+          <t>TotalReviews: 1</t>
         </is>
       </c>
       <c r="B1330" t="inlineStr"/>
@@ -20452,7 +20452,7 @@
     <row r="1331">
       <c r="A1331" t="inlineStr">
         <is>
-          <t>Category: ['Modern Attractions']</t>
+          <t>Category: ['Culinary Tours', 'Modern Attractions']</t>
         </is>
       </c>
       <c r="B1331" t="inlineStr"/>
@@ -20467,7 +20467,7 @@
     <row r="1332">
       <c r="A1332" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 199710P1</t>
+          <t>PRODUCTCODE: 157275P27</t>
         </is>
       </c>
       <c r="B1332" t="inlineStr"/>
@@ -20482,7 +20482,7 @@
     <row r="1333">
       <c r="A1333" t="inlineStr">
         <is>
-          <t>Summarized description: Visit the Eiffel Tower with a priority access ticket. Enjoy access to the 1st and 2nd floors and the Top. Marvel at spectacular views of Paris.</t>
+          <t>Summarized description: Paris Eiffel Tower Ticket Direct Entry with Summit Floor 5-hour tour. With Audio Guide, you’ll gain priority access to tower’s second level. Toast your travels with a glass of bubbly from the Champagne bar.</t>
         </is>
       </c>
       <c r="B1333" t="inlineStr"/>
@@ -20497,7 +20497,7 @@
     <row r="1334">
       <c r="A1334" t="inlineStr">
         <is>
-          <t>Title: Eiffel Tower Skip the Ticket Line with Summit Access</t>
+          <t xml:space="preserve">Title:  Paris Eiffel Tower Ticket Direct Entry with Summit Floor </t>
         </is>
       </c>
       <c r="B1334" t="inlineStr"/>
@@ -20512,7 +20512,7 @@
     <row r="1335">
       <c r="A1335" t="inlineStr">
         <is>
-          <t>TotalReviews: 0</t>
+          <t>TotalReviews: 1</t>
         </is>
       </c>
       <c r="B1335" t="inlineStr"/>
@@ -20527,7 +20527,7 @@
     <row r="1336">
       <c r="A1336" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Modern Attractions']</t>
+          <t>Category: ['Culinary Tours', 'Modern Attractions']</t>
         </is>
       </c>
       <c r="B1336" t="inlineStr"/>
@@ -20542,7 +20542,7 @@
     <row r="1337">
       <c r="A1337" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 423194P1</t>
+          <t>PRODUCTCODE: 158620P3</t>
         </is>
       </c>
       <c r="B1337" t="inlineStr"/>
@@ -20557,7 +20557,7 @@
     <row r="1338">
       <c r="A1338" t="inlineStr">
         <is>
-          <t>Summarized description: Visit the Eiffel Tower with this entry ticket and marvel at spectacular views of Paris. Enjoy access to the 1st and 2nd floors by elevator. Hear the history and legends behind the Paris icon.</t>
+          <t>Summarized description: Get sensational views from the 2nd floor of the Iron Lady and walk on the glass floor. Embark on a 2-hour tour with a Timed Entrance Ticket &amp; a professional experienced guide.</t>
         </is>
       </c>
       <c r="B1338" t="inlineStr"/>
@@ -20572,7 +20572,7 @@
     <row r="1339">
       <c r="A1339" t="inlineStr">
         <is>
-          <t>Title: Eiffel Tower Elevator Guided Tour with Summit Access</t>
+          <t>Title:  Paris: Eiffel Tower 2nd Level Tour with Summit Access</t>
         </is>
       </c>
       <c r="B1339" t="inlineStr"/>
@@ -20587,7 +20587,7 @@
     <row r="1340">
       <c r="A1340" t="inlineStr">
         <is>
-          <t>TotalReviews: 0</t>
+          <t>TotalReviews: 1</t>
         </is>
       </c>
       <c r="B1340" t="inlineStr"/>
@@ -20602,7 +20602,7 @@
     <row r="1341">
       <c r="A1341" t="inlineStr">
         <is>
-          <t>Category: ['Modern Attractions']</t>
+          <t>Category: ['Modern Attractions', 'City Tours']</t>
         </is>
       </c>
       <c r="B1341" t="inlineStr"/>
@@ -20617,7 +20617,7 @@
     <row r="1342">
       <c r="A1342" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 112782P31</t>
+          <t>PRODUCTCODE: 243313P23</t>
         </is>
       </c>
       <c r="B1342" t="inlineStr"/>
@@ -20632,7 +20632,7 @@
     <row r="1343">
       <c r="A1343" t="inlineStr">
         <is>
-          <t>Summarized description: The Eiffel Tower is known to be the symbol of the city of Paris. You will get to know all about the building itself and about the civil engineer who created it. The view over the city will take your breath away.</t>
+          <t>Summarized description:  skip-the-line tickets give you access to the 2nd level of the Eiffel Tower. Check out stunning Parisian landmarks such as the Champs Elysees, Notre Dame, Montmartre, Seine River, and so on.</t>
         </is>
       </c>
       <c r="B1343" t="inlineStr"/>
@@ -20647,7 +20647,7 @@
     <row r="1344">
       <c r="A1344" t="inlineStr">
         <is>
-          <t>Title: Paris: Eiffel Tower Guided Tour with Summit Access</t>
+          <t xml:space="preserve">Title: Eiffel Tower Skip the Line Experience : 2nd Floor or SUMMIT with Lift Access </t>
         </is>
       </c>
       <c r="B1344" t="inlineStr"/>
@@ -20662,7 +20662,7 @@
     <row r="1345">
       <c r="A1345" t="inlineStr">
         <is>
-          <t>TotalReviews: 0</t>
+          <t>TotalReviews: 1</t>
         </is>
       </c>
       <c r="B1345" t="inlineStr"/>
@@ -20677,7 +20677,7 @@
     <row r="1346">
       <c r="A1346" t="inlineStr">
         <is>
-          <t>Category: ['Scenic Tours', 'Modern Attractions']</t>
+          <t>Category: ['Scenic Tours', 'City Tours']</t>
         </is>
       </c>
       <c r="B1346" t="inlineStr"/>
@@ -20692,7 +20692,7 @@
     <row r="1347">
       <c r="A1347" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 248877P54</t>
+          <t>PRODUCTCODE: 183842P1</t>
         </is>
       </c>
       <c r="B1347" t="inlineStr"/>
@@ -20707,7 +20707,7 @@
     <row r="1348">
       <c r="A1348" t="inlineStr">
         <is>
-          <t>Summarized description: The Eiffel Tower is one of the most famous landmarks in the world. It is located in the centre of the French capital, Paris. The tower was built in the early 1900s and is now a tourist attraction.</t>
+          <t>Summarized description: A unique experience, weather it is climbing the 704 steps of the Eiffel Tower or taking the elevator to the second floor and then the summit. Enjoying panoramic view from both the summit and the first floor.</t>
         </is>
       </c>
       <c r="B1348" t="inlineStr"/>
@@ -20722,7 +20722,7 @@
     <row r="1349">
       <c r="A1349" t="inlineStr">
         <is>
-          <t>Title: Eiffel Tower - Paris Icon Tour : Direct Access to the Second Floor Guided Tour</t>
+          <t xml:space="preserve">Title: Eiffel Tower Climb and Elevator ! Guided Tour with professional guide. </t>
         </is>
       </c>
       <c r="B1349" t="inlineStr"/>
@@ -20767,7 +20767,7 @@
     <row r="1352">
       <c r="A1352" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 396871P30</t>
+          <t>PRODUCTCODE: 163680P31</t>
         </is>
       </c>
       <c r="B1352" t="inlineStr"/>
@@ -20782,7 +20782,7 @@
     <row r="1353">
       <c r="A1353" t="inlineStr">
         <is>
-          <t>Summarized description: Gain immediate access to the Eiffel Tower's Top Summit. Ascend to the highest viewing platform for breathtaking, panoramic views of Paris. Enjoy a comprehensive audio guide available in English.</t>
+          <t>Summarized description: The Eiffel Tower was the main exhibit of the Paris Exposition — or World's Fair — of 1889. It was constructed to commemorate the centennial of the French Revolution and to demonstrate France's industrial prowess.</t>
         </is>
       </c>
       <c r="B1353" t="inlineStr"/>
@@ -20797,7 +20797,7 @@
     <row r="1354">
       <c r="A1354" t="inlineStr">
         <is>
-          <t>Title: Summit Eiffel Tower Top Floor Skip the line with Audio Guide Tour</t>
+          <t>Title: The Eiffel Tower Skip- the -Line- Ticket with access to Summit via lifts</t>
         </is>
       </c>
       <c r="B1354" t="inlineStr"/>
@@ -20827,7 +20827,7 @@
     <row r="1356">
       <c r="A1356" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Modern Attractions']</t>
+          <t>Category: ['Historical Tours', 'Cultural Tours']</t>
         </is>
       </c>
       <c r="B1356" t="inlineStr"/>
@@ -20842,7 +20842,7 @@
     <row r="1357">
       <c r="A1357" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 182119P6</t>
+          <t>PRODUCTCODE: 248877P42</t>
         </is>
       </c>
       <c r="B1357" t="inlineStr"/>
@@ -20857,7 +20857,7 @@
     <row r="1358">
       <c r="A1358" t="inlineStr">
         <is>
-          <t>Summarized description:  Skip the lines at the Eiffel Tower and enter without the wait. Admire the city of Paris from its highest point. Spend as much time as you like exploring the tower.</t>
+          <t>Summarized description: The Eiffel Tower is a wrought iron lattice tower on the Champ de Mars in Paris, France. Enjoy direct access before admiring exceptional views of Paris. Take a thrilling trip to the summit or second level with a professional guide.</t>
         </is>
       </c>
       <c r="B1358" t="inlineStr"/>
@@ -20872,7 +20872,7 @@
     <row r="1359">
       <c r="A1359" t="inlineStr">
         <is>
-          <t xml:space="preserve">Title: Eiffel Tower: Skip-the-Line Ticket with Summit Access </t>
+          <t>Title: Eiffel Tower Summit or 2nd Floor Direct Access Guided Tour (Small Group)</t>
         </is>
       </c>
       <c r="B1359" t="inlineStr"/>
@@ -20902,7 +20902,7 @@
     <row r="1361">
       <c r="A1361" t="inlineStr">
         <is>
-          <t>Category: ['Modern Attractions']</t>
+          <t>Category: ['Scenic Tours', 'Modern Attractions']</t>
         </is>
       </c>
       <c r="B1361" t="inlineStr"/>
@@ -20917,7 +20917,7 @@
     <row r="1362">
       <c r="A1362" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 451031P1</t>
+          <t>PRODUCTCODE: 9386P48</t>
         </is>
       </c>
       <c r="B1362" t="inlineStr"/>
@@ -20932,7 +20932,7 @@
     <row r="1363">
       <c r="A1363" t="inlineStr">
         <is>
-          <t>Summarized description:  Conquer the top of Eiffel Tower by elevator and enjoy the view like you've never seen it before. From the Sacré-Coeur to the Grand Palais showcases the beauty of Paris.</t>
+          <t>Summarized description: With our ticket to the Eiffel Tower with priority access, we will avoid the famous lines and go up by elevator to the second floor. There we will live one of the most beautiful moments of the walk, enjoying the most spectacular views of Paris.</t>
         </is>
       </c>
       <c r="B1363" t="inlineStr"/>
@@ -20947,7 +20947,7 @@
     <row r="1364">
       <c r="A1364" t="inlineStr">
         <is>
-          <t>Title: Paris Eiffel Tower Entry Ticket Summit Access</t>
+          <t>Title: Eiffel Tower Tour</t>
         </is>
       </c>
       <c r="B1364" t="inlineStr"/>
@@ -20977,7 +20977,7 @@
     <row r="1366">
       <c r="A1366" t="inlineStr">
         <is>
-          <t>Category: ['Museums', 'Modern Attractions']</t>
+          <t>Category: ['Modern Attractions', 'City Tours']</t>
         </is>
       </c>
       <c r="B1366" t="inlineStr"/>
@@ -20992,7 +20992,7 @@
     <row r="1367">
       <c r="A1367" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 125051P3</t>
+          <t>PRODUCTCODE: 320547P623</t>
         </is>
       </c>
       <c r="B1367" t="inlineStr"/>
@@ -21007,7 +21007,7 @@
     <row r="1368">
       <c r="A1368" t="inlineStr">
         <is>
-          <t>Summarized description: Take an insider's tour of the summit with a guide. Get unparalleled views of Parisian landmarks like Montmartre, the Louvre Museum and more. Get the lowdown on how and why the tower was built.</t>
+          <t>Summarized description: Paris is beautiful but it's challenging to visit Paris in a short period. Many people don't get time to visit Eiffel Tower in Paris which is a pity. We take you up to the 3rd floor of Eiffle Tower.</t>
         </is>
       </c>
       <c r="B1368" t="inlineStr"/>
@@ -21022,7 +21022,7 @@
     <row r="1369">
       <c r="A1369" t="inlineStr">
         <is>
-          <t>Title: Tickets for Eiffel Tower - Summit: Guided Visit</t>
+          <t>Title: Private Eiffel Summit and Cruise Tour</t>
         </is>
       </c>
       <c r="B1369" t="inlineStr"/>
@@ -21052,7 +21052,7 @@
     <row r="1371">
       <c r="A1371" t="inlineStr">
         <is>
-          <t>Category: ['Scenic Tours', 'Historical Tours', 'Cultural Tours']</t>
+          <t>Category: ['Modern Attractions']</t>
         </is>
       </c>
       <c r="B1371" t="inlineStr"/>
@@ -21067,7 +21067,7 @@
     <row r="1372">
       <c r="A1372" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 248877P31</t>
+          <t>PRODUCTCODE: 248877P48</t>
         </is>
       </c>
       <c r="B1372" t="inlineStr"/>
@@ -21082,7 +21082,7 @@
     <row r="1373">
       <c r="A1373" t="inlineStr">
         <is>
-          <t>Summarized description: Visit the Eiffel Tower with a priority-access ticket. Enjoy access to the 1st and 2nd floors and the Summit by elevator. Marvel at spectacular views of Paris.</t>
+          <t>Summarized description:  skip-the-line tickets give you access to the 2nd level of the Eiffel Tower. Check out stunning Parisian neighborhoods such as the Champs Elysees, Notre Dame, Montmartre, Seine River.</t>
         </is>
       </c>
       <c r="B1373" t="inlineStr"/>
@@ -21097,7 +21097,7 @@
     <row r="1374">
       <c r="A1374" t="inlineStr">
         <is>
-          <t>Title: Paris Essentials : Eiffel Tower Skip the Line with Summit Access</t>
+          <t xml:space="preserve">Title: Eiffel Tower Skip the Line: 2nd Floor or SUMMIT Access with Quick Lift </t>
         </is>
       </c>
       <c r="B1374" t="inlineStr"/>
@@ -21142,7 +21142,7 @@
     <row r="1377">
       <c r="A1377" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 197814P1</t>
+          <t>PRODUCTCODE: 320547P626</t>
         </is>
       </c>
       <c r="B1377" t="inlineStr"/>
@@ -21157,7 +21157,7 @@
     <row r="1378">
       <c r="A1378" t="inlineStr">
         <is>
-          <t>Summarized description: Learn history of Gustave Eiffel and the tower's construction. See Paris from 300 meters high for a tour from the sky. Toast your arrival at the top at the famous champagne bar.</t>
+          <t>Summarized description: Paris is beautiful &amp; everyone is tempted to visit the Eiffel Tower. We will pick you up from anywhere in Paris with a private vehicle &amp; take you up to the 3rd floor of the tower. You need to arrange your own transportation for returning to the hotel after the visit.</t>
         </is>
       </c>
       <c r="B1378" t="inlineStr"/>
@@ -21172,7 +21172,7 @@
     <row r="1379">
       <c r="A1379" t="inlineStr">
         <is>
-          <t>Title: Eiffel Tower Tour with Summit Option</t>
+          <t>Title: Eiffel Summit and Crepe Tasting with Pickup Included</t>
         </is>
       </c>
       <c r="B1379" t="inlineStr"/>
@@ -21202,7 +21202,7 @@
     <row r="1381">
       <c r="A1381" t="inlineStr">
         <is>
-          <t>Category: ['Cultural Tours', 'Modern Attractions']</t>
+          <t>Category: ['Modern Attractions']</t>
         </is>
       </c>
       <c r="B1381" t="inlineStr"/>
@@ -21217,7 +21217,7 @@
     <row r="1382">
       <c r="A1382" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 7832P167</t>
+          <t>PRODUCTCODE: 419625P6</t>
         </is>
       </c>
       <c r="B1382" t="inlineStr"/>
@@ -21232,7 +21232,7 @@
     <row r="1383">
       <c r="A1383" t="inlineStr">
         <is>
-          <t>Summarized description: The Eiffel Tower is the highest place in Paris and the view from there is breathtaking. Avoid any hassle to purchase the summit acces pass with this prepaid ticket. Get the entrance for the Elevators without waiting in ticket line to buy.</t>
+          <t>Summarized description: Our guide will pick you up from your hotel before guiding you to the entrance. As you pass through security, our knowledgeable host will accompany you, addressing any questions.</t>
         </is>
       </c>
       <c r="B1383" t="inlineStr"/>
@@ -21247,7 +21247,7 @@
     <row r="1384">
       <c r="A1384" t="inlineStr">
         <is>
-          <t>Title: Eiffel Tower Skip-the-Ticket-line Summit Entrance - Group option</t>
+          <t>Title: Eiffel Tower Summit (ALL FLOORS) By LIFT With Private Pick-Up</t>
         </is>
       </c>
       <c r="B1384" t="inlineStr"/>
@@ -21277,7 +21277,7 @@
     <row r="1386">
       <c r="A1386" t="inlineStr">
         <is>
-          <t>Category: ['Modern Attractions']</t>
+          <t>Category: ['Historical Tours']</t>
         </is>
       </c>
       <c r="B1386" t="inlineStr"/>
@@ -21292,7 +21292,7 @@
     <row r="1387">
       <c r="A1387" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 330121P5</t>
+          <t>PRODUCTCODE: 73434P120</t>
         </is>
       </c>
       <c r="B1387" t="inlineStr"/>
@@ -21307,7 +21307,7 @@
     <row r="1388">
       <c r="A1388" t="inlineStr">
         <is>
-          <t>Summarized description: Eiffel is a symbol of love for many couples from all over the world. Thousands of marriage proposal made under the beautiful tower every year. Take advantage of direct access to the Champs de Mars.</t>
+          <t>Summarized description: Get sensational views from the 2nd floor of the Iron Lady and walk on the glass floor. Embark on a 2-hour private guided tour with a Timed Entrance Ticket.</t>
         </is>
       </c>
       <c r="B1388" t="inlineStr"/>
@@ -21322,7 +21322,7 @@
     <row r="1389">
       <c r="A1389" t="inlineStr">
         <is>
-          <t xml:space="preserve">Title: Eiffel Tower Complete Guided Tour:Exclusive Direct Access 2nd Level and Summit </t>
+          <t>Title: Private Eiffel Tower 2nd level Tour with Summit Access in Paris</t>
         </is>
       </c>
       <c r="B1389" t="inlineStr"/>
@@ -21352,7 +21352,7 @@
     <row r="1391">
       <c r="A1391" t="inlineStr">
         <is>
-          <t>Category: ['City Tours']</t>
+          <t>Category: ['Modern Attractions', 'City Tours']</t>
         </is>
       </c>
       <c r="B1391" t="inlineStr"/>
@@ -21367,7 +21367,7 @@
     <row r="1392">
       <c r="A1392" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 445693P14</t>
+          <t>PRODUCTCODE: 9205P14</t>
         </is>
       </c>
       <c r="B1392" t="inlineStr"/>
@@ -21382,7 +21382,7 @@
     <row r="1393">
       <c r="A1393" t="inlineStr">
         <is>
-          <t>Summarized description: Take a tour of the famous Eiffel Tower and admire the city from above. Enjoy a 2-hour guided tour in English of the tower to learn all about the origins and secrets of the construction.</t>
+          <t>Summarized description: Discover Paris' most famous landmark with a local and passionate guide. Ticket includes skip-the-line access to the second level of the Eiffel Tower.</t>
         </is>
       </c>
       <c r="B1393" t="inlineStr"/>
@@ -21397,7 +21397,7 @@
     <row r="1394">
       <c r="A1394" t="inlineStr">
         <is>
-          <t>Title: 2 hours Guided Tour of the Eiffel Tower with Summit Access</t>
+          <t>Title: Skip the Line: Eiffel Tower Tour and Summit Access by elevator-Group Option</t>
         </is>
       </c>
       <c r="B1394" t="inlineStr"/>
@@ -21427,7 +21427,7 @@
     <row r="1396">
       <c r="A1396" t="inlineStr">
         <is>
-          <t>Category: ['Modern Attractions']</t>
+          <t>Category: ['Historical Tours', 'Modern Attractions']</t>
         </is>
       </c>
       <c r="B1396" t="inlineStr"/>
@@ -21442,7 +21442,7 @@
     <row r="1397">
       <c r="A1397" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 5717P11</t>
+          <t>PRODUCTCODE: 170990P27</t>
         </is>
       </c>
       <c r="B1397" t="inlineStr"/>
@@ -21457,7 +21457,7 @@
     <row r="1398">
       <c r="A1398" t="inlineStr">
         <is>
-          <t>Summarized description: Discover a new side of the Eiffel Tower and her secrets. Enjoy a 90-minute guided tour to discover a newside of the tower and its secrets.</t>
+          <t>Summarized description: Enjoy hassle-free entry to one of the world’s busiest monuments. Cut out the long admission lines with a timed, priority-entry ticket. Explore the Eiffel Tower's first and second levels at your own pace.</t>
         </is>
       </c>
       <c r="B1398" t="inlineStr"/>
@@ -21472,7 +21472,7 @@
     <row r="1399">
       <c r="A1399" t="inlineStr">
         <is>
-          <t>Title: Eiffel Tower Skip the Line Guided Tour to the 2nd floor</t>
+          <t>Title: Eiffel Tower Tour and Summit Priority Access</t>
         </is>
       </c>
       <c r="B1399" t="inlineStr"/>
@@ -21502,7 +21502,7 @@
     <row r="1401">
       <c r="A1401" t="inlineStr">
         <is>
-          <t>Category: ['Historical Tours', 'Modern Attractions']</t>
+          <t>Category: ['Modern Attractions', 'City Tours']</t>
         </is>
       </c>
       <c r="B1401" t="inlineStr"/>
@@ -21517,7 +21517,7 @@
     <row r="1402">
       <c r="A1402" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 226089P1</t>
+          <t>PRODUCTCODE: 183842P3</t>
         </is>
       </c>
       <c r="B1402" t="inlineStr"/>
@@ -21532,7 +21532,7 @@
     <row r="1403">
       <c r="A1403" t="inlineStr">
         <is>
-          <t>Summarized description: Explore the stunning views of Gustave Eiffel's most famous creation from top to bottom. Our skip the lines access will send you to the 2nd-floor observation deck right away.</t>
+          <t>Summarized description: A unique experience, taking the elevator to the second floor and then the summit. Guided admission ticket to the Eiffel Tower. Enjoying panoramic view from both the summit and the first floor.</t>
         </is>
       </c>
       <c r="B1403" t="inlineStr"/>
@@ -21547,7 +21547,7 @@
     <row r="1404">
       <c r="A1404" t="inlineStr">
         <is>
-          <t>Title: Skip-the-line access: Guided Eiffel Tower Tour with Optional Summit Access</t>
+          <t xml:space="preserve">Title: Guided Tour Eiffel Tower elevator with Host </t>
         </is>
       </c>
       <c r="B1404" t="inlineStr"/>
@@ -21592,7 +21592,7 @@
     <row r="1407">
       <c r="A1407" t="inlineStr">
         <is>
-          <t>*****</t>
+          <t>PRODUCTCODE: 320547P861</t>
         </is>
       </c>
       <c r="B1407" t="inlineStr"/>
@@ -21604,6 +21604,1206 @@
       <c r="H1407" t="inlineStr"/>
       <c r="I1407" t="inlineStr"/>
     </row>
+    <row r="1408">
+      <c r="A1408" t="inlineStr">
+        <is>
+          <t>Summarized description: The Eiffel Tower has one of the best panoramic views in Paris. View the Louvre, Les Invalides, Sacré Coeur, and the Champ de Mars.</t>
+        </is>
+      </c>
+      <c r="B1408" t="inlineStr"/>
+      <c r="C1408" t="inlineStr"/>
+      <c r="D1408" t="inlineStr"/>
+      <c r="E1408" t="inlineStr"/>
+      <c r="F1408" t="inlineStr"/>
+      <c r="G1408" t="inlineStr"/>
+      <c r="H1408" t="inlineStr"/>
+      <c r="I1408" t="inlineStr"/>
+    </row>
+    <row r="1409">
+      <c r="A1409" t="inlineStr">
+        <is>
+          <t>Title: Eiffel Tower Summit Eiffel tower Skip The Line with Host</t>
+        </is>
+      </c>
+      <c r="B1409" t="inlineStr"/>
+      <c r="C1409" t="inlineStr"/>
+      <c r="D1409" t="inlineStr"/>
+      <c r="E1409" t="inlineStr"/>
+      <c r="F1409" t="inlineStr"/>
+      <c r="G1409" t="inlineStr"/>
+      <c r="H1409" t="inlineStr"/>
+      <c r="I1409" t="inlineStr"/>
+    </row>
+    <row r="1410">
+      <c r="A1410" t="inlineStr">
+        <is>
+          <t>TotalReviews: 0</t>
+        </is>
+      </c>
+      <c r="B1410" t="inlineStr"/>
+      <c r="C1410" t="inlineStr"/>
+      <c r="D1410" t="inlineStr"/>
+      <c r="E1410" t="inlineStr"/>
+      <c r="F1410" t="inlineStr"/>
+      <c r="G1410" t="inlineStr"/>
+      <c r="H1410" t="inlineStr"/>
+      <c r="I1410" t="inlineStr"/>
+    </row>
+    <row r="1411">
+      <c r="A1411" t="inlineStr">
+        <is>
+          <t>Category: ['Modern Attractions']</t>
+        </is>
+      </c>
+      <c r="B1411" t="inlineStr"/>
+      <c r="C1411" t="inlineStr"/>
+      <c r="D1411" t="inlineStr"/>
+      <c r="E1411" t="inlineStr"/>
+      <c r="F1411" t="inlineStr"/>
+      <c r="G1411" t="inlineStr"/>
+      <c r="H1411" t="inlineStr"/>
+      <c r="I1411" t="inlineStr"/>
+    </row>
+    <row r="1412">
+      <c r="A1412" t="inlineStr">
+        <is>
+          <t>PRODUCTCODE: 199710P1</t>
+        </is>
+      </c>
+      <c r="B1412" t="inlineStr"/>
+      <c r="C1412" t="inlineStr"/>
+      <c r="D1412" t="inlineStr"/>
+      <c r="E1412" t="inlineStr"/>
+      <c r="F1412" t="inlineStr"/>
+      <c r="G1412" t="inlineStr"/>
+      <c r="H1412" t="inlineStr"/>
+      <c r="I1412" t="inlineStr"/>
+    </row>
+    <row r="1413">
+      <c r="A1413" t="inlineStr">
+        <is>
+          <t>Summarized description: Visit the Eiffel Tower with a priority access ticket. Enjoy access to the 1st and 2nd floors and the Top. Marvel at spectacular views of Paris.</t>
+        </is>
+      </c>
+      <c r="B1413" t="inlineStr"/>
+      <c r="C1413" t="inlineStr"/>
+      <c r="D1413" t="inlineStr"/>
+      <c r="E1413" t="inlineStr"/>
+      <c r="F1413" t="inlineStr"/>
+      <c r="G1413" t="inlineStr"/>
+      <c r="H1413" t="inlineStr"/>
+      <c r="I1413" t="inlineStr"/>
+    </row>
+    <row r="1414">
+      <c r="A1414" t="inlineStr">
+        <is>
+          <t>Title: Eiffel Tower Skip the Ticket Line with Summit Access</t>
+        </is>
+      </c>
+      <c r="B1414" t="inlineStr"/>
+      <c r="C1414" t="inlineStr"/>
+      <c r="D1414" t="inlineStr"/>
+      <c r="E1414" t="inlineStr"/>
+      <c r="F1414" t="inlineStr"/>
+      <c r="G1414" t="inlineStr"/>
+      <c r="H1414" t="inlineStr"/>
+      <c r="I1414" t="inlineStr"/>
+    </row>
+    <row r="1415">
+      <c r="A1415" t="inlineStr">
+        <is>
+          <t>TotalReviews: 0</t>
+        </is>
+      </c>
+      <c r="B1415" t="inlineStr"/>
+      <c r="C1415" t="inlineStr"/>
+      <c r="D1415" t="inlineStr"/>
+      <c r="E1415" t="inlineStr"/>
+      <c r="F1415" t="inlineStr"/>
+      <c r="G1415" t="inlineStr"/>
+      <c r="H1415" t="inlineStr"/>
+      <c r="I1415" t="inlineStr"/>
+    </row>
+    <row r="1416">
+      <c r="A1416" t="inlineStr">
+        <is>
+          <t>Category: ['Modern Attractions', 'City Tours']</t>
+        </is>
+      </c>
+      <c r="B1416" t="inlineStr"/>
+      <c r="C1416" t="inlineStr"/>
+      <c r="D1416" t="inlineStr"/>
+      <c r="E1416" t="inlineStr"/>
+      <c r="F1416" t="inlineStr"/>
+      <c r="G1416" t="inlineStr"/>
+      <c r="H1416" t="inlineStr"/>
+      <c r="I1416" t="inlineStr"/>
+    </row>
+    <row r="1417">
+      <c r="A1417" t="inlineStr">
+        <is>
+          <t>PRODUCTCODE: 423194P1</t>
+        </is>
+      </c>
+      <c r="B1417" t="inlineStr"/>
+      <c r="C1417" t="inlineStr"/>
+      <c r="D1417" t="inlineStr"/>
+      <c r="E1417" t="inlineStr"/>
+      <c r="F1417" t="inlineStr"/>
+      <c r="G1417" t="inlineStr"/>
+      <c r="H1417" t="inlineStr"/>
+      <c r="I1417" t="inlineStr"/>
+    </row>
+    <row r="1418">
+      <c r="A1418" t="inlineStr">
+        <is>
+          <t>Summarized description: Visit the Eiffel Tower with this entry ticket and marvel at spectacular views of Paris. Enjoy access to the 1st and 2nd floors by elevator. Hear the history and legends behind the Paris icon.</t>
+        </is>
+      </c>
+      <c r="B1418" t="inlineStr"/>
+      <c r="C1418" t="inlineStr"/>
+      <c r="D1418" t="inlineStr"/>
+      <c r="E1418" t="inlineStr"/>
+      <c r="F1418" t="inlineStr"/>
+      <c r="G1418" t="inlineStr"/>
+      <c r="H1418" t="inlineStr"/>
+      <c r="I1418" t="inlineStr"/>
+    </row>
+    <row r="1419">
+      <c r="A1419" t="inlineStr">
+        <is>
+          <t>Title: Eiffel Tower Elevator Guided Tour with Summit Access</t>
+        </is>
+      </c>
+      <c r="B1419" t="inlineStr"/>
+      <c r="C1419" t="inlineStr"/>
+      <c r="D1419" t="inlineStr"/>
+      <c r="E1419" t="inlineStr"/>
+      <c r="F1419" t="inlineStr"/>
+      <c r="G1419" t="inlineStr"/>
+      <c r="H1419" t="inlineStr"/>
+      <c r="I1419" t="inlineStr"/>
+    </row>
+    <row r="1420">
+      <c r="A1420" t="inlineStr">
+        <is>
+          <t>TotalReviews: 0</t>
+        </is>
+      </c>
+      <c r="B1420" t="inlineStr"/>
+      <c r="C1420" t="inlineStr"/>
+      <c r="D1420" t="inlineStr"/>
+      <c r="E1420" t="inlineStr"/>
+      <c r="F1420" t="inlineStr"/>
+      <c r="G1420" t="inlineStr"/>
+      <c r="H1420" t="inlineStr"/>
+      <c r="I1420" t="inlineStr"/>
+    </row>
+    <row r="1421">
+      <c r="A1421" t="inlineStr">
+        <is>
+          <t>Category: ['Modern Attractions']</t>
+        </is>
+      </c>
+      <c r="B1421" t="inlineStr"/>
+      <c r="C1421" t="inlineStr"/>
+      <c r="D1421" t="inlineStr"/>
+      <c r="E1421" t="inlineStr"/>
+      <c r="F1421" t="inlineStr"/>
+      <c r="G1421" t="inlineStr"/>
+      <c r="H1421" t="inlineStr"/>
+      <c r="I1421" t="inlineStr"/>
+    </row>
+    <row r="1422">
+      <c r="A1422" t="inlineStr">
+        <is>
+          <t>PRODUCTCODE: 112782P31</t>
+        </is>
+      </c>
+      <c r="B1422" t="inlineStr"/>
+      <c r="C1422" t="inlineStr"/>
+      <c r="D1422" t="inlineStr"/>
+      <c r="E1422" t="inlineStr"/>
+      <c r="F1422" t="inlineStr"/>
+      <c r="G1422" t="inlineStr"/>
+      <c r="H1422" t="inlineStr"/>
+      <c r="I1422" t="inlineStr"/>
+    </row>
+    <row r="1423">
+      <c r="A1423" t="inlineStr">
+        <is>
+          <t>Summarized description: The Eiffel Tower is known to be the symbol of the city of Paris. You will get to know all about the building itself and about the civil engineer who created it. The view over the city will take your breath away.</t>
+        </is>
+      </c>
+      <c r="B1423" t="inlineStr"/>
+      <c r="C1423" t="inlineStr"/>
+      <c r="D1423" t="inlineStr"/>
+      <c r="E1423" t="inlineStr"/>
+      <c r="F1423" t="inlineStr"/>
+      <c r="G1423" t="inlineStr"/>
+      <c r="H1423" t="inlineStr"/>
+      <c r="I1423" t="inlineStr"/>
+    </row>
+    <row r="1424">
+      <c r="A1424" t="inlineStr">
+        <is>
+          <t>Title: Paris: Eiffel Tower Guided Tour with Summit Access</t>
+        </is>
+      </c>
+      <c r="B1424" t="inlineStr"/>
+      <c r="C1424" t="inlineStr"/>
+      <c r="D1424" t="inlineStr"/>
+      <c r="E1424" t="inlineStr"/>
+      <c r="F1424" t="inlineStr"/>
+      <c r="G1424" t="inlineStr"/>
+      <c r="H1424" t="inlineStr"/>
+      <c r="I1424" t="inlineStr"/>
+    </row>
+    <row r="1425">
+      <c r="A1425" t="inlineStr">
+        <is>
+          <t>TotalReviews: 0</t>
+        </is>
+      </c>
+      <c r="B1425" t="inlineStr"/>
+      <c r="C1425" t="inlineStr"/>
+      <c r="D1425" t="inlineStr"/>
+      <c r="E1425" t="inlineStr"/>
+      <c r="F1425" t="inlineStr"/>
+      <c r="G1425" t="inlineStr"/>
+      <c r="H1425" t="inlineStr"/>
+      <c r="I1425" t="inlineStr"/>
+    </row>
+    <row r="1426">
+      <c r="A1426" t="inlineStr">
+        <is>
+          <t>Category: ['Scenic Tours', 'Modern Attractions']</t>
+        </is>
+      </c>
+      <c r="B1426" t="inlineStr"/>
+      <c r="C1426" t="inlineStr"/>
+      <c r="D1426" t="inlineStr"/>
+      <c r="E1426" t="inlineStr"/>
+      <c r="F1426" t="inlineStr"/>
+      <c r="G1426" t="inlineStr"/>
+      <c r="H1426" t="inlineStr"/>
+      <c r="I1426" t="inlineStr"/>
+    </row>
+    <row r="1427">
+      <c r="A1427" t="inlineStr">
+        <is>
+          <t>PRODUCTCODE: 396871P30</t>
+        </is>
+      </c>
+      <c r="B1427" t="inlineStr"/>
+      <c r="C1427" t="inlineStr"/>
+      <c r="D1427" t="inlineStr"/>
+      <c r="E1427" t="inlineStr"/>
+      <c r="F1427" t="inlineStr"/>
+      <c r="G1427" t="inlineStr"/>
+      <c r="H1427" t="inlineStr"/>
+      <c r="I1427" t="inlineStr"/>
+    </row>
+    <row r="1428">
+      <c r="A1428" t="inlineStr">
+        <is>
+          <t>Summarized description: Gain immediate access to the Eiffel Tower's Top Summit. Ascend to the highest viewing platform for breathtaking, panoramic views of Paris. Enjoy a comprehensive audio guide available in English.</t>
+        </is>
+      </c>
+      <c r="B1428" t="inlineStr"/>
+      <c r="C1428" t="inlineStr"/>
+      <c r="D1428" t="inlineStr"/>
+      <c r="E1428" t="inlineStr"/>
+      <c r="F1428" t="inlineStr"/>
+      <c r="G1428" t="inlineStr"/>
+      <c r="H1428" t="inlineStr"/>
+      <c r="I1428" t="inlineStr"/>
+    </row>
+    <row r="1429">
+      <c r="A1429" t="inlineStr">
+        <is>
+          <t>Title: Summit Eiffel Tower Top Floor Skip the line with Audio Guide Tour</t>
+        </is>
+      </c>
+      <c r="B1429" t="inlineStr"/>
+      <c r="C1429" t="inlineStr"/>
+      <c r="D1429" t="inlineStr"/>
+      <c r="E1429" t="inlineStr"/>
+      <c r="F1429" t="inlineStr"/>
+      <c r="G1429" t="inlineStr"/>
+      <c r="H1429" t="inlineStr"/>
+      <c r="I1429" t="inlineStr"/>
+    </row>
+    <row r="1430">
+      <c r="A1430" t="inlineStr">
+        <is>
+          <t>TotalReviews: 0</t>
+        </is>
+      </c>
+      <c r="B1430" t="inlineStr"/>
+      <c r="C1430" t="inlineStr"/>
+      <c r="D1430" t="inlineStr"/>
+      <c r="E1430" t="inlineStr"/>
+      <c r="F1430" t="inlineStr"/>
+      <c r="G1430" t="inlineStr"/>
+      <c r="H1430" t="inlineStr"/>
+      <c r="I1430" t="inlineStr"/>
+    </row>
+    <row r="1431">
+      <c r="A1431" t="inlineStr">
+        <is>
+          <t>Category: ['Modern Attractions', 'City Tours']</t>
+        </is>
+      </c>
+      <c r="B1431" t="inlineStr"/>
+      <c r="C1431" t="inlineStr"/>
+      <c r="D1431" t="inlineStr"/>
+      <c r="E1431" t="inlineStr"/>
+      <c r="F1431" t="inlineStr"/>
+      <c r="G1431" t="inlineStr"/>
+      <c r="H1431" t="inlineStr"/>
+      <c r="I1431" t="inlineStr"/>
+    </row>
+    <row r="1432">
+      <c r="A1432" t="inlineStr">
+        <is>
+          <t>PRODUCTCODE: 182119P6</t>
+        </is>
+      </c>
+      <c r="B1432" t="inlineStr"/>
+      <c r="C1432" t="inlineStr"/>
+      <c r="D1432" t="inlineStr"/>
+      <c r="E1432" t="inlineStr"/>
+      <c r="F1432" t="inlineStr"/>
+      <c r="G1432" t="inlineStr"/>
+      <c r="H1432" t="inlineStr"/>
+      <c r="I1432" t="inlineStr"/>
+    </row>
+    <row r="1433">
+      <c r="A1433" t="inlineStr">
+        <is>
+          <t>Summarized description:  Skip the lines at the Eiffel Tower and enter without the wait. Admire the city of Paris from its highest point. Spend as much time as you like exploring the tower.</t>
+        </is>
+      </c>
+      <c r="B1433" t="inlineStr"/>
+      <c r="C1433" t="inlineStr"/>
+      <c r="D1433" t="inlineStr"/>
+      <c r="E1433" t="inlineStr"/>
+      <c r="F1433" t="inlineStr"/>
+      <c r="G1433" t="inlineStr"/>
+      <c r="H1433" t="inlineStr"/>
+      <c r="I1433" t="inlineStr"/>
+    </row>
+    <row r="1434">
+      <c r="A1434" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Title: Eiffel Tower: Skip-the-Line Ticket with Summit Access </t>
+        </is>
+      </c>
+      <c r="B1434" t="inlineStr"/>
+      <c r="C1434" t="inlineStr"/>
+      <c r="D1434" t="inlineStr"/>
+      <c r="E1434" t="inlineStr"/>
+      <c r="F1434" t="inlineStr"/>
+      <c r="G1434" t="inlineStr"/>
+      <c r="H1434" t="inlineStr"/>
+      <c r="I1434" t="inlineStr"/>
+    </row>
+    <row r="1435">
+      <c r="A1435" t="inlineStr">
+        <is>
+          <t>TotalReviews: 0</t>
+        </is>
+      </c>
+      <c r="B1435" t="inlineStr"/>
+      <c r="C1435" t="inlineStr"/>
+      <c r="D1435" t="inlineStr"/>
+      <c r="E1435" t="inlineStr"/>
+      <c r="F1435" t="inlineStr"/>
+      <c r="G1435" t="inlineStr"/>
+      <c r="H1435" t="inlineStr"/>
+      <c r="I1435" t="inlineStr"/>
+    </row>
+    <row r="1436">
+      <c r="A1436" t="inlineStr">
+        <is>
+          <t>Category: ['Modern Attractions']</t>
+        </is>
+      </c>
+      <c r="B1436" t="inlineStr"/>
+      <c r="C1436" t="inlineStr"/>
+      <c r="D1436" t="inlineStr"/>
+      <c r="E1436" t="inlineStr"/>
+      <c r="F1436" t="inlineStr"/>
+      <c r="G1436" t="inlineStr"/>
+      <c r="H1436" t="inlineStr"/>
+      <c r="I1436" t="inlineStr"/>
+    </row>
+    <row r="1437">
+      <c r="A1437" t="inlineStr">
+        <is>
+          <t>PRODUCTCODE: 183842P4</t>
+        </is>
+      </c>
+      <c r="B1437" t="inlineStr"/>
+      <c r="C1437" t="inlineStr"/>
+      <c r="D1437" t="inlineStr"/>
+      <c r="E1437" t="inlineStr"/>
+      <c r="F1437" t="inlineStr"/>
+      <c r="G1437" t="inlineStr"/>
+      <c r="H1437" t="inlineStr"/>
+      <c r="I1437" t="inlineStr"/>
+    </row>
+    <row r="1438">
+      <c r="A1438" t="inlineStr">
+        <is>
+          <t>Summarized description: A unique experience, taking the elevator to the second floor and then the summit. Guided admission ticket to the Eiffel Tower. Enjoying panoramic view from both the summit and the first floor.</t>
+        </is>
+      </c>
+      <c r="B1438" t="inlineStr"/>
+      <c r="C1438" t="inlineStr"/>
+      <c r="D1438" t="inlineStr"/>
+      <c r="E1438" t="inlineStr"/>
+      <c r="F1438" t="inlineStr"/>
+      <c r="G1438" t="inlineStr"/>
+      <c r="H1438" t="inlineStr"/>
+      <c r="I1438" t="inlineStr"/>
+    </row>
+    <row r="1439">
+      <c r="A1439" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Title: Guided Eiffel Tower Tour by Elevator with professional guide </t>
+        </is>
+      </c>
+      <c r="B1439" t="inlineStr"/>
+      <c r="C1439" t="inlineStr"/>
+      <c r="D1439" t="inlineStr"/>
+      <c r="E1439" t="inlineStr"/>
+      <c r="F1439" t="inlineStr"/>
+      <c r="G1439" t="inlineStr"/>
+      <c r="H1439" t="inlineStr"/>
+      <c r="I1439" t="inlineStr"/>
+    </row>
+    <row r="1440">
+      <c r="A1440" t="inlineStr">
+        <is>
+          <t>TotalReviews: 0</t>
+        </is>
+      </c>
+      <c r="B1440" t="inlineStr"/>
+      <c r="C1440" t="inlineStr"/>
+      <c r="D1440" t="inlineStr"/>
+      <c r="E1440" t="inlineStr"/>
+      <c r="F1440" t="inlineStr"/>
+      <c r="G1440" t="inlineStr"/>
+      <c r="H1440" t="inlineStr"/>
+      <c r="I1440" t="inlineStr"/>
+    </row>
+    <row r="1441">
+      <c r="A1441" t="inlineStr">
+        <is>
+          <t>Category: ['Scenic Tours', 'Modern Attractions']</t>
+        </is>
+      </c>
+      <c r="B1441" t="inlineStr"/>
+      <c r="C1441" t="inlineStr"/>
+      <c r="D1441" t="inlineStr"/>
+      <c r="E1441" t="inlineStr"/>
+      <c r="F1441" t="inlineStr"/>
+      <c r="G1441" t="inlineStr"/>
+      <c r="H1441" t="inlineStr"/>
+      <c r="I1441" t="inlineStr"/>
+    </row>
+    <row r="1442">
+      <c r="A1442" t="inlineStr">
+        <is>
+          <t>PRODUCTCODE: 451031P1</t>
+        </is>
+      </c>
+      <c r="B1442" t="inlineStr"/>
+      <c r="C1442" t="inlineStr"/>
+      <c r="D1442" t="inlineStr"/>
+      <c r="E1442" t="inlineStr"/>
+      <c r="F1442" t="inlineStr"/>
+      <c r="G1442" t="inlineStr"/>
+      <c r="H1442" t="inlineStr"/>
+      <c r="I1442" t="inlineStr"/>
+    </row>
+    <row r="1443">
+      <c r="A1443" t="inlineStr">
+        <is>
+          <t>Summarized description:  Conquer the top of Eiffel Tower by elevator and enjoy the view like you've never seen it before. From the Sacré-Coeur to the Grand Palais showcases the beauty of Paris.</t>
+        </is>
+      </c>
+      <c r="B1443" t="inlineStr"/>
+      <c r="C1443" t="inlineStr"/>
+      <c r="D1443" t="inlineStr"/>
+      <c r="E1443" t="inlineStr"/>
+      <c r="F1443" t="inlineStr"/>
+      <c r="G1443" t="inlineStr"/>
+      <c r="H1443" t="inlineStr"/>
+      <c r="I1443" t="inlineStr"/>
+    </row>
+    <row r="1444">
+      <c r="A1444" t="inlineStr">
+        <is>
+          <t>Title: Paris Eiffel Tower Entry Ticket Summit Access</t>
+        </is>
+      </c>
+      <c r="B1444" t="inlineStr"/>
+      <c r="C1444" t="inlineStr"/>
+      <c r="D1444" t="inlineStr"/>
+      <c r="E1444" t="inlineStr"/>
+      <c r="F1444" t="inlineStr"/>
+      <c r="G1444" t="inlineStr"/>
+      <c r="H1444" t="inlineStr"/>
+      <c r="I1444" t="inlineStr"/>
+    </row>
+    <row r="1445">
+      <c r="A1445" t="inlineStr">
+        <is>
+          <t>TotalReviews: 0</t>
+        </is>
+      </c>
+      <c r="B1445" t="inlineStr"/>
+      <c r="C1445" t="inlineStr"/>
+      <c r="D1445" t="inlineStr"/>
+      <c r="E1445" t="inlineStr"/>
+      <c r="F1445" t="inlineStr"/>
+      <c r="G1445" t="inlineStr"/>
+      <c r="H1445" t="inlineStr"/>
+      <c r="I1445" t="inlineStr"/>
+    </row>
+    <row r="1446">
+      <c r="A1446" t="inlineStr">
+        <is>
+          <t>Category: ['Modern Attractions', 'Museums']</t>
+        </is>
+      </c>
+      <c r="B1446" t="inlineStr"/>
+      <c r="C1446" t="inlineStr"/>
+      <c r="D1446" t="inlineStr"/>
+      <c r="E1446" t="inlineStr"/>
+      <c r="F1446" t="inlineStr"/>
+      <c r="G1446" t="inlineStr"/>
+      <c r="H1446" t="inlineStr"/>
+      <c r="I1446" t="inlineStr"/>
+    </row>
+    <row r="1447">
+      <c r="A1447" t="inlineStr">
+        <is>
+          <t>PRODUCTCODE: 125051P3</t>
+        </is>
+      </c>
+      <c r="B1447" t="inlineStr"/>
+      <c r="C1447" t="inlineStr"/>
+      <c r="D1447" t="inlineStr"/>
+      <c r="E1447" t="inlineStr"/>
+      <c r="F1447" t="inlineStr"/>
+      <c r="G1447" t="inlineStr"/>
+      <c r="H1447" t="inlineStr"/>
+      <c r="I1447" t="inlineStr"/>
+    </row>
+    <row r="1448">
+      <c r="A1448" t="inlineStr">
+        <is>
+          <t>Summarized description: Take an insider's tour of the summit with a guide. Get unparalleled views of Parisian landmarks like Montmartre, the Louvre Museum and more. Get the lowdown on how and why the tower was built.</t>
+        </is>
+      </c>
+      <c r="B1448" t="inlineStr"/>
+      <c r="C1448" t="inlineStr"/>
+      <c r="D1448" t="inlineStr"/>
+      <c r="E1448" t="inlineStr"/>
+      <c r="F1448" t="inlineStr"/>
+      <c r="G1448" t="inlineStr"/>
+      <c r="H1448" t="inlineStr"/>
+      <c r="I1448" t="inlineStr"/>
+    </row>
+    <row r="1449">
+      <c r="A1449" t="inlineStr">
+        <is>
+          <t>Title: Tickets for Eiffel Tower - Summit: Guided Visit</t>
+        </is>
+      </c>
+      <c r="B1449" t="inlineStr"/>
+      <c r="C1449" t="inlineStr"/>
+      <c r="D1449" t="inlineStr"/>
+      <c r="E1449" t="inlineStr"/>
+      <c r="F1449" t="inlineStr"/>
+      <c r="G1449" t="inlineStr"/>
+      <c r="H1449" t="inlineStr"/>
+      <c r="I1449" t="inlineStr"/>
+    </row>
+    <row r="1450">
+      <c r="A1450" t="inlineStr">
+        <is>
+          <t>TotalReviews: 0</t>
+        </is>
+      </c>
+      <c r="B1450" t="inlineStr"/>
+      <c r="C1450" t="inlineStr"/>
+      <c r="D1450" t="inlineStr"/>
+      <c r="E1450" t="inlineStr"/>
+      <c r="F1450" t="inlineStr"/>
+      <c r="G1450" t="inlineStr"/>
+      <c r="H1450" t="inlineStr"/>
+      <c r="I1450" t="inlineStr"/>
+    </row>
+    <row r="1451">
+      <c r="A1451" t="inlineStr">
+        <is>
+          <t>Category: ['Scenic Tours', 'Historical Tours', 'Cultural Tours']</t>
+        </is>
+      </c>
+      <c r="B1451" t="inlineStr"/>
+      <c r="C1451" t="inlineStr"/>
+      <c r="D1451" t="inlineStr"/>
+      <c r="E1451" t="inlineStr"/>
+      <c r="F1451" t="inlineStr"/>
+      <c r="G1451" t="inlineStr"/>
+      <c r="H1451" t="inlineStr"/>
+      <c r="I1451" t="inlineStr"/>
+    </row>
+    <row r="1452">
+      <c r="A1452" t="inlineStr">
+        <is>
+          <t>PRODUCTCODE: 248877P31</t>
+        </is>
+      </c>
+      <c r="B1452" t="inlineStr"/>
+      <c r="C1452" t="inlineStr"/>
+      <c r="D1452" t="inlineStr"/>
+      <c r="E1452" t="inlineStr"/>
+      <c r="F1452" t="inlineStr"/>
+      <c r="G1452" t="inlineStr"/>
+      <c r="H1452" t="inlineStr"/>
+      <c r="I1452" t="inlineStr"/>
+    </row>
+    <row r="1453">
+      <c r="A1453" t="inlineStr">
+        <is>
+          <t>Summarized description: Visit the Eiffel Tower with a priority-access ticket. Enjoy access to the 1st and 2nd floors and the Summit by elevator. Marvel at spectacular views of Paris.</t>
+        </is>
+      </c>
+      <c r="B1453" t="inlineStr"/>
+      <c r="C1453" t="inlineStr"/>
+      <c r="D1453" t="inlineStr"/>
+      <c r="E1453" t="inlineStr"/>
+      <c r="F1453" t="inlineStr"/>
+      <c r="G1453" t="inlineStr"/>
+      <c r="H1453" t="inlineStr"/>
+      <c r="I1453" t="inlineStr"/>
+    </row>
+    <row r="1454">
+      <c r="A1454" t="inlineStr">
+        <is>
+          <t>Title: Paris Essentials : Eiffel Tower Skip the Line with Summit Access</t>
+        </is>
+      </c>
+      <c r="B1454" t="inlineStr"/>
+      <c r="C1454" t="inlineStr"/>
+      <c r="D1454" t="inlineStr"/>
+      <c r="E1454" t="inlineStr"/>
+      <c r="F1454" t="inlineStr"/>
+      <c r="G1454" t="inlineStr"/>
+      <c r="H1454" t="inlineStr"/>
+      <c r="I1454" t="inlineStr"/>
+    </row>
+    <row r="1455">
+      <c r="A1455" t="inlineStr">
+        <is>
+          <t>TotalReviews: 0</t>
+        </is>
+      </c>
+      <c r="B1455" t="inlineStr"/>
+      <c r="C1455" t="inlineStr"/>
+      <c r="D1455" t="inlineStr"/>
+      <c r="E1455" t="inlineStr"/>
+      <c r="F1455" t="inlineStr"/>
+      <c r="G1455" t="inlineStr"/>
+      <c r="H1455" t="inlineStr"/>
+      <c r="I1455" t="inlineStr"/>
+    </row>
+    <row r="1456">
+      <c r="A1456" t="inlineStr">
+        <is>
+          <t>Category: ['Scenic Tours', 'Modern Attractions']</t>
+        </is>
+      </c>
+      <c r="B1456" t="inlineStr"/>
+      <c r="C1456" t="inlineStr"/>
+      <c r="D1456" t="inlineStr"/>
+      <c r="E1456" t="inlineStr"/>
+      <c r="F1456" t="inlineStr"/>
+      <c r="G1456" t="inlineStr"/>
+      <c r="H1456" t="inlineStr"/>
+      <c r="I1456" t="inlineStr"/>
+    </row>
+    <row r="1457">
+      <c r="A1457" t="inlineStr">
+        <is>
+          <t>PRODUCTCODE: 197814P1</t>
+        </is>
+      </c>
+      <c r="B1457" t="inlineStr"/>
+      <c r="C1457" t="inlineStr"/>
+      <c r="D1457" t="inlineStr"/>
+      <c r="E1457" t="inlineStr"/>
+      <c r="F1457" t="inlineStr"/>
+      <c r="G1457" t="inlineStr"/>
+      <c r="H1457" t="inlineStr"/>
+      <c r="I1457" t="inlineStr"/>
+    </row>
+    <row r="1458">
+      <c r="A1458" t="inlineStr">
+        <is>
+          <t>Summarized description: Learn history of Gustave Eiffel and the tower's construction. See Paris from 300 meters high for a tour from the sky. Toast your arrival at the top at the famous champagne bar.</t>
+        </is>
+      </c>
+      <c r="B1458" t="inlineStr"/>
+      <c r="C1458" t="inlineStr"/>
+      <c r="D1458" t="inlineStr"/>
+      <c r="E1458" t="inlineStr"/>
+      <c r="F1458" t="inlineStr"/>
+      <c r="G1458" t="inlineStr"/>
+      <c r="H1458" t="inlineStr"/>
+      <c r="I1458" t="inlineStr"/>
+    </row>
+    <row r="1459">
+      <c r="A1459" t="inlineStr">
+        <is>
+          <t>Title: Eiffel Tower Tour with Summit Option</t>
+        </is>
+      </c>
+      <c r="B1459" t="inlineStr"/>
+      <c r="C1459" t="inlineStr"/>
+      <c r="D1459" t="inlineStr"/>
+      <c r="E1459" t="inlineStr"/>
+      <c r="F1459" t="inlineStr"/>
+      <c r="G1459" t="inlineStr"/>
+      <c r="H1459" t="inlineStr"/>
+      <c r="I1459" t="inlineStr"/>
+    </row>
+    <row r="1460">
+      <c r="A1460" t="inlineStr">
+        <is>
+          <t>TotalReviews: 0</t>
+        </is>
+      </c>
+      <c r="B1460" t="inlineStr"/>
+      <c r="C1460" t="inlineStr"/>
+      <c r="D1460" t="inlineStr"/>
+      <c r="E1460" t="inlineStr"/>
+      <c r="F1460" t="inlineStr"/>
+      <c r="G1460" t="inlineStr"/>
+      <c r="H1460" t="inlineStr"/>
+      <c r="I1460" t="inlineStr"/>
+    </row>
+    <row r="1461">
+      <c r="A1461" t="inlineStr">
+        <is>
+          <t>Category: ['Modern Attractions', 'Cultural Tours']</t>
+        </is>
+      </c>
+      <c r="B1461" t="inlineStr"/>
+      <c r="C1461" t="inlineStr"/>
+      <c r="D1461" t="inlineStr"/>
+      <c r="E1461" t="inlineStr"/>
+      <c r="F1461" t="inlineStr"/>
+      <c r="G1461" t="inlineStr"/>
+      <c r="H1461" t="inlineStr"/>
+      <c r="I1461" t="inlineStr"/>
+    </row>
+    <row r="1462">
+      <c r="A1462" t="inlineStr">
+        <is>
+          <t>PRODUCTCODE: 7832P167</t>
+        </is>
+      </c>
+      <c r="B1462" t="inlineStr"/>
+      <c r="C1462" t="inlineStr"/>
+      <c r="D1462" t="inlineStr"/>
+      <c r="E1462" t="inlineStr"/>
+      <c r="F1462" t="inlineStr"/>
+      <c r="G1462" t="inlineStr"/>
+      <c r="H1462" t="inlineStr"/>
+      <c r="I1462" t="inlineStr"/>
+    </row>
+    <row r="1463">
+      <c r="A1463" t="inlineStr">
+        <is>
+          <t>Summarized description: The Eiffel Tower is the highest place in Paris and the view from there is breathtaking. Avoid any hassle to purchase the summit acces pass with this prepaid ticket. Get the entrance for the Elevators without waiting in ticket line to buy.</t>
+        </is>
+      </c>
+      <c r="B1463" t="inlineStr"/>
+      <c r="C1463" t="inlineStr"/>
+      <c r="D1463" t="inlineStr"/>
+      <c r="E1463" t="inlineStr"/>
+      <c r="F1463" t="inlineStr"/>
+      <c r="G1463" t="inlineStr"/>
+      <c r="H1463" t="inlineStr"/>
+      <c r="I1463" t="inlineStr"/>
+    </row>
+    <row r="1464">
+      <c r="A1464" t="inlineStr">
+        <is>
+          <t>Title: Eiffel Tower Skip-the-Ticket-line Summit Entrance - Group option</t>
+        </is>
+      </c>
+      <c r="B1464" t="inlineStr"/>
+      <c r="C1464" t="inlineStr"/>
+      <c r="D1464" t="inlineStr"/>
+      <c r="E1464" t="inlineStr"/>
+      <c r="F1464" t="inlineStr"/>
+      <c r="G1464" t="inlineStr"/>
+      <c r="H1464" t="inlineStr"/>
+      <c r="I1464" t="inlineStr"/>
+    </row>
+    <row r="1465">
+      <c r="A1465" t="inlineStr">
+        <is>
+          <t>TotalReviews: 0</t>
+        </is>
+      </c>
+      <c r="B1465" t="inlineStr"/>
+      <c r="C1465" t="inlineStr"/>
+      <c r="D1465" t="inlineStr"/>
+      <c r="E1465" t="inlineStr"/>
+      <c r="F1465" t="inlineStr"/>
+      <c r="G1465" t="inlineStr"/>
+      <c r="H1465" t="inlineStr"/>
+      <c r="I1465" t="inlineStr"/>
+    </row>
+    <row r="1466">
+      <c r="A1466" t="inlineStr">
+        <is>
+          <t>Category: ['Modern Attractions']</t>
+        </is>
+      </c>
+      <c r="B1466" t="inlineStr"/>
+      <c r="C1466" t="inlineStr"/>
+      <c r="D1466" t="inlineStr"/>
+      <c r="E1466" t="inlineStr"/>
+      <c r="F1466" t="inlineStr"/>
+      <c r="G1466" t="inlineStr"/>
+      <c r="H1466" t="inlineStr"/>
+      <c r="I1466" t="inlineStr"/>
+    </row>
+    <row r="1467">
+      <c r="A1467" t="inlineStr">
+        <is>
+          <t>PRODUCTCODE: 330121P5</t>
+        </is>
+      </c>
+      <c r="B1467" t="inlineStr"/>
+      <c r="C1467" t="inlineStr"/>
+      <c r="D1467" t="inlineStr"/>
+      <c r="E1467" t="inlineStr"/>
+      <c r="F1467" t="inlineStr"/>
+      <c r="G1467" t="inlineStr"/>
+      <c r="H1467" t="inlineStr"/>
+      <c r="I1467" t="inlineStr"/>
+    </row>
+    <row r="1468">
+      <c r="A1468" t="inlineStr">
+        <is>
+          <t>Summarized description: Eiffel is a symbol of love for many couples from all over the world. Thousands of marriage proposal made under the beautiful tower every year. Take advantage of direct access to the Champs de Mars.</t>
+        </is>
+      </c>
+      <c r="B1468" t="inlineStr"/>
+      <c r="C1468" t="inlineStr"/>
+      <c r="D1468" t="inlineStr"/>
+      <c r="E1468" t="inlineStr"/>
+      <c r="F1468" t="inlineStr"/>
+      <c r="G1468" t="inlineStr"/>
+      <c r="H1468" t="inlineStr"/>
+      <c r="I1468" t="inlineStr"/>
+    </row>
+    <row r="1469">
+      <c r="A1469" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Title: Eiffel Tower Complete Guided Tour:Exclusive Direct Access 2nd Level and Summit </t>
+        </is>
+      </c>
+      <c r="B1469" t="inlineStr"/>
+      <c r="C1469" t="inlineStr"/>
+      <c r="D1469" t="inlineStr"/>
+      <c r="E1469" t="inlineStr"/>
+      <c r="F1469" t="inlineStr"/>
+      <c r="G1469" t="inlineStr"/>
+      <c r="H1469" t="inlineStr"/>
+      <c r="I1469" t="inlineStr"/>
+    </row>
+    <row r="1470">
+      <c r="A1470" t="inlineStr">
+        <is>
+          <t>TotalReviews: 0</t>
+        </is>
+      </c>
+      <c r="B1470" t="inlineStr"/>
+      <c r="C1470" t="inlineStr"/>
+      <c r="D1470" t="inlineStr"/>
+      <c r="E1470" t="inlineStr"/>
+      <c r="F1470" t="inlineStr"/>
+      <c r="G1470" t="inlineStr"/>
+      <c r="H1470" t="inlineStr"/>
+      <c r="I1470" t="inlineStr"/>
+    </row>
+    <row r="1471">
+      <c r="A1471" t="inlineStr">
+        <is>
+          <t>Category: ['City Tours']</t>
+        </is>
+      </c>
+      <c r="B1471" t="inlineStr"/>
+      <c r="C1471" t="inlineStr"/>
+      <c r="D1471" t="inlineStr"/>
+      <c r="E1471" t="inlineStr"/>
+      <c r="F1471" t="inlineStr"/>
+      <c r="G1471" t="inlineStr"/>
+      <c r="H1471" t="inlineStr"/>
+      <c r="I1471" t="inlineStr"/>
+    </row>
+    <row r="1472">
+      <c r="A1472" t="inlineStr">
+        <is>
+          <t>PRODUCTCODE: 445693P14</t>
+        </is>
+      </c>
+      <c r="B1472" t="inlineStr"/>
+      <c r="C1472" t="inlineStr"/>
+      <c r="D1472" t="inlineStr"/>
+      <c r="E1472" t="inlineStr"/>
+      <c r="F1472" t="inlineStr"/>
+      <c r="G1472" t="inlineStr"/>
+      <c r="H1472" t="inlineStr"/>
+      <c r="I1472" t="inlineStr"/>
+    </row>
+    <row r="1473">
+      <c r="A1473" t="inlineStr">
+        <is>
+          <t>Summarized description: Take a tour of the famous Eiffel Tower and admire the city from above. Enjoy a 2-hour guided tour in English of the tower to learn all about the origins and secrets of the construction.</t>
+        </is>
+      </c>
+      <c r="B1473" t="inlineStr"/>
+      <c r="C1473" t="inlineStr"/>
+      <c r="D1473" t="inlineStr"/>
+      <c r="E1473" t="inlineStr"/>
+      <c r="F1473" t="inlineStr"/>
+      <c r="G1473" t="inlineStr"/>
+      <c r="H1473" t="inlineStr"/>
+      <c r="I1473" t="inlineStr"/>
+    </row>
+    <row r="1474">
+      <c r="A1474" t="inlineStr">
+        <is>
+          <t>Title: 2 hours Guided Tour of the Eiffel Tower with Summit Access</t>
+        </is>
+      </c>
+      <c r="B1474" t="inlineStr"/>
+      <c r="C1474" t="inlineStr"/>
+      <c r="D1474" t="inlineStr"/>
+      <c r="E1474" t="inlineStr"/>
+      <c r="F1474" t="inlineStr"/>
+      <c r="G1474" t="inlineStr"/>
+      <c r="H1474" t="inlineStr"/>
+      <c r="I1474" t="inlineStr"/>
+    </row>
+    <row r="1475">
+      <c r="A1475" t="inlineStr">
+        <is>
+          <t>TotalReviews: 0</t>
+        </is>
+      </c>
+      <c r="B1475" t="inlineStr"/>
+      <c r="C1475" t="inlineStr"/>
+      <c r="D1475" t="inlineStr"/>
+      <c r="E1475" t="inlineStr"/>
+      <c r="F1475" t="inlineStr"/>
+      <c r="G1475" t="inlineStr"/>
+      <c r="H1475" t="inlineStr"/>
+      <c r="I1475" t="inlineStr"/>
+    </row>
+    <row r="1476">
+      <c r="A1476" t="inlineStr">
+        <is>
+          <t>Category: ['Modern Attractions']</t>
+        </is>
+      </c>
+      <c r="B1476" t="inlineStr"/>
+      <c r="C1476" t="inlineStr"/>
+      <c r="D1476" t="inlineStr"/>
+      <c r="E1476" t="inlineStr"/>
+      <c r="F1476" t="inlineStr"/>
+      <c r="G1476" t="inlineStr"/>
+      <c r="H1476" t="inlineStr"/>
+      <c r="I1476" t="inlineStr"/>
+    </row>
+    <row r="1477">
+      <c r="A1477" t="inlineStr">
+        <is>
+          <t>PRODUCTCODE: 5717P11</t>
+        </is>
+      </c>
+      <c r="B1477" t="inlineStr"/>
+      <c r="C1477" t="inlineStr"/>
+      <c r="D1477" t="inlineStr"/>
+      <c r="E1477" t="inlineStr"/>
+      <c r="F1477" t="inlineStr"/>
+      <c r="G1477" t="inlineStr"/>
+      <c r="H1477" t="inlineStr"/>
+      <c r="I1477" t="inlineStr"/>
+    </row>
+    <row r="1478">
+      <c r="A1478" t="inlineStr">
+        <is>
+          <t>Summarized description: Discover a new side of the Eiffel Tower and her secrets. Enjoy a 90-minute guided tour to discover a newside of the tower and its secrets.</t>
+        </is>
+      </c>
+      <c r="B1478" t="inlineStr"/>
+      <c r="C1478" t="inlineStr"/>
+      <c r="D1478" t="inlineStr"/>
+      <c r="E1478" t="inlineStr"/>
+      <c r="F1478" t="inlineStr"/>
+      <c r="G1478" t="inlineStr"/>
+      <c r="H1478" t="inlineStr"/>
+      <c r="I1478" t="inlineStr"/>
+    </row>
+    <row r="1479">
+      <c r="A1479" t="inlineStr">
+        <is>
+          <t>Title: Eiffel Tower Skip the Line Guided Tour to the 2nd floor</t>
+        </is>
+      </c>
+      <c r="B1479" t="inlineStr"/>
+      <c r="C1479" t="inlineStr"/>
+      <c r="D1479" t="inlineStr"/>
+      <c r="E1479" t="inlineStr"/>
+      <c r="F1479" t="inlineStr"/>
+      <c r="G1479" t="inlineStr"/>
+      <c r="H1479" t="inlineStr"/>
+      <c r="I1479" t="inlineStr"/>
+    </row>
+    <row r="1480">
+      <c r="A1480" t="inlineStr">
+        <is>
+          <t>TotalReviews: 0</t>
+        </is>
+      </c>
+      <c r="B1480" t="inlineStr"/>
+      <c r="C1480" t="inlineStr"/>
+      <c r="D1480" t="inlineStr"/>
+      <c r="E1480" t="inlineStr"/>
+      <c r="F1480" t="inlineStr"/>
+      <c r="G1480" t="inlineStr"/>
+      <c r="H1480" t="inlineStr"/>
+      <c r="I1480" t="inlineStr"/>
+    </row>
+    <row r="1481">
+      <c r="A1481" t="inlineStr">
+        <is>
+          <t>Category: ['Historical Tours', 'Modern Attractions']</t>
+        </is>
+      </c>
+      <c r="B1481" t="inlineStr"/>
+      <c r="C1481" t="inlineStr"/>
+      <c r="D1481" t="inlineStr"/>
+      <c r="E1481" t="inlineStr"/>
+      <c r="F1481" t="inlineStr"/>
+      <c r="G1481" t="inlineStr"/>
+      <c r="H1481" t="inlineStr"/>
+      <c r="I1481" t="inlineStr"/>
+    </row>
+    <row r="1482">
+      <c r="A1482" t="inlineStr">
+        <is>
+          <t>PRODUCTCODE: 226089P1</t>
+        </is>
+      </c>
+      <c r="B1482" t="inlineStr"/>
+      <c r="C1482" t="inlineStr"/>
+      <c r="D1482" t="inlineStr"/>
+      <c r="E1482" t="inlineStr"/>
+      <c r="F1482" t="inlineStr"/>
+      <c r="G1482" t="inlineStr"/>
+      <c r="H1482" t="inlineStr"/>
+      <c r="I1482" t="inlineStr"/>
+    </row>
+    <row r="1483">
+      <c r="A1483" t="inlineStr">
+        <is>
+          <t>Summarized description: Explore the stunning views of Gustave Eiffel's most famous creation from top to bottom. Our skip the lines access will send you to the 2nd-floor observation deck right away.</t>
+        </is>
+      </c>
+      <c r="B1483" t="inlineStr"/>
+      <c r="C1483" t="inlineStr"/>
+      <c r="D1483" t="inlineStr"/>
+      <c r="E1483" t="inlineStr"/>
+      <c r="F1483" t="inlineStr"/>
+      <c r="G1483" t="inlineStr"/>
+      <c r="H1483" t="inlineStr"/>
+      <c r="I1483" t="inlineStr"/>
+    </row>
+    <row r="1484">
+      <c r="A1484" t="inlineStr">
+        <is>
+          <t>Title: Skip-the-line access: Guided Eiffel Tower Tour with Optional Summit Access</t>
+        </is>
+      </c>
+      <c r="B1484" t="inlineStr"/>
+      <c r="C1484" t="inlineStr"/>
+      <c r="D1484" t="inlineStr"/>
+      <c r="E1484" t="inlineStr"/>
+      <c r="F1484" t="inlineStr"/>
+      <c r="G1484" t="inlineStr"/>
+      <c r="H1484" t="inlineStr"/>
+      <c r="I1484" t="inlineStr"/>
+    </row>
+    <row r="1485">
+      <c r="A1485" t="inlineStr">
+        <is>
+          <t>TotalReviews: 0</t>
+        </is>
+      </c>
+      <c r="B1485" t="inlineStr"/>
+      <c r="C1485" t="inlineStr"/>
+      <c r="D1485" t="inlineStr"/>
+      <c r="E1485" t="inlineStr"/>
+      <c r="F1485" t="inlineStr"/>
+      <c r="G1485" t="inlineStr"/>
+      <c r="H1485" t="inlineStr"/>
+      <c r="I1485" t="inlineStr"/>
+    </row>
+    <row r="1486">
+      <c r="A1486" t="inlineStr">
+        <is>
+          <t>Category: ['Scenic Tours', 'Modern Attractions']</t>
+        </is>
+      </c>
+      <c r="B1486" t="inlineStr"/>
+      <c r="C1486" t="inlineStr"/>
+      <c r="D1486" t="inlineStr"/>
+      <c r="E1486" t="inlineStr"/>
+      <c r="F1486" t="inlineStr"/>
+      <c r="G1486" t="inlineStr"/>
+      <c r="H1486" t="inlineStr"/>
+      <c r="I1486" t="inlineStr"/>
+    </row>
+    <row r="1487">
+      <c r="A1487" t="inlineStr">
+        <is>
+          <t>*****</t>
+        </is>
+      </c>
+      <c r="B1487" t="inlineStr"/>
+      <c r="C1487" t="inlineStr"/>
+      <c r="D1487" t="inlineStr"/>
+      <c r="E1487" t="inlineStr"/>
+      <c r="F1487" t="inlineStr"/>
+      <c r="G1487" t="inlineStr"/>
+      <c r="H1487" t="inlineStr"/>
+      <c r="I1487" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
